--- a/Lifetime_SRH.xlsx
+++ b/Lifetime_SRH.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Carrier Density (cm^-3) Intrinseco</t>
   </si>
   <si>
-    <t>Lifetime (us) Intrinseco</t>
+    <t>Lifetime (s) Intrinseco</t>
+  </si>
+  <si>
+    <t>eff - intrinseco</t>
   </si>
   <si>
     <t>lifetime SRH</t>
@@ -383,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,4204 +405,5090 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>2.029498807102842E+16</v>
+        <v>1.883143759659196E+16</v>
       </c>
       <c r="B2">
-        <v>0.001344621616374755</v>
+        <v>0.001531987976941237</v>
       </c>
       <c r="C2">
-        <v>9584337095.917849</v>
+        <v>7369269903.961091</v>
       </c>
       <c r="D2">
-        <v>1.136694334900004E+17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.356988479866629E-10</v>
+      </c>
+      <c r="E2">
+        <v>1.058572218673253E+17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>1.883143759659196E+16</v>
+        <v>1.735300191366612E+16</v>
       </c>
       <c r="B3">
-        <v>0.001531987976941237</v>
+        <v>0.001764908200004033</v>
       </c>
       <c r="C3">
-        <v>9265087187.31937</v>
+        <v>7907347056.311152</v>
       </c>
       <c r="D3">
-        <v>1.058572218673253E+17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1.264648221202727E-10</v>
+      </c>
+      <c r="E3">
+        <v>9.796555524750619E+16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>1.735300191366612E+16</v>
+        <v>1.594216199176305E+16</v>
       </c>
       <c r="B4">
-        <v>0.001764908200004033</v>
+        <v>0.002041625370809205</v>
       </c>
       <c r="C4">
-        <v>9247855747.652615</v>
+        <v>8082641374.953927</v>
       </c>
       <c r="D4">
-        <v>9.796555524750619E+16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1.237220696164541E-10</v>
+      </c>
+      <c r="E4">
+        <v>9.043470460166906E+16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>1.594216199176305E+16</v>
+        <v>1.465418155447296E+16</v>
       </c>
       <c r="B5">
-        <v>0.002041625370809205</v>
+        <v>0.002356594429237329</v>
       </c>
       <c r="C5">
-        <v>9054954390.595665</v>
+        <v>8037351686.139011</v>
       </c>
       <c r="D5">
-        <v>9.043470460166906E+16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.244192214914957E-10</v>
+      </c>
+      <c r="E5">
+        <v>8.355965934854926E+16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>1.465418155447296E+16</v>
+        <v>1.348567375152574E+16</v>
       </c>
       <c r="B6">
-        <v>0.002356594429237329</v>
+        <v>0.002711433772511547</v>
       </c>
       <c r="C6">
-        <v>8758839792.723577</v>
+        <v>7959540240.46099</v>
       </c>
       <c r="D6">
-        <v>8.355965934854926E+16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1.256355192929246E-10</v>
+      </c>
+      <c r="E6">
+        <v>7.732234099238821E+16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>1.348567375152574E+16</v>
+        <v>1.242433198390352E+16</v>
       </c>
       <c r="B7">
-        <v>0.002711433772511547</v>
+        <v>0.003109727172681688</v>
       </c>
       <c r="C7">
-        <v>8507391469.582203</v>
+        <v>7877869810.583384</v>
       </c>
       <c r="D7">
-        <v>7.732234099238821E+16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1.269379836992003E-10</v>
+      </c>
+      <c r="E7">
+        <v>7.16570587643589E+16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>1.242433198390352E+16</v>
+        <v>1.145989746170802E+16</v>
       </c>
       <c r="B8">
-        <v>0.003109727172681688</v>
+        <v>0.003554818872375335</v>
       </c>
       <c r="C8">
-        <v>8300735372.83714</v>
+        <v>7670933541.669218</v>
       </c>
       <c r="D8">
-        <v>7.16570587643589E+16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1.30362342679088E-10</v>
+      </c>
+      <c r="E8">
+        <v>6.650905279175603E+16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>1.145989746170802E+16</v>
+        <v>1.061016785146037E+16</v>
       </c>
       <c r="B9">
-        <v>0.003554818872375335</v>
+        <v>0.004033138937071484</v>
       </c>
       <c r="C9">
-        <v>8003654449.505208</v>
+        <v>7389685580.419518</v>
       </c>
       <c r="D9">
-        <v>6.650905279175603E+16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1.353238683519506E-10</v>
+      </c>
+      <c r="E9">
+        <v>6.197332433328666E+16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>1.061016785146037E+16</v>
+        <v>9845525217272062</v>
       </c>
       <c r="B10">
-        <v>0.004033138937071484</v>
+        <v>0.004553205421817856</v>
       </c>
       <c r="C10">
-        <v>7659368963.579312</v>
+        <v>7259579952.745668</v>
       </c>
       <c r="D10">
-        <v>6.197332433328666E+16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1.377491265284519E-10</v>
+      </c>
+      <c r="E10">
+        <v>5.789177731571705E+16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>9845525217272062</v>
+        <v>9142383721148630</v>
       </c>
       <c r="B11">
-        <v>0.004553205421817856</v>
+        <v>0.005127846437628622</v>
       </c>
       <c r="C11">
-        <v>7485818470.908678</v>
+        <v>7085654055.500353</v>
       </c>
       <c r="D11">
-        <v>5.789177731571705E+16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1.411303397295302E-10</v>
+      </c>
+      <c r="E11">
+        <v>5.413851409429267E+16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>9142383721148630</v>
+        <v>8518170395694137</v>
       </c>
       <c r="B12">
-        <v>0.005127846437628622</v>
+        <v>0.005736596006080384</v>
       </c>
       <c r="C12">
-        <v>7277529744.300896</v>
+        <v>6783307826.576297</v>
       </c>
       <c r="D12">
-        <v>5.413851409429267E+16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1.474208121702068E-10</v>
+      </c>
+      <c r="E12">
+        <v>5.08065575397899E+16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>8518170395694137</v>
+        <v>7960166946067989</v>
       </c>
       <c r="B13">
-        <v>0.005736596006080384</v>
+        <v>0.006379803184124331</v>
       </c>
       <c r="C13">
-        <v>6947509364.226181</v>
+        <v>6570689637.861555</v>
       </c>
       <c r="D13">
-        <v>5.08065575397899E+16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>1.521911371582477E-10</v>
+      </c>
+      <c r="E13">
+        <v>4.782801931319361E+16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
-        <v>7960166946067989</v>
+        <v>7449603852749927</v>
       </c>
       <c r="B14">
-        <v>0.006379803184124331</v>
+        <v>0.007070509174729945</v>
       </c>
       <c r="C14">
-        <v>6709947755.019995</v>
+        <v>6459053220.828886</v>
       </c>
       <c r="D14">
-        <v>4.782801931319361E+16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>1.548215603894456E-10</v>
+      </c>
+      <c r="E14">
+        <v>4.510271055111345E+16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>7449603852749927</v>
+        <v>6978683385287186</v>
       </c>
       <c r="B15">
-        <v>0.007070509174729945</v>
+        <v>0.007814722736871447</v>
       </c>
       <c r="C15">
-        <v>6576025984.950526</v>
+        <v>6277159976.264773</v>
       </c>
       <c r="D15">
-        <v>4.510271055111345E+16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>1.593078210938412E-10</v>
+      </c>
+      <c r="E15">
+        <v>4.25890081448575E+16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>6978683385287186</v>
+        <v>6557122200830397</v>
       </c>
       <c r="B16">
-        <v>0.007814722736871447</v>
+        <v>0.008588000293868856</v>
       </c>
       <c r="C16">
-        <v>6374197165.301547</v>
+        <v>6026072000.396557</v>
       </c>
       <c r="D16">
-        <v>4.25890081448575E+16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>1.659456888896824E-10</v>
+      </c>
+      <c r="E16">
+        <v>4.033877814431716E+16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>6557122200830397</v>
+        <v>6174319843139646</v>
       </c>
       <c r="B17">
-        <v>0.008588000293868856</v>
+        <v>0.009396832507203629</v>
       </c>
       <c r="C17">
-        <v>6107096396.107951</v>
+        <v>5902949362.161301</v>
       </c>
       <c r="D17">
-        <v>4.033877814431716E+16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>1.694069502207585E-10</v>
+      </c>
+      <c r="E17">
+        <v>3.829543691340363E+16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
-        <v>6174319843139646</v>
+        <v>5815962972352836</v>
       </c>
       <c r="B18">
-        <v>0.009396832507203629</v>
+        <v>0.01026510588145624</v>
       </c>
       <c r="C18">
-        <v>5969705778.986619</v>
+        <v>5779807433.554193</v>
       </c>
       <c r="D18">
-        <v>3.829543691340363E+16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>1.730162537375178E-10</v>
+      </c>
+      <c r="E18">
+        <v>3.63825820034258E+16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>5815962972352836</v>
+        <v>5491379348784380</v>
       </c>
       <c r="B19">
-        <v>0.01026510588145624</v>
+        <v>0.01116272404755398</v>
       </c>
       <c r="C19">
-        <v>5833496714.215345</v>
+        <v>5528305372.080833</v>
       </c>
       <c r="D19">
-        <v>3.63825820034258E+16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>1.808873713498229E-10</v>
+      </c>
+      <c r="E19">
+        <v>3.465000359163728E+16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
-        <v>5491379348784380</v>
+        <v>5199490836588972</v>
       </c>
       <c r="B20">
-        <v>0.01116272404755398</v>
+        <v>0.01207731268170891</v>
       </c>
       <c r="C20">
-        <v>5571494611.950929</v>
+        <v>5378049385.735877</v>
       </c>
       <c r="D20">
-        <v>3.465000359163728E+16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>1.859411365703904E-10</v>
+      </c>
+      <c r="E20">
+        <v>3.309194675155713E+16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
-        <v>5199490836588972</v>
+        <v>4923908182543817</v>
       </c>
       <c r="B21">
-        <v>0.01207731268170891</v>
+        <v>0.01305105623442089</v>
       </c>
       <c r="C21">
-        <v>5412798804.096512</v>
+        <v>5298725860.297442</v>
       </c>
       <c r="D21">
-        <v>3.309194675155713E+16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1.887247280063987E-10</v>
+      </c>
+      <c r="E21">
+        <v>3.162092812217357E+16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
-        <v>4923908182543817</v>
+        <v>4670411560396624</v>
       </c>
       <c r="B22">
-        <v>0.01305105623442089</v>
+        <v>0.01405773551207265</v>
       </c>
       <c r="C22">
-        <v>5323866591.100682</v>
+        <v>5106141744.266437</v>
       </c>
       <c r="D22">
-        <v>3.162092812217357E+16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>1.958427013695175E-10</v>
+      </c>
+      <c r="E22">
+        <v>3.026780139888123E+16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
-        <v>4670411560396624</v>
+        <v>4440498492198954</v>
       </c>
       <c r="B23">
-        <v>0.01405773551207265</v>
+        <v>0.01507806445380127</v>
       </c>
       <c r="C23">
-        <v>5124502557.007641</v>
+        <v>4978781347.072412</v>
       </c>
       <c r="D23">
-        <v>3.026780139888123E+16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>2.008524804719265E-10</v>
+      </c>
+      <c r="E23">
+        <v>2.90405601284561E+16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
-        <v>4440498492198954</v>
+        <v>4222458429127240</v>
       </c>
       <c r="B24">
-        <v>0.01507806445380127</v>
+        <v>0.01615510059925762</v>
       </c>
       <c r="C24">
-        <v>4989145655.328985</v>
+        <v>4950876028.112287</v>
       </c>
       <c r="D24">
-        <v>2.90405601284561E+16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>2.019845694757815E-10</v>
+      </c>
+      <c r="E24">
+        <v>2.787669516808053E+16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
-        <v>4222458429127240</v>
+        <v>4017230931248834</v>
       </c>
       <c r="B25">
-        <v>0.01615510059925762</v>
+        <v>0.01728119984525491</v>
       </c>
       <c r="C25">
-        <v>4956969547.032809</v>
+        <v>4823850147.037634</v>
       </c>
       <c r="D25">
-        <v>2.787669516808053E+16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>2.073034038584203E-10</v>
+      </c>
+      <c r="E25">
+        <v>2.678122174764005E+16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
-        <v>4017230931248834</v>
+        <v>3830272459658670</v>
       </c>
       <c r="B26">
-        <v>0.01728119984525491</v>
+        <v>0.01841609060238299</v>
       </c>
       <c r="C26">
-        <v>4827620319.236212</v>
+        <v>4686255228.748201</v>
       </c>
       <c r="D26">
-        <v>2.678122174764005E+16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>2.133901167087153E-10</v>
+      </c>
+      <c r="E26">
+        <v>2.57832656332282E+16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
-        <v>3830272459658670</v>
+        <v>3654078542401392</v>
       </c>
       <c r="B27">
-        <v>0.01841609060238299</v>
+        <v>0.01959452127184922</v>
       </c>
       <c r="C27">
-        <v>4686252650.421638</v>
+        <v>4558832807.39535</v>
       </c>
       <c r="D27">
-        <v>2.57832656332282E+16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>2.193545118204697E-10</v>
+      </c>
+      <c r="E27">
+        <v>2.484276908576751E+16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
-        <v>3654078542401392</v>
+        <v>3493376102736804</v>
       </c>
       <c r="B28">
-        <v>0.01959452127184922</v>
+        <v>0.02077412988930603</v>
       </c>
       <c r="C28">
-        <v>4558830323.118442</v>
+        <v>4357694071.089827</v>
       </c>
       <c r="D28">
-        <v>2.484276908576751E+16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>2.294792920502463E-10</v>
+      </c>
+      <c r="E28">
+        <v>2.398496370845497E+16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
-        <v>3493376102736804</v>
+        <v>3346254057302323</v>
       </c>
       <c r="B29">
-        <v>0.02077412988930603</v>
+        <v>0.02195318245231222</v>
       </c>
       <c r="C29">
-        <v>4357691672.593455</v>
+        <v>4297510877.046721</v>
       </c>
       <c r="D29">
-        <v>2.398496370845497E+16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>2.32692963077897E-10</v>
+      </c>
+      <c r="E29">
+        <v>2.319964842663148E+16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
-        <v>3346254057302323</v>
+        <v>3202716301920993</v>
       </c>
       <c r="B30">
-        <v>0.02195318245231222</v>
+        <v>0.02320633025035399</v>
       </c>
       <c r="C30">
-        <v>4297508557.081879</v>
+        <v>4271521865.693371</v>
       </c>
       <c r="D30">
-        <v>2.319964842663148E+16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>2.341087220502079E-10</v>
+      </c>
+      <c r="E30">
+        <v>2.243346554434005E+16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
-        <v>3202716301920993</v>
+        <v>3069884393846304</v>
       </c>
       <c r="B31">
-        <v>0.02320633025035399</v>
+        <v>0.02446749668933407</v>
       </c>
       <c r="C31">
-        <v>4271519622.346817</v>
+        <v>4185050144.114676</v>
       </c>
       <c r="D31">
-        <v>2.243346554434005E+16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>2.389458870648339E-10</v>
+      </c>
+      <c r="E31">
+        <v>2.172442885975099E+16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
-        <v>3069884393846304</v>
+        <v>2943254542268576</v>
       </c>
       <c r="B32">
-        <v>0.02446749668933407</v>
+        <v>0.02577144021865439</v>
       </c>
       <c r="C32">
-        <v>4185047971.67179</v>
+        <v>4086832867.638222</v>
       </c>
       <c r="D32">
-        <v>2.172442885975099E+16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>2.446883803227763E-10</v>
+      </c>
+      <c r="E32">
+        <v>2.104849781702146E+16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
-        <v>2943254542268576</v>
+        <v>2827028484704904</v>
       </c>
       <c r="B33">
-        <v>0.02577144021865439</v>
+        <v>0.02706557446920414</v>
       </c>
       <c r="C33">
-        <v>4086830762.78844</v>
+        <v>3965482196.073858</v>
       </c>
       <c r="D33">
-        <v>2.104849781702146E+16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>2.521762715612002E-10</v>
+      </c>
+      <c r="E33">
+        <v>2.042810065709007E+16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
-        <v>2827028484704904</v>
+        <v>2716954898190332</v>
       </c>
       <c r="B34">
-        <v>0.02706557446920414</v>
+        <v>0.02838656523729146</v>
       </c>
       <c r="C34">
-        <v>3965480153.263793</v>
+        <v>3939795229.10519</v>
       </c>
       <c r="D34">
-        <v>2.042810065709007E+16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>2.538204260480476E-10</v>
+      </c>
+      <c r="E34">
+        <v>1.984054445937863E+16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
-        <v>2716954898190332</v>
+        <v>2611029311725861</v>
       </c>
       <c r="B35">
-        <v>0.02838656523729146</v>
+        <v>0.02975471235533521</v>
       </c>
       <c r="C35">
-        <v>3939793245.050745</v>
+        <v>3878373238.083185</v>
       </c>
       <c r="D35">
-        <v>1.984054445937863E+16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>2.578401911324408E-10</v>
+      </c>
+      <c r="E35">
+        <v>1.92751296601145E+16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
-        <v>2611029311725861</v>
+        <v>2512668938233396</v>
       </c>
       <c r="B36">
-        <v>0.02975471235533521</v>
+        <v>0.03111909570430758</v>
       </c>
       <c r="C36">
-        <v>3878371310.570219</v>
+        <v>3783611764.078812</v>
       </c>
       <c r="D36">
-        <v>1.92751296601145E+16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>2.64297860857433E-10</v>
+      </c>
+      <c r="E36">
+        <v>1.875009682631056E+16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
-        <v>2512668938233396</v>
+        <v>2419275163925846</v>
       </c>
       <c r="B37">
-        <v>0.03111909570430758</v>
+        <v>0.03250673998220709</v>
       </c>
       <c r="C37">
-        <v>3783609889.069129</v>
+        <v>3619802225.162611</v>
       </c>
       <c r="D37">
-        <v>1.875009682631056E+16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>2.762583262874347E-10</v>
+      </c>
+      <c r="E37">
+        <v>1.825157494963127E+16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
-        <v>2419275163925846</v>
+        <v>2336034509770160</v>
       </c>
       <c r="B38">
-        <v>0.03250673998220709</v>
+        <v>0.0338263785288946</v>
       </c>
       <c r="C38">
-        <v>3619800400.005116</v>
+        <v>3585177819.616147</v>
       </c>
       <c r="D38">
-        <v>1.825157494963127E+16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>2.789263314136333E-10</v>
+      </c>
+      <c r="E38">
+        <v>1.78072488964936E+16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
-        <v>2336034509770160</v>
+        <v>2250391990702134</v>
       </c>
       <c r="B39">
-        <v>0.0338263785288946</v>
+        <v>0.03527316308247478</v>
       </c>
       <c r="C39">
-        <v>3585176038.891257</v>
+        <v>3594770679.697998</v>
       </c>
       <c r="D39">
-        <v>1.78072488964936E+16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>2.781819959465713E-10</v>
+      </c>
+      <c r="E39">
+        <v>1.735010205082979E+16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
-        <v>2250391990702134</v>
+        <v>2172965667156729</v>
       </c>
       <c r="B40">
-        <v>0.03527316308247478</v>
+        <v>0.03666583570286996</v>
       </c>
       <c r="C40">
-        <v>3594768944.687792</v>
+        <v>3564606734.756522</v>
       </c>
       <c r="D40">
-        <v>1.735010205082979E+16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>2.805359888337963E-10</v>
+      </c>
+      <c r="E40">
+        <v>1.693681201726582E+16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
-        <v>2172965667156729</v>
+        <v>2094291348809432</v>
       </c>
       <c r="B41">
-        <v>0.03666583570286996</v>
+        <v>0.03817071497697885</v>
       </c>
       <c r="C41">
-        <v>3564605041.07532</v>
+        <v>3635531772.207618</v>
       </c>
       <c r="D41">
-        <v>1.693681201726582E+16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>2.750630490874692E-10</v>
+      </c>
+      <c r="E41">
+        <v>1.651686037573774E+16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
-        <v>2094291348809432</v>
+        <v>2019591083524186</v>
       </c>
       <c r="B42">
-        <v>0.03817071497697885</v>
+        <v>0.03969064826729495</v>
       </c>
       <c r="C42">
-        <v>3635530120.52158</v>
+        <v>3443253624.763823</v>
       </c>
       <c r="D42">
-        <v>1.651686037573774E+16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>2.904231221643198E-10</v>
+      </c>
+      <c r="E42">
+        <v>1.611812162987863E+16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
-        <v>2019591083524186</v>
+        <v>1954194396471762</v>
       </c>
       <c r="B43">
-        <v>0.03969064826729495</v>
+        <v>0.04110027482649614</v>
       </c>
       <c r="C43">
-        <v>3443252012.95166</v>
+        <v>3233249115.36748</v>
       </c>
       <c r="D43">
-        <v>1.611812162987863E+16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>3.092865572783666E-10</v>
+      </c>
+      <c r="E43">
+        <v>1.576904398097E+16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
-        <v>1954194396471762</v>
+        <v>1892272197631608</v>
       </c>
       <c r="B44">
-        <v>0.04110027482649614</v>
+        <v>0.04250840613909387</v>
       </c>
       <c r="C44">
-        <v>3233247538.463082</v>
+        <v>3298550486.351663</v>
       </c>
       <c r="D44">
-        <v>1.576904398097E+16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>3.031636084326127E-10</v>
+      </c>
+      <c r="E44">
+        <v>1.543851262593292E+16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
-        <v>1892272197631608</v>
+        <v>1828468983976190</v>
       </c>
       <c r="B45">
-        <v>0.04250840613909387</v>
+        <v>0.04403974881060956</v>
       </c>
       <c r="C45">
-        <v>3298548942.5004</v>
+        <v>3324134564.474316</v>
       </c>
       <c r="D45">
-        <v>1.543851262593292E+16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>3.008303168226194E-10</v>
+      </c>
+      <c r="E45">
+        <v>1.509794069760582E+16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
-        <v>1828468983976190</v>
+        <v>1769880286515352</v>
       </c>
       <c r="B46">
-        <v>0.04403974881060956</v>
+        <v>0.04552329274534528</v>
       </c>
       <c r="C46">
-        <v>3324133054.680246</v>
+        <v>3216895886.216872</v>
       </c>
       <c r="D46">
-        <v>1.509794069760582E+16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>3.108588201115507E-10</v>
+      </c>
+      <c r="E46">
+        <v>1.478520306999705E+16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
-        <v>1769880286515352</v>
+        <v>1713821000424611</v>
       </c>
       <c r="B47">
-        <v>0.04552329274534528</v>
+        <v>0.04701730849778651</v>
       </c>
       <c r="C47">
-        <v>3216894407.696565</v>
+        <v>3222269040.842758</v>
       </c>
       <c r="D47">
-        <v>1.478520306999705E+16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>3.103404578832508E-10</v>
+      </c>
+      <c r="E47">
+        <v>1.448596705866264E+16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
-        <v>1713821000424611</v>
+        <v>1658703422431100</v>
       </c>
       <c r="B48">
-        <v>0.04701730849778651</v>
+        <v>0.04856243314386544</v>
       </c>
       <c r="C48">
-        <v>3222267592.246052</v>
+        <v>3262984255.001976</v>
       </c>
       <c r="D48">
-        <v>1.448596705866264E+16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>3.064680540211287E-10</v>
+      </c>
+      <c r="E48">
+        <v>1.419175774307316E+16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
-        <v>1658703422431100</v>
+        <v>1604891415361329</v>
       </c>
       <c r="B49">
-        <v>0.04856243314386544</v>
+        <v>0.05014909758662207</v>
       </c>
       <c r="C49">
-        <v>3262982835.826201</v>
+        <v>3115574217.179721</v>
       </c>
       <c r="D49">
-        <v>1.419175774307316E+16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>3.209682634991438E-10</v>
+      </c>
+      <c r="E49">
+        <v>1.390451736809955E+16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
-        <v>1604891415361329</v>
+        <v>1558060208155664</v>
       </c>
       <c r="B50">
-        <v>0.05014909758662207</v>
+        <v>0.05159709877282124</v>
       </c>
       <c r="C50">
-        <v>3115572826.727984</v>
+        <v>2972135702.856892</v>
       </c>
       <c r="D50">
-        <v>1.390451736809955E+16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>3.364585467808298E-10</v>
+      </c>
+      <c r="E50">
+        <v>1.365453944958815E+16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
-        <v>1558060208155664</v>
+        <v>1511672154662291</v>
       </c>
       <c r="B51">
-        <v>0.05159709877282124</v>
+        <v>0.05309710893852581</v>
       </c>
       <c r="C51">
-        <v>2972134337.402947</v>
+        <v>2891989104.432831</v>
       </c>
       <c r="D51">
-        <v>1.365453944958815E+16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>3.457829291458436E-10</v>
+      </c>
+      <c r="E51">
+        <v>1.340692701873315E+16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
-        <v>1511672154662291</v>
+        <v>1470056021096046</v>
       </c>
       <c r="B52">
-        <v>0.05309710893852581</v>
+        <v>0.05450190496144568</v>
       </c>
       <c r="C52">
-        <v>2891987763.740129</v>
+        <v>2834796482.48984</v>
       </c>
       <c r="D52">
-        <v>1.340692701873315E+16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>3.527591738180517E-10</v>
+      </c>
+      <c r="E52">
+        <v>1.318478637649654E+16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
-        <v>1470056021096046</v>
+        <v>1427786510665152</v>
       </c>
       <c r="B53">
-        <v>0.05450190496144568</v>
+        <v>0.05598943759254099</v>
       </c>
       <c r="C53">
-        <v>2834795164.011202</v>
+        <v>3057034498.506413</v>
       </c>
       <c r="D53">
-        <v>1.318478637649654E+16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>3.271145367844144E-10</v>
+      </c>
+      <c r="E53">
+        <v>1.295915810713319E+16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
-        <v>1427786510665152</v>
+        <v>1382250148753011</v>
       </c>
       <c r="B54">
-        <v>0.05598943759254099</v>
+        <v>0.05766456261577559</v>
       </c>
       <c r="C54">
-        <v>3057033202.590603</v>
+        <v>3053317341.181158</v>
       </c>
       <c r="D54">
-        <v>1.295915810713319E+16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>3.275127688107917E-10</v>
+      </c>
+      <c r="E54">
+        <v>1.271609187744177E+16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
-        <v>1382250148753011</v>
+        <v>1342898133077238</v>
       </c>
       <c r="B55">
-        <v>0.05766456261577559</v>
+        <v>0.05917658284081953</v>
       </c>
       <c r="C55">
-        <v>3053316069.57197</v>
+        <v>2778574941.408009</v>
       </c>
       <c r="D55">
-        <v>1.271609187744177E+16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>3.598968792188207E-10</v>
+      </c>
+      <c r="E55">
+        <v>1.250603675491083E+16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
-        <v>1342898133077238</v>
+        <v>1307169425393212</v>
       </c>
       <c r="B56">
-        <v>0.05917658284081953</v>
+        <v>0.06060414618114005</v>
       </c>
       <c r="C56">
-        <v>2778573690.804333</v>
+        <v>2768236749.203069</v>
       </c>
       <c r="D56">
-        <v>1.250603675491083E+16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>3.612409398031958E-10</v>
+      </c>
+      <c r="E56">
+        <v>1.231532230378144E+16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
-        <v>1307169425393212</v>
+        <v>1270095664724274</v>
       </c>
       <c r="B57">
-        <v>0.06060414618114005</v>
+        <v>0.06214361906187488</v>
       </c>
       <c r="C57">
-        <v>2768235517.670839</v>
+        <v>2868769727.287886</v>
       </c>
       <c r="D57">
-        <v>1.231532230378144E+16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>3.48581628172951E-10</v>
+      </c>
+      <c r="E57">
+        <v>1.211742816275042E+16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
-        <v>1270095664724274</v>
+        <v>1233888424109698</v>
       </c>
       <c r="B58">
-        <v>0.06214361906187488</v>
+        <v>0.06370743449864161</v>
       </c>
       <c r="C58">
-        <v>2868768515.54507</v>
+        <v>2847601631.230678</v>
       </c>
       <c r="D58">
-        <v>1.211742816275042E+16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>3.511728634289125E-10</v>
+      </c>
+      <c r="E58">
+        <v>1.192415937503532E+16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
-        <v>1233888424109698</v>
+        <v>1199435850049949</v>
       </c>
       <c r="B59">
-        <v>0.06370743449864161</v>
+        <v>0.0652538649593306</v>
       </c>
       <c r="C59">
-        <v>2847600438.81474</v>
+        <v>2878120705.444367</v>
       </c>
       <c r="D59">
-        <v>1.192415937503532E+16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>3.474490857949448E-10</v>
+      </c>
+      <c r="E59">
+        <v>1.174025673265856E+16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
-        <v>1199435850049949</v>
+        <v>1164478379615000</v>
       </c>
       <c r="B60">
-        <v>0.0652538649593306</v>
+        <v>0.06688436240220774</v>
       </c>
       <c r="C60">
-        <v>2878119531.418694</v>
+        <v>2809815305.867327</v>
       </c>
       <c r="D60">
-        <v>1.174025673265856E+16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>3.558954245502484E-10</v>
+      </c>
+      <c r="E60">
+        <v>1.155365902960607E+16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
-        <v>1164478379615000</v>
+        <v>1133648260094136</v>
       </c>
       <c r="B61">
-        <v>0.06688436240220774</v>
+        <v>0.06837639075787612</v>
       </c>
       <c r="C61">
-        <v>2809814150.501424</v>
+        <v>2630790198.46317</v>
       </c>
       <c r="D61">
-        <v>1.155365902960607E+16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>3.801140940465829E-10</v>
+      </c>
+      <c r="E61">
+        <v>1.138909250302823E+16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
-        <v>1133648260094136</v>
+        <v>1104498974439108</v>
       </c>
       <c r="B62">
-        <v>0.06837639075787612</v>
+        <v>0.06983601983087984</v>
       </c>
       <c r="C62">
-        <v>2630789059.55392</v>
+        <v>2728010218.243887</v>
       </c>
       <c r="D62">
-        <v>1.138909250302823E+16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>3.665676928539803E-10</v>
+      </c>
+      <c r="E62">
+        <v>1.123349801403422E+16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
-        <v>1104498974439108</v>
+        <v>1073070258207887</v>
       </c>
       <c r="B63">
-        <v>0.06983601983087984</v>
+        <v>0.07146572925168224</v>
       </c>
       <c r="C63">
-        <v>2728009094.894086</v>
+        <v>2792668966.71549</v>
       </c>
       <c r="D63">
-        <v>1.123349801403422E+16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>3.580805344854728E-10</v>
+      </c>
+      <c r="E63">
+        <v>1.106573626852842E+16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
-        <v>1073070258207887</v>
+        <v>1044264070803474</v>
       </c>
       <c r="B64">
-        <v>0.07146572925168224</v>
+        <v>0.07301293460454272</v>
       </c>
       <c r="C64">
-        <v>2792667860.141863</v>
+        <v>2603152200.845475</v>
       </c>
       <c r="D64">
-        <v>1.106573626852842E+16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>3.841498083970855E-10</v>
+      </c>
+      <c r="E64">
+        <v>1.091197318623202E+16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
-        <v>1044264070803474</v>
+        <v>1018416642862936</v>
       </c>
       <c r="B65">
-        <v>0.07301293460454272</v>
+        <v>0.07444685178176794</v>
       </c>
       <c r="C65">
-        <v>2603151109.648157</v>
+        <v>2672259022.015153</v>
       </c>
       <c r="D65">
-        <v>1.091197318623202E+16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>3.742153716916527E-10</v>
+      </c>
+      <c r="E65">
+        <v>1.077400351555764E+16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
-        <v>1018416642862936</v>
+        <v>989561013938402.1</v>
       </c>
       <c r="B66">
-        <v>0.07444685178176794</v>
+        <v>0.07610104036523956</v>
       </c>
       <c r="C66">
-        <v>2672257944.614802</v>
+        <v>2772238001.912863</v>
       </c>
       <c r="D66">
-        <v>1.077400351555764E+16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>3.60719527830325E-10</v>
+      </c>
+      <c r="E66">
+        <v>1.061997652188621E+16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
-        <v>989561013938402.1</v>
+        <v>963290604859644.6</v>
       </c>
       <c r="B67">
-        <v>0.07610104036523956</v>
+        <v>0.07765827490807703</v>
       </c>
       <c r="C67">
-        <v>2772236939.915211</v>
+        <v>2658935643.676474</v>
       </c>
       <c r="D67">
-        <v>1.061997652188621E+16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>3.760904843679114E-10</v>
+      </c>
+      <c r="E67">
+        <v>1.047974904171235E+16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
-        <v>963290604859644.6</v>
+        <v>938086374977186.1</v>
       </c>
       <c r="B68">
-        <v>0.07765827490807703</v>
+        <v>0.07920035467594347</v>
       </c>
       <c r="C68">
-        <v>2658934595.70157</v>
+        <v>2581275579.605587</v>
       </c>
       <c r="D68">
-        <v>1.047974904171235E+16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>3.874055171327519E-10</v>
+      </c>
+      <c r="E68">
+        <v>1.034521266523095E+16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
-        <v>938086374977186.1</v>
+        <v>914624526395972</v>
       </c>
       <c r="B69">
-        <v>0.07920035467594347</v>
+        <v>0.0806799692343</v>
       </c>
       <c r="C69">
-        <v>2581274545.084321</v>
+        <v>2548321672.305075</v>
       </c>
       <c r="D69">
-        <v>1.034521266523095E+16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>3.924152951000793E-10</v>
+      </c>
+      <c r="E69">
+        <v>1.021997685725775E+16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
-        <v>914624526395972</v>
+        <v>891244495902349.2</v>
       </c>
       <c r="B70">
-        <v>0.0806799692343</v>
+        <v>0.08219856917171041</v>
       </c>
       <c r="C70">
-        <v>2548320650.307389</v>
+        <v>2344824023.273227</v>
       </c>
       <c r="D70">
-        <v>1.021997685725775E+16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>4.264714198614115E-10</v>
+      </c>
+      <c r="E70">
+        <v>1.0095177781892E+16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
-        <v>891244495902349.2</v>
+        <v>872611444720048.8</v>
       </c>
       <c r="B71">
-        <v>0.08219856917171041</v>
+        <v>0.08344163123680712</v>
       </c>
       <c r="C71">
-        <v>2344823013.755448</v>
+        <v>2259579534.711856</v>
       </c>
       <c r="D71">
-        <v>1.0095177781892E+16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>4.425604086993988E-10</v>
+      </c>
+      <c r="E71">
+        <v>9995717365900324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
-        <v>872611444720048.8</v>
+        <v>851600641723211.5</v>
       </c>
       <c r="B72">
-        <v>0.08344163123680712</v>
+        <v>0.08487954215865594</v>
       </c>
       <c r="C72">
-        <v>2259578535.140119</v>
+        <v>2567879339.746294</v>
       </c>
       <c r="D72">
-        <v>9995717365900324</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>3.894265471955758E-10</v>
+      </c>
+      <c r="E72">
+        <v>9883564869460576</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
-        <v>851600641723211.5</v>
+        <v>828674629859616.8</v>
       </c>
       <c r="B73">
-        <v>0.08487954215865594</v>
+        <v>0.08649400812815621</v>
       </c>
       <c r="C73">
-        <v>2567878351.389807</v>
+        <v>2617235039.96424</v>
       </c>
       <c r="D73">
-        <v>9883564869460576</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>3.820827543910125E-10</v>
+      </c>
+      <c r="E73">
+        <v>9761189277042882</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
-        <v>828674629859616.8</v>
+        <v>808032301819601.4</v>
       </c>
       <c r="B74">
-        <v>0.08649400812815621</v>
+        <v>0.08798989164353312</v>
       </c>
       <c r="C74">
-        <v>2617234063.845313</v>
+        <v>2577243163.883449</v>
       </c>
       <c r="D74">
-        <v>9761189277042882</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>3.880116507762356E-10</v>
+      </c>
+      <c r="E74">
+        <v>9651003644329824</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
-        <v>808032301819601.4</v>
+        <v>786841050536275.4</v>
       </c>
       <c r="B75">
-        <v>0.08798989164353312</v>
+        <v>0.08956887829528522</v>
       </c>
       <c r="C75">
-        <v>2577242198.783085</v>
+        <v>2523979452.893785</v>
       </c>
       <c r="D75">
-        <v>9651003644329824</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>3.96199888530985E-10</v>
+      </c>
+      <c r="E75">
+        <v>9537887942161526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
-        <v>786841050536275.4</v>
+        <v>768137193745549.9</v>
       </c>
       <c r="B76">
-        <v>0.08956887829528522</v>
+        <v>0.09100039291175926</v>
       </c>
       <c r="C76">
-        <v>2523978499.10499</v>
+        <v>2285066730.112147</v>
       </c>
       <c r="D76">
-        <v>9537887942161526</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>4.376241620667138E-10</v>
+      </c>
+      <c r="E76">
+        <v>9438049576514714</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
-        <v>768137193745549.9</v>
+        <v>751567334992138</v>
       </c>
       <c r="B77">
-        <v>0.09100039291175926</v>
+        <v>0.09229931262465932</v>
       </c>
       <c r="C77">
-        <v>2285065786.307189</v>
+        <v>2197607686.258248</v>
       </c>
       <c r="D77">
-        <v>9438049576514714</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>4.55040465911084E-10</v>
+      </c>
+      <c r="E77">
+        <v>9349602170428954</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
-        <v>751567334992138</v>
+        <v>734941336330010.9</v>
       </c>
       <c r="B78">
-        <v>0.09229931262465932</v>
+        <v>0.09363262638847959</v>
       </c>
       <c r="C78">
-        <v>2197606751.298031</v>
+        <v>2348754786.353164</v>
       </c>
       <c r="D78">
-        <v>9349602170428954</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>4.257576823678085E-10</v>
+      </c>
+      <c r="E78">
+        <v>9260855097980454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
-        <v>734941336330010.9</v>
+        <v>716886411337499.8</v>
       </c>
       <c r="B79">
-        <v>0.09363262638847959</v>
+        <v>0.09511569934851201</v>
       </c>
       <c r="C79">
-        <v>2348753860.267654</v>
+        <v>2522497635.96934</v>
       </c>
       <c r="D79">
-        <v>9260855097980454</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>3.9643262655651E-10</v>
+      </c>
+      <c r="E79">
+        <v>9164480632366392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
-        <v>716886411337499.8</v>
+        <v>698623710902106.1</v>
       </c>
       <c r="B80">
-        <v>0.09511569934851201</v>
+        <v>0.09665439243539645</v>
       </c>
       <c r="C80">
-        <v>2522496719.521277</v>
+        <v>2463756741.081028</v>
       </c>
       <c r="D80">
-        <v>9164480632366392</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>4.058843762215231E-10</v>
+      </c>
+      <c r="E80">
+        <v>9066997092785872</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
-        <v>698623710902106.1</v>
+        <v>682317072600849.8</v>
       </c>
       <c r="B81">
-        <v>0.09665439243539645</v>
+        <v>0.09806219735573063</v>
       </c>
       <c r="C81">
-        <v>2463755834.381319</v>
+        <v>2416581360.389492</v>
       </c>
       <c r="D81">
-        <v>9066997092785872</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>4.138078642783264E-10</v>
+      </c>
+      <c r="E81">
+        <v>8979954717760929</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
-        <v>682317072600849.8</v>
+        <v>665507056449772.5</v>
       </c>
       <c r="B82">
-        <v>0.09806219735573063</v>
+        <v>0.0995481144720349</v>
       </c>
       <c r="C82">
-        <v>2416580462.39402</v>
+        <v>2508464001.410056</v>
       </c>
       <c r="D82">
-        <v>8979954717760929</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>3.986504705059088E-10</v>
+      </c>
+      <c r="E82">
+        <v>8890225387719636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
-        <v>665507056449772.5</v>
+        <v>648795357117496.8</v>
       </c>
       <c r="B83">
-        <v>0.0995481144720349</v>
+        <v>0.1010613968013539</v>
       </c>
       <c r="C83">
-        <v>2508463112.387517</v>
+        <v>2329099956.54704</v>
       </c>
       <c r="D83">
-        <v>8890225387719636</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>4.293505631054393E-10</v>
+      </c>
+      <c r="E83">
+        <v>8801020858023778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
-        <v>648795357117496.8</v>
+        <v>635156475410925.1</v>
       </c>
       <c r="B84">
-        <v>0.1010613968013539</v>
+        <v>0.1023239339811935</v>
       </c>
       <c r="C84">
-        <v>2329099076.444955</v>
+        <v>2159221254.039688</v>
       </c>
       <c r="D84">
-        <v>8801020858023778</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>4.631301226584318E-10</v>
+      </c>
+      <c r="E84">
+        <v>8728218565209520</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
-        <v>635156475410925.1</v>
+        <v>621242343671618.1</v>
       </c>
       <c r="B85">
-        <v>0.1023239339811935</v>
+        <v>0.1036382062000741</v>
       </c>
       <c r="C85">
-        <v>2159220381.217831</v>
+        <v>2299580972.063018</v>
       </c>
       <c r="D85">
-        <v>8728218565209520</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>4.348619981100911E-10</v>
+      </c>
+      <c r="E85">
+        <v>8653947029248248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
-        <v>621242343671618.1</v>
+        <v>606464647218124.5</v>
       </c>
       <c r="B86">
-        <v>0.1036382062000741</v>
+        <v>0.105063944689034</v>
       </c>
       <c r="C86">
-        <v>2299580106.668315</v>
+        <v>2517331883.070596</v>
       </c>
       <c r="D86">
-        <v>8653947029248248</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>3.972461268878818E-10</v>
+      </c>
+      <c r="E86">
+        <v>8575065915131020</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
-        <v>606464647218124.5</v>
+        <v>590593441054750.9</v>
       </c>
       <c r="B87">
-        <v>0.105063944689034</v>
+        <v>0.1066305647678359</v>
       </c>
       <c r="C87">
-        <v>2517331025.564004</v>
+        <v>2385788516.844489</v>
       </c>
       <c r="D87">
-        <v>8575065915131020</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>4.191487840651211E-10</v>
+      </c>
+      <c r="E87">
+        <v>8490347811163257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
-        <v>590593441054750.9</v>
+        <v>578173252460117.4</v>
       </c>
       <c r="B88">
-        <v>0.1066305647678359</v>
+        <v>0.1078828833839016</v>
       </c>
       <c r="C88">
-        <v>2385787667.809708</v>
+        <v>2199033965.125772</v>
       </c>
       <c r="D88">
-        <v>8490347811163257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>4.547453104129575E-10</v>
+      </c>
+      <c r="E88">
+        <v>8424050718312959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
-        <v>578173252460117.4</v>
+        <v>565057803302981.1</v>
       </c>
       <c r="B89">
-        <v>0.1078828833839016</v>
+        <v>0.1092311601647731</v>
       </c>
       <c r="C89">
-        <v>2199033122.7207</v>
+        <v>2348373026.844766</v>
       </c>
       <c r="D89">
-        <v>8424050718312959</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>4.258268785692726E-10</v>
+      </c>
+      <c r="E89">
+        <v>8354042429475885</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
-        <v>565057803302981.1</v>
+        <v>551530461464775.1</v>
       </c>
       <c r="B90">
-        <v>0.1092311601647731</v>
+        <v>0.1106503927010651</v>
       </c>
       <c r="C90">
-        <v>2348372191.440523</v>
+        <v>2181486816.215769</v>
       </c>
       <c r="D90">
-        <v>8354042429475885</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>4.584031277239776E-10</v>
+      </c>
+      <c r="E90">
+        <v>8281835519650638</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
-        <v>551530461464775.1</v>
+        <v>540894985855028.9</v>
       </c>
       <c r="B91">
-        <v>0.1106503927010651</v>
+        <v>0.1117871810300083</v>
       </c>
       <c r="C91">
-        <v>2181485988.032218</v>
+        <v>2030091590.06135</v>
       </c>
       <c r="D91">
-        <v>8281835519650638</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>4.925888122748578E-10</v>
+      </c>
+      <c r="E91">
+        <v>8225064955449135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
-        <v>540894985855028.9</v>
+        <v>529472361952919.4</v>
       </c>
       <c r="B92">
-        <v>0.1117871810300083</v>
+        <v>0.1130291929035082</v>
       </c>
       <c r="C92">
-        <v>2030090767.554854</v>
+        <v>2356075415.315588</v>
       </c>
       <c r="D92">
-        <v>8225064955449135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>4.244347782808734E-10</v>
+      </c>
+      <c r="E92">
+        <v>8164092712422215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
-        <v>529472361952919.4</v>
+        <v>515851761834518.5</v>
       </c>
       <c r="B93">
-        <v>0.1130291929035082</v>
+        <v>0.1145395038830811</v>
       </c>
       <c r="C93">
-        <v>2356074598.906316</v>
+        <v>2425571130.935499</v>
       </c>
       <c r="D93">
-        <v>8164092712422215</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>4.122741736299229E-10</v>
+      </c>
+      <c r="E93">
+        <v>8091388003967419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
-        <v>515851761834518.5</v>
+        <v>504357585091351.4</v>
       </c>
       <c r="B94">
-        <v>0.1145395038830811</v>
+        <v>0.115839511009036</v>
       </c>
       <c r="C94">
-        <v>2425570321.796699</v>
+        <v>2183101632.374382</v>
       </c>
       <c r="D94">
-        <v>8091388003967419</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>4.580640465828244E-10</v>
+      </c>
+      <c r="E94">
+        <v>8030033822670306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
-        <v>504357585091351.4</v>
+        <v>493743405808326.8</v>
       </c>
       <c r="B95">
-        <v>0.115839511009036</v>
+        <v>0.1170612645825221</v>
       </c>
       <c r="C95">
-        <v>2183100829.370999</v>
+        <v>2334579919.158775</v>
       </c>
       <c r="D95">
-        <v>8030033822670306</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>4.283427323807955E-10</v>
+      </c>
+      <c r="E95">
+        <v>7973376935047807</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
-        <v>493743405808326.8</v>
+        <v>481219559872273.6</v>
       </c>
       <c r="B96">
-        <v>0.1170612645825221</v>
+        <v>0.118529799325127</v>
       </c>
       <c r="C96">
-        <v>2334579121.821081</v>
+        <v>2504799034.974451</v>
       </c>
       <c r="D96">
-        <v>7973376935047807</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>3.992337515673889E-10</v>
+      </c>
+      <c r="E96">
+        <v>7906526534948077</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
-        <v>481219559872273.6</v>
+        <v>469555041952599.8</v>
       </c>
       <c r="B97">
-        <v>0.118529799325127</v>
+        <v>0.1199245317422571</v>
       </c>
       <c r="C97">
-        <v>2504798244.321797</v>
+        <v>2140592835.511429</v>
       </c>
       <c r="D97">
-        <v>7906526534948077</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>4.671604752961104E-10</v>
+      </c>
+      <c r="E97">
+        <v>7844263098150611</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
-        <v>469555041952599.8</v>
+        <v>461038728276640.1</v>
       </c>
       <c r="B98">
-        <v>0.1199245317422571</v>
+        <v>0.1209596720091657</v>
       </c>
       <c r="C98">
-        <v>2140592051.085119</v>
+        <v>1865261768.187623</v>
       </c>
       <c r="D98">
-        <v>7844263098150611</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>5.361180050774259E-10</v>
+      </c>
+      <c r="E98">
+        <v>7798804300627898</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
-        <v>461038728276640.1</v>
+        <v>452279653527273.1</v>
       </c>
       <c r="B99">
-        <v>0.1209596720091657</v>
+        <v>0.1220394813252909</v>
       </c>
       <c r="C99">
-        <v>1865260988.307193</v>
+        <v>1943882036.183316</v>
       </c>
       <c r="D99">
-        <v>7798804300627898</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>5.14434713721508E-10</v>
+      </c>
+      <c r="E99">
+        <v>7752049681121364</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
-        <v>452279653527273.1</v>
+        <v>443381042181280.2</v>
       </c>
       <c r="B100">
-        <v>0.1220394813252909</v>
+        <v>0.1231525611995884</v>
       </c>
       <c r="C100">
-        <v>1943881260.978347</v>
+        <v>2069513279.140142</v>
       </c>
       <c r="D100">
-        <v>7752049681121364</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>4.832055838287047E-10</v>
+      </c>
+      <c r="E100">
+        <v>7704550236314310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
-        <v>443381042181280.2</v>
+        <v>433855989269133.2</v>
       </c>
       <c r="B101">
-        <v>0.1231525611995884</v>
+        <v>0.1243623320956275</v>
       </c>
       <c r="C101">
-        <v>2069512508.685118</v>
+        <v>2471148857.208961</v>
       </c>
       <c r="D101">
-        <v>7704550236314310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>4.046702030132513E-10</v>
+      </c>
+      <c r="E101">
+        <v>7653706940940079</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
-        <v>433855989269133.2</v>
+        <v>421868814646003.9</v>
       </c>
       <c r="B102">
-        <v>0.1243623320956275</v>
+        <v>0.1259124109099621</v>
       </c>
       <c r="C102">
-        <v>2471148091.838267</v>
+        <v>2637780584.146712</v>
       </c>
       <c r="D102">
-        <v>7653706940940079</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>3.791066981618951E-10</v>
+      </c>
+      <c r="E102">
+        <v>7589721211339667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
-        <v>421868814646003.9</v>
+        <v>411533032016593.5</v>
       </c>
       <c r="B103">
-        <v>0.1259124109099621</v>
+        <v>0.1272742715042163</v>
       </c>
       <c r="C103">
-        <v>2637779825.174591</v>
+        <v>2549733651.523074</v>
       </c>
       <c r="D103">
-        <v>7589721211339667</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>3.921979438543196E-10</v>
+      </c>
+      <c r="E103">
+        <v>7534550363051695</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
-        <v>411533032016593.5</v>
+        <v>400818153545264.7</v>
       </c>
       <c r="B104">
-        <v>0.1272742715042163</v>
+        <v>0.1287115073521485</v>
       </c>
       <c r="C104">
-        <v>2549732898.068038</v>
+        <v>2357104786.910568</v>
       </c>
       <c r="D104">
-        <v>7534550363051695</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>4.242494108787908E-10</v>
+      </c>
+      <c r="E104">
+        <v>7477355958354791</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
-        <v>400818153545264.7</v>
+        <v>392575342613940.4</v>
       </c>
       <c r="B105">
-        <v>0.1287115073521485</v>
+        <v>0.1298351914807142</v>
       </c>
       <c r="C105">
-        <v>2357104039.174972</v>
+        <v>1915909765.22652</v>
       </c>
       <c r="D105">
-        <v>7477355958354791</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>5.219454517799071E-10</v>
+      </c>
+      <c r="E105">
+        <v>7433357077218834</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
-        <v>392575342613940.4</v>
+        <v>385714902023727.9</v>
       </c>
       <c r="B106">
-        <v>0.1298351914807142</v>
+        <v>0.1307826425069914</v>
       </c>
       <c r="C106">
-        <v>1915909021.890812</v>
+        <v>1771351582.536221</v>
       </c>
       <c r="D106">
-        <v>7433357077218834</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>5.645409005389323E-10</v>
+      </c>
+      <c r="E106">
+        <v>7396737080401733</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
-        <v>385714902023727.9</v>
+        <v>378851622930479.9</v>
       </c>
       <c r="B107">
-        <v>0.1307826425069914</v>
+        <v>0.1317417928054007</v>
       </c>
       <c r="C107">
-        <v>1771350842.862513</v>
+        <v>2028195373.366519</v>
       </c>
       <c r="D107">
-        <v>7396737080401733</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>4.93049326519994E-10</v>
+      </c>
+      <c r="E107">
+        <v>7360101932083682</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
-        <v>378851622930479.9</v>
+        <v>370289685581753.9</v>
       </c>
       <c r="B108">
-        <v>0.1317417928054007</v>
+        <v>0.1329544830221012</v>
       </c>
       <c r="C108">
-        <v>2028194637.356326</v>
+        <v>2278100492.807402</v>
       </c>
       <c r="D108">
-        <v>7360101932083682</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>4.389623391206294E-10</v>
+      </c>
+      <c r="E108">
+        <v>7314399602279110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
-        <v>370289685581753.9</v>
+        <v>361924778903925.1</v>
       </c>
       <c r="B109">
-        <v>0.1329544830221012</v>
+        <v>0.1341569291793692</v>
       </c>
       <c r="C109">
-        <v>2278099761.367442</v>
+        <v>2256912306.150965</v>
       </c>
       <c r="D109">
-        <v>7314399602279110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>4.430833751870206E-10</v>
+      </c>
+      <c r="E109">
+        <v>7269748992469230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
-        <v>361924778903925.1</v>
+        <v>353899080397779.4</v>
       </c>
       <c r="B110">
-        <v>0.1341569291793692</v>
+        <v>0.1353273725603899</v>
       </c>
       <c r="C110">
-        <v>2256911579.176066</v>
+        <v>2091788667.082658</v>
       </c>
       <c r="D110">
-        <v>7269748992469230</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>4.780599308266773E-10</v>
+      </c>
+      <c r="E110">
+        <v>7226909024702531</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
-        <v>353899080397779.4</v>
+        <v>347066834530198.1</v>
       </c>
       <c r="B111">
-        <v>0.1353273725603899</v>
+        <v>0.1363369556609655</v>
       </c>
       <c r="C111">
-        <v>2091787944.391755</v>
+        <v>2137929954.244427</v>
       </c>
       <c r="D111">
-        <v>7226909024702531</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>4.677423291357113E-10</v>
+      </c>
+      <c r="E111">
+        <v>7190439527061019</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
-        <v>347066834530198.1</v>
+        <v>339008075667130.6</v>
       </c>
       <c r="B112">
-        <v>0.1363369556609655</v>
+        <v>0.1375436772802373</v>
       </c>
       <c r="C112">
-        <v>2137929235.200475</v>
+        <v>2230680330.249444</v>
       </c>
       <c r="D112">
-        <v>7190439527061019</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>4.482938710912343E-10</v>
+      </c>
+      <c r="E112">
+        <v>7147423088096977</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
-        <v>339008075667130.6</v>
+        <v>331893166999496.1</v>
       </c>
       <c r="B113">
-        <v>0.1375436772802373</v>
+        <v>0.138623644174607</v>
       </c>
       <c r="C113">
-        <v>2230679615.507136</v>
+        <v>2109976717.02078</v>
       </c>
       <c r="D113">
-        <v>7147423088096977</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>4.739390387000626E-10</v>
+      </c>
+      <c r="E113">
+        <v>7109444779074893</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
-        <v>331893166999496.1</v>
+        <v>324954454505776.7</v>
       </c>
       <c r="B114">
-        <v>0.138623644174607</v>
+        <v>0.139690288599949</v>
       </c>
       <c r="C114">
-        <v>2109976006.076302</v>
+        <v>1856811342.252904</v>
       </c>
       <c r="D114">
-        <v>7109444779074893</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>5.385578804558205E-10</v>
+      </c>
+      <c r="E114">
+        <v>7072406978645970</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
-        <v>324954454505776.7</v>
+        <v>319779059674018.3</v>
       </c>
       <c r="B115">
-        <v>0.139690288599949</v>
+        <v>0.1404946450507649</v>
       </c>
       <c r="C115">
-        <v>1856810635.012207</v>
+        <v>1783435437.834022</v>
       </c>
       <c r="D115">
-        <v>7072406978645970</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>5.607157813497944E-10</v>
+      </c>
+      <c r="E115">
+        <v>7044781501860030</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
-        <v>319779059674018.3</v>
+        <v>313502826473936.5</v>
       </c>
       <c r="B116">
-        <v>0.1404946450507649</v>
+        <v>0.1414803173827655</v>
       </c>
       <c r="C116">
-        <v>1783434733.355872</v>
+        <v>2208065525.524665</v>
       </c>
       <c r="D116">
-        <v>7044781501860030</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>4.528852545229227E-10</v>
+      </c>
+      <c r="E116">
+        <v>7011279915950479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
-        <v>313502826473936.5</v>
+        <v>305890046490063.8</v>
       </c>
       <c r="B117">
-        <v>0.1414803173827655</v>
+        <v>0.1426911895639632</v>
       </c>
       <c r="C117">
-        <v>2208064824.396673</v>
+        <v>2335838454.682774</v>
       </c>
       <c r="D117">
-        <v>7011279915950479</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>4.281119254702024E-10</v>
+      </c>
+      <c r="E117">
+        <v>6970644044957524</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
-        <v>305890046490063.8</v>
+        <v>299169757391454.3</v>
       </c>
       <c r="B118">
-        <v>0.1426911895639632</v>
+        <v>0.1437742981829477</v>
       </c>
       <c r="C118">
-        <v>2335837757.618369</v>
+        <v>2302680879.75035</v>
       </c>
       <c r="D118">
-        <v>6970644044957524</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>4.342765469391954E-10</v>
+      </c>
+      <c r="E118">
+        <v>6934772155657561</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
-        <v>299169757391454.3</v>
+        <v>292070580303233</v>
       </c>
       <c r="B119">
-        <v>0.1437742981829477</v>
+        <v>0.1449332102097895</v>
       </c>
       <c r="C119">
-        <v>2302680186.273134</v>
+        <v>2180930701.227944</v>
       </c>
       <c r="D119">
-        <v>6934772155657561</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>4.585199867527178E-10</v>
+      </c>
+      <c r="E119">
+        <v>6896877819432918</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
-        <v>292070580303233</v>
+        <v>286389739319122.8</v>
       </c>
       <c r="B120">
-        <v>0.1449332102097895</v>
+        <v>0.1458716852597896</v>
       </c>
       <c r="C120">
-        <v>2180930011.540163</v>
+        <v>1821779997.810375</v>
       </c>
       <c r="D120">
-        <v>6896877819432918</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>5.489139073415194E-10</v>
+      </c>
+      <c r="E120">
+        <v>6866554347343769</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
-        <v>286389739319122.8</v>
+        <v>281596532349082</v>
       </c>
       <c r="B121">
-        <v>0.1458716852597896</v>
+        <v>0.1466713232397753</v>
       </c>
       <c r="C121">
-        <v>1821779311.15494</v>
+        <v>1768815476.531282</v>
       </c>
       <c r="D121">
-        <v>6866554347343769</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>5.653503149550877E-10</v>
+      </c>
+      <c r="E121">
+        <v>6840968931701950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
-        <v>281596532349082</v>
+        <v>276389494919974.2</v>
       </c>
       <c r="B122">
-        <v>0.1466713232397753</v>
+        <v>0.1475482069277962</v>
       </c>
       <c r="C122">
-        <v>1768814792.434389</v>
+        <v>2189815118.386968</v>
       </c>
       <c r="D122">
-        <v>6840968931701950</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>4.566596982245836E-10</v>
+      </c>
+      <c r="E122">
+        <v>6813174551505365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
-        <v>276389494919974.2</v>
+        <v>269454230160946</v>
       </c>
       <c r="B123">
-        <v>0.1475482069277962</v>
+        <v>0.1487296128120603</v>
       </c>
       <c r="C123">
-        <v>2189814437.069512</v>
+        <v>2384734554.993449</v>
       </c>
       <c r="D123">
-        <v>6813174551505365</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>4.193340017878731E-10</v>
+      </c>
+      <c r="E123">
+        <v>6776155154564053</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
-        <v>269454230160946</v>
+        <v>263501724540577.2</v>
       </c>
       <c r="B124">
-        <v>0.1487296128120603</v>
+        <v>0.1497560990854238</v>
       </c>
       <c r="C124">
-        <v>2384733877.377934</v>
+        <v>2247652492.933726</v>
       </c>
       <c r="D124">
-        <v>6776155154564053</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>4.449087673505119E-10</v>
+      </c>
+      <c r="E124">
+        <v>6744381577633343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
-        <v>263501724540577.2</v>
+        <v>257573833216125.8</v>
       </c>
       <c r="B125">
-        <v>0.1497560990854238</v>
+        <v>0.150790011881166</v>
       </c>
       <c r="C125">
-        <v>2247651818.495569</v>
+        <v>2022971605.843309</v>
       </c>
       <c r="D125">
-        <v>6744381577633343</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>4.943224753809277E-10</v>
+      </c>
+      <c r="E125">
+        <v>6712739388100614</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
-        <v>257573833216125.8</v>
+        <v>253046270271874.8</v>
       </c>
       <c r="B126">
-        <v>0.150790011881166</v>
+        <v>0.1515876539644424</v>
       </c>
       <c r="C126">
-        <v>2022970934.569371</v>
+        <v>2070879520.807588</v>
       </c>
       <c r="D126">
-        <v>6712739388100614</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>4.828867700581233E-10</v>
+      </c>
+      <c r="E126">
+        <v>6688571940190019</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
-        <v>253046270271874.8</v>
+        <v>247059880305798.3</v>
       </c>
       <c r="B127">
-        <v>0.1515876539644424</v>
+        <v>0.1526530651957417</v>
       </c>
       <c r="C127">
-        <v>2070878851.950394</v>
+        <v>2635622452.689889</v>
       </c>
       <c r="D127">
-        <v>6688571940190019</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>3.794171094357111E-10</v>
+      </c>
+      <c r="E127">
+        <v>6656617493734145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
-        <v>247059880305798.3</v>
+        <v>239990770111012.6</v>
       </c>
       <c r="B128">
-        <v>0.1526530651957417</v>
+        <v>0.1539272178204617</v>
       </c>
       <c r="C128">
-        <v>2635621787.02814</v>
+        <v>2552455417.273709</v>
       </c>
       <c r="D128">
-        <v>6656617493734145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>3.917797163260705E-10</v>
+      </c>
+      <c r="E128">
+        <v>6618883650050387</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
-        <v>239990770111012.6</v>
+        <v>234777383110857.2</v>
       </c>
       <c r="B129">
-        <v>0.1539272178204617</v>
+        <v>0.1548782230477065</v>
       </c>
       <c r="C129">
-        <v>2552454755.385345</v>
+        <v>1841016762.782021</v>
       </c>
       <c r="D129">
-        <v>6618883650050387</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>5.43178301375536E-10</v>
+      </c>
+      <c r="E129">
+        <v>6591055376801528</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
-        <v>234777383110857.2</v>
+        <v>231315870479227</v>
       </c>
       <c r="B130">
-        <v>0.1548782230477065</v>
+        <v>0.1555150547732489</v>
       </c>
       <c r="C130">
-        <v>1841016103.676484</v>
+        <v>1445395591.777402</v>
       </c>
       <c r="D130">
-        <v>6591055376801528</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>6.918524315517881E-10</v>
+      </c>
+      <c r="E130">
+        <v>6572578344621773</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
-        <v>231315870479227</v>
+        <v>228060775963615</v>
       </c>
       <c r="B131">
-        <v>0.1555150547732489</v>
+        <v>0.1561178860601186</v>
       </c>
       <c r="C131">
-        <v>1445394934.519567</v>
+        <v>1580525035.148675</v>
       </c>
       <c r="D131">
-        <v>6572578344621773</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>6.327014077664127E-10</v>
+      </c>
+      <c r="E131">
+        <v>6555203141202457</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
-        <v>228060775963615</v>
+        <v>224077538677595.3</v>
       </c>
       <c r="B132">
-        <v>0.1561178860601186</v>
+        <v>0.1568608648115282</v>
       </c>
       <c r="C132">
-        <v>1580524379.628361</v>
+        <v>1822655493.991632</v>
       </c>
       <c r="D132">
-        <v>6555203141202457</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>5.486502313691912E-10</v>
+      </c>
+      <c r="E132">
+        <v>6533941221531598</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
-        <v>224077538677595.3</v>
+        <v>219863882595950.4</v>
       </c>
       <c r="B133">
-        <v>0.1568608648115282</v>
+        <v>0.1576532422343929</v>
       </c>
       <c r="C133">
-        <v>1822654840.59751</v>
+        <v>2126773062.436795</v>
       </c>
       <c r="D133">
-        <v>6533941221531598</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>4.701960560944896E-10</v>
+      </c>
+      <c r="E133">
+        <v>6511449361093607</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
-        <v>219863882595950.4</v>
+        <v>214697634934318.2</v>
       </c>
       <c r="B134">
-        <v>0.1576532422343929</v>
+        <v>0.1586338822808779</v>
       </c>
       <c r="C134">
-        <v>2126772411.291859</v>
+        <v>2710815155.005126</v>
       </c>
       <c r="D134">
-        <v>6511449361093607</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>3.688928171067112E-10</v>
+      </c>
+      <c r="E134">
+        <v>6483872710521742</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
-        <v>214697634934318.2</v>
+        <v>208196702225411.5</v>
       </c>
       <c r="B135">
-        <v>0.1586338822808779</v>
+        <v>0.1598823855097981</v>
       </c>
       <c r="C135">
-        <v>2710814506.617855</v>
+        <v>2875320948.942257</v>
       </c>
       <c r="D135">
-        <v>6483872710521742</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>3.477873399357025E-10</v>
+      </c>
+      <c r="E135">
+        <v>6449171712535113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
-        <v>208196702225411.5</v>
+        <v>202698944413849.8</v>
       </c>
       <c r="B136">
-        <v>0.1598823855097981</v>
+        <v>0.1609510778626317</v>
       </c>
       <c r="C136">
-        <v>2875320304.025086</v>
+        <v>2727845450.036083</v>
       </c>
       <c r="D136">
-        <v>6449171712535113</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>3.665897697140459E-10</v>
+      </c>
+      <c r="E136">
+        <v>6419825510798769</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
-        <v>202698944413849.8</v>
+        <v>197112886713763.6</v>
       </c>
       <c r="B137">
-        <v>0.1609510778626317</v>
+        <v>0.1620492140700497</v>
       </c>
       <c r="C137">
-        <v>2727844808.053532</v>
+        <v>2735402588.747696</v>
       </c>
       <c r="D137">
-        <v>6419825510798769</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>3.655769858950813E-10</v>
+      </c>
+      <c r="E137">
+        <v>6390007977579527</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
-        <v>197112886713763.6</v>
+        <v>191890954868192</v>
       </c>
       <c r="B138">
-        <v>0.1620492140700497</v>
+        <v>0.1630871530439059</v>
       </c>
       <c r="C138">
-        <v>2735401949.746899</v>
+        <v>2133509002.59314</v>
       </c>
       <c r="D138">
-        <v>6390007977579527</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>4.687115437456015E-10</v>
+      </c>
+      <c r="E138">
+        <v>6362134093235020</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
-        <v>191890954868192</v>
+        <v>188901332799066.6</v>
       </c>
       <c r="B139">
-        <v>0.1630871530439059</v>
+        <v>0.1636864102983303</v>
       </c>
       <c r="C139">
-        <v>2133508366.379731</v>
+        <v>1721923673.968565</v>
       </c>
       <c r="D139">
-        <v>6362134093235020</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>5.807460479632824E-10</v>
+      </c>
+      <c r="E139">
+        <v>6346175941682494</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
-        <v>188901332799066.6</v>
+        <v>185362400446771.2</v>
       </c>
       <c r="B140">
-        <v>0.1636864102983303</v>
+        <v>0.1644005618223007</v>
       </c>
       <c r="C140">
-        <v>1721923039.350971</v>
+        <v>1611198237.442253</v>
       </c>
       <c r="D140">
-        <v>6346175941682494</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>6.206563348123283E-10</v>
+      </c>
+      <c r="E140">
+        <v>6327285654714354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
-        <v>185362400446771.2</v>
+        <v>182905671248000.8</v>
       </c>
       <c r="B141">
-        <v>0.1644005618223007</v>
+        <v>0.1648994076998266</v>
       </c>
       <c r="C141">
-        <v>1611197604.713688</v>
+        <v>1434690456.244007</v>
       </c>
       <c r="D141">
-        <v>6327285654714354</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>6.970147712037469E-10</v>
+      </c>
+      <c r="E141">
+        <v>6314172004904777</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
-        <v>182905671248000.8</v>
+        <v>180091956119302.6</v>
       </c>
       <c r="B142">
-        <v>0.1648994076998266</v>
+        <v>0.1654738722810229</v>
       </c>
       <c r="C142">
-        <v>1434689824.826806</v>
+        <v>1791891579.039203</v>
       </c>
       <c r="D142">
-        <v>6314172004904777</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>5.580696752159573E-10</v>
+      </c>
+      <c r="E142">
+        <v>6299152818060691</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
-        <v>180091956119302.6</v>
+        <v>176429799240802.5</v>
       </c>
       <c r="B143">
-        <v>0.1654738722810229</v>
+        <v>0.166226616437791</v>
       </c>
       <c r="C143">
-        <v>1791890949.123921</v>
+        <v>1969679720.421289</v>
       </c>
       <c r="D143">
-        <v>6299152818060691</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>5.076969156181953E-10</v>
+      </c>
+      <c r="E143">
+        <v>6279604777162892</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
-        <v>176429799240802.5</v>
+        <v>173120524543218.7</v>
       </c>
       <c r="B144">
-        <v>0.166226616437791</v>
+        <v>0.1669117985020701</v>
       </c>
       <c r="C144">
-        <v>1969679092.460811</v>
+        <v>2223936424.310312</v>
       </c>
       <c r="D144">
-        <v>6279604777162892</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>4.496532682494806E-10</v>
+      </c>
+      <c r="E144">
+        <v>6261940368106523</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
-        <v>173120524543218.7</v>
+        <v>168708874481329.3</v>
       </c>
       <c r="B145">
-        <v>0.1669117985020701</v>
+        <v>0.1678326586542942</v>
       </c>
       <c r="C145">
-        <v>2223935798.116275</v>
+        <v>2406376103.227546</v>
       </c>
       <c r="D145">
-        <v>6261940368106523</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>4.155627451182996E-10</v>
+      </c>
+      <c r="E145">
+        <v>6238391645673879</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
-        <v>168708874481329.3</v>
+        <v>164980880048719</v>
       </c>
       <c r="B146">
-        <v>0.1678326586542942</v>
+        <v>0.1686175222192224</v>
       </c>
       <c r="C146">
-        <v>2406375479.388381</v>
+        <v>2149409151.860768</v>
       </c>
       <c r="D146">
-        <v>6238391645673879</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>4.652442688475913E-10</v>
+      </c>
+      <c r="E146">
+        <v>6218492173845332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
-        <v>164980880048719</v>
+        <v>161597077560227.9</v>
       </c>
       <c r="B147">
-        <v>0.1686175222192224</v>
+        <v>0.1693353086402573</v>
       </c>
       <c r="C147">
-        <v>2149408530.011551</v>
+        <v>2250932576.558635</v>
       </c>
       <c r="D147">
-        <v>6218492173845332</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>4.442604304876293E-10</v>
+      </c>
+      <c r="E147">
+        <v>6200429946685312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
-        <v>161597077560227.9</v>
+        <v>157686911479218.6</v>
       </c>
       <c r="B148">
-        <v>0.1693353086402573</v>
+        <v>0.1701712128445153</v>
       </c>
       <c r="C148">
-        <v>2250931956.51564</v>
+        <v>2322924679.1704</v>
       </c>
       <c r="D148">
-        <v>6200429946685312</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>4.304919031563725E-10</v>
+      </c>
+      <c r="E148">
+        <v>6179558070082345</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
-        <v>157686911479218.6</v>
+        <v>154252648458688.7</v>
       </c>
       <c r="B149">
-        <v>0.1701712128445153</v>
+        <v>0.1709111658125225</v>
       </c>
       <c r="C149">
-        <v>2322924061.214592</v>
+        <v>2387659089.152162</v>
       </c>
       <c r="D149">
-        <v>6179558070082345</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>4.188203678607261E-10</v>
+      </c>
+      <c r="E149">
+        <v>6161226492215421</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
-        <v>154252648458688.7</v>
+        <v>150302806094155.7</v>
       </c>
       <c r="B150">
-        <v>0.1709111658125225</v>
+        <v>0.1717689842356853</v>
       </c>
       <c r="C150">
-        <v>2387658473.029512</v>
+        <v>2490503918.378961</v>
       </c>
       <c r="D150">
-        <v>6161226492215421</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>4.015252652937547E-10</v>
+      </c>
+      <c r="E150">
+        <v>6140142829597075</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
-        <v>150302806094155.7</v>
+        <v>146748553332511.4</v>
       </c>
       <c r="B151">
-        <v>0.1717689842356853</v>
+        <v>0.1725471663917407</v>
       </c>
       <c r="C151">
-        <v>2490503304.364678</v>
+        <v>2068655226.302184</v>
       </c>
       <c r="D151">
-        <v>6140142829597075</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>4.834059746575548E-10</v>
+      </c>
+      <c r="E151">
+        <v>6121170764595263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
-        <v>146748553332511.4</v>
+        <v>144214353183987.2</v>
       </c>
       <c r="B152">
-        <v>0.1725471663917407</v>
+        <v>0.1731056883169617</v>
       </c>
       <c r="C152">
-        <v>2068654614.185108</v>
+        <v>1915329645.613214</v>
       </c>
       <c r="D152">
-        <v>6121170764595263</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>5.221035037872296E-10</v>
+      </c>
+      <c r="E152">
+        <v>6107643586544154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
-        <v>144214353183987.2</v>
+        <v>141207530812496.2</v>
       </c>
       <c r="B153">
-        <v>0.1731056883169617</v>
+        <v>0.1737723834601507</v>
       </c>
       <c r="C153">
-        <v>1915329034.848855</v>
+        <v>2161783368.806559</v>
       </c>
       <c r="D153">
-        <v>6107643586544154</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>4.625811708125567E-10</v>
+      </c>
+      <c r="E153">
+        <v>6091593622372658</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
-        <v>141207530812496.2</v>
+        <v>138092899340183.2</v>
       </c>
       <c r="B154">
-        <v>0.1737723834601507</v>
+        <v>0.1744676196223066</v>
       </c>
       <c r="C154">
-        <v>2161782759.647196</v>
+        <v>2397160377.860363</v>
       </c>
       <c r="D154">
-        <v>6091593622372658</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>4.171603463244939E-10</v>
+      </c>
+      <c r="E154">
+        <v>6074968189486429</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
-        <v>138092899340183.2</v>
+        <v>134571084073386.4</v>
       </c>
       <c r="B155">
-        <v>0.1744676196223066</v>
+        <v>0.1752594962661657</v>
       </c>
       <c r="C155">
-        <v>2397159770.363544</v>
+        <v>2169527649.149107</v>
       </c>
       <c r="D155">
-        <v>6074968189486429</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>4.609299538262094E-10</v>
+      </c>
+      <c r="E155">
+        <v>6056169270938179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
-        <v>134571084073386.4</v>
+        <v>132238428805838.7</v>
       </c>
       <c r="B156">
-        <v>0.1752594962661657</v>
+        <v>0.1757873883380522</v>
       </c>
       <c r="C156">
-        <v>2169527043.532179</v>
+        <v>1820198239.347971</v>
       </c>
       <c r="D156">
-        <v>6056169270938179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>5.493908907386788E-10</v>
+      </c>
+      <c r="E156">
+        <v>6043717909054095</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
-        <v>132238428805838.7</v>
+        <v>129742035698475.1</v>
       </c>
       <c r="B157">
-        <v>0.1757873883380522</v>
+        <v>0.1763553646441142</v>
       </c>
       <c r="C157">
-        <v>1820197634.97618</v>
+        <v>1994510744.743599</v>
       </c>
       <c r="D157">
-        <v>6043717909054095</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>5.013762422614115E-10</v>
+      </c>
+      <c r="E157">
+        <v>6030392539284650</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
-        <v>129742035698475.1</v>
+        <v>127048277416476</v>
       </c>
       <c r="B158">
-        <v>0.1763553646441142</v>
+        <v>0.1769717916810759</v>
       </c>
       <c r="C158">
-        <v>1994510141.704345</v>
+        <v>2288702541.729955</v>
       </c>
       <c r="D158">
-        <v>6030392539284650</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>4.369288907684571E-10</v>
+      </c>
+      <c r="E158">
+        <v>6016013663990026</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
-        <v>127048277416476</v>
+        <v>123912163363779.2</v>
       </c>
       <c r="B159">
-        <v>0.1769717916810759</v>
+        <v>0.1776941317831803</v>
       </c>
       <c r="C159">
-        <v>2288701940.128589</v>
+        <v>2326416728.512658</v>
       </c>
       <c r="D159">
-        <v>6016013663990026</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>4.298457132035541E-10</v>
+      </c>
+      <c r="E159">
+        <v>5999273560330843</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
-        <v>123912163363779.2</v>
+        <v>121268904141749</v>
       </c>
       <c r="B160">
-        <v>0.1776941317831803</v>
+        <v>0.1783069108310814</v>
       </c>
       <c r="C160">
-        <v>2326416128.585301</v>
+        <v>2184034485.738019</v>
       </c>
       <c r="D160">
-        <v>5999273560330843</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>4.578683535318876E-10</v>
+      </c>
+      <c r="E160">
+        <v>5985164241399401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
-        <v>121268904141749</v>
+        <v>118601451723622.4</v>
       </c>
       <c r="B161">
-        <v>0.1783069108310814</v>
+        <v>0.1789290088576266</v>
       </c>
       <c r="C161">
-        <v>2184033887.221595</v>
+        <v>2233661547.07874</v>
       </c>
       <c r="D161">
-        <v>5985164241399401</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>4.476955197726833E-10</v>
+      </c>
+      <c r="E161">
+        <v>5970925782837290</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
-        <v>118601451723622.4</v>
+        <v>115957337282407.4</v>
       </c>
       <c r="B162">
-        <v>0.1789290088576266</v>
+        <v>0.179549380702317</v>
       </c>
       <c r="C162">
-        <v>2233660949.986161</v>
+        <v>2394790394.04651</v>
       </c>
       <c r="D162">
-        <v>5970925782837290</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>4.175731835347715E-10</v>
+      </c>
+      <c r="E162">
+        <v>5956811898874869</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
-        <v>115957337282407.4</v>
+        <v>113034664890522.8</v>
       </c>
       <c r="B163">
-        <v>0.179549380702317</v>
+        <v>0.1802394612886719</v>
       </c>
       <c r="C163">
-        <v>2394789798.36532</v>
+        <v>2302590818.072501</v>
       </c>
       <c r="D163">
-        <v>5956811898874869</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>4.342935141468364E-10</v>
+      </c>
+      <c r="E163">
+        <v>5941211114598575</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
-        <v>113034664890522.8</v>
+        <v>110739342931270.8</v>
       </c>
       <c r="B164">
-        <v>0.1802394612886719</v>
+        <v>0.1807846540738326</v>
       </c>
       <c r="C164">
-        <v>2302590223.95139</v>
+        <v>1961255337.085067</v>
       </c>
       <c r="D164">
-        <v>5941211114598575</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>5.098776703856629E-10</v>
+      </c>
+      <c r="E164">
+        <v>5928959032281595</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
-        <v>110739342931270.8</v>
+        <v>108678651376386</v>
       </c>
       <c r="B165">
-        <v>0.1807846540738326</v>
+        <v>0.1812765671029881</v>
       </c>
       <c r="C165">
-        <v>1961254744.189164</v>
+        <v>2076608638.948726</v>
       </c>
       <c r="D165">
-        <v>5928959032281595</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>4.815545241535047E-10</v>
+      </c>
+      <c r="E165">
+        <v>5917959371663796</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
-        <v>108678651376386</v>
+        <v>106213692035386.2</v>
       </c>
       <c r="B166">
-        <v>0.1812765671029881</v>
+        <v>0.1818680577472245</v>
       </c>
       <c r="C166">
-        <v>2076608047.152789</v>
+        <v>2760313455.492936</v>
       </c>
       <c r="D166">
-        <v>5917959371663796</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>3.622777738984231E-10</v>
+      </c>
+      <c r="E166">
+        <v>5904801790596704</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
-        <v>106213692035386.2</v>
+        <v>102803309408717.4</v>
       </c>
       <c r="B167">
-        <v>0.1818680577472245</v>
+        <v>0.1826919937355515</v>
       </c>
       <c r="C167">
-        <v>2760312865.012757</v>
+        <v>2977076861.522325</v>
       </c>
       <c r="D167">
-        <v>5904801790596704</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>3.359000268536846E-10</v>
+      </c>
+      <c r="E167">
+        <v>5886597682669309</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
-        <v>102803309408717.4</v>
+        <v>100081370684443.4</v>
       </c>
       <c r="B168">
-        <v>0.1826919937355515</v>
+        <v>0.1833543106069211</v>
       </c>
       <c r="C168">
-        <v>2977076272.862557</v>
+        <v>2720313787.439743</v>
       </c>
       <c r="D168">
-        <v>5886597682669309</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>3.676047301885618E-10</v>
+      </c>
+      <c r="E168">
+        <v>5872068384425482</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
-        <v>100081370684443.4</v>
+        <v>97347338039338.41</v>
       </c>
       <c r="B169">
-        <v>0.1833543106069211</v>
+        <v>0.1840238296674728</v>
       </c>
       <c r="C169">
-        <v>2720313200.232904</v>
+        <v>2074893605.023926</v>
       </c>
       <c r="D169">
-        <v>5872068384425482</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>4.819525588594951E-10</v>
+      </c>
+      <c r="E169">
+        <v>5857474530656901</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
-        <v>97347338039338.41</v>
+        <v>96031083438957.36</v>
       </c>
       <c r="B170">
-        <v>0.1840238296674728</v>
+        <v>0.1843476957958064</v>
       </c>
       <c r="C170">
-        <v>2074893019.276473</v>
+        <v>1567352523.789849</v>
       </c>
       <c r="D170">
-        <v>5857474530656901</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>6.380187979993304E-10</v>
+      </c>
+      <c r="E170">
+        <v>5850448562187002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
-        <v>96031083438957.36</v>
+        <v>94326628345569.03</v>
       </c>
       <c r="B171">
-        <v>0.1843476957958064</v>
+        <v>0.1847685763999347</v>
       </c>
       <c r="C171">
-        <v>1567351938.744992</v>
+        <v>2441535755.17359</v>
       </c>
       <c r="D171">
-        <v>5850448562187002</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>4.095783717809946E-10</v>
+      </c>
+      <c r="E171">
+        <v>5841350438054301</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172">
-        <v>94326628345569.03</v>
+        <v>91414836477820.92</v>
       </c>
       <c r="B172">
-        <v>0.1847685763999347</v>
+        <v>0.1854915278731144</v>
       </c>
       <c r="C172">
-        <v>2441535171.038546</v>
+        <v>2318277412.221512</v>
       </c>
       <c r="D172">
-        <v>5841350438054301</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>4.313548697956702E-10</v>
+      </c>
+      <c r="E172">
+        <v>5825807732374273</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173">
-        <v>91414836477820.92</v>
+        <v>90078272837375.92</v>
       </c>
       <c r="B173">
-        <v>0.1854915278731144</v>
+        <v>0.1858250562204693</v>
       </c>
       <c r="C173">
-        <v>2318276829.640739</v>
+        <v>1777939196.840961</v>
       </c>
       <c r="D173">
-        <v>5825807732374273</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>5.624491147096407E-10</v>
+      </c>
+      <c r="E173">
+        <v>5818673357312593</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174">
-        <v>90078272837375.92</v>
+        <v>88202067682139.31</v>
       </c>
       <c r="B174">
-        <v>0.1858250562204693</v>
+        <v>0.1862950488189213</v>
       </c>
       <c r="C174">
-        <v>1777938614.973625</v>
+        <v>2370792877.994767</v>
       </c>
       <c r="D174">
-        <v>5818673357312593</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>4.21799919466172E-10</v>
+      </c>
+      <c r="E174">
+        <v>5808658457262148</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
-        <v>88202067682139.31</v>
+        <v>85886627087010.39</v>
       </c>
       <c r="B175">
-        <v>0.1862950488189213</v>
+        <v>0.1868779958133908</v>
       </c>
       <c r="C175">
-        <v>2370792297.128922</v>
+        <v>3139927843.335217</v>
       </c>
       <c r="D175">
-        <v>5808658457262148</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>3.184787149559429E-10</v>
+      </c>
+      <c r="E175">
+        <v>5796298984702211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176">
-        <v>85886627087010.39</v>
+        <v>82799319714457.89</v>
       </c>
       <c r="B176">
-        <v>0.1868779958133908</v>
+        <v>0.1876603572712422</v>
       </c>
       <c r="C176">
-        <v>3139927263.705318</v>
+        <v>2765341426.457515</v>
       </c>
       <c r="D176">
-        <v>5796298984702211</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>3.616190751137463E-10</v>
+      </c>
+      <c r="E176">
+        <v>5779819403738042</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177">
-        <v>82799319714457.89</v>
+        <v>81298434928748.75</v>
       </c>
       <c r="B177">
-        <v>0.1876603572712422</v>
+        <v>0.1880428227930612</v>
       </c>
       <c r="C177">
-        <v>2765340848.475575</v>
+        <v>1657148906.6477</v>
       </c>
       <c r="D177">
-        <v>5779819403738042</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>6.03446283122822E-10</v>
+      </c>
+      <c r="E177">
+        <v>5771807907194523</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178">
-        <v>81298434928748.75</v>
+        <v>80096200663272.88</v>
       </c>
       <c r="B178">
-        <v>0.1880428227930612</v>
+        <v>0.1883501955795128</v>
       </c>
       <c r="C178">
-        <v>1657148329.466909</v>
+        <v>2059700256.311462</v>
       </c>
       <c r="D178">
-        <v>5771807907194523</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>4.855076736772124E-10</v>
+      </c>
+      <c r="E178">
+        <v>5765390562069788</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179">
-        <v>80096200663272.88</v>
+        <v>77990446598303.34</v>
       </c>
       <c r="B179">
-        <v>0.1883501955795128</v>
+        <v>0.1888907547654476</v>
       </c>
       <c r="C179">
-        <v>2059699679.772406</v>
+        <v>1552839560.38254</v>
       </c>
       <c r="D179">
-        <v>5765390562069788</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>6.439817712465065E-10</v>
+      </c>
+      <c r="E179">
+        <v>5754150364571861</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180">
-        <v>77990446598303.34</v>
+        <v>77665809916656.48</v>
       </c>
       <c r="B180">
-        <v>0.1888907547654476</v>
+        <v>0.1889743399152194</v>
       </c>
       <c r="C180">
-        <v>1552838984.967503</v>
+        <v>1286776506.135502</v>
       </c>
       <c r="D180">
-        <v>5754150364571861</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>7.771360778449073E-10</v>
+      </c>
+      <c r="E180">
+        <v>5752417502944055</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
-        <v>77665809916656.48</v>
+        <v>75983456087492.52</v>
       </c>
       <c r="B181">
-        <v>0.1889743399152194</v>
+        <v>0.1894085737352134</v>
       </c>
       <c r="C181">
-        <v>1286775930.893752</v>
+        <v>1890730233.738135</v>
       </c>
       <c r="D181">
-        <v>5752417502944055</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>5.288963417013832E-10</v>
+      </c>
+      <c r="E181">
+        <v>5743437352025305</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182">
-        <v>75983456087492.52</v>
+        <v>74784502329872.69</v>
       </c>
       <c r="B182">
-        <v>0.1894085737352134</v>
+        <v>0.1897191409630081</v>
       </c>
       <c r="C182">
-        <v>1890729659.394399</v>
+        <v>2029400633.5755</v>
       </c>
       <c r="D182">
-        <v>5743437352025305</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>4.92756465210313E-10</v>
+      </c>
+      <c r="E182">
+        <v>5737037517756567</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183">
-        <v>74784502329872.69</v>
+        <v>72940218052680.09</v>
       </c>
       <c r="B183">
-        <v>0.1897191409630081</v>
+        <v>0.1901986783087017</v>
       </c>
       <c r="C183">
-        <v>2029400059.871748</v>
+        <v>2304216965.100798</v>
       </c>
       <c r="D183">
-        <v>5737037517756567</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>4.339870175849504E-10</v>
+      </c>
+      <c r="E183">
+        <v>5727193006537131</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184">
-        <v>72940218052680.09</v>
+        <v>71415430674902.59</v>
       </c>
       <c r="B184">
-        <v>0.1901986783087017</v>
+        <v>0.190596811639259</v>
       </c>
       <c r="C184">
-        <v>2304216392.381497</v>
+        <v>2196868743.751496</v>
       </c>
       <c r="D184">
-        <v>5727193006537131</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>4.551934489358393E-10</v>
+      </c>
+      <c r="E184">
+        <v>5719053921563401</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185">
-        <v>71415430674902.59</v>
+        <v>69794917628613.66</v>
       </c>
       <c r="B185">
-        <v>0.190596811639259</v>
+        <v>0.1910216109029275</v>
       </c>
       <c r="C185">
-        <v>2196868171.846104</v>
+        <v>3025880661.2526</v>
       </c>
       <c r="D185">
-        <v>5719053921563401</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>3.304823622174226E-10</v>
+      </c>
+      <c r="E185">
+        <v>5710403867413550</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
-        <v>69794917628613.66</v>
+        <v>67184301303261.45</v>
       </c>
       <c r="B186">
-        <v>0.1910216109029275</v>
+        <v>0.1917096152629113</v>
       </c>
       <c r="C186">
-        <v>3025880090.212213</v>
+        <v>3479085150.207509</v>
       </c>
       <c r="D186">
-        <v>5710403867413550</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>2.874319312578647E-10</v>
+      </c>
+      <c r="E186">
+        <v>5696468791339652</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187">
-        <v>67184301303261.45</v>
+        <v>65113110563566.96</v>
       </c>
       <c r="B187">
-        <v>0.1917096152629113</v>
+        <v>0.1922587111543986</v>
       </c>
       <c r="C187">
-        <v>3479084580.560629</v>
+        <v>2660650620.921968</v>
       </c>
       <c r="D187">
-        <v>5696468791339652</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>3.758479996665605E-10</v>
+      </c>
+      <c r="E187">
+        <v>5685413087657380</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
-        <v>65113110563566.96</v>
+        <v>63712663053519.41</v>
       </c>
       <c r="B188">
-        <v>0.1922587111543986</v>
+        <v>0.1926316355026212</v>
       </c>
       <c r="C188">
-        <v>2660650052.380659</v>
+        <v>2706365460.442144</v>
       </c>
       <c r="D188">
-        <v>5685413087657380</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>3.694993246167289E-10</v>
+      </c>
+      <c r="E188">
+        <v>5677937710138096</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189">
-        <v>63712663053519.41</v>
+        <v>61657900575946.95</v>
       </c>
       <c r="B189">
-        <v>0.1926316355026212</v>
+        <v>0.1931812332073783</v>
       </c>
       <c r="C189">
-        <v>2706364892.648373</v>
+        <v>2309164162.810524</v>
       </c>
       <c r="D189">
-        <v>5677937710138096</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>4.330572340924885E-10</v>
+      </c>
+      <c r="E189">
+        <v>5666969698040455</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190">
-        <v>61657900575946.95</v>
+        <v>60858715340730.24</v>
       </c>
       <c r="B190">
-        <v>0.1931812332073783</v>
+        <v>0.1933957848039222</v>
       </c>
       <c r="C190">
-        <v>2309163596.113554</v>
+        <v>1267340885.36296</v>
       </c>
       <c r="D190">
-        <v>5666969698040455</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>7.890540409193334E-10</v>
+      </c>
+      <c r="E190">
+        <v>5662703767830132</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191">
-        <v>60858715340730.24</v>
+        <v>60109032116154.54</v>
       </c>
       <c r="B191">
-        <v>0.1933957848039222</v>
+        <v>0.1935974518884826</v>
       </c>
       <c r="C191">
-        <v>1267340319.092583</v>
+        <v>1935475933.864853</v>
       </c>
       <c r="D191">
-        <v>5662703767830132</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>5.166689364980678E-10</v>
+      </c>
+      <c r="E191">
+        <v>5658702071884107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192">
-        <v>60109032116154.54</v>
+        <v>58525713946869.67</v>
       </c>
       <c r="B192">
-        <v>0.1935974518884826</v>
+        <v>0.194024666114376</v>
       </c>
       <c r="C192">
-        <v>1935475367.994646</v>
+        <v>2109691913.96724</v>
       </c>
       <c r="D192">
-        <v>5658702071884107</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>4.740029865038826E-10</v>
+      </c>
+      <c r="E192">
+        <v>5650250558376011</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193">
-        <v>58525713946869.67</v>
+        <v>57633574794981.15</v>
       </c>
       <c r="B193">
-        <v>0.194024666114376</v>
+        <v>0.1942661656798331</v>
       </c>
       <c r="C193">
-        <v>2109691348.942184</v>
+        <v>1565499358.65656</v>
       </c>
       <c r="D193">
-        <v>5650250558376011</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>6.387740468174354E-10</v>
+      </c>
+      <c r="E193">
+        <v>5645488454182707</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194">
-        <v>57633574794981.15</v>
+        <v>56715273994291.16</v>
       </c>
       <c r="B194">
-        <v>0.1942661656798331</v>
+        <v>0.19451533923255</v>
       </c>
       <c r="C194">
-        <v>1565498794.107715</v>
+        <v>2034429340.291503</v>
       </c>
       <c r="D194">
-        <v>5645488454182707</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>4.915384660709074E-10</v>
+      </c>
+      <c r="E194">
+        <v>5640586703055179</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195">
-        <v>56715273994291.16</v>
+        <v>55320079000963.69</v>
       </c>
       <c r="B195">
-        <v>0.19451533923255</v>
+        <v>0.1948950720179079</v>
       </c>
       <c r="C195">
-        <v>2034428776.232833</v>
+        <v>2171648124.930687</v>
       </c>
       <c r="D195">
-        <v>5640586703055179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>4.604798760511206E-10</v>
+      </c>
+      <c r="E195">
+        <v>5633139362677686</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196">
-        <v>55320079000963.69</v>
+        <v>54306882168664.92</v>
       </c>
       <c r="B196">
-        <v>0.1948950720179079</v>
+        <v>0.1951717176121239</v>
       </c>
       <c r="C196">
-        <v>2171647561.616751</v>
+        <v>2422917661.620306</v>
       </c>
       <c r="D196">
-        <v>5633139362677686</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>4.12725635753609E-10</v>
+      </c>
+      <c r="E196">
+        <v>5627731070850655</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197">
-        <v>54306882168664.92</v>
+        <v>52682891885839.38</v>
       </c>
       <c r="B197">
-        <v>0.1951717176121239</v>
+        <v>0.195616698150807</v>
       </c>
       <c r="C197">
-        <v>2422917098.847199</v>
+        <v>3100542942.886803</v>
       </c>
       <c r="D197">
-        <v>5627731070850655</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>3.225242158063153E-10</v>
+      </c>
+      <c r="E197">
+        <v>5619062455736792</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198">
-        <v>52682891885839.38</v>
+        <v>51034584456779.09</v>
       </c>
       <c r="B198">
-        <v>0.195616698150807</v>
+        <v>0.1960703297494963</v>
       </c>
       <c r="C198">
-        <v>3100542380.980557</v>
+        <v>2957020527.050509</v>
       </c>
       <c r="D198">
-        <v>5619062455736792</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>3.381783050131248E-10</v>
+      </c>
+      <c r="E198">
+        <v>5610264039365123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199">
-        <v>51034584456779.09</v>
+        <v>49659479866568.7</v>
       </c>
       <c r="B199">
-        <v>0.1960703297494963</v>
+        <v>0.1964503229978349</v>
       </c>
       <c r="C199">
-        <v>2957019966.024106</v>
+        <v>2730404019.716047</v>
       </c>
       <c r="D199">
-        <v>5610264039365123</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>3.662462397447609E-10</v>
+      </c>
+      <c r="E199">
+        <v>5602923938528374</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200">
-        <v>49659479866568.7</v>
+        <v>48317719909777.12</v>
       </c>
       <c r="B200">
-        <v>0.1964503229978349</v>
+        <v>0.1968224759667149</v>
       </c>
       <c r="C200">
-        <v>2730403459.423654</v>
+        <v>2851648359.515267</v>
       </c>
       <c r="D200">
-        <v>5602923938528374</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>3.506744416408512E-10</v>
+      </c>
+      <c r="E200">
+        <v>5595761826314018</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201">
-        <v>48317719909777.12</v>
+        <v>46898867155586.39</v>
       </c>
       <c r="B201">
-        <v>0.1968224759667149</v>
+        <v>0.1972175039763947</v>
       </c>
       <c r="C201">
-        <v>2851647799.939084</v>
+        <v>2360922993.877089</v>
       </c>
       <c r="D201">
-        <v>5595761826314018</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>4.235632586444204E-10</v>
+      </c>
+      <c r="E201">
+        <v>5588188204378347</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202">
-        <v>46898867155586.39</v>
+        <v>46098471577449.38</v>
       </c>
       <c r="B202">
-        <v>0.1972175039763947</v>
+        <v>0.1974410283386631</v>
       </c>
       <c r="C202">
-        <v>2360922435.058268</v>
+        <v>2460725761.956735</v>
       </c>
       <c r="D202">
-        <v>5588188204378347</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>4.063842636923367E-10</v>
+      </c>
+      <c r="E202">
+        <v>5583915813540124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203">
-        <v>46098471577449.38</v>
+        <v>44625483629686.48</v>
       </c>
       <c r="B203">
-        <v>0.1974410283386631</v>
+        <v>0.1978536871147712</v>
       </c>
       <c r="C203">
-        <v>2460725203.565153</v>
+        <v>3492048032.630549</v>
       </c>
       <c r="D203">
-        <v>5583915813540124</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>2.863649498329847E-10</v>
+      </c>
+      <c r="E203">
+        <v>5576053226108690</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204">
-        <v>44625483629686.48</v>
+        <v>42977273973165.34</v>
       </c>
       <c r="B204">
-        <v>0.1978536871147712</v>
+        <v>0.1983174559833336</v>
       </c>
       <c r="C204">
-        <v>3492047475.025226</v>
+        <v>2661877862.31773</v>
       </c>
       <c r="D204">
-        <v>5576053226108690</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>3.75674715697509E-10</v>
+      </c>
+      <c r="E204">
+        <v>5567255331632084</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205">
-        <v>42977273973165.34</v>
+        <v>42333144356525.59</v>
       </c>
       <c r="B205">
-        <v>0.1983174559833336</v>
+        <v>0.1984992861396438</v>
       </c>
       <c r="C205">
-        <v>2661877305.592197</v>
+        <v>1891679248.889207</v>
       </c>
       <c r="D205">
-        <v>5567255331632084</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>5.286310005820584E-10</v>
+      </c>
+      <c r="E205">
+        <v>5563817064920059</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206">
-        <v>42333144356525.59</v>
+        <v>41371394039219.38</v>
       </c>
       <c r="B206">
-        <v>0.1984992861396438</v>
+        <v>0.1987713965527695</v>
       </c>
       <c r="C206">
-        <v>1891678692.5075</v>
+        <v>2144240639.69924</v>
       </c>
       <c r="D206">
-        <v>5563817064920059</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>4.663656870985263E-10</v>
+      </c>
+      <c r="E206">
+        <v>5558683386828182</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207">
-        <v>41371394039219.38</v>
+        <v>40554777157118.08</v>
       </c>
       <c r="B207">
-        <v>0.1987713965527695</v>
+        <v>0.1990030310950142</v>
       </c>
       <c r="C207">
-        <v>2144240083.830901</v>
+        <v>1743514053.470181</v>
       </c>
       <c r="D207">
-        <v>5558683386828182</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>5.735544927673131E-10</v>
+      </c>
+      <c r="E207">
+        <v>5554324409116750</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208">
-        <v>40554777157118.08</v>
+        <v>39953161766123.96</v>
       </c>
       <c r="B208">
-        <v>0.1990030310950142</v>
+        <v>0.1991740276991296</v>
       </c>
       <c r="C208">
-        <v>1743513498.03774</v>
+        <v>1700790819.582154</v>
       </c>
       <c r="D208">
-        <v>5554324409116750</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>5.879619732601903E-10</v>
+      </c>
+      <c r="E208">
+        <v>5551113076926984</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209">
-        <v>39953161766123.96</v>
+        <v>39191725857511.2</v>
       </c>
       <c r="B209">
-        <v>0.1991740276991296</v>
+        <v>0.1993908756925957</v>
       </c>
       <c r="C209">
-        <v>1700790264.470847</v>
+        <v>3128156576.185914</v>
       </c>
       <c r="D209">
-        <v>5551113076926984</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>3.196771494557814E-10</v>
+      </c>
+      <c r="E209">
+        <v>5547048646926730</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210">
-        <v>39191725857511.2</v>
+        <v>37497273521292.23</v>
       </c>
       <c r="B210">
-        <v>0.1993908756925957</v>
+        <v>0.1998751603352672</v>
       </c>
       <c r="C210">
-        <v>3128156021.481049</v>
+        <v>3217538820.839372</v>
       </c>
       <c r="D210">
-        <v>5547048646926730</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>3.107966143694928E-10</v>
+      </c>
+      <c r="E210">
+        <v>5538003916002656</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211">
-        <v>37497273521292.23</v>
+        <v>36774995123515.84</v>
       </c>
       <c r="B211">
-        <v>0.1998751603352672</v>
+        <v>0.2000823231486371</v>
       </c>
       <c r="C211">
-        <v>3217538267.03898</v>
+        <v>1551002595.266508</v>
       </c>
       <c r="D211">
-        <v>5538003916002656</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>6.447444768068479E-10</v>
+      </c>
+      <c r="E211">
+        <v>5534148502887445</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212">
-        <v>36774995123515.84</v>
+        <v>36352835277324.03</v>
       </c>
       <c r="B212">
-        <v>0.2000823231486371</v>
+        <v>0.2002036108565088</v>
       </c>
       <c r="C212">
-        <v>1551002041.851658</v>
+        <v>1965947824.480422</v>
       </c>
       <c r="D212">
-        <v>5534148502887445</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>5.086606414135221E-10</v>
+      </c>
+      <c r="E212">
+        <v>5531895077320884</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213">
-        <v>36352835277324.03</v>
+        <v>35342007988597.16</v>
       </c>
       <c r="B213">
-        <v>0.2002036108565088</v>
+        <v>0.2004946421705611</v>
       </c>
       <c r="C213">
-        <v>1965947271.290914</v>
+        <v>3442148147.931232</v>
       </c>
       <c r="D213">
-        <v>5531895077320884</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>2.905163048123975E-10</v>
+      </c>
+      <c r="E213">
+        <v>5526499433759940</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214">
-        <v>35342007988597.16</v>
+        <v>33916261248941.96</v>
       </c>
       <c r="B214">
-        <v>0.2004946421705611</v>
+        <v>0.2009066322671928</v>
       </c>
       <c r="C214">
-        <v>3442147595.281289</v>
+        <v>3579983459.882161</v>
       </c>
       <c r="D214">
-        <v>5526499433759940</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>2.793309425492606E-10</v>
+      </c>
+      <c r="E214">
+        <v>5518889012769975</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215">
-        <v>33916261248941.96</v>
+        <v>32910238582033.7</v>
       </c>
       <c r="B215">
-        <v>0.2009066322671928</v>
+        <v>0.201198405925028</v>
       </c>
       <c r="C215">
-        <v>3579982907.993259</v>
+        <v>2606015553.591098</v>
       </c>
       <c r="D215">
-        <v>5518889012769975</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>3.83727645136639E-10</v>
+      </c>
+      <c r="E215">
+        <v>5513519015555413</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216">
-        <v>32910238582033.7</v>
+        <v>32197697955194.25</v>
       </c>
       <c r="B216">
-        <v>0.201198405925028</v>
+        <v>0.2014056037459927</v>
       </c>
       <c r="C216">
-        <v>2606015002.239197</v>
+        <v>2152325807.440422</v>
       </c>
       <c r="D216">
-        <v>5513519015555413</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>4.646137924528259E-10</v>
+      </c>
+      <c r="E216">
+        <v>5509715581192299</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217">
-        <v>32197697955194.25</v>
+        <v>31521042557933.54</v>
       </c>
       <c r="B217">
-        <v>0.2014056037459927</v>
+        <v>0.2016027867311111</v>
       </c>
       <c r="C217">
-        <v>2152325256.468864</v>
+        <v>2471280006.072834</v>
       </c>
       <c r="D217">
-        <v>5509715581192299</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>4.046486923158857E-10</v>
+      </c>
+      <c r="E217">
+        <v>5506103696770573</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218">
-        <v>31521042557933.54</v>
+        <v>30636624465984.41</v>
       </c>
       <c r="B218">
-        <v>0.2016027867311111</v>
+        <v>0.2018611366558723</v>
       </c>
       <c r="C218">
-        <v>2471279455.462464</v>
+        <v>3403303849.079642</v>
       </c>
       <c r="D218">
-        <v>5506103696770573</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>2.938321719110554E-10</v>
+      </c>
+      <c r="E218">
+        <v>5501382806430327</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219">
-        <v>30636624465984.41</v>
+        <v>29432692302747.41</v>
       </c>
       <c r="B219">
-        <v>0.2018611366558723</v>
+        <v>0.2022139697342049</v>
       </c>
       <c r="C219">
-        <v>3403303298.941361</v>
+        <v>3547159714.797393</v>
       </c>
       <c r="D219">
-        <v>5501382806430327</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>2.81915739722644E-10</v>
+      </c>
+      <c r="E219">
+        <v>5494956398183510</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220">
-        <v>29432692302747.41</v>
+        <v>28545664212888.55</v>
       </c>
       <c r="B220">
-        <v>0.2022139697342049</v>
+        <v>0.2024747880233324</v>
       </c>
       <c r="C220">
-        <v>3547159165.301753</v>
+        <v>3048951049.923669</v>
       </c>
       <c r="D220">
-        <v>5494956398183510</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>3.279817103309223E-10</v>
+      </c>
+      <c r="E220">
+        <v>5490221576068199</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221">
-        <v>28545664212888.55</v>
+        <v>27689185969374</v>
       </c>
       <c r="B221">
-        <v>0.2024747880233324</v>
+        <v>0.202727325446169</v>
       </c>
       <c r="C221">
-        <v>3048950500.901512</v>
+        <v>2766094657.833158</v>
       </c>
       <c r="D221">
-        <v>5490221576068199</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>3.615205992628246E-10</v>
+      </c>
+      <c r="E221">
+        <v>5485649824423536</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222">
-        <v>27689185969374</v>
+        <v>27011114357235.26</v>
       </c>
       <c r="B222">
-        <v>0.202727325446169</v>
+        <v>0.2029277537864479</v>
       </c>
       <c r="C222">
-        <v>2766094109.268176</v>
+        <v>2029281560.927549</v>
       </c>
       <c r="D222">
-        <v>5485649824423536</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>4.927853726169747E-10</v>
+      </c>
+      <c r="E222">
+        <v>5482030380460460</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223">
-        <v>27011114357235.26</v>
+        <v>26590260702299.93</v>
       </c>
       <c r="B223">
-        <v>0.2029277537864479</v>
+        <v>0.2030523744767017</v>
       </c>
       <c r="C223">
-        <v>2029281012.724511</v>
+        <v>2014441267.084093</v>
       </c>
       <c r="D223">
-        <v>5482030380460460</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>4.964157001571852E-10</v>
+      </c>
+      <c r="E223">
+        <v>5479783927145758</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224">
-        <v>26590260702299.93</v>
+        <v>25937204933614.24</v>
       </c>
       <c r="B224">
-        <v>0.2030523744767017</v>
+        <v>0.2032460938248984</v>
       </c>
       <c r="C224">
-        <v>2014440719.105701</v>
+        <v>3403569021.137203</v>
       </c>
       <c r="D224">
-        <v>5479783927145758</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>2.938092792267207E-10</v>
+      </c>
+      <c r="E224">
+        <v>5476298013980826</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225">
-        <v>25937204933614.24</v>
+        <v>24822127062621.84</v>
       </c>
       <c r="B225">
-        <v>0.2032460938248984</v>
+        <v>0.2035778338200863</v>
       </c>
       <c r="C225">
-        <v>3403568473.507402</v>
+        <v>3243708867.121618</v>
       </c>
       <c r="D225">
-        <v>5476298013980826</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>3.082891250755771E-10</v>
+      </c>
+      <c r="E225">
+        <v>5470345896540320</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226">
-        <v>24822127062621.84</v>
+        <v>24324451272151.12</v>
       </c>
       <c r="B226">
-        <v>0.2035778338200863</v>
+        <v>0.2037262938327289</v>
       </c>
       <c r="C226">
-        <v>3243708320.087029</v>
+        <v>2525033548.612629</v>
       </c>
       <c r="D226">
-        <v>5470345896540320</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>3.960344277757299E-10</v>
+      </c>
+      <c r="E226">
+        <v>5467689378256496</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227">
-        <v>24324451272151.12</v>
+        <v>23591337998311.1</v>
       </c>
       <c r="B227">
-        <v>0.2037262938327289</v>
+        <v>0.2039454419769334</v>
       </c>
       <c r="C227">
-        <v>2525033001.843692</v>
+        <v>1523430849.95006</v>
       </c>
       <c r="D227">
-        <v>5467689378256496</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>6.56413357181486E-10</v>
+      </c>
+      <c r="E227">
+        <v>5463776130207545</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228">
-        <v>23591337998311.1</v>
+        <v>23603342335188.16</v>
       </c>
       <c r="B228">
-        <v>0.2039454419769334</v>
+        <v>0.203941849139755</v>
       </c>
       <c r="C228">
-        <v>1523430303.572447</v>
+        <v>-565377454.6728274</v>
       </c>
       <c r="D228">
-        <v>5463776130207545</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>-1.768728175009857E-09</v>
+      </c>
+      <c r="E228">
+        <v>5463840207546667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229">
-        <v>23603342335188.16</v>
+        <v>23855919237549.35</v>
       </c>
       <c r="B229">
-        <v>0.203941849139755</v>
+        <v>0.2038662882508484</v>
       </c>
       <c r="C229">
-        <v>-565378001.0568482</v>
+        <v>26189837.65277803</v>
       </c>
       <c r="D229">
-        <v>5463840207546667</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>3.818354589614E-08</v>
+      </c>
+      <c r="E229">
+        <v>5465188424944503</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230">
-        <v>23855919237549.35</v>
+        <v>23588506332557.3</v>
       </c>
       <c r="B230">
-        <v>0.2038662882508484</v>
+        <v>0.203946289501612</v>
       </c>
       <c r="C230">
-        <v>26189291.13393553</v>
+        <v>1330717090.995698</v>
       </c>
       <c r="D230">
-        <v>5465188424944503</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>7.514748381563583E-10</v>
+      </c>
+      <c r="E230">
+        <v>5463761015202972</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231">
-        <v>23588506332557.3</v>
+        <v>23225813459296.46</v>
       </c>
       <c r="B231">
-        <v>0.203946289501612</v>
+        <v>0.2040549123149703</v>
       </c>
       <c r="C231">
-        <v>1330716544.619597</v>
+        <v>2507042388.085112</v>
       </c>
       <c r="D231">
-        <v>5463761015202972</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>3.988764699838809E-10</v>
+      </c>
+      <c r="E231">
+        <v>5461825015365973</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232">
-        <v>23225813459296.46</v>
+        <v>22421667927982.1</v>
       </c>
       <c r="B232">
-        <v>0.2040549123149703</v>
+        <v>0.2042962301492129</v>
       </c>
       <c r="C232">
-        <v>2507041841.90261</v>
+        <v>3029293575.991824</v>
       </c>
       <c r="D232">
-        <v>5461825015365973</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>3.301100256785815E-10</v>
+      </c>
+      <c r="E232">
+        <v>5457532607843454</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233">
-        <v>22421667927982.1</v>
+        <v>21865182151613.85</v>
       </c>
       <c r="B233">
-        <v>0.2042962301492129</v>
+        <v>0.2044636227105239</v>
       </c>
       <c r="C233">
-        <v>3029293030.238563</v>
+        <v>2471574713.849293</v>
       </c>
       <c r="D233">
-        <v>5457532607843454</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>4.046004416085002E-10</v>
+      </c>
+      <c r="E233">
+        <v>5454562170727733</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234">
-        <v>21865182151613.85</v>
+        <v>21338700517011.26</v>
       </c>
       <c r="B234">
-        <v>0.2044636227105239</v>
+        <v>0.2046222916936849</v>
       </c>
       <c r="C234">
-        <v>2471574168.393075</v>
+        <v>2872539996.188301</v>
       </c>
       <c r="D234">
-        <v>5454562170727733</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>3.481240265115633E-10</v>
+      </c>
+      <c r="E234">
+        <v>5451751891193950</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235">
-        <v>21338700517011.26</v>
+        <v>20637171070337.96</v>
       </c>
       <c r="B235">
-        <v>0.2046222916936849</v>
+        <v>0.2048341777864161</v>
       </c>
       <c r="C235">
-        <v>2872539451.013112</v>
+        <v>2960403451.293076</v>
       </c>
       <c r="D235">
-        <v>5451751891193950</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>3.377918586037515E-10</v>
+      </c>
+      <c r="E235">
+        <v>5448007232849276</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236">
-        <v>20637171070337.96</v>
+        <v>20114798455315.62</v>
       </c>
       <c r="B236">
-        <v>0.2048341777864161</v>
+        <v>0.2049922996615987</v>
       </c>
       <c r="C236">
-        <v>2960402906.492353</v>
+        <v>2336969397.698257</v>
       </c>
       <c r="D236">
-        <v>5448007232849276</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>4.279047188159212E-10</v>
+      </c>
+      <c r="E236">
+        <v>5445218886642073</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237">
-        <v>20114798455315.62</v>
+        <v>19695055208641.26</v>
       </c>
       <c r="B237">
-        <v>0.2049922996615987</v>
+        <v>0.2051195732948956</v>
       </c>
       <c r="C237">
-        <v>2336968853.176369</v>
+        <v>4205086371.033663</v>
       </c>
       <c r="D237">
-        <v>5445218886642073</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>2.378072746201816E-10</v>
+      </c>
+      <c r="E237">
+        <v>5442978360519138</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238">
-        <v>19695055208641.26</v>
+        <v>18456489941931.88</v>
       </c>
       <c r="B238">
-        <v>0.2051195732948956</v>
+        <v>0.2054962790425566</v>
       </c>
       <c r="C238">
-        <v>4205085826.735827</v>
+        <v>6418624100.93692</v>
       </c>
       <c r="D238">
-        <v>5442978360519138</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>1.557966425469292E-10</v>
+      </c>
+      <c r="E238">
+        <v>5436367085991176</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239">
-        <v>18456489941931.88</v>
+        <v>17323953500854.05</v>
       </c>
       <c r="B239">
-        <v>0.2054962790425566</v>
+        <v>0.2058422780303288</v>
       </c>
       <c r="C239">
-        <v>6418623557.300212</v>
+        <v>4417482520.954969</v>
       </c>
       <c r="D239">
-        <v>5436367085991176</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>2.263733061046295E-10</v>
+      </c>
+      <c r="E239">
+        <v>5430321777337576</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240">
-        <v>17323953500854.05</v>
+        <v>16924241480275.39</v>
       </c>
       <c r="B240">
-        <v>0.2058422780303288</v>
+        <v>0.2059647539832767</v>
       </c>
       <c r="C240">
-        <v>4417481977.922791</v>
+        <v>3458815270.998646</v>
       </c>
       <c r="D240">
-        <v>5430321777337576</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>2.891163819364911E-10</v>
+      </c>
+      <c r="E240">
+        <v>5428188174877374</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241">
-        <v>16924241480275.39</v>
+        <v>16151553591789.34</v>
       </c>
       <c r="B241">
-        <v>0.2059647539832767</v>
+        <v>0.2062020595418828</v>
       </c>
       <c r="C241">
-        <v>3458814728.179829</v>
+        <v>2966528095.128036</v>
       </c>
       <c r="D241">
-        <v>5428188174877374</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>3.370944588337098E-10</v>
+      </c>
+      <c r="E241">
+        <v>5424063683506173</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242">
-        <v>16151553591789.34</v>
+        <v>15964394154685.3</v>
       </c>
       <c r="B242">
-        <v>0.2062020595418828</v>
+        <v>0.206259649181584</v>
       </c>
       <c r="C242">
-        <v>2966527552.721668</v>
+        <v>2539071920.450793</v>
       </c>
       <c r="D242">
-        <v>5424063683506173</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>3.938447767194505E-10</v>
+      </c>
+      <c r="E242">
+        <v>5423064654668168</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243">
-        <v>15964394154685.3</v>
+        <v>15339310703243.47</v>
       </c>
       <c r="B243">
-        <v>0.206259649181584</v>
+        <v>0.2064523053698972</v>
       </c>
       <c r="C243">
-        <v>2539071378.144327</v>
+        <v>5201154039.367427</v>
       </c>
       <c r="D243">
-        <v>5423064654668168</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>1.92265042841155E-10</v>
+      </c>
+      <c r="E243">
+        <v>5419728053512423</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244">
-        <v>15339310703243.47</v>
+        <v>14367265807439.4</v>
       </c>
       <c r="B244">
-        <v>0.2064523053698972</v>
+        <v>0.2067528837031236</v>
       </c>
       <c r="C244">
-        <v>5201153497.394622</v>
+        <v>3844859905.239101</v>
       </c>
       <c r="D244">
-        <v>5419728053512423</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>2.600875364698716E-10</v>
+      </c>
+      <c r="E244">
+        <v>5414539424513696</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245">
-        <v>14367265807439.4</v>
+        <v>14233118417458.71</v>
       </c>
       <c r="B245">
-        <v>0.2067528837031236</v>
+        <v>0.20679446131331</v>
       </c>
       <c r="C245">
-        <v>3844859363.785159</v>
+        <v>630362446.6284864</v>
       </c>
       <c r="D245">
-        <v>5414539424513696</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>1.586390281007718E-09</v>
+      </c>
+      <c r="E245">
+        <v>5413823365985163</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246">
-        <v>14233118417458.71</v>
+        <v>14186448793110.69</v>
       </c>
       <c r="B246">
-        <v>0.20679446131331</v>
+        <v>0.2068089316355847</v>
       </c>
       <c r="C246">
-        <v>630361905.2461498</v>
+        <v>2743258016.183866</v>
       </c>
       <c r="D246">
-        <v>5413823365985163</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>3.645301285703296E-10</v>
+      </c>
+      <c r="E246">
+        <v>5413574250571567</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247">
-        <v>14186448793110.69</v>
+        <v>13453404692272.75</v>
       </c>
       <c r="B247">
-        <v>0.2068089316355847</v>
+        <v>0.2070365987980505</v>
       </c>
       <c r="C247">
-        <v>2743257474.826441</v>
+        <v>3536906797.58977</v>
       </c>
       <c r="D247">
-        <v>5413574250571567</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>2.827329670180771E-10</v>
+      </c>
+      <c r="E247">
+        <v>5409661371757664</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248">
-        <v>13453404692272.75</v>
+        <v>13233480406889.83</v>
       </c>
       <c r="B248">
-        <v>0.2070365987980505</v>
+        <v>0.207105043797488</v>
       </c>
       <c r="C248">
-        <v>3536906256.623632</v>
+        <v>275461934.5211723</v>
       </c>
       <c r="D248">
-        <v>5409661371757664</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>3.630272782214912E-09</v>
+      </c>
+      <c r="E248">
+        <v>5408487449102870</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249">
-        <v>13233480406889.83</v>
+        <v>13379220341370.59</v>
       </c>
       <c r="B249">
-        <v>0.207105043797488</v>
+        <v>0.2070596791297389</v>
       </c>
       <c r="C249">
-        <v>275461393.6724274</v>
+        <v>-291851270.2041593</v>
       </c>
       <c r="D249">
-        <v>5408487449102870</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>-3.426396417160409E-09</v>
+      </c>
+      <c r="E249">
+        <v>5409265386884945</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250">
-        <v>13379220341370.59</v>
+        <v>13310282950193.55</v>
       </c>
       <c r="B250">
-        <v>0.2070596791297389</v>
+        <v>0.2070811337453348</v>
       </c>
       <c r="C250">
-        <v>-291851811.130698</v>
+        <v>1962068342.330194</v>
       </c>
       <c r="D250">
-        <v>5409265386884945</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>5.096663832237852E-10</v>
+      </c>
+      <c r="E250">
+        <v>5408897409491614</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251">
-        <v>13310282950193.55</v>
+        <v>12855621131471.33</v>
       </c>
       <c r="B251">
-        <v>0.2070811337453348</v>
+        <v>0.2072227967292269</v>
       </c>
       <c r="C251">
-        <v>1962067801.440454</v>
+        <v>4242585337.71808</v>
       </c>
       <c r="D251">
-        <v>5408897409491614</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>2.357053654391006E-10</v>
+      </c>
+      <c r="E251">
+        <v>5406470493299349</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252">
-        <v>12855621131471.33</v>
+        <v>12218220802241.38</v>
       </c>
       <c r="B252">
-        <v>0.2072227967292269</v>
+        <v>0.2074218839945598</v>
       </c>
       <c r="C252">
-        <v>4242584797.071031</v>
+        <v>2373572951.252922</v>
       </c>
       <c r="D252">
-        <v>5406470493299349</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>4.213058743808872E-10</v>
+      </c>
+      <c r="E252">
+        <v>5403068146508252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253">
-        <v>12218220802241.38</v>
+        <v>12274426259950.31</v>
       </c>
       <c r="B253">
-        <v>0.2074218839945598</v>
+        <v>0.2074043054268843</v>
       </c>
       <c r="C253">
-        <v>2373572410.946107</v>
+        <v>2859355040.878028</v>
       </c>
       <c r="D253">
-        <v>5403068146508252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>3.497292832388298E-10</v>
+      </c>
+      <c r="E253">
+        <v>5403368162761631</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254">
-        <v>12274426259950.31</v>
+        <v>11515098327144.29</v>
       </c>
       <c r="B254">
-        <v>0.2074043054268843</v>
+        <v>0.2076421770293453</v>
       </c>
       <c r="C254">
-        <v>2859354500.541212</v>
+        <v>4038146588.764573</v>
       </c>
       <c r="D254">
-        <v>5403368162761631</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>2.476383934377449E-10</v>
+      </c>
+      <c r="E254">
+        <v>5399314984818196</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255">
-        <v>11515098327144.29</v>
+        <v>11343324030338.68</v>
       </c>
       <c r="B255">
-        <v>0.2076421770293453</v>
+        <v>0.2076961058979721</v>
       </c>
       <c r="C255">
-        <v>4038146048.833075</v>
+        <v>683640258.8555732</v>
       </c>
       <c r="D255">
-        <v>5399314984818196</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>1.4627587780296E-09</v>
+      </c>
+      <c r="E255">
+        <v>5398398079537906</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256">
-        <v>11343324030338.68</v>
+        <v>11358910967500.42</v>
       </c>
       <c r="B256">
-        <v>0.2076961058979721</v>
+        <v>0.2076912105274551</v>
       </c>
       <c r="C256">
-        <v>683639719.0157652</v>
+        <v>1050706114.413899</v>
       </c>
       <c r="D256">
-        <v>5398398079537906</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>9.517414052107547E-10</v>
+      </c>
+      <c r="E256">
+        <v>5398481280256832</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257">
-        <v>11358910967500.42</v>
+        <v>11103532659371.53</v>
       </c>
       <c r="B257">
-        <v>0.2076912105274551</v>
+        <v>0.2077714630475124</v>
       </c>
       <c r="C257">
-        <v>1050705574.565771</v>
+        <v>3978176550.036783</v>
       </c>
       <c r="D257">
-        <v>5398481280256832</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>2.513714821578021E-10</v>
+      </c>
+      <c r="E257">
+        <v>5397118109377664</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258">
-        <v>11103532659371.53</v>
+        <v>10474405880815.57</v>
       </c>
       <c r="B258">
-        <v>0.2077714630475124</v>
+        <v>0.2079695921217898</v>
       </c>
       <c r="C258">
-        <v>3978176010.324972</v>
+        <v>6136849093.164538</v>
       </c>
       <c r="D258">
-        <v>5397118109377664</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>1.62950086063743E-10</v>
+      </c>
+      <c r="E258">
+        <v>5393759925551813</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259">
-        <v>10474405880815.57</v>
+        <v>9816928393078.363</v>
       </c>
       <c r="B259">
-        <v>0.2079695921217898</v>
+        <v>0.2081773172154081</v>
       </c>
       <c r="C259">
-        <v>6136848553.788546</v>
+        <v>4897618187.033635</v>
       </c>
       <c r="D259">
-        <v>5393759925551813</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>2.041809042415973E-10</v>
+      </c>
+      <c r="E259">
+        <v>5390250409917700</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260">
-        <v>9816928393078.363</v>
+        <v>9511871408625.109</v>
       </c>
       <c r="B260">
-        <v>0.2081773172154081</v>
+        <v>0.2082739371083009</v>
       </c>
       <c r="C260">
-        <v>4897617648.008595</v>
+        <v>2661761463.780206</v>
       </c>
       <c r="D260">
-        <v>5390250409917700</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>3.756911413938526E-10</v>
+      </c>
+      <c r="E260">
+        <v>5388622061759471</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261">
-        <v>9511871408625.109</v>
+        <v>9309648337732.836</v>
       </c>
       <c r="B261">
-        <v>0.2082739371083009</v>
+        <v>0.2083380724800145</v>
       </c>
       <c r="C261">
-        <v>2661760924.918</v>
+        <v>3823251484.438653</v>
       </c>
       <c r="D261">
-        <v>5388622061759471</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>2.615575106647865E-10</v>
+      </c>
+      <c r="E261">
+        <v>5387542625516996</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262">
-        <v>9309648337732.836</v>
+        <v>8799115166177.844</v>
       </c>
       <c r="B262">
-        <v>0.2083380724800145</v>
+        <v>0.2085003004845296</v>
       </c>
       <c r="C262">
-        <v>3823250945.68439</v>
+        <v>6631179003.024119</v>
       </c>
       <c r="D262">
-        <v>5387542625516996</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>1.508027578125228E-10</v>
+      </c>
+      <c r="E262">
+        <v>5384817476472773</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263">
-        <v>8799115166177.844</v>
+        <v>8141834144422.152</v>
       </c>
       <c r="B263">
-        <v>0.2085003004845296</v>
+        <v>0.2087098392836848</v>
       </c>
       <c r="C263">
-        <v>6631178464.542372</v>
+        <v>7465151939.408401</v>
       </c>
       <c r="D263">
-        <v>5384817476472773</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>1.339557560518962E-10</v>
+      </c>
+      <c r="E263">
+        <v>5381309009544428</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264">
-        <v>8141834144422.152</v>
+        <v>7582734381039.172</v>
       </c>
       <c r="B264">
-        <v>0.2087098392836848</v>
+        <v>0.2088887089897932</v>
       </c>
       <c r="C264">
-        <v>7465151401.2775</v>
+        <v>6001924281.387111</v>
       </c>
       <c r="D264">
-        <v>5381309009544428</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>1.666132464734963E-10</v>
+      </c>
+      <c r="E264">
+        <v>5378324619360401</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265">
-        <v>7582734381039.172</v>
+        <v>7230888185296.25</v>
       </c>
       <c r="B265">
-        <v>0.2088887089897932</v>
+        <v>0.209001584242816</v>
       </c>
       <c r="C265">
-        <v>6001923743.554648</v>
+        <v>3662391555.5925</v>
       </c>
       <c r="D265">
-        <v>5378324619360401</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>2.730456674613437E-10</v>
+      </c>
+      <c r="E265">
+        <v>5376446517451525</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266">
-        <v>7230888185296.25</v>
+        <v>7052395558676.429</v>
       </c>
       <c r="B266">
-        <v>0.209001584242816</v>
+        <v>0.2090589412256329</v>
       </c>
       <c r="C266">
-        <v>3662391017.947848</v>
+        <v>3085293354.645237</v>
       </c>
       <c r="D266">
-        <v>5376446517451525</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+        <v>3.241183444433272E-10</v>
+      </c>
+      <c r="E266">
+        <v>5375493750740299</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267">
-        <v>7052395558676.429</v>
+        <v>6795039322147.786</v>
       </c>
       <c r="B267">
-        <v>0.2090589412256329</v>
+        <v>0.2091417558922514</v>
       </c>
       <c r="C267">
-        <v>3085292817.095862</v>
+        <v>2145254359.827461</v>
       </c>
       <c r="D267">
-        <v>5375493750740299</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>4.661453062342271E-10</v>
+      </c>
+      <c r="E267">
+        <v>5374120021977749</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268">
-        <v>6795039322147.786</v>
+        <v>6760204001791.853</v>
       </c>
       <c r="B268">
-        <v>0.2091417558922514</v>
+        <v>0.2091529762096536</v>
       </c>
       <c r="C268">
-        <v>2145253822.415458</v>
+        <v>-191514198.9424853</v>
       </c>
       <c r="D268">
-        <v>5374120021977749</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>-5.221530306921786E-09</v>
+      </c>
+      <c r="E268">
+        <v>5373934076293390</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269">
-        <v>6760204001791.853</v>
+        <v>6820286386910.667</v>
       </c>
       <c r="B269">
-        <v>0.2091529762096536</v>
+        <v>0.209133625515126</v>
       </c>
       <c r="C269">
-        <v>-191514736.3358929</v>
+        <v>1566751908.470822</v>
       </c>
       <c r="D269">
-        <v>5373934076293390</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>6.382633635946944E-10</v>
+      </c>
+      <c r="E269">
+        <v>5374254787000360</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270">
-        <v>6820286386910.667</v>
+        <v>6545837825562.425</v>
       </c>
       <c r="B270">
-        <v>0.209133625515126</v>
+        <v>0.2092220796573545</v>
       </c>
       <c r="C270">
-        <v>1566751371.045343</v>
+        <v>2970714264.970681</v>
       </c>
       <c r="D270">
-        <v>5374254787000360</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>3.366194428895776E-10</v>
+      </c>
+      <c r="E270">
+        <v>5372789821986688</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271">
-        <v>6545837825562.425</v>
+        <v>6430744379745.473</v>
       </c>
       <c r="B271">
-        <v>0.2092220796573545</v>
+        <v>0.2092592223523273</v>
       </c>
       <c r="C271">
-        <v>2970713727.691699</v>
+        <v>819156457.4199288</v>
       </c>
       <c r="D271">
-        <v>5372789821986688</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+        <v>1.220768812551509E-09</v>
+      </c>
+      <c r="E271">
+        <v>5372175470537381</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272">
-        <v>6430744379745.473</v>
+        <v>6439867489943.49</v>
       </c>
       <c r="B272">
-        <v>0.2092592223523273</v>
+        <v>0.209256277105732</v>
       </c>
       <c r="C272">
-        <v>819155920.2023817</v>
+        <v>-1015457763.808474</v>
       </c>
       <c r="D272">
-        <v>5372175470537381</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>-9.847770203708039E-10</v>
+      </c>
+      <c r="E272">
+        <v>5372224168323189</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273">
-        <v>6439867489943.49</v>
+        <v>6560917148025.092</v>
       </c>
       <c r="B273">
-        <v>0.209256277105732</v>
+        <v>0.2092172154295169</v>
       </c>
       <c r="C273">
-        <v>-1015458301.030891</v>
+        <v>-400538886.922051</v>
       </c>
       <c r="D273">
-        <v>5372224168323189</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>-2.496633139108919E-09</v>
+      </c>
+      <c r="E273">
+        <v>5372870313134936</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274">
-        <v>6560917148025.092</v>
+        <v>6491798351855.877</v>
       </c>
       <c r="B274">
-        <v>0.2092172154295169</v>
+        <v>0.2092395155524343</v>
       </c>
       <c r="C274">
-        <v>-400539424.2090822</v>
+        <v>594041197.3579066</v>
       </c>
       <c r="D274">
-        <v>5372870313134936</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>1.683386453409741E-09</v>
+      </c>
+      <c r="E274">
+        <v>5372501367429126</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275">
-        <v>6491798351855.877</v>
+        <v>6483168721096.779</v>
       </c>
       <c r="B275">
-        <v>0.2092395155524343</v>
+        <v>0.2092423005012832</v>
       </c>
       <c r="C275">
-        <v>594040660.1077698</v>
+        <v>3127136329.973225</v>
       </c>
       <c r="D275">
-        <v>5372501367429126</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>3.197814441974501E-10</v>
+      </c>
+      <c r="E275">
+        <v>5372455303762110</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276">
-        <v>6483168721096.779</v>
+        <v>6085703622529.208</v>
       </c>
       <c r="B276">
-        <v>0.2092423005012832</v>
+        <v>0.2093707491398204</v>
       </c>
       <c r="C276">
-        <v>3127135792.727694</v>
+        <v>4010747051.162333</v>
       </c>
       <c r="D276">
-        <v>5372455303762110</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>2.493301425251443E-10</v>
+      </c>
+      <c r="E276">
+        <v>5370333695032604</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277">
-        <v>6085703622529.208</v>
+        <v>5994423031185.017</v>
       </c>
       <c r="B277">
-        <v>0.2093707491398204</v>
+        <v>0.2094002986988797</v>
       </c>
       <c r="C277">
-        <v>4010746514.128963</v>
+        <v>1679812265.861095</v>
       </c>
       <c r="D277">
-        <v>5370333695032604</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>5.953048087530946E-10</v>
+      </c>
+      <c r="E277">
+        <v>5369846453007762</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278">
-        <v>5994423031185.017</v>
+        <v>5883740983414.199</v>
       </c>
       <c r="B278">
-        <v>0.2094002986988797</v>
+        <v>0.2094361548415699</v>
       </c>
       <c r="C278">
-        <v>1679811728.876449</v>
+        <v>-184601091.1399209</v>
       </c>
       <c r="D278">
-        <v>5369846453007762</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>-5.41707031773988E-09</v>
+      </c>
+      <c r="E278">
+        <v>5369255648935665</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279">
-        <v>5883740983414.199</v>
+        <v>6015584066417.097</v>
       </c>
       <c r="B279">
-        <v>0.2094361548415699</v>
+        <v>0.2093934466910297</v>
       </c>
       <c r="C279">
-        <v>-184601628.0654857</v>
+        <v>-141009905.5632955</v>
       </c>
       <c r="D279">
-        <v>5369255648935665</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>-7.091673367239565E-09</v>
+      </c>
+      <c r="E279">
+        <v>5369959407421207</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280">
-        <v>6015584066417.097</v>
+        <v>5900131549902.763</v>
       </c>
       <c r="B280">
-        <v>0.2093934466910297</v>
+        <v>0.2094308432101631</v>
       </c>
       <c r="C280">
-        <v>-141010442.5592362</v>
+        <v>3927015288.922501</v>
       </c>
       <c r="D280">
-        <v>5369959407421207</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+        <v>2.546463568780116E-10</v>
+      </c>
+      <c r="E280">
+        <v>5369343139306691</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281">
-        <v>5900131549902.763</v>
+        <v>5551622485977.552</v>
       </c>
       <c r="B281">
-        <v>0.2094308432101631</v>
+        <v>0.2095439210633399</v>
       </c>
       <c r="C281">
-        <v>3927014751.988187</v>
+        <v>6105685414.313304</v>
       </c>
       <c r="D281">
-        <v>5369343139306691</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+        <v>1.637817902581972E-10</v>
+      </c>
+      <c r="E281">
+        <v>5367482850503974</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282">
-        <v>5551622485977.552</v>
+        <v>5221672464394.91</v>
       </c>
       <c r="B282">
-        <v>0.2095439210633399</v>
+        <v>0.2096512518388598</v>
       </c>
       <c r="C282">
-        <v>6105684877.565019</v>
+        <v>3450905206.579584</v>
       </c>
       <c r="D282">
-        <v>5367482850503974</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>2.897790856673677E-10</v>
+      </c>
+      <c r="E282">
+        <v>5365721627069229</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283">
-        <v>5221672464394.91</v>
+        <v>5190734422703.187</v>
       </c>
       <c r="B283">
-        <v>0.2096512518388598</v>
+        <v>0.2096613299602486</v>
       </c>
       <c r="C283">
-        <v>3450904670.007421</v>
+        <v>4401333426.267447</v>
       </c>
       <c r="D283">
-        <v>5365721627069229</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>2.272039005133012E-10</v>
+      </c>
+      <c r="E283">
+        <v>5365556484470386</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284">
-        <v>5190734422703.187</v>
+        <v>4764254251762.844</v>
       </c>
       <c r="B284">
-        <v>0.2096613299602486</v>
+        <v>0.2098005140780219</v>
       </c>
       <c r="C284">
-        <v>4401332889.711798</v>
+        <v>7393508352.03302</v>
       </c>
       <c r="D284">
-        <v>5365556484470386</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>1.352537962935315E-10</v>
+      </c>
+      <c r="E284">
+        <v>5363279997662138</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285">
-        <v>4764254251762.844</v>
+        <v>4485789180739.681</v>
       </c>
       <c r="B285">
-        <v>0.2098005140780219</v>
+        <v>0.2098916622536739</v>
       </c>
       <c r="C285">
-        <v>7393507815.70502</v>
+        <v>4766031719.398784</v>
       </c>
       <c r="D285">
-        <v>5363279997662138</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>2.098181823738103E-10</v>
+      </c>
+      <c r="E285">
+        <v>5361793593125803</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286">
-        <v>4485789180739.681</v>
+        <v>4336238542793.819</v>
       </c>
       <c r="B286">
-        <v>0.2098916622536739</v>
+        <v>0.209940705987778</v>
       </c>
       <c r="C286">
-        <v>4766031183.219424</v>
+        <v>-366400233.1879672</v>
       </c>
       <c r="D286">
-        <v>5361793593125803</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>-2.72925191162834E-09</v>
+      </c>
+      <c r="E286">
+        <v>5360995314383563</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287">
-        <v>4336238542793.819</v>
+        <v>4517152065267.674</v>
       </c>
       <c r="B287">
-        <v>0.209940705987778</v>
+        <v>0.2098813853901931</v>
       </c>
       <c r="C287">
-        <v>-366400769.2874986</v>
+        <v>-1612880158.17805</v>
       </c>
       <c r="D287">
-        <v>5360995314383563</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>-6.200086612035693E-10</v>
+      </c>
+      <c r="E287">
+        <v>5361961003471610</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288">
-        <v>4517152065267.674</v>
+        <v>4481520593455.458</v>
       </c>
       <c r="B288">
-        <v>0.2098813853901931</v>
+        <v>0.209893061187697</v>
       </c>
       <c r="C288">
-        <v>-1612880694.37415</v>
+        <v>3487610336.485435</v>
       </c>
       <c r="D288">
-        <v>5361961003471610</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+        <v>2.867293238800928E-10</v>
+      </c>
+      <c r="E288">
+        <v>5361770808050894</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289">
-        <v>4481520593455.458</v>
+        <v>4204129085427.44</v>
       </c>
       <c r="B289">
-        <v>0.209893061187697</v>
+        <v>0.2099840855605717</v>
       </c>
       <c r="C289">
-        <v>3487609800.308355</v>
+        <v>3931719201.111537</v>
       </c>
       <c r="D289">
-        <v>5361770808050894</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>2.543416976603566E-10</v>
+      </c>
+      <c r="E289">
+        <v>5360290134031857</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290">
-        <v>4204129085427.44</v>
+        <v>4150531068881.376</v>
       </c>
       <c r="B290">
-        <v>0.2099840855605717</v>
+        <v>0.2100017002196881</v>
       </c>
       <c r="C290">
-        <v>3931718665.082523</v>
+        <v>3876521568.734553</v>
       </c>
       <c r="D290">
-        <v>5360290134031857</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>2.579632592099442E-10</v>
+      </c>
+      <c r="E290">
+        <v>5360004035906013</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291">
-        <v>4150531068881.376</v>
+        <v>3881941335750.142</v>
       </c>
       <c r="B291">
-        <v>0.2100017002196881</v>
+        <v>0.2100901065307313</v>
       </c>
       <c r="C291">
-        <v>3876521032.734149</v>
+        <v>7695472376.296076</v>
       </c>
       <c r="D291">
-        <v>5360004035906013</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>1.299465478835341E-10</v>
+      </c>
+      <c r="E291">
+        <v>5358570344433427</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292">
-        <v>3881941335750.142</v>
+        <v>3552694072435.497</v>
       </c>
       <c r="B292">
-        <v>0.2100901065307313</v>
+        <v>0.2101988021528929</v>
       </c>
       <c r="C292">
-        <v>7695471840.439041</v>
+        <v>3879089371.909834</v>
       </c>
       <c r="D292">
-        <v>5358570344433427</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
+        <v>2.577924977279593E-10</v>
+      </c>
+      <c r="E292">
+        <v>5356812872216289</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293">
-        <v>3552694072435.497</v>
+        <v>3605978947579.999</v>
       </c>
       <c r="B293">
-        <v>0.2101988021528929</v>
+        <v>0.2101811858319546</v>
       </c>
       <c r="C293">
-        <v>3879088836.228547</v>
+        <v>306335775.2071373</v>
       </c>
       <c r="D293">
-        <v>5356812872216289</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+        <v>3.264397532718279E-09</v>
+      </c>
+      <c r="E293">
+        <v>5357097298840576</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294">
-        <v>3605978947579.999</v>
+        <v>3530258134792.778</v>
       </c>
       <c r="B294">
-        <v>0.2101811858319546</v>
+        <v>0.210206222607974</v>
       </c>
       <c r="C294">
-        <v>306335239.4974074</v>
+        <v>-1220443015.374889</v>
       </c>
       <c r="D294">
-        <v>5357097298840576</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+        <v>-8.193742341826537E-10</v>
+      </c>
+      <c r="E294">
+        <v>5356693112566124</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295">
-        <v>3530258134792.778</v>
+        <v>3691812640024.562</v>
       </c>
       <c r="B295">
-        <v>0.210206222607974</v>
+        <v>0.2101528294160029</v>
       </c>
       <c r="C295">
-        <v>-1220443551.0442</v>
+        <v>564060730.5928102</v>
       </c>
       <c r="D295">
-        <v>5356693112566124</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
+        <v>1.772860430771061E-09</v>
+      </c>
+      <c r="E295">
+        <v>5357555466140880</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296">
-        <v>3691812640024.562</v>
+        <v>3488258658584.985</v>
       </c>
       <c r="B296">
-        <v>0.2101528294160029</v>
+        <v>0.210220118310795</v>
       </c>
       <c r="C296">
-        <v>564060194.8372636</v>
+        <v>743252112.9418323</v>
       </c>
       <c r="D296">
-        <v>5357555466140880</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+        <v>1.345439458923847E-09</v>
+      </c>
+      <c r="E296">
+        <v>5356468925698703</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297">
-        <v>3488258658584.985</v>
+        <v>3639627660402.025</v>
       </c>
       <c r="B297">
-        <v>0.210220118310795</v>
+        <v>0.2101700664565276</v>
       </c>
       <c r="C297">
-        <v>743251577.2949398</v>
+        <v>-2511115434.64731</v>
       </c>
       <c r="D297">
-        <v>5356468925698703</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
+        <v>-3.982293178799956E-10</v>
+      </c>
+      <c r="E297">
+        <v>5357276910592946</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298">
-        <v>3639627660402.025</v>
+        <v>3670702811756.087</v>
       </c>
       <c r="B298">
-        <v>0.2101700664565276</v>
+        <v>0.2101598010039253</v>
       </c>
       <c r="C298">
-        <v>-2511115970.375001</v>
+        <v>-685441762.0989716</v>
       </c>
       <c r="D298">
-        <v>5357276910592946</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
+        <v>-1.458912009291677E-09</v>
+      </c>
+      <c r="E298">
+        <v>5357442785062481</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299">
-        <v>3670702811756.087</v>
+        <v>3689599395547.985</v>
       </c>
       <c r="B299">
-        <v>0.2101598010039253</v>
+        <v>0.2101535602754801</v>
       </c>
       <c r="C299">
-        <v>-685442297.8432502</v>
+        <v>-1312659216.724924</v>
       </c>
       <c r="D299">
-        <v>5357442785062481</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
+        <v>-7.618120370577736E-10</v>
+      </c>
+      <c r="E299">
+        <v>5357543652175783</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300">
-        <v>3689599395547.985</v>
+        <v>3767215411152.005</v>
       </c>
       <c r="B300">
-        <v>0.2101535602754801</v>
+        <v>0.2101279397875873</v>
       </c>
       <c r="C300">
-        <v>-1312659752.479289</v>
+        <v>-2065061035.759871</v>
       </c>
       <c r="D300">
-        <v>5357543652175783</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301">
-        <v>3767215411152.005</v>
-      </c>
-      <c r="B301">
-        <v>0.2101279397875873</v>
-      </c>
-      <c r="C301">
-        <v>-2065061571.555666</v>
-      </c>
-      <c r="D301">
+        <v>-4.842470625448099E-10</v>
+      </c>
+      <c r="E300">
         <v>5357957954756936</v>
       </c>
     </row>

--- a/Lifetime_SRH.xlsx
+++ b/Lifetime_SRH.xlsx
@@ -469,12 +469,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>valor independiente</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>lifetime SRH (us)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>valor independiente</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -486,22 +486,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>1.8561e+16</t>
+          <t>2.3384e+16</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>1.8700e+04</t>
+          <t>9.0446e+03</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>-5.7947e+01</t>
+          <t>1.5849e+17</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>1.7978e+17</t>
+          <t>-4.4145e+01</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -513,22 +513,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>1.8034e+16</t>
+          <t>2.1511e+16</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>1.8347e+04</t>
+          <t>9.0999e+03</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>-5.8659e+01</t>
+          <t>1.4649e+17</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>1.7698e+17</t>
+          <t>-4.9509e+01</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -540,22 +540,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>1.7483e+16</t>
+          <t>1.9729e+16</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>1.7977e+04</t>
+          <t>8.9570e+03</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5.9418e+01</t>
+          <t>1.3508e+17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1.7403e+17</t>
+          <t>-5.5377e+01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -567,22 +567,22 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>1.6920e+16</t>
+          <t>1.8106e+16</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>1.7625e+04</t>
+          <t>8.6948e+03</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6.0310e+01</t>
+          <t>1.2468e+17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1.7103e+17</t>
+          <t>-6.1571e+01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -594,22 +594,22 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>1.6372e+16</t>
+          <t>1.6638e+16</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>1.7295e+04</t>
+          <t>8.4681e+03</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6.1255e+01</t>
+          <t>1.1527e+17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1.6810e+17</t>
+          <t>-6.8557e+01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -621,22 +621,22 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>1.5842e+16</t>
+          <t>1.5307e+16</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>1.6980e+04</t>
+          <t>8.2802e+03</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6.2213e+01</t>
+          <t>1.0675e+17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1.6527e+17</t>
+          <t>-7.6515e+01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -648,22 +648,22 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>1.5314e+16</t>
+          <t>1.4100e+16</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>1.6678e+04</t>
+          <t>7.9955e+03</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6.3242e+01</t>
+          <t>9.9017e+16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1.6245e+17</t>
+          <t>-8.4688e+01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -675,22 +675,22 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>1.4796e+16</t>
+          <t>1.3039e+16</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>1.6384e+04</t>
+          <t>7.6583e+03</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6.4291e+01</t>
+          <t>9.2221e+16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1.5969e+17</t>
+          <t>-9.2713e+01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -702,22 +702,22 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>1.4292e+16</t>
+          <t>1.2086e+16</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>1.6106e+04</t>
+          <t>7.4916e+03</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6.5388e+01</t>
+          <t>8.6117e+16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1.5700e+17</t>
+          <t>-1.0276e+02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -729,22 +729,22 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>1.3802e+16</t>
+          <t>1.1211e+16</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>1.5842e+04</t>
+          <t>7.2882e+03</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6.6512e+01</t>
+          <t>8.0514e+16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1.5438e+17</t>
+          <t>-1.1345e+02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -756,22 +756,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>1.3326e+16</t>
+          <t>1.0436e+16</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>1.5587e+04</t>
+          <t>6.9596e+03</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6.7650e+01</t>
+          <t>7.5548e+16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1.5184e+17</t>
+          <t>-1.2270e+02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -783,22 +783,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>1.2863e+16</t>
+          <t>9.7439e+15</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>1.5342e+04</t>
+          <t>6.7236e+03</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6.8811e+01</t>
+          <t>7.1115e+16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1.4937e+17</t>
+          <t>-1.3334e+02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -810,22 +810,22 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>1.2416e+16</t>
+          <t>9.1116e+15</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>1.5107e+04</t>
+          <t>6.5919e+03</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6.9980e+01</t>
+          <t>6.7066e+16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1.4698e+17</t>
+          <t>-1.4660e+02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -837,22 +837,22 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>1.1978e+16</t>
+          <t>8.5293e+15</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>1.4882e+04</t>
+          <t>6.3909e+03</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7.1188e+01</t>
+          <t>6.3335e+16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1.4465e+17</t>
+          <t>-1.5933e+02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -864,22 +864,22 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>1.1558e+16</t>
+          <t>8.0086e+15</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>1.4662e+04</t>
+          <t>6.1232e+03</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7.2361e+01</t>
+          <t>6.0000e+16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1.4241e+17</t>
+          <t>-1.7016e+02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -891,22 +891,22 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>1.1148e+16</t>
+          <t>7.5363e+15</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>1.4453e+04</t>
+          <t>5.9862e+03</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7.3578e+01</t>
+          <t>5.6975e+16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1.4022e+17</t>
+          <t>-1.8488e+02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -918,22 +918,22 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>1.0752e+16</t>
+          <t>7.0947e+15</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>1.4253e+04</t>
+          <t>5.8503e+03</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7.4803e+01</t>
+          <t>5.4146e+16</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1.3811e+17</t>
+          <t>-2.0085e+02</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -945,22 +945,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>1.0368e+16</t>
+          <t>6.6951e+15</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>1.4064e+04</t>
+          <t>5.5870e+03</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7.6059e+01</t>
+          <t>5.1587e+16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1.3606e+17</t>
+          <t>-2.1140e+02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -972,22 +972,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>9.9976e+15</t>
+          <t>6.3361e+15</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>1.3878e+04</t>
+          <t>5.4277e+03</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-7.7294e+01</t>
+          <t>4.9287e+16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1.3408e+17</t>
+          <t>-2.2575e+02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>9.6389e+15</t>
+          <t>5.9974e+15</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>1.3698e+04</t>
+          <t>5.3389e+03</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7.8525e+01</t>
+          <t>4.7118e+16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1.3216e+17</t>
+          <t>-2.4482e+02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>9.2955e+15</t>
+          <t>5.6861e+15</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>1.3522e+04</t>
+          <t>5.1385e+03</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-7.9718e+01</t>
+          <t>4.5124e+16</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1.3033e+17</t>
+          <t>-2.5732e+02</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1053,22 +1053,22 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>8.9607e+15</t>
+          <t>5.4040e+15</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>1.3359e+04</t>
+          <t>5.0025e+03</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8.0973e+01</t>
+          <t>4.3317e+16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1.2854e+17</t>
+          <t>-2.7316e+02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1080,22 +1080,22 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>8.6393e+15</t>
+          <t>5.1367e+15</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>1.3195e+04</t>
+          <t>4.9704e+03</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-8.2170e+01</t>
+          <t>4.1604e+16</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1.2683e+17</t>
+          <t>-2.9847e+02</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1107,22 +1107,22 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>8.3275e+15</t>
+          <t>4.8852e+15</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>1.3040e+04</t>
+          <t>4.8404e+03</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8.3385e+01</t>
+          <t>3.9994e+16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1.2516e+17</t>
+          <t>-3.1662e+02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1134,22 +1134,22 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>8.0275e+15</t>
+          <t>4.6563e+15</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>1.2887e+04</t>
+          <t>4.6982e+03</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-8.4564e+01</t>
+          <t>3.8527e+16</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1.2356e+17</t>
+          <t>-3.3253e+02</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1161,22 +1161,22 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>7.7353e+15</t>
+          <t>4.4407e+15</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>1.2745e+04</t>
+          <t>4.5700e+03</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8.5799e+01</t>
+          <t>3.7146e+16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1.2200e+17</t>
+          <t>-3.4974e+02</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1188,22 +1188,22 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>7.4525e+15</t>
+          <t>4.2442e+15</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>1.2605e+04</t>
+          <t>4.3676e+03</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-8.7005e+01</t>
+          <t>3.5887e+16</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1.2049e+17</t>
+          <t>-3.5589e+02</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1215,22 +1215,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>7.1826e+15</t>
+          <t>4.0643e+15</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>1.2467e+04</t>
+          <t>4.3070e+03</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8.8161e+01</t>
+          <t>3.4735e+16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1.1905e+17</t>
+          <t>-3.7878e+02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1242,22 +1242,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>6.9168e+15</t>
+          <t>3.8889e+15</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>1.2342e+04</t>
+          <t>4.2809e+03</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-8.9409e+01</t>
+          <t>3.3612e+16</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1.1763e+17</t>
+          <t>-4.0959e+02</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1269,22 +1269,22 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>6.6634e+15</t>
+          <t>3.7267e+15</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>1.2209e+04</t>
+          <t>4.1939e+03</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9.0527e+01</t>
+          <t>3.2573e+16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1.1628e+17</t>
+          <t>-4.3091e+02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1296,22 +1296,22 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>6.4202e+15</t>
+          <t>3.5721e+15</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>1.2087e+04</t>
+          <t>4.0951e+03</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-9.1663e+01</t>
+          <t>3.1583e+16</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>1.1498e+17</t>
+          <t>-4.5016e+02</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1323,22 +1323,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>6.1842e+15</t>
+          <t>3.4303e+15</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>1.1969e+04</t>
+          <t>3.9731e+03</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9.2802e+01</t>
+          <t>3.0674e+16</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1.1372e+17</t>
+          <t>-4.6258e+02</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1350,22 +1350,22 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5.9564e+15</t>
+          <t>3.2961e+15</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>1.1852e+04</t>
+          <t>3.9472e+03</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-9.3902e+01</t>
+          <t>2.9814e+16</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1.1251e+17</t>
+          <t>-4.9611e+02</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1377,22 +1377,22 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>5.7381e+15</t>
+          <t>3.1669e+15</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>1.1740e+04</t>
+          <t>3.8854e+03</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-9.4986e+01</t>
+          <t>2.8987e+16</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>1.1134e+17</t>
+          <t>-5.2301e+02</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5.5276e+15</t>
+          <t>3.0471e+15</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>1.1632e+04</t>
+          <t>3.7901e+03</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-9.6046e+01</t>
+          <t>2.8219e+16</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>1.1022e+17</t>
+          <t>-5.3945e+02</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -1431,22 +1431,22 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5.3227e+15</t>
+          <t>2.9333e+15</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>1.1534e+04</t>
+          <t>3.6255e+03</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-9.7172e+01</t>
+          <t>2.7491e+16</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1.0912e+17</t>
+          <t>-5.3402e+02</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1458,22 +1458,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5.1244e+15</t>
+          <t>2.8319e+15</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>1.1435e+04</t>
+          <t>3.5906e+03</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-9.8249e+01</t>
+          <t>2.6841e+16</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>1.0806e+17</t>
+          <t>-5.6255e+02</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1485,22 +1485,22 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>4.9353e+15</t>
+          <t>2.7276e+15</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>1.1335e+04</t>
+          <t>3.6003e+03</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-9.9247e+01</t>
+          <t>2.6173e+16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>1.0705e+17</t>
+          <t>-6.1185e+02</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1512,22 +1512,22 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>4.7527e+15</t>
+          <t>2.6334e+15</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>1.1239e+04</t>
+          <t>3.5698e+03</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-1.0023e+02</t>
+          <t>2.5570e+16</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>1.0608e+17</t>
+          <t>-6.4763e+02</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
@@ -1539,22 +1539,22 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>4.5762e+15</t>
+          <t>2.5376e+15</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>1.1150e+04</t>
+          <t>3.6410e+03</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-1.0124e+02</t>
+          <t>2.4956e+16</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>1.0514e+17</t>
+          <t>-7.4060e+02</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
@@ -1566,22 +1566,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>4.4068e+15</t>
+          <t>2.4468e+15</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>1.1063e+04</t>
+          <t>3.4479e+03</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-1.0221e+02</t>
+          <t>2.4374e+16</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>1.0423e+17</t>
+          <t>-7.0079e+02</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -1593,22 +1593,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>4.2413e+15</t>
+          <t>2.3672e+15</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>1.0983e+04</t>
+          <t>3.2370e+03</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-1.0323e+02</t>
+          <t>2.3865e+16</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>1.0335e+17</t>
+          <t>-6.5105e+02</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -1620,22 +1620,22 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>4.0838e+15</t>
+          <t>2.2919e+15</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>1.0899e+04</t>
+          <t>3.3024e+03</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-1.0413e+02</t>
+          <t>2.3383e+16</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>1.0251e+17</t>
+          <t>-7.2777e+02</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -1647,22 +1647,22 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>3.9318e+15</t>
+          <t>2.2144e+15</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>1.0823e+04</t>
+          <t>3.3281e+03</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-1.0507e+02</t>
+          <t>2.2886e+16</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>1.0170e+17</t>
+          <t>-8.0061e+02</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -1674,22 +1674,22 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>3.7861e+15</t>
+          <t>2.1432e+15</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>1.0744e+04</t>
+          <t>3.2204e+03</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>-1.0593e+02</t>
+          <t>2.2430e+16</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>1.0092e+17</t>
+          <t>-7.9018e+02</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1701,22 +1701,22 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>3.6431e+15</t>
+          <t>2.0751e+15</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>1.0677e+04</t>
+          <t>3.2257e+03</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>-1.0690e+02</t>
+          <t>2.1993e+16</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>1.0016e+17</t>
+          <t>-8.5254e+02</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1728,22 +1728,22 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>3.5064e+15</t>
+          <t>2.0081e+15</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>1.0608e+04</t>
+          <t>3.2665e+03</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>-1.0778e+02</t>
+          <t>2.1564e+16</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>9.9427e+16</t>
+          <t>-9.5566e+02</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
@@ -1755,22 +1755,22 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>3.3744e+15</t>
+          <t>1.9427e+15</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>1.0540e+04</t>
+          <t>3.1186e+03</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>-1.0864e+02</t>
+          <t>2.1146e+16</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>9.8723e+16</t>
+          <t>-9.0041e+02</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -1782,22 +1782,22 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>3.2482e+15</t>
+          <t>1.8859e+15</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>1.0466e+04</t>
+          <t>2.9746e+03</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>-1.0936e+02</t>
+          <t>2.0782e+16</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>9.8049e+16</t>
+          <t>-8.4621e+02</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -1809,22 +1809,22 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>3.1262e+15</t>
+          <t>1.8296e+15</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>1.0402e+04</t>
+          <t>2.8941e+03</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>-1.1016e+02</t>
+          <t>2.0421e+16</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>9.7398e+16</t>
+          <t>-8.4033e+02</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
@@ -1836,22 +1836,22 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>3.0065e+15</t>
+          <t>1.7790e+15</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>1.0344e+04</t>
+          <t>2.8367e+03</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>-1.1101e+02</t>
+          <t>2.0097e+16</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>9.6759e+16</t>
+          <t>-8.4550e+02</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -1863,22 +1863,22 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2.8927e+15</t>
+          <t>1.7277e+15</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>1.0280e+04</t>
+          <t>3.0595e+03</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>-1.1173e+02</t>
+          <t>1.9769e+16</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>9.6152e+16</t>
+          <t>-1.1183e+03</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
@@ -1890,22 +1890,22 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2.7816e+15</t>
+          <t>1.6725e+15</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>1.0227e+04</t>
+          <t>3.0558e+03</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>-1.1255e+02</t>
+          <t>1.9415e+16</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>9.5559e+16</t>
+          <t>-1.2090e+03</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
@@ -1917,22 +1917,22 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2.6750e+15</t>
+          <t>1.6247e+15</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>1.0173e+04</t>
+          <t>2.7802e+03</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>-1.1332e+02</t>
+          <t>1.9109e+16</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>9.4990e+16</t>
+          <t>-9.6011e+02</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -1944,22 +1944,22 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2.5735e+15</t>
+          <t>1.5814e+15</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>1.0116e+04</t>
+          <t>2.7698e+03</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>-1.1397e+02</t>
+          <t>1.8831e+16</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>9.4448e+16</t>
+          <t>-1.0036e+03</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1971,22 +1971,22 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2.4740e+15</t>
+          <t>1.5364e+15</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>1.0071e+04</t>
+          <t>2.8705e+03</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>-1.1478e+02</t>
+          <t>1.8543e+16</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>9.3917e+16</t>
+          <t>-1.1932e+03</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -1998,22 +1998,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2.3788e+15</t>
+          <t>1.4925e+15</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>1.0026e+04</t>
+          <t>2.8493e+03</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>-1.1554e+02</t>
+          <t>1.8262e+16</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>9.3408e+16</t>
+          <t>-1.2452e+03</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
@@ -2025,22 +2025,22 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2.2863e+15</t>
+          <t>1.4507e+15</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>9.9883e+03</t>
+          <t>2.8798e+03</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>-1.1635e+02</t>
+          <t>1.7994e+16</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>9.2915e+16</t>
+          <t>-1.3907e+03</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2.1982e+15</t>
+          <t>1.4084e+15</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>9.9371e+03</t>
+          <t>2.8113e+03</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>-1.1693e+02</t>
+          <t>1.7723e+16</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>9.2444e+16</t>
+          <t>-1.3638e+03</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
@@ -2079,22 +2079,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2.1122e+15</t>
+          <t>1.3710e+15</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>9.8953e+03</t>
+          <t>2.6318e+03</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>-1.1762e+02</t>
+          <t>1.7483e+16</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>9.1986e+16</t>
+          <t>-1.1562e+03</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
@@ -2106,22 +2106,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2.0296e+15</t>
+          <t>1.3356e+15</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>9.8506e+03</t>
+          <t>2.7292e+03</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>-1.1823e+02</t>
+          <t>1.7257e+16</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>9.1545e+16</t>
+          <t>-1.3846e+03</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
@@ -2133,22 +2133,22 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>1.9496e+15</t>
+          <t>1.2976e+15</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>9.8120e+03</t>
+          <t>2.7940e+03</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>-1.1889e+02</t>
+          <t>1.7013e+16</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>9.1117e+16</t>
+          <t>-1.6430e+03</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
@@ -2160,22 +2160,22 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>1.8727e+15</t>
+          <t>1.2627e+15</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>9.7738e+03</t>
+          <t>2.6040e+03</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>-1.1951e+02</t>
+          <t>1.6790e+16</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>9.0707e+16</t>
+          <t>-1.3264e+03</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
@@ -2187,22 +2187,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>1.7986e+15</t>
+          <t>1.2313e+15</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>9.7393e+03</t>
+          <t>2.6732e+03</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>-1.2015e+02</t>
+          <t>1.6589e+16</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>9.0312e+16</t>
+          <t>-1.5513e+03</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -2214,22 +2214,22 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>1.7274e+15</t>
+          <t>1.1964e+15</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>9.7098e+03</t>
+          <t>2.7733e+03</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>-1.2082e+02</t>
+          <t>1.6365e+16</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>8.9931e+16</t>
+          <t>-2.0014e+03</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
@@ -2241,22 +2241,22 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>1.6578e+15</t>
+          <t>1.1645e+15</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>9.6888e+03</t>
+          <t>2.6598e+03</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>-1.2161e+02</t>
+          <t>1.6161e+16</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>8.9560e+16</t>
+          <t>-1.7468e+03</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
@@ -2268,22 +2268,22 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>1.5914e+15</t>
+          <t>1.1340e+15</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>9.6642e+03</t>
+          <t>2.5819e+03</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>-1.2230e+02</t>
+          <t>1.5966e+16</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>8.9205e+16</t>
+          <t>-1.6361e+03</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
@@ -2295,22 +2295,22 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>1.5268e+15</t>
+          <t>1.1056e+15</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>9.6361e+03</t>
+          <t>2.5488e+03</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>-1.2291e+02</t>
+          <t>1.5784e+16</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>8.8861e+16</t>
+          <t>-1.6451e+03</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
@@ -2322,22 +2322,22 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>1.4650e+15</t>
+          <t>1.0773e+15</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>9.6075e+03</t>
+          <t>2.3449e+03</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>-1.2348e+02</t>
+          <t>1.5602e+16</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>8.8531e+16</t>
+          <t>-1.2895e+03</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
@@ -2349,22 +2349,22 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>1.4059e+15</t>
+          <t>1.0547e+15</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>9.5810e+03</t>
+          <t>2.2595e+03</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>-1.2404e+02</t>
+          <t>1.5458e+16</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>8.8215e+16</t>
+          <t>-1.2019e+03</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
@@ -2376,22 +2376,22 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>1.3482e+15</t>
+          <t>1.0293e+15</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>9.5573e+03</t>
+          <t>2.5683e+03</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>-1.2462e+02</t>
+          <t>1.5295e+16</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>8.7907e+16</t>
+          <t>-2.0383e+03</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
@@ -2403,22 +2403,22 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>1.2933e+15</t>
+          <t>1.0015e+15</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>9.5368e+03</t>
+          <t>2.6177e+03</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>-1.2522e+02</t>
+          <t>1.5117e+16</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>8.7615e+16</t>
+          <t>-2.4653e+03</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
@@ -2430,22 +2430,22 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>1.2405e+15</t>
+          <t>9.7653e+14</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>9.5199e+03</t>
+          <t>2.5776e+03</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>-1.2584e+02</t>
+          <t>1.4957e+16</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>8.7333e+16</t>
+          <t>-2.4170e+03</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
@@ -2457,22 +2457,22 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>1.1890e+15</t>
+          <t>9.5088e+14</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>9.5071e+03</t>
+          <t>2.5243e+03</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>-1.2651e+02</t>
+          <t>1.4792e+16</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>8.7057e+16</t>
+          <t>-2.3029e+03</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
@@ -2484,22 +2484,22 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>1.1386e+15</t>
+          <t>9.2824e+14</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>9.4940e+03</t>
+          <t>2.2849e+03</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>-1.2717e+02</t>
+          <t>1.4647e+16</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>8.6789e+16</t>
+          <t>-1.5514e+03</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -2511,22 +2511,22 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>1.0907e+15</t>
+          <t>9.0819e+14</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>9.4754e+03</t>
+          <t>2.1973e+03</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>-1.2769e+02</t>
+          <t>1.4519e+16</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>8.6533e+16</t>
+          <t>-1.4154e+03</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
@@ -2538,22 +2538,22 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>1.0448e+15</t>
+          <t>8.8806e+14</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>9.4667e+03</t>
+          <t>2.3486e+03</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>-1.2835e+02</t>
+          <t>1.4390e+16</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>8.6288e+16</t>
+          <t>-1.8890e+03</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
@@ -2565,22 +2565,22 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>9.9918e+14</t>
+          <t>8.6621e+14</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>9.4617e+03</t>
+          <t>2.5226e+03</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>-1.2908e+02</t>
+          <t>1.4250e+16</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>8.6044e+16</t>
+          <t>-3.0544e+03</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
@@ -2592,22 +2592,22 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>9.5676e+14</t>
+          <t>8.4412e+14</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>9.4322e+03</t>
+          <t>2.4638e+03</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>-1.2934e+02</t>
+          <t>1.4109e+16</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>8.5818e+16</t>
+          <t>-2.7938e+03</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2619,22 +2619,22 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>9.1544e+14</t>
+          <t>8.2438e+14</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>9.4284e+03</t>
+          <t>2.4165e+03</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>-1.3002e+02</t>
+          <t>1.3982e+16</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>8.5597e+16</t>
+          <t>-2.6319e+03</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
@@ -2646,22 +2646,22 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>8.7435e+14</t>
+          <t>8.0405e+14</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>9.4305e+03</t>
+          <t>2.5085e+03</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>-1.3080e+02</t>
+          <t>1.3852e+16</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>8.5378e+16</t>
+          <t>-3.8181e+03</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
@@ -2673,22 +2673,22 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>8.3652e+14</t>
+          <t>7.8383e+14</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>9.4216e+03</t>
+          <t>2.3289e+03</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>-1.3134e+02</t>
+          <t>1.3722e+16</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>8.5176e+16</t>
+          <t>-2.4060e+03</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
@@ -2700,22 +2700,22 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>8.0031e+14</t>
+          <t>7.6733e+14</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>9.4201e+03</t>
+          <t>2.1587e+03</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>-1.3199e+02</t>
+          <t>1.3617e+16</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>8.4983e+16</t>
+          <t>-1.7710e+03</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
@@ -2727,22 +2727,22 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>7.6423e+14</t>
+          <t>7.5050e+14</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>9.4430e+03</t>
+          <t>2.2992e+03</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>-1.3307e+02</t>
+          <t>1.3509e+16</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>8.4790e+16</t>
+          <t>-2.4841e+03</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
@@ -2754,22 +2754,22 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>7.2883e+14</t>
+          <t>7.3262e+14</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>9.4552e+03</t>
+          <t>2.5172e+03</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>-1.3396e+02</t>
+          <t>1.3394e+16</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>8.4601e+16</t>
+          <t>-6.1861e+03</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
@@ -2781,22 +2781,22 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>6.9652e+14</t>
+          <t>7.1342e+14</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>9.4355e+03</t>
+          <t>2.3855e+03</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>-1.3422e+02</t>
+          <t>1.3271e+16</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>8.4429e+16</t>
+          <t>-3.7205e+03</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
@@ -2808,22 +2808,22 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>6.6588e+14</t>
+          <t>6.9840e+14</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>9.4187e+03</t>
+          <t>2.1985e+03</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>-1.3451e+02</t>
+          <t>1.3175e+16</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>8.4265e+16</t>
+          <t>-2.2906e+03</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
@@ -2835,22 +2835,22 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>6.3553e+14</t>
+          <t>6.8254e+14</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>9.4124e+03</t>
+          <t>2.3480e+03</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>-1.3498e+02</t>
+          <t>1.3074e+16</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>8.4103e+16</t>
+          <t>-3.7490e+03</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
@@ -2862,22 +2862,22 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>6.0668e+14</t>
+          <t>6.6618e+14</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>9.3974e+03</t>
+          <t>2.1809e+03</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>-1.3527e+02</t>
+          <t>1.2969e+16</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>8.3949e+16</t>
+          <t>-2.4220e+03</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
@@ -2889,22 +2889,22 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>5.7829e+14</t>
+          <t>6.5332e+14</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>9.3909e+03</t>
+          <t>2.0293e+03</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>-1.3571e+02</t>
+          <t>1.2886e+16</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>8.3798e+16</t>
+          <t>-1.8248e+03</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
@@ -2916,22 +2916,22 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>5.5087e+14</t>
+          <t>6.3951e+14</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>9.3819e+03</t>
+          <t>2.3556e+03</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>-1.3608e+02</t>
+          <t>1.2798e+16</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>8.3651e+16</t>
+          <t>-4.9025e+03</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
@@ -2943,22 +2943,22 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>5.2394e+14</t>
+          <t>6.2304e+14</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>9.3764e+03</t>
+          <t>2.4252e+03</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>-1.3652e+02</t>
+          <t>1.2693e+16</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>8.3508e+16</t>
+          <t>-8.8253e+03</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
@@ -2970,22 +2970,22 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>4.9916e+14</t>
+          <t>6.0914e+14</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>9.3518e+03</t>
+          <t>2.1824e+03</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>-1.3655e+02</t>
+          <t>1.2604e+16</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>8.3375e+16</t>
+          <t>-2.9562e+03</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
@@ -2997,22 +2997,22 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>4.7634e+14</t>
+          <t>5.9631e+14</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>9.3187e+03</t>
+          <t>2.3340e+03</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>-1.3639e+02</t>
+          <t>1.2521e+16</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>8.3254e+16</t>
+          <t>-5.8747e+03</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
@@ -3024,22 +3024,22 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>4.5510e+14</t>
+          <t>5.8117e+14</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>9.3067e+03</t>
+          <t>2.5044e+03</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>-1.3659e+02</t>
+          <t>1.2424e+16</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>8.3140e+16</t>
+          <t>5.1123e+04</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
@@ -3051,22 +3051,22 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>4.3298e+14</t>
+          <t>5.6707e+14</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>9.3514e+03</t>
+          <t>2.1398e+03</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>-1.3787e+02</t>
+          <t>1.2334e+16</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>8.3022e+16</t>
+          <t>-3.0584e+03</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
@@ -3078,22 +3078,22 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>4.1229e+14</t>
+          <t>5.5677e+14</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>9.3137e+03</t>
+          <t>1.8642e+03</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>-1.3758e+02</t>
+          <t>1.2268e+16</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>8.2912e+16</t>
+          <t>-1.6966e+03</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
@@ -3105,22 +3105,22 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>3.9273e+14</t>
+          <t>5.4618e+14</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>9.3099e+03</t>
+          <t>1.9429e+03</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>-1.3790e+02</t>
+          <t>1.2200e+16</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>8.2807e+16</t>
+          <t>-2.0114e+03</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
@@ -3132,22 +3132,22 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>3.7394e+14</t>
+          <t>5.3543e+14</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>9.2908e+03</t>
+          <t>2.0686e+03</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>-1.3792e+02</t>
+          <t>1.2131e+16</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>8.2707e+16</t>
+          <t>-2.7961e+03</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
@@ -3159,22 +3159,22 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>3.5605e+14</t>
+          <t>5.2391e+14</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>9.2824e+03</t>
+          <t>2.4706e+03</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>-1.3812e+02</t>
+          <t>1.2058e+16</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>8.2611e+16</t>
+          <t>1.6921e+04</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
@@ -3186,22 +3186,22 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>3.3796e+14</t>
+          <t>5.0942e+14</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>9.2289e+03</t>
+          <t>2.6374e+03</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>-1.3747e+02</t>
+          <t>1.1965e+16</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>8.2515e+16</t>
+          <t>4.0911e+03</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
@@ -3213,22 +3213,22 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>3.2110e+14</t>
+          <t>4.9693e+14</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>9.1883e+03</t>
+          <t>2.5492e+03</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>-1.3705e+02</t>
+          <t>1.1885e+16</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>8.2425e+16</t>
+          <t>5.8047e+03</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
@@ -3240,22 +3240,22 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>3.0537e+14</t>
+          <t>4.8398e+14</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>9.1099e+03</t>
+          <t>2.3564e+03</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>-1.3590e+02</t>
+          <t>1.1802e+16</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>8.2341e+16</t>
+          <t>-2.5353e+05</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
@@ -3267,22 +3267,22 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>2.8972e+14</t>
+          <t>4.7402e+14</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>9.1099e+03</t>
+          <t>1.9148e+03</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>-1.3621e+02</t>
+          <t>1.1738e+16</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>8.2257e+16</t>
+          <t>-2.3107e+03</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
@@ -3294,22 +3294,22 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>2.7564e+14</t>
+          <t>4.6573e+14</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>9.0234e+03</t>
+          <t>1.7701e+03</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>-1.3490e+02</t>
+          <t>1.1685e+16</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>8.2182e+16</t>
+          <t>-1.7641e+03</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
@@ -3321,22 +3321,22 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>2.6199e+14</t>
+          <t>4.5744e+14</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>8.9593e+03</t>
+          <t>2.0272e+03</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>-1.3400e+02</t>
+          <t>1.1632e+16</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>8.2109e+16</t>
+          <t>-3.3425e+03</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
@@ -3348,22 +3348,22 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>2.4999e+14</t>
+          <t>4.4709e+14</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>8.9060e+03</t>
+          <t>2.2773e+03</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>-1.3328e+02</t>
+          <t>1.1566e+16</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>8.2045e+16</t>
+          <t>-2.7911e+04</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
@@ -3375,22 +3375,22 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>2.3754e+14</t>
+          <t>4.3698e+14</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>8.9145e+03</t>
+          <t>2.2561e+03</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>-1.3367e+02</t>
+          <t>1.1501e+16</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>8.1979e+16</t>
+          <t>-2.2676e+04</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
@@ -3402,22 +3402,22 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>2.2582e+14</t>
+          <t>4.2729e+14</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>8.8762e+03</t>
+          <t>2.0908e+03</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>-1.3321e+02</t>
+          <t>1.1439e+16</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>8.1916e+16</t>
+          <t>-5.0777e+03</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
@@ -3429,22 +3429,22 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>2.1530e+14</t>
+          <t>4.1903e+14</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>8.8291e+03</t>
+          <t>2.1369e+03</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>-1.3257e+02</t>
+          <t>1.1386e+16</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>8.1860e+16</t>
+          <t>-7.1322e+03</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
@@ -3456,22 +3456,22 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>2.0475e+14</t>
+          <t>4.0929e+14</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>8.8014e+03</t>
+          <t>2.2298e+03</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>-1.3229e+02</t>
+          <t>1.1323e+16</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>8.1804e+16</t>
+          <t>-2.8635e+04</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
@@ -3483,22 +3483,22 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>1.9508e+14</t>
+          <t>4.0070e+14</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>8.7120e+03</t>
+          <t>2.1089e+03</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>-1.3092e+02</t>
+          <t>1.1268e+16</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>8.1752e+16</t>
+          <t>-6.9100e+03</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
@@ -3510,22 +3510,22 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>1.8623e+14</t>
+          <t>3.9231e+14</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>8.5761e+03</t>
+          <t>1.8556e+03</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>-1.2878e+02</t>
+          <t>1.1215e+16</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>8.1705e+16</t>
+          <t>-2.5818e+03</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
@@ -3537,22 +3537,22 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>1.7795e+14</t>
+          <t>3.8606e+14</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>8.4738e+03</t>
+          <t>1.7822e+03</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>-1.2725e+02</t>
+          <t>1.1175e+16</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>8.1661e+16</t>
+          <t>-2.2087e+03</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
@@ -3564,22 +3564,22 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>1.7063e+14</t>
+          <t>3.7848e+14</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>8.4773e+03</t>
+          <t>2.2071e+03</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>-1.2744e+02</t>
+          <t>1.1126e+16</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>8.1622e+16</t>
+          <t>-5.5127e+04</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
@@ -3591,22 +3591,22 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>1.6284e+14</t>
+          <t>3.6928e+14</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>8.4207e+03</t>
+          <t>2.3349e+03</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>-1.2666e+02</t>
+          <t>1.1067e+16</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>8.1580e+16</t>
+          <t>8.2308e+03</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
@@ -3618,22 +3618,22 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>1.5580e+14</t>
+          <t>3.6116e+14</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>8.2438e+03</t>
+          <t>2.3017e+03</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>-1.2400e+02</t>
+          <t>1.1015e+16</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>8.1543e+16</t>
+          <t>1.0132e+04</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
@@ -3645,22 +3645,22 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>1.4914e+14</t>
+          <t>3.5259e+14</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>8.1033e+03</t>
+          <t>2.1799e+03</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>-1.2198e+02</t>
+          <t>1.0960e+16</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>8.1507e+16</t>
+          <t>-8.2276e+04</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -3672,22 +3672,22 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>1.4265e+14</t>
+          <t>3.4573e+14</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>8.0343e+03</t>
+          <t>1.8205e+03</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>-1.2106e+02</t>
+          <t>1.0916e+16</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>8.1472e+16</t>
+          <t>-2.7567e+03</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3699,22 +3699,22 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>1.3591e+14</t>
+          <t>3.3994e+14</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>7.9931e+03</t>
+          <t>1.7675e+03</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>-1.2057e+02</t>
+          <t>1.0879e+16</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>8.1436e+16</t>
+          <t>-2.4489e+03</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3726,22 +3726,22 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>1.2981e+14</t>
+          <t>3.3365e+14</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>7.8180e+03</t>
+          <t>2.1887e+03</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>-1.1816e+02</t>
+          <t>1.0839e+16</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>8.1404e+16</t>
+          <t>4.7721e+04</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
@@ -3753,22 +3753,22 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>1.2392e+14</t>
+          <t>3.2527e+14</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>7.5625e+03</t>
+          <t>2.3838e+03</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>-1.1478e+02</t>
+          <t>1.0785e+16</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>8.1372e+16</t>
+          <t>4.4108e+03</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
@@ -3780,22 +3780,22 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>1.1918e+14</t>
+          <t>3.1808e+14</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>7.2802e+03</t>
+          <t>2.2466e+03</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>-1.1124e+02</t>
+          <t>1.0739e+16</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>8.1347e+16</t>
+          <t>1.0127e+04</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
@@ -3807,22 +3807,22 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>1.1462e+14</t>
+          <t>3.1092e+14</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>7.0918e+03</t>
+          <t>2.0218e+03</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>-1.0902e+02</t>
+          <t>1.0693e+16</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>8.1323e+16</t>
+          <t>-8.5550e+03</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
@@ -3834,22 +3834,22 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>1.1034e+14</t>
+          <t>3.0545e+14</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>7.0385e+03</t>
+          <t>2.0697e+03</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>-1.0844e+02</t>
+          <t>1.0658e+16</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>8.1300e+16</t>
+          <t>-1.6136e+04</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
@@ -3861,22 +3861,22 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>1.0610e+14</t>
+          <t>2.9822e+14</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>6.9661e+03</t>
+          <t>2.6347e+03</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>-1.0765e+02</t>
+          <t>1.0612e+16</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>8.1277e+16</t>
+          <t>1.9519e+03</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
@@ -3888,22 +3888,22 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>1.0235e+14</t>
+          <t>2.8969e+14</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>6.7622e+03</t>
+          <t>2.5515e+03</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>-1.0538e+02</t>
+          <t>1.0557e+16</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>8.1257e+16</t>
+          <t>2.2725e+03</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
@@ -3915,22 +3915,22 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>9.9239e+13</t>
+          <t>2.8339e+14</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>6.4702e+03</t>
+          <t>1.8397e+03</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>-1.0227e+02</t>
+          <t>1.0517e+16</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>8.1241e+16</t>
+          <t>-3.7921e+03</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
@@ -3942,22 +3942,22 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>9.6126e+13</t>
+          <t>2.7921e+14</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>6.1570e+03</t>
+          <t>1.4438e+03</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>-9.9129e+01</t>
+          <t>1.0490e+16</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>8.1224e+16</t>
+          <t>-1.5286e+03</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
@@ -3969,22 +3969,22 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>9.3283e+13</t>
+          <t>2.7528e+14</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>5.8267e+03</t>
+          <t>1.5790e+03</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>-9.6015e+01</t>
+          <t>1.0465e+16</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>8.1209e+16</t>
+          <t>-1.9457e+03</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
@@ -3996,22 +3996,22 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>9.0222e+13</t>
+          <t>2.7047e+14</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>5.5965e+03</t>
+          <t>1.8213e+03</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>-9.3967e+01</t>
+          <t>1.0434e+16</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>8.1193e+16</t>
+          <t>-3.7658e+03</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
@@ -4023,22 +4023,22 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>8.6931e+13</t>
+          <t>2.6538e+14</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>5.4404e+03</t>
+          <t>2.1255e+03</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>-9.2639e+01</t>
+          <t>1.0402e+16</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>8.1175e+16</t>
+          <t>2.2111e+04</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
@@ -4050,22 +4050,22 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>8.4402e+13</t>
+          <t>2.5914e+14</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>5.2702e+03</t>
+          <t>2.7098e+03</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>-9.1224e+01</t>
+          <t>1.0362e+16</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>8.1161e+16</t>
+          <t>1.5686e+03</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
@@ -4077,22 +4077,22 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>8.1771e+13</t>
+          <t>2.5129e+14</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>5.1659e+03</t>
+          <t>2.8744e+03</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>-9.0387e+01</t>
+          <t>1.0311e+16</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>8.1147e+16</t>
+          <t>1.2313e+03</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
@@ -4104,22 +4104,22 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>7.9583e+13</t>
+          <t>2.4465e+14</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>5.0169e+03</t>
+          <t>2.7268e+03</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>-8.9204e+01</t>
+          <t>1.0269e+16</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>8.1136e+16</t>
+          <t>1.4857e+03</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
@@ -4131,22 +4131,22 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>7.7765e+13</t>
+          <t>2.3791e+14</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>4.7887e+03</t>
+          <t>2.7344e+03</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>-8.7440e+01</t>
+          <t>1.0226e+16</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>8.1126e+16</t>
+          <t>1.4508e+03</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
@@ -4158,22 +4158,22 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>7.5724e+13</t>
+          <t>2.3160e+14</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>4.6619e+03</t>
+          <t>2.1322e+03</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>-8.6497e+01</t>
+          <t>1.0185e+16</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>8.1115e+16</t>
+          <t>1.0505e+04</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
@@ -4185,22 +4185,22 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>7.3549e+13</t>
+          <t>2.2799e+14</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>4.4336e+03</t>
+          <t>1.7205e+03</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>-8.4838e+01</t>
+          <t>1.0162e+16</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>8.1104e+16</t>
+          <t>-3.2056e+03</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
@@ -4212,22 +4212,22 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>7.2003e+13</t>
+          <t>2.2372e+14</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>4.1003e+03</t>
+          <t>1.6097e+03</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>-8.2516e+01</t>
+          <t>1.0135e+16</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>8.1095e+16</t>
+          <t>-2.3967e+03</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
@@ -4239,22 +4239,22 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>7.0107e+13</t>
+          <t>2.2075e+14</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>3.8449e+03</t>
+          <t>1.4331e+03</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>-8.0827e+01</t>
+          <t>1.0116e+16</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>8.1085e+16</t>
+          <t>-1.6948e+03</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
@@ -4266,22 +4266,22 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>6.8582e+13</t>
+          <t>2.1736e+14</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>3.5137e+03</t>
+          <t>1.7904e+03</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>-7.8730e+01</t>
+          <t>1.0094e+16</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>8.1077e+16</t>
+          <t>-4.3794e+03</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
@@ -4293,22 +4293,22 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>6.7204e+13</t>
+          <t>2.1293e+14</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>3.2214e+03</t>
+          <t>1.9683e+03</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>-7.6967e+01</t>
+          <t>1.0066e+16</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>8.1070e+16</t>
+          <t>-2.2311e+04</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>6.5394e+13</t>
+          <t>2.0894e+14</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>3.0082e+03</t>
+          <t>2.2226e+03</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>-7.5736e+01</t>
+          <t>1.0040e+16</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>8.1060e+16</t>
+          <t>4.6590e+03</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
@@ -4347,22 +4347,22 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>6.3886e+13</t>
+          <t>2.0361e+14</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>2.7166e+03</t>
+          <t>2.4051e+03</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>-7.4108e+01</t>
+          <t>1.0006e+16</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>8.1052e+16</t>
+          <t>2.4755e+03</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
@@ -4374,22 +4374,22 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>6.2773e+13</t>
+          <t>1.9911e+14</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>2.4459e+03</t>
+          <t>2.1481e+03</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>-7.2657e+01</t>
+          <t>9.9771e+15</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>8.1046e+16</t>
+          <t>6.5505e+03</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
@@ -4401,22 +4401,22 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>6.1325e+13</t>
+          <t>1.9503e+14</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>2.1727e+03</t>
+          <t>2.2496e+03</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>-7.1251e+01</t>
+          <t>9.9509e+15</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>8.1038e+16</t>
+          <t>3.8544e+03</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
@@ -4428,22 +4428,22 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>6.0811e+13</t>
+          <t>1.9031e+14</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>1.8886e+03</t>
+          <t>2.3216e+03</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>-6.9840e+01</t>
+          <t>9.9207e+15</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>8.1036e+16</t>
+          <t>2.9630e+03</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
@@ -4455,22 +4455,22 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>6.0013e+13</t>
+          <t>1.8616e+14</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>1.7277e+03</t>
+          <t>2.3864e+03</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>-6.9068e+01</t>
+          <t>9.8941e+15</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>8.1031e+16</t>
+          <t>2.4537e+03</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
@@ -4482,22 +4482,22 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>5.9288e+13</t>
+          <t>1.8139e+14</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>1.6199e+03</t>
+          <t>2.4893e+03</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>-6.8561e+01</t>
+          <t>9.8636e+15</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>8.1027e+16</t>
+          <t>1.9360e+03</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
@@ -4509,22 +4509,22 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>5.8515e+13</t>
+          <t>1.7710e+14</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>1.5364e+03</t>
+          <t>2.0673e+03</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>-6.8174e+01</t>
+          <t>9.8361e+15</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>8.1023e+16</t>
+          <t>9.9958e+03</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
@@ -4536,22 +4536,22 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>5.7794e+13</t>
+          <t>1.7404e+14</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>1.5217e+03</t>
+          <t>1.9139e+03</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>-6.8110e+01</t>
+          <t>9.8165e+15</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>8.1019e+16</t>
+          <t>-2.0233e+04</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
@@ -4563,22 +4563,22 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>5.7005e+13</t>
+          <t>1.7041e+14</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>1.4622e+03</t>
+          <t>2.1604e+03</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>-6.7838e+01</t>
+          <t>9.7933e+15</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>8.1015e+16</t>
+          <t>4.9566e+03</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
@@ -4590,22 +4590,22 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>5.6112e+13</t>
+          <t>1.6665e+14</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>1.4395e+03</t>
+          <t>2.3958e+03</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>-6.7739e+01</t>
+          <t>9.7692e+15</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>8.1010e+16</t>
+          <t>2.2624e+03</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
@@ -4617,22 +4617,22 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>5.5248e+13</t>
+          <t>1.6240e+14</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>1.3162e+03</t>
+          <t>2.1681e+03</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>-6.7182e+01</t>
+          <t>9.7419e+15</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>8.1006e+16</t>
+          <t>4.5506e+03</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
@@ -4644,22 +4644,22 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>5.4466e+13</t>
+          <t>1.5958e+14</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>1.2361e+03</t>
+          <t>1.8187e+03</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>-6.6826e+01</t>
+          <t>9.7239e+15</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>8.1002e+16</t>
+          <t>-7.9315e+03</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
@@ -4671,22 +4671,22 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>5.3620e+13</t>
+          <t>1.5657e+14</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>1.1632e+03</t>
+          <t>1.9931e+03</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>-6.6506e+01</t>
+          <t>9.7046e+15</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>8.0997e+16</t>
+          <t>1.9180e+04</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>5.2848e+13</t>
+          <t>1.5332e+14</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>1.0785e+03</t>
+          <t>2.2873e+03</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>-6.6137e+01</t>
+          <t>9.6838e+15</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>8.0993e+16</t>
+          <t>2.8525e+03</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
@@ -4725,22 +4725,22 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>5.2059e+13</t>
+          <t>1.4953e+14</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>9.6002e+02</t>
+          <t>2.3250e+03</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>-6.5627e+01</t>
+          <t>9.6595e+15</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>8.0989e+16</t>
+          <t>2.5436e+03</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
@@ -4752,22 +4752,22 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>5.1657e+13</t>
+          <t>1.4634e+14</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>8.6122e+02</t>
+          <t>2.1826e+03</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>-6.5206e+01</t>
+          <t>9.6391e+15</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>8.0987e+16</t>
+          <t>3.9247e+03</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
@@ -4779,22 +4779,22 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>5.0455e+13</t>
+          <t>1.4312e+14</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>6.6287e+02</t>
+          <t>2.2322e+03</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>-6.4378e+01</t>
+          <t>9.6185e+15</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>8.0980e+16</t>
+          <t>3.2409e+03</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
@@ -4806,22 +4806,22 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>4.9952e+13</t>
+          <t>1.3993e+14</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>3.9753e+02</t>
+          <t>2.3934e+03</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>-6.3299e+01</t>
+          <t>9.5980e+15</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>8.0978e+16</t>
+          <t>2.1106e+03</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
@@ -4833,22 +4833,22 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>4.9403e+13</t>
+          <t>1.3640e+14</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>2.8221e+02</t>
+          <t>2.3012e+03</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>-6.2843e+01</t>
+          <t>9.5754e+15</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>8.0975e+16</t>
+          <t>2.5900e+03</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
@@ -4860,22 +4860,22 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>4.8784e+13</t>
+          <t>1.3363e+14</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>1.3694e+02</t>
+          <t>1.9598e+03</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>-6.2277e+01</t>
+          <t>9.5577e+15</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>8.0971e+16</t>
+          <t>2.0736e+04</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
@@ -4887,22 +4887,22 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>4.8515e+13</t>
+          <t>1.3115e+14</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>8.5678e+00</t>
+          <t>2.0751e+03</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>-6.1784e+01</t>
+          <t>9.5417e+15</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>8.0970e+16</t>
+          <t>5.9957e+03</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
@@ -4914,22 +4914,22 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>4.8241e+13</t>
+          <t>1.2817e+14</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>3.6826e+01</t>
+          <t>2.7590e+03</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>-6.1893e+01</t>
+          <t>9.5227e+15</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>8.0968e+16</t>
+          <t>1.1703e+03</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
@@ -4941,22 +4941,22 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>4.7560e+13</t>
+          <t>1.2405e+14</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>3.3503e+01</t>
+          <t>2.9758e+03</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>-6.1883e+01</t>
+          <t>9.4963e+15</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>8.0965e+16</t>
+          <t>9.2891e+02</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
@@ -4968,22 +4968,22 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>4.7240e+13</t>
+          <t>1.2077e+14</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>5.6669e+00</t>
+          <t>2.7190e+03</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>-6.1778e+01</t>
+          <t>9.4753e+15</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>8.0963e+16</t>
+          <t>1.2137e+03</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
@@ -4995,22 +4995,22 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>4.6824e+13</t>
+          <t>1.1747e+14</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>5.2579e+01</t>
+          <t>2.0734e+03</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>-6.1959e+01</t>
+          <t>9.4541e+15</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>8.0961e+16</t>
+          <t>5.4771e+03</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
@@ -5022,22 +5022,22 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>4.6078e+13</t>
+          <t>1.1588e+14</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>3.4270e+01</t>
+          <t>1.5657e+03</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>-6.1892e+01</t>
+          <t>9.4440e+15</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>8.0957e+16</t>
+          <t>-3.0955e+03</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -5049,22 +5049,22 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>4.5847e+13</t>
+          <t>1.1382e+14</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>1.2980e+01</t>
+          <t>2.4401e+03</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>-6.1812e+01</t>
+          <t>9.4308e+15</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>8.0956e+16</t>
+          <t>1.8052e+03</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
@@ -5076,22 +5076,22 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>4.5299e+13</t>
+          <t>1.1031e+14</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>9.8207e+01</t>
+          <t>2.3168e+03</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>-6.2141e+01</t>
+          <t>9.4083e+15</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>8.0953e+16</t>
+          <t>2.2979e+03</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
@@ -5103,22 +5103,22 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>4.4317e+13</t>
+          <t>1.0870e+14</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>9.2043e+01</t>
+          <t>1.7764e+03</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>-6.2122e+01</t>
+          <t>9.3979e+15</t>
         </is>
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>8.0948e+16</t>
+          <t>-9.6881e+03</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr">
@@ -5130,22 +5130,22 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>4.3856e+13</t>
+          <t>1.0643e+14</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>1.3473e+01</t>
+          <t>2.3693e+03</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>-6.1822e+01</t>
+          <t>9.3834e+15</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>8.0945e+16</t>
+          <t>2.0299e+03</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
@@ -5157,22 +5157,22 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>4.3568e+13</t>
+          <t>1.0364e+14</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>-1.9978e+01</t>
+          <t>3.1386e+03</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>-6.1695e+01</t>
+          <t>9.3655e+15</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>8.0944e+16</t>
+          <t>7.9020e+02</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
@@ -5184,22 +5184,22 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>4.3399e+13</t>
+          <t>9.9910e+13</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>-1.3743e+01</t>
+          <t>2.7639e+03</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>-6.1720e+01</t>
+          <t>9.3417e+15</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>8.0943e+16</t>
+          <t>1.1165e+03</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
@@ -5211,22 +5211,22 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>4.3059e+13</t>
+          <t>9.8099e+13</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>-1.2381e+01</t>
+          <t>1.6555e+03</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>-6.1726e+01</t>
+          <t>9.3301e+15</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>8.0941e+16</t>
+          <t>-4.7514e+03</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
@@ -5238,22 +5238,22 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>4.2882e+13</t>
+          <t>9.6648e+13</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>-4.7745e+01</t>
+          <t>2.0582e+03</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>-6.1593e+01</t>
+          <t>9.3208e+15</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>8.0940e+16</t>
+          <t>5.1544e+03</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
@@ -5265,22 +5265,22 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>4.2844e+13</t>
+          <t>9.4107e+13</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>4.9877e+00</t>
+          <t>1.5512e+03</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>-6.1793e+01</t>
+          <t>9.3045e+15</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>8.0940e+16</t>
+          <t>-3.2292e+03</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr">
@@ -5292,22 +5292,22 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>4.2222e+13</t>
+          <t>9.3715e+13</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>7.5907e+01</t>
+          <t>1.2851e+03</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>-6.2068e+01</t>
+          <t>9.3020e+15</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>8.0936e+16</t>
+          <t>-1.7382e+03</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr">
@@ -5319,22 +5319,22 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>4.1604e+13</t>
+          <t>9.1685e+13</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>5.7738e+01</t>
+          <t>1.8892e+03</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>-6.2001e+01</t>
+          <t>9.2890e+15</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>8.0933e+16</t>
+          <t>3.1882e+04</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr">
@@ -5346,22 +5346,22 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>4.1150e+13</t>
+          <t>9.0238e+13</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>2.6743e+01</t>
+          <t>2.0278e+03</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>-6.1884e+01</t>
+          <t>9.2797e+15</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>8.0931e+16</t>
+          <t>5.8171e+03</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
@@ -5373,22 +5373,22 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>4.0794e+13</t>
+          <t>8.8012e+13</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>-3.1451e+00</t>
+          <t>2.3027e+03</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>-6.1771e+01</t>
+          <t>9.2655e+15</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>8.0929e+16</t>
+          <t>2.2241e+03</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
@@ -5400,22 +5400,22 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>4.0587e+13</t>
+          <t>8.6172e+13</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>1.6473e+01</t>
+          <t>2.1953e+03</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>-6.1847e+01</t>
+          <t>9.2537e+15</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>8.0928e+16</t>
+          <t>2.9019e+03</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
@@ -5427,22 +5427,22 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>4.0078e+13</t>
+          <t>8.4216e+13</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>-2.6115e+01</t>
+          <t>3.0245e+03</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>-6.1686e+01</t>
+          <t>9.2411e+15</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>8.0925e+16</t>
+          <t>8.5017e+02</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
@@ -5454,22 +5454,22 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>4.0216e+13</t>
+          <t>8.1066e+13</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>-7.0801e+01</t>
+          <t>3.4777e+03</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>-6.1516e+01</t>
+          <t>9.2210e+15</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>8.0926e+16</t>
+          <t>6.1217e+02</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr">
@@ -5481,22 +5481,22 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>4.0059e+13</t>
+          <t>7.8566e+13</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>-7.3993e+01</t>
+          <t>2.6592e+03</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>-6.1505e+01</t>
+          <t>9.2049e+15</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>8.0925e+16</t>
+          <t>1.2222e+03</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr">
@@ -5508,22 +5508,22 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>4.0222e+13</t>
+          <t>7.6876e+13</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>-8.4995e+01</t>
+          <t>2.7049e+03</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>-6.1462e+01</t>
+          <t>9.1941e+15</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>8.0926e+16</t>
+          <t>1.1547e+03</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr">
@@ -5535,22 +5535,22 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>4.0152e+13</t>
+          <t>7.4397e+13</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>-7.5048e+00</t>
+          <t>2.3076e+03</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>-6.1757e+01</t>
+          <t>9.1782e+15</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>8.0925e+16</t>
+          <t>2.1187e+03</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr">
@@ -5562,22 +5562,22 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>3.9703e+13</t>
+          <t>7.3432e+13</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>-3.0670e+00</t>
+          <t>1.2657e+03</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>-6.1776e+01</t>
+          <t>9.1721e+15</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>8.0923e+16</t>
+          <t>-1.7582e+03</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr">
@@ -5589,22 +5589,22 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>3.9604e+13</t>
+          <t>7.2527e+13</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>-4.2959e+01</t>
+          <t>1.9339e+03</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>-6.1624e+01</t>
+          <t>9.1663e+15</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>8.0922e+16</t>
+          <t>9.9376e+03</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr">
@@ -5616,22 +5616,22 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>3.9467e+13</t>
+          <t>7.0617e+13</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>-1.7566e+01</t>
+          <t>2.1081e+03</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>-6.1721e+01</t>
+          <t>9.1540e+15</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>8.0922e+16</t>
+          <t>3.6060e+03</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr">
@@ -5643,22 +5643,22 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>3.9172e+13</t>
+          <t>6.9540e+13</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>-1.6225e+01</t>
+          <t>1.5639e+03</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>-6.1728e+01</t>
+          <t>9.1471e+15</t>
         </is>
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>8.0920e+16</t>
+          <t>-3.7655e+03</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr">
@@ -5670,22 +5670,22 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>3.9028e+13</t>
+          <t>6.8432e+13</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>4.7502e+00</t>
+          <t>2.0328e+03</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>-6.1808e+01</t>
+          <t>9.1400e+15</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>8.0919e+16</t>
+          <t>4.8820e+03</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr">
@@ -5697,22 +5697,22 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>3.8574e+13</t>
+          <t>6.6748e+13</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>2.4989e+01</t>
+          <t>2.1701e+03</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>-6.1887e+01</t>
+          <t>9.1292e+15</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>8.0917e+16</t>
+          <t>2.9050e+03</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr">
@@ -5724,22 +5724,22 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>3.8283e+13</t>
+          <t>6.5526e+13</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>3.2463e+00</t>
+          <t>2.4214e+03</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>-6.1805e+01</t>
+          <t>9.1214e+15</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>8.0915e+16</t>
+          <t>1.6748e+03</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr">
@@ -5751,22 +5751,22 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>3.7999e+13</t>
+          <t>6.3566e+13</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>-3.2658e+01</t>
+          <t>3.0991e+03</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>-6.1670e+01</t>
+          <t>9.1089e+15</t>
         </is>
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>8.0914e+16</t>
+          <t>7.8290e+02</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr">
@@ -5778,22 +5778,22 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>3.7981e+13</t>
+          <t>6.1577e+13</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>-2.3939e+01</t>
+          <t>2.9555e+03</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>-6.1703e+01</t>
+          <t>9.0961e+15</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>8.0914e+16</t>
+          <t>8.8005e+02</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
@@ -5805,22 +5805,22 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>3.7631e+13</t>
+          <t>5.9918e+13</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>1.2728e+01</t>
+          <t>2.7289e+03</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>-6.1844e+01</t>
+          <t>9.0855e+15</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>8.0912e+16</t>
+          <t>1.0968e+03</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
@@ -5832,22 +5832,22 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>3.7345e+13</t>
+          <t>5.8299e+13</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>2.1396e+01</t>
+          <t>2.8501e+03</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>-6.1879e+01</t>
+          <t>9.0751e+15</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>8.0910e+16</t>
+          <t>9.6608e+02</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
@@ -5859,22 +5859,22 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>3.6937e+13</t>
+          <t>5.6586e+13</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>2.5816e+01</t>
+          <t>2.3594e+03</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>-6.1897e+01</t>
+          <t>9.0642e+15</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>8.0908e+16</t>
+          <t>1.8297e+03</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
@@ -5886,22 +5886,22 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>3.6626e+13</t>
+          <t>5.5621e+13</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>4.5017e+01</t>
+          <t>2.4592e+03</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>-6.1972e+01</t>
+          <t>9.0580e+15</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>8.0906e+16</t>
+          <t>1.5442e+03</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr">
@@ -5913,22 +5913,22 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>3.6085e+13</t>
+          <t>5.3843e+13</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>7.5153e+01</t>
+          <t>3.4906e+03</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>-6.2090e+01</t>
+          <t>9.0466e+15</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>8.0904e+16</t>
+          <t>5.9479e+02</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr">
@@ -5940,22 +5940,22 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>3.5574e+13</t>
+          <t>5.1854e+13</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>6.4274e+01</t>
+          <t>2.6603e+03</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>-6.2051e+01</t>
+          <t>9.0338e+15</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>8.0901e+16</t>
+          <t>1.1716e+03</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr">
@@ -5967,22 +5967,22 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>3.5124e+13</t>
+          <t>5.1077e+13</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>1.9160e+01</t>
+          <t>1.8901e+03</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>-6.1879e+01</t>
+          <t>9.0289e+15</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>8.0898e+16</t>
+          <t>1.1866e+04</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr">
@@ -5994,22 +5994,22 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>3.4937e+13</t>
+          <t>4.9917e+13</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>1.4021e+01</t>
+          <t>2.1426e+03</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>-6.1860e+01</t>
+          <t>9.0214e+15</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>8.0897e+16</t>
+          <t>2.9555e+03</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr">
@@ -6021,22 +6021,22 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>3.4526e+13</t>
+          <t>4.8931e+13</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>3.3736e+01</t>
+          <t>1.7419e+03</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>-6.1937e+01</t>
+          <t>9.0151e+15</t>
         </is>
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>8.0895e+16</t>
+          <t>-1.6352e+04</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr">
@@ -6048,22 +6048,22 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>3.4212e+13</t>
+          <t>4.8205e+13</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>7.0027e+00</t>
+          <t>1.6991e+03</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>-6.1836e+01</t>
+          <t>9.0105e+15</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>8.0894e+16</t>
+          <t>-9.7132e+03</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr">
@@ -6075,22 +6075,22 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>3.3988e+13</t>
+          <t>4.7287e+13</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>-3.5687e+01</t>
+          <t>3.1266e+03</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>-6.1674e+01</t>
+          <t>9.0046e+15</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>8.0892e+16</t>
+          <t>7.5432e+02</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr">
@@ -6102,22 +6102,22 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>3.3962e+13</t>
+          <t>4.5242e+13</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>-4.9972e+01</t>
+          <t>3.2160e+03</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>-6.1620e+01</t>
+          <t>8.9915e+15</t>
         </is>
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>8.0892e+16</t>
+          <t>7.0536e+02</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr">
@@ -6129,22 +6129,22 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>3.3834e+13</t>
+          <t>4.4370e+13</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>-6.1281e+01</t>
+          <t>1.5493e+03</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>-6.1578e+01</t>
+          <t>8.9859e+15</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>8.0892e+16</t>
+          <t>-4.0348e+03</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr">
@@ -6156,22 +6156,22 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>3.3885e+13</t>
+          <t>4.3861e+13</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>-8.4016e+01</t>
+          <t>1.9643e+03</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>-6.1492e+01</t>
+          <t>8.9826e+15</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>8.0892e+16</t>
+          <t>5.9600e+03</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr">
@@ -6183,22 +6183,22 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>3.3908e+13</t>
+          <t>4.2641e+13</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>-3.7328e+01</t>
+          <t>3.4406e+03</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>-6.1669e+01</t>
+          <t>8.9748e+15</t>
         </is>
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>8.0892e+16</t>
+          <t>6.0766e+02</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr">
@@ -6210,22 +6210,22 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>3.3647e+13</t>
+          <t>4.0921e+13</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>2.8873e+01</t>
+          <t>3.5785e+03</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>-6.1922e+01</t>
+          <t>8.9638e+15</t>
         </is>
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>8.0891e+16</t>
+          <t>5.6000e+02</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr">
@@ -6237,22 +6237,22 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>3.3233e+13</t>
+          <t>3.9707e+13</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>3.5204e+01</t>
+          <t>2.6044e+03</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>-6.1948e+01</t>
+          <t>8.9560e+15</t>
         </is>
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>8.0888e+16</t>
+          <t>1.2297e+03</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr">
@@ -6264,22 +6264,22 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>3.2940e+13</t>
+          <t>3.8847e+13</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>6.5156e+00</t>
+          <t>2.1507e+03</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>-6.1840e+01</t>
+          <t>8.9505e+15</t>
         </is>
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>8.0887e+16</t>
+          <t>2.7732e+03</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr">
@@ -6291,22 +6291,22 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>3.2719e+13</t>
+          <t>3.8031e+13</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>-2.0661e+01</t>
+          <t>2.4697e+03</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>-6.1737e+01</t>
+          <t>8.9453e+15</t>
         </is>
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>8.0886e+16</t>
+          <t>1.4693e+03</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr">
@@ -6318,22 +6318,22 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>3.2603e+13</t>
+          <t>3.6964e+13</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>-1.9813e+01</t>
+          <t>3.4018e+03</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>-6.1741e+01</t>
+          <t>8.9385e+15</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>8.0885e+16</t>
+          <t>6.1955e+02</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr">
@@ -6345,22 +6345,22 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>3.2378e+13</t>
+          <t>3.5511e+13</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>8.7469e+00</t>
+          <t>3.5456e+03</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>-6.1851e+01</t>
+          <t>8.9292e+15</t>
         </is>
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>8.0884e+16</t>
+          <t>5.6825e+02</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr">
@@ -6372,22 +6372,22 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>3.2083e+13</t>
+          <t>3.4441e+13</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>3.3779e+01</t>
+          <t>3.0474e+03</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>-6.1948e+01</t>
+          <t>8.9223e+15</t>
         </is>
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>8.0882e+16</t>
+          <t>7.9182e+02</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr">
@@ -6399,22 +6399,22 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>3.1704e+13</t>
+          <t>3.3407e+13</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>4.8534e+01</t>
+          <t>2.7645e+03</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>-6.2006e+01</t>
+          <t>8.9157e+15</t>
         </is>
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>8.0880e+16</t>
+          <t>1.0190e+03</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr">
@@ -6426,22 +6426,22 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>3.1326e+13</t>
+          <t>3.2589e+13</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>1.3944e+01</t>
+          <t>2.0276e+03</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>-6.1875e+01</t>
+          <t>8.9104e+15</t>
         </is>
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>8.0878e+16</t>
+          <t>4.0725e+03</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr">
@@ -6453,22 +6453,22 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>3.1169e+13</t>
+          <t>3.2081e+13</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>-5.2823e+01</t>
+          <t>2.0128e+03</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>-6.1621e+01</t>
+          <t>8.9072e+15</t>
         </is>
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>8.0877e+16</t>
+          <t>4.3224e+03</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr">
@@ -6480,22 +6480,22 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>3.1203e+13</t>
+          <t>3.1293e+13</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>-5.2575e+01</t>
+          <t>3.4020e+03</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>-6.1622e+01</t>
+          <t>8.9021e+15</t>
         </is>
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>8.0878e+16</t>
+          <t>6.1669e+02</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr">
@@ -6507,22 +6507,22 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>3.1045e+13</t>
+          <t>2.9948e+13</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>-9.6762e+00</t>
+          <t>3.2421e+03</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>-6.1786e+01</t>
+          <t>8.8935e+15</t>
         </is>
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>8.0877e+16</t>
+          <t>6.8333e+02</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr">
@@ -6534,22 +6534,22 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>3.0817e+13</t>
+          <t>2.9348e+13</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>1.8480e+01</t>
+          <t>2.5234e+03</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>-6.1894e+01</t>
+          <t>8.8897e+15</t>
         </is>
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>8.0875e+16</t>
+          <t>1.3414e+03</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr">
@@ -6561,22 +6561,22 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>3.0491e+13</t>
+          <t>2.8463e+13</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>5.0234e+01</t>
+          <t>1.5218e+03</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>-6.2017e+01</t>
+          <t>8.8840e+15</t>
         </is>
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>8.0874e+16</t>
+          <t>-3.9208e+03</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr">
@@ -6588,22 +6588,22 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>3.0078e+13</t>
+          <t>2.8477e+13</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>8.5335e+01</t>
+          <t>-5.6716e+02</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>-6.2154e+01</t>
+          <t>8.8841e+15</t>
         </is>
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>8.0872e+16</t>
+          <t>-4.2662e+02</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr">
@@ -6615,22 +6615,22 @@
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>2.9555e+13</t>
+          <t>2.8782e+13</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>6.8776e+01</t>
+          <t>2.4434e+01</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>-6.2093e+01</t>
+          <t>8.8861e+15</t>
         </is>
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>8.0869e+16</t>
+          <t>-5.7052e+02</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr">
@@ -6642,22 +6642,22 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>2.9255e+13</t>
+          <t>2.8460e+13</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>-3.6830e+01</t>
+          <t>1.3290e+03</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>-6.1689e+01</t>
+          <t>8.8840e+15</t>
         </is>
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>8.0867e+16</t>
+          <t>-2.2333e+03</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr">
@@ -6669,22 +6669,22 @@
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>2.9348e+13</t>
+          <t>2.8022e+13</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>-6.2484e+01</t>
+          <t>2.5054e+03</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>-6.1592e+01</t>
+          <t>8.8812e+15</t>
         </is>
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>8.0868e+16</t>
+          <t>1.3714e+03</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr">
@@ -6696,22 +6696,22 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>2.9196e+13</t>
+          <t>2.7052e+13</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>-3.2034e+01</t>
+          <t>3.0277e+03</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>-6.1708e+01</t>
+          <t>8.8750e+15</t>
         </is>
       </c>
       <c r="D232" s="2" t="inlineStr">
         <is>
-          <t>8.0867e+16</t>
+          <t>7.9828e+02</t>
         </is>
       </c>
       <c r="E232" s="2" t="inlineStr">
@@ -6723,22 +6723,22 @@
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>2.9114e+13</t>
+          <t>2.6380e+13</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>6.5392e+00</t>
+          <t>2.4699e+03</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>-6.1855e+01</t>
+          <t>8.8707e+15</t>
         </is>
       </c>
       <c r="D233" s="2" t="inlineStr">
         <is>
-          <t>8.0866e+16</t>
+          <t>1.4372e+03</t>
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr">
@@ -6750,22 +6750,22 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>2.8741e+13</t>
+          <t>2.5745e+13</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>2.0302e+01</t>
+          <t>2.8709e+03</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>-6.1910e+01</t>
+          <t>8.8666e+15</t>
         </is>
       </c>
       <c r="D234" s="2" t="inlineStr">
         <is>
-          <t>8.0864e+16</t>
+          <t>9.1108e+02</t>
         </is>
       </c>
       <c r="E234" s="2" t="inlineStr">
@@ -6777,22 +6777,22 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>2.8588e+13</t>
+          <t>2.4899e+13</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>-3.4682e+01</t>
+          <t>2.9588e+03</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>-6.1700e+01</t>
+          <t>8.8612e+15</t>
         </is>
       </c>
       <c r="D235" s="2" t="inlineStr">
         <is>
-          <t>8.0864e+16</t>
+          <t>8.4278e+02</t>
         </is>
       </c>
       <c r="E235" s="2" t="inlineStr">
@@ -6804,22 +6804,22 @@
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>2.8527e+13</t>
+          <t>2.4268e+13</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>-4.1596e+01</t>
+          <t>2.3353e+03</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>-6.1674e+01</t>
+          <t>8.8571e+15</t>
         </is>
       </c>
       <c r="D236" s="2" t="inlineStr">
         <is>
-          <t>8.0863e+16</t>
+          <t>1.7734e+03</t>
         </is>
       </c>
       <c r="E236" s="2" t="inlineStr">
@@ -6831,22 +6831,22 @@
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>2.8413e+13</t>
+          <t>2.3762e+13</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>-4.8496e+01</t>
+          <t>4.2035e+03</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>-6.1648e+01</t>
+          <t>8.8539e+15</t>
         </is>
       </c>
       <c r="D237" s="2" t="inlineStr">
         <is>
-          <t>8.0863e+16</t>
+          <t>4.1106e+02</t>
         </is>
       </c>
       <c r="E237" s="2" t="inlineStr">
@@ -6858,22 +6858,22 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>2.8392e+13</t>
+          <t>2.2268e+13</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>-7.0903e+01</t>
+          <t>6.4171e+03</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>-6.1563e+01</t>
+          <t>8.8443e+15</t>
         </is>
       </c>
       <c r="D238" s="2" t="inlineStr">
         <is>
-          <t>8.0862e+16</t>
+          <t>2.1513e+02</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr">
@@ -6885,22 +6885,22 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>2.8403e+13</t>
+          <t>2.0901e+13</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>-4.0588e+01</t>
+          <t>4.4159e+03</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>-6.1679e+01</t>
+          <t>8.8356e+15</t>
         </is>
       </c>
       <c r="D239" s="2" t="inlineStr">
         <is>
-          <t>8.0863e+16</t>
+          <t>3.7753e+02</t>
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr">
@@ -6912,22 +6912,22 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>2.8212e+13</t>
+          <t>2.0419e+13</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>1.0077e+01</t>
+          <t>3.4572e+03</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>-6.1873e+01</t>
+          <t>8.8325e+15</t>
         </is>
       </c>
       <c r="D240" s="2" t="inlineStr">
         <is>
-          <t>8.0862e+16</t>
+          <t>5.9147e+02</t>
         </is>
       </c>
       <c r="E240" s="2" t="inlineStr">
@@ -6939,22 +6939,22 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>2.7943e+13</t>
+          <t>1.9487e+13</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>3.0977e+01</t>
+          <t>2.9649e+03</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>-6.1954e+01</t>
+          <t>8.8265e+15</t>
         </is>
       </c>
       <c r="D241" s="2" t="inlineStr">
         <is>
-          <t>8.0860e+16</t>
+          <t>8.3361e+02</t>
         </is>
       </c>
       <c r="E241" s="2" t="inlineStr">
@@ -6966,22 +6966,22 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>2.7642e+13</t>
+          <t>1.9261e+13</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>3.9229e+01</t>
+          <t>2.5374e+03</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>-6.1987e+01</t>
+          <t>8.8251e+15</t>
         </is>
       </c>
       <c r="D242" s="2" t="inlineStr">
         <is>
-          <t>8.0858e+16</t>
+          <t>1.2947e+03</t>
         </is>
       </c>
       <c r="E242" s="2" t="inlineStr">
@@ -6993,22 +6993,22 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>2.7334e+13</t>
+          <t>1.8507e+13</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>-3.3337e+00</t>
+          <t>5.1996e+03</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>-6.1825e+01</t>
+          <t>8.8202e+15</t>
         </is>
       </c>
       <c r="D243" s="2" t="inlineStr">
         <is>
-          <t>8.0857e+16</t>
+          <t>2.9108e+02</t>
         </is>
       </c>
       <c r="E243" s="2" t="inlineStr">
@@ -7020,22 +7020,22 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>2.7269e+13</t>
+          <t>1.7334e+13</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>-7.5985e+01</t>
+          <t>3.8433e+03</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>-6.1549e+01</t>
+          <t>8.8127e+15</t>
         </is>
       </c>
       <c r="D244" s="2" t="inlineStr">
         <is>
-          <t>8.0857e+16</t>
+          <t>4.8061e+02</t>
         </is>
       </c>
       <c r="E244" s="2" t="inlineStr">
@@ -7047,22 +7047,22 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>2.7352e+13</t>
+          <t>1.7172e+13</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>-6.3149e+01</t>
+          <t>6.2865e+02</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>-6.1597e+01</t>
+          <t>8.8117e+15</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>8.0857e+16</t>
+          <t>-8.8208e+02</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr">
@@ -7074,22 +7074,22 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>2.7217e+13</t>
+          <t>1.7116e+13</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>-8.6065e+00</t>
+          <t>2.7416e+03</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>-6.1805e+01</t>
+          <t>8.8113e+15</t>
         </is>
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t>8.0856e+16</t>
+          <t>1.0211e+03</t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr">
@@ -7101,22 +7101,22 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>2.7008e+13</t>
+          <t>1.6231e+13</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>3.2849e+00</t>
+          <t>3.5353e+03</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>-6.1852e+01</t>
+          <t>8.8057e+15</t>
         </is>
       </c>
       <c r="D247" s="2" t="inlineStr">
         <is>
-          <t>8.0855e+16</t>
+          <t>5.6365e+02</t>
         </is>
       </c>
       <c r="E247" s="2" t="inlineStr">
@@ -7128,22 +7128,22 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>2.6813e+13</t>
+          <t>1.5966e+13</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>2.0695e+01</t>
+          <t>2.7374e+02</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>-6.1919e+01</t>
+          <t>8.8040e+15</t>
         </is>
       </c>
       <c r="D248" s="2" t="inlineStr">
         <is>
-          <t>8.0854e+16</t>
+          <t>-6.7247e+02</t>
         </is>
       </c>
       <c r="E248" s="2" t="inlineStr">
@@ -7155,22 +7155,22 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>2.6516e+13</t>
+          <t>1.6142e+13</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>2.0474e+01</t>
+          <t>-2.9359e+02</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>-6.1919e+01</t>
+          <t>8.8051e+15</t>
         </is>
       </c>
       <c r="D249" s="2" t="inlineStr">
         <is>
-          <t>8.0852e+16</t>
+          <t>-4.8671e+02</t>
         </is>
       </c>
       <c r="E249" s="2" t="inlineStr">
@@ -7182,22 +7182,22 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>2.6327e+13</t>
+          <t>1.6059e+13</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>-3.3708e+01</t>
+          <t>1.9604e+03</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>-6.1713e+01</t>
+          <t>8.8046e+15</t>
         </is>
       </c>
       <c r="D250" s="2" t="inlineStr">
         <is>
-          <t>8.0851e+16</t>
+          <t>5.0130e+03</t>
         </is>
       </c>
       <c r="E250" s="2" t="inlineStr">
@@ -7209,22 +7209,22 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>2.6314e+13</t>
+          <t>1.5510e+13</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>-3.8429e+01</t>
+          <t>4.2410e+03</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>-6.1695e+01</t>
+          <t>8.8010e+15</t>
         </is>
       </c>
       <c r="D251" s="2" t="inlineStr">
         <is>
-          <t>8.0851e+16</t>
+          <t>4.0310e+02</t>
         </is>
       </c>
       <c r="E251" s="2" t="inlineStr">
@@ -7236,22 +7236,22 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>2.6150e+13</t>
+          <t>1.4741e+13</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>-1.6530e+01</t>
+          <t>2.3719e+03</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>-6.1779e+01</t>
+          <t>8.7961e+15</t>
         </is>
       </c>
       <c r="D252" s="2" t="inlineStr">
         <is>
-          <t>8.0851e+16</t>
+          <t>1.6322e+03</t>
         </is>
       </c>
       <c r="E252" s="2" t="inlineStr">
@@ -7263,22 +7263,22 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>2.6025e+13</t>
+          <t>1.4809e+13</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>-5.0216e+01</t>
+          <t>2.8577e+03</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>-6.1652e+01</t>
+          <t>8.7966e+15</t>
         </is>
       </c>
       <c r="D253" s="2" t="inlineStr">
         <is>
-          <t>8.0850e+16</t>
+          <t>9.1043e+02</t>
         </is>
       </c>
       <c r="E253" s="2" t="inlineStr">
@@ -7290,22 +7290,22 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>2.6035e+13</t>
+          <t>1.3893e+13</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>-4.4904e+01</t>
+          <t>4.0365e+03</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>-6.1672e+01</t>
+          <t>8.7907e+15</t>
         </is>
       </c>
       <c r="D254" s="2" t="inlineStr">
         <is>
-          <t>8.0850e+16</t>
+          <t>4.3891e+02</t>
         </is>
       </c>
       <c r="E254" s="2" t="inlineStr">
@@ -7317,22 +7317,22 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>2.5883e+13</t>
+          <t>1.3685e+13</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>2.0292e+01</t>
+          <t>6.8193e+02</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>-6.1921e+01</t>
+          <t>8.7894e+15</t>
         </is>
       </c>
       <c r="D255" s="2" t="inlineStr">
         <is>
-          <t>8.0849e+16</t>
+          <t>-9.2942e+02</t>
         </is>
       </c>
       <c r="E255" s="2" t="inlineStr">
@@ -7344,22 +7344,22 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>2.5562e+13</t>
+          <t>1.3704e+13</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>4.1259e+01</t>
+          <t>1.0490e+03</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>-6.2003e+01</t>
+          <t>8.7895e+15</t>
         </is>
       </c>
       <c r="D256" s="2" t="inlineStr">
         <is>
-          <t>8.0847e+16</t>
+          <t>-1.4107e+03</t>
         </is>
       </c>
       <c r="E256" s="2" t="inlineStr">
@@ -7371,22 +7371,22 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>2.5310e+13</t>
+          <t>1.3396e+13</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>3.9581e+01</t>
+          <t>3.9765e+03</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>-6.1998e+01</t>
+          <t>8.7875e+15</t>
         </is>
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>8.0846e+16</t>
+          <t>4.5064e+02</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr">
@@ -7398,22 +7398,22 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>2.5003e+13</t>
+          <t>1.2637e+13</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>4.6999e+01</t>
+          <t>6.1353e+03</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>-6.2027e+01</t>
+          <t>8.7826e+15</t>
         </is>
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>8.0844e+16</t>
+          <t>2.2838e+02</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr">
@@ -7425,22 +7425,22 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>2.4721e+13</t>
+          <t>1.1844e+13</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>7.3516e+00</t>
+          <t>4.8960e+03</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>-6.1876e+01</t>
+          <t>8.7776e+15</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>8.0843e+16</t>
+          <t>3.1842e+02</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr">
@@ -7452,22 +7452,22 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>2.4614e+13</t>
+          <t>1.1476e+13</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>-2.5565e+01</t>
+          <t>2.6601e+03</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>-6.1751e+01</t>
+          <t>8.7752e+15</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>8.0842e+16</t>
+          <t>1.1049e+03</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr">
@@ -7479,22 +7479,22 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>2.4494e+13</t>
+          <t>1.1232e+13</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>-9.3507e+00</t>
+          <t>3.8216e+03</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>-6.1814e+01</t>
+          <t>8.7736e+15</t>
         </is>
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>8.0842e+16</t>
+          <t>4.8382e+02</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr">
@@ -7506,22 +7506,22 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>2.4309e+13</t>
+          <t>1.0616e+13</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>4.0650e+01</t>
+          <t>6.6296e+03</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>-6.2006e+01</t>
+          <t>8.7697e+15</t>
         </is>
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>8.0841e+16</t>
+          <t>2.0510e+02</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr">
@@ -7533,22 +7533,22 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>2.3952e+13</t>
+          <t>9.8228e+12</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>4.9501e+01</t>
+          <t>7.4636e+03</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>-6.2041e+01</t>
+          <t>8.7646e+15</t>
         </is>
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>8.0839e+16</t>
+          <t>1.7511e+02</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr">
@@ -7560,22 +7560,22 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>2.3734e+13</t>
+          <t>9.1483e+12</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>-2.9235e+01</t>
+          <t>6.0003e+03</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>-6.1741e+01</t>
+          <t>8.7603e+15</t>
         </is>
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>8.0838e+16</t>
+          <t>2.3539e+02</t>
         </is>
       </c>
       <c r="E264" s="2" t="inlineStr">
@@ -7587,22 +7587,22 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>2.3750e+13</t>
+          <t>8.7238e+12</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>-4.4685e+01</t>
+          <t>3.6607e+03</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>-6.1682e+01</t>
+          <t>8.7576e+15</t>
         </is>
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>8.0838e+16</t>
+          <t>5.2377e+02</t>
         </is>
       </c>
       <c r="E265" s="2" t="inlineStr">
@@ -7614,22 +7614,22 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>2.3604e+13</t>
+          <t>8.5084e+12</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>2.1654e+01</t>
+          <t>3.0836e+03</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>-6.1936e+01</t>
+          <t>8.7562e+15</t>
         </is>
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>8.0837e+16</t>
+          <t>7.5053e+02</t>
         </is>
       </c>
       <c r="E266" s="2" t="inlineStr">
@@ -7641,22 +7641,22 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>2.3312e+13</t>
+          <t>8.1979e+12</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>5.4716e+01</t>
+          <t>2.1436e+03</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>-6.2064e+01</t>
+          <t>8.7542e+15</t>
         </is>
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>8.0835e+16</t>
+          <t>2.5463e+03</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr">
@@ -7668,22 +7668,22 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>2.3020e+13</t>
+          <t>8.1559e+12</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>-4.7771e+00</t>
+          <t>-1.9323e+02</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>-6.1837e+01</t>
+          <t>8.7539e+15</t>
         </is>
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>8.0834e+16</t>
+          <t>-5.1440e+02</t>
         </is>
       </c>
       <c r="E268" s="2" t="inlineStr">
@@ -7695,22 +7695,22 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>2.3005e+13</t>
+          <t>8.2284e+12</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>9.0750e+00</t>
+          <t>1.5651e+03</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>-6.1890e+01</t>
+          <t>8.7544e+15</t>
         </is>
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>8.0834e+16</t>
+          <t>-5.3815e+03</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr">
@@ -7722,22 +7722,22 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>2.2651e+13</t>
+          <t>7.8973e+12</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>5.0767e+01</t>
+          <t>2.9690e+03</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>-6.2052e+01</t>
+          <t>8.7523e+15</t>
         </is>
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>8.0832e+16</t>
+          <t>8.2062e+02</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr">
@@ -7749,22 +7749,22 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>2.2456e+13</t>
+          <t>7.7584e+12</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>-3.2949e+01</t>
+          <t>8.1746e+02</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>-6.1732e+01</t>
+          <t>8.7514e+15</t>
         </is>
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>8.0831e+16</t>
+          <t>-1.0720e+03</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr">
@@ -7776,22 +7776,22 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>2.2476e+13</t>
+          <t>7.7694e+12</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>-6.1587e+01</t>
+          <t>-1.0172e+03</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>-6.1623e+01</t>
+          <t>8.7515e+15</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>8.0831e+16</t>
+          <t>-3.6134e+02</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr">
@@ -7803,22 +7803,22 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>2.2407e+13</t>
+          <t>7.9155e+12</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>-7.2080e+01</t>
+          <t>-4.0226e+02</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>-6.1583e+01</t>
+          <t>8.7524e+15</t>
         </is>
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>8.0831e+16</t>
+          <t>-4.6452e+02</t>
         </is>
       </c>
       <c r="E273" s="2" t="inlineStr">
@@ -7830,22 +7830,22 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>2.2474e+13</t>
+          <t>7.8321e+12</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>-4.8867e+01</t>
+          <t>5.9234e+02</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>-6.1671e+01</t>
+          <t>8.7519e+15</t>
         </is>
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>8.0831e+16</t>
+          <t>-8.6353e+02</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr">
@@ -7857,22 +7857,22 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>2.2303e+13</t>
+          <t>7.8217e+12</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>3.1614e+00</t>
+          <t>3.1255e+03</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>-6.1870e+01</t>
+          <t>8.7518e+15</t>
         </is>
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>8.0830e+16</t>
+          <t>7.2722e+02</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr">
@@ -7884,22 +7884,22 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>2.2142e+13</t>
+          <t>7.3421e+12</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>-3.8719e+01</t>
+          <t>4.0091e+03</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>-6.1711e+01</t>
+          <t>8.7487e+15</t>
         </is>
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>8.0829e+16</t>
+          <t>4.4261e+02</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr">
@@ -7911,22 +7911,22 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>2.2156e+13</t>
+          <t>7.2320e+12</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>-6.7988e+01</t>
+          <t>1.6781e+03</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>-6.1600e+01</t>
+          <t>8.7480e+15</t>
         </is>
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>8.0829e+16</t>
+          <t>-1.3990e+04</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr">
@@ -7938,22 +7938,22 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>2.2122e+13</t>
+          <t>7.0985e+12</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>-2.7991e+01</t>
+          <t>-1.8632e+02</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>-6.1752e+01</t>
+          <t>8.7472e+15</t>
         </is>
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>8.0829e+16</t>
+          <t>-5.1660e+02</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr">
@@ -7965,22 +7965,22 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>2.1962e+13</t>
+          <t>7.2575e+12</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>3.4748e+01</t>
+          <t>-1.4272e+02</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>-6.1993e+01</t>
+          <t>8.7482e+15</t>
         </is>
       </c>
       <c r="D279" s="2" t="inlineStr">
         <is>
-          <t>8.0828e+16</t>
+          <t>-5.2844e+02</t>
         </is>
       </c>
       <c r="E279" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>2.1659e+13</t>
+          <t>7.1182e+12</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>2.9362e+01</t>
+          <t>3.9254e+03</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>-6.1973e+01</t>
+          <t>8.7473e+15</t>
         </is>
       </c>
       <c r="D280" s="2" t="inlineStr">
         <is>
-          <t>8.0827e+16</t>
+          <t>4.5958e+02</t>
         </is>
       </c>
       <c r="E280" s="2" t="inlineStr">
@@ -8019,22 +8019,22 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>2.1528e+13</t>
+          <t>6.6978e+12</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>-4.6070e+00</t>
+          <t>6.1040e+03</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>-6.1844e+01</t>
+          <t>8.7446e+15</t>
         </is>
       </c>
       <c r="D281" s="2" t="inlineStr">
         <is>
-          <t>8.0826e+16</t>
+          <t>2.2961e+02</t>
         </is>
       </c>
       <c r="E281" s="2" t="inlineStr">
@@ -8046,22 +8046,22 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>2.1371e+13</t>
+          <t>6.2997e+12</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>-7.6480e+00</t>
+          <t>3.4492e+03</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>-6.1833e+01</t>
+          <t>8.7420e+15</t>
         </is>
       </c>
       <c r="D282" s="2" t="inlineStr">
         <is>
-          <t>8.0825e+16</t>
+          <t>5.8795e+02</t>
         </is>
       </c>
       <c r="E282" s="2" t="inlineStr">
@@ -8073,22 +8073,22 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>2.1256e+13</t>
+          <t>6.2624e+12</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>-3.6390e+01</t>
+          <t>4.3997e+03</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>-6.1724e+01</t>
+          <t>8.7418e+15</t>
         </is>
       </c>
       <c r="D283" s="2" t="inlineStr">
         <is>
-          <t>8.0824e+16</t>
+          <t>3.7717e+02</t>
         </is>
       </c>
       <c r="E283" s="2" t="inlineStr">
@@ -8100,22 +8100,22 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>2.1220e+13</t>
+          <t>5.7478e+12</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>-4.7740e+01</t>
+          <t>7.3919e+03</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>-6.1680e+01</t>
+          <t>8.7385e+15</t>
         </is>
       </c>
       <c r="D284" s="2" t="inlineStr">
         <is>
-          <t>8.0824e+16</t>
+          <t>1.7717e+02</t>
         </is>
       </c>
       <c r="E284" s="2" t="inlineStr">
@@ -8127,22 +8127,22 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>2.1152e+13</t>
+          <t>5.4119e+12</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>-3.9858e+01</t>
+          <t>4.7644e+03</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>-6.1711e+01</t>
+          <t>8.7364e+15</t>
         </is>
       </c>
       <c r="D285" s="2" t="inlineStr">
         <is>
-          <t>8.0824e+16</t>
+          <t>3.3144e+02</t>
         </is>
       </c>
       <c r="E285" s="2" t="inlineStr">
@@ -8154,22 +8154,22 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>2.1085e+13</t>
+          <t>5.2315e+12</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>-1.2432e+01</t>
+          <t>-3.6811e+02</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>-6.1816e+01</t>
+          <t>8.7352e+15</t>
         </is>
       </c>
       <c r="D286" s="2" t="inlineStr">
         <is>
-          <t>8.0823e+16</t>
+          <t>-4.7278e+02</t>
         </is>
       </c>
       <c r="E286" s="2" t="inlineStr">
@@ -8181,22 +8181,22 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>2.0903e+13</t>
+          <t>5.4497e+12</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>2.6727e+01</t>
+          <t>-1.6146e+03</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>-6.1966e+01</t>
+          <t>8.7366e+15</t>
         </is>
       </c>
       <c r="D287" s="2" t="inlineStr">
         <is>
-          <t>8.0823e+16</t>
+          <t>-2.9745e+02</t>
         </is>
       </c>
       <c r="E287" s="2" t="inlineStr">
@@ -8208,22 +8208,22 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>2.0677e+13</t>
+          <t>5.4067e+12</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>3.0424e+01</t>
+          <t>3.4859e+03</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>-6.1982e+01</t>
+          <t>8.7363e+15</t>
         </is>
       </c>
       <c r="D288" s="2" t="inlineStr">
         <is>
-          <t>8.0821e+16</t>
+          <t>5.7515e+02</t>
         </is>
       </c>
       <c r="E288" s="2" t="inlineStr">
@@ -8235,22 +8235,22 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>2.0485e+13</t>
+          <t>5.0721e+12</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>1.0436e+01</t>
+          <t>3.9300e+03</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>-6.1906e+01</t>
+          <t>8.7342e+15</t>
         </is>
       </c>
       <c r="D289" s="2" t="inlineStr">
         <is>
-          <t>8.0820e+16</t>
+          <t>4.5804e+02</t>
         </is>
       </c>
       <c r="E289" s="2" t="inlineStr">
@@ -8262,22 +8262,22 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>2.0343e+13</t>
+          <t>5.0074e+12</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>-3.0222e+00</t>
+          <t>3.8748e+03</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>-6.1855e+01</t>
+          <t>8.7338e+15</t>
         </is>
       </c>
       <c r="D290" s="2" t="inlineStr">
         <is>
-          <t>8.0820e+16</t>
+          <t>4.6990e+02</t>
         </is>
       </c>
       <c r="E290" s="2" t="inlineStr">
@@ -8289,22 +8289,22 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>2.0207e+13</t>
+          <t>4.6834e+12</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>-2.1621e+01</t>
+          <t>7.6938e+03</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>-6.1784e+01</t>
+          <t>8.7317e+15</t>
         </is>
       </c>
       <c r="D291" s="2" t="inlineStr">
         <is>
-          <t>8.0819e+16</t>
+          <t>1.6814e+02</t>
         </is>
       </c>
       <c r="E291" s="2" t="inlineStr">
@@ -8316,22 +8316,22 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>2.0141e+13</t>
+          <t>4.2861e+12</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>-3.8626e+01</t>
+          <t>3.8774e+03</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>-6.1720e+01</t>
+          <t>8.7292e+15</t>
         </is>
       </c>
       <c r="D292" s="2" t="inlineStr">
         <is>
-          <t>8.0818e+16</t>
+          <t>4.6913e+02</t>
         </is>
       </c>
       <c r="E292" s="2" t="inlineStr">
@@ -8343,22 +8343,22 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>2.0073e+13</t>
+          <t>4.3504e+12</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>-4.0364e+01</t>
+          <t>3.0463e+02</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>-6.1713e+01</t>
+          <t>8.7296e+15</t>
         </is>
       </c>
       <c r="D293" s="2" t="inlineStr">
         <is>
-          <t>8.0818e+16</t>
+          <t>-6.9383e+02</t>
         </is>
       </c>
       <c r="E293" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>2.0014e+13</t>
+          <t>4.2591e+12</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>-2.5912e+01</t>
+          <t>-1.2222e+03</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>-6.1769e+01</t>
+          <t>8.7290e+15</t>
         </is>
       </c>
       <c r="D294" s="2" t="inlineStr">
         <is>
-          <t>8.0818e+16</t>
+          <t>-3.3693e+02</t>
         </is>
       </c>
       <c r="E294" s="2" t="inlineStr">
@@ -8397,22 +8397,22 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>1.9890e+13</t>
+          <t>4.4540e+12</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>-2.0250e+01</t>
+          <t>5.6236e+02</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>-6.1791e+01</t>
+          <t>8.7302e+15</t>
         </is>
       </c>
       <c r="D295" s="2" t="inlineStr">
         <is>
-          <t>8.0817e+16</t>
+          <t>-8.4482e+02</t>
         </is>
       </c>
       <c r="E295" s="2" t="inlineStr">
@@ -8424,22 +8424,22 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>1.9810e+13</t>
+          <t>4.2084e+12</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>-5.2713e+01</t>
+          <t>7.4155e+02</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>-6.1667e+01</t>
+          <t>8.7287e+15</t>
         </is>
       </c>
       <c r="D296" s="2" t="inlineStr">
         <is>
-          <t>8.0817e+16</t>
+          <t>-9.9584e+02</t>
         </is>
       </c>
       <c r="E296" s="2" t="inlineStr">
@@ -8451,22 +8451,22 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>1.9813e+13</t>
+          <t>4.3910e+12</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>-9.8931e+01</t>
+          <t>-2.5128e+03</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>-6.1492e+01</t>
+          <t>8.7298e+15</t>
         </is>
       </c>
       <c r="D297" s="2" t="inlineStr">
         <is>
-          <t>8.0817e+16</t>
+          <t>-2.3481e+02</t>
         </is>
       </c>
       <c r="E297" s="2" t="inlineStr">
@@ -8478,22 +8478,22 @@
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>1.9914e+13</t>
+          <t>4.4285e+12</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>-8.6837e+01</t>
+          <t>-6.8715e+02</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>-6.1537e+01</t>
+          <t>8.7301e+15</t>
         </is>
       </c>
       <c r="D298" s="2" t="inlineStr">
         <is>
-          <t>8.0817e+16</t>
+          <t>-4.1099e+02</t>
         </is>
       </c>
       <c r="E298" s="2" t="inlineStr">
@@ -8505,22 +8505,22 @@
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>1.9870e+13</t>
+          <t>4.4513e+12</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>-4.5784e+01</t>
+          <t>-1.3144e+03</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>-6.1693e+01</t>
+          <t>8.7302e+15</t>
         </is>
       </c>
       <c r="D299" s="2" t="inlineStr">
         <is>
-          <t>8.0817e+16</t>
+          <t>-3.2675e+02</t>
         </is>
       </c>
       <c r="E299" s="2" t="inlineStr">
@@ -8532,22 +8532,22 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>1.9810e+13</t>
+          <t>4.5450e+12</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>-4.1499e+01</t>
+          <t>-2.0668e+03</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>-6.1710e+01</t>
+          <t>8.7308e+15</t>
         </is>
       </c>
       <c r="D300" s="2" t="inlineStr">
         <is>
-          <t>8.0817e+16</t>
+          <t>-2.6226e+02</t>
         </is>
       </c>
       <c r="E300" s="2" t="inlineStr">

--- a/Lifetime_SRH.xlsx
+++ b/Lifetime_SRH.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,22 +486,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2.3384e+16</t>
+          <t>2.5166e+16</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>9.0446e+03</t>
+          <t>8.0619e+02</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>1.5849e+17</t>
+          <t>1.6990e+17</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>-4.4145e+01</t>
+          <t>-1.0846e+03</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -513,22 +513,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2.1511e+16</t>
+          <t>2.2577e+16</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>9.0999e+03</t>
+          <t>8.2180e+02</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>1.4649e+17</t>
+          <t>1.5332e+17</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>-4.9509e+01</t>
+          <t>-1.3555e+03</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -540,22 +540,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>1.9729e+16</t>
+          <t>2.0432e+16</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>8.9570e+03</t>
+          <t>8.2686e+02</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1.3508e+17</t>
+          <t>1.3958e+17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5.5377e+01</t>
+          <t>-1.6867e+03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -567,22 +567,22 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>1.8106e+16</t>
+          <t>1.8635e+16</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>8.6948e+03</t>
+          <t>8.1974e+02</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1.2468e+17</t>
+          <t>1.2807e+17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6.1571e+01</t>
+          <t>-2.0707e+03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -594,22 +594,22 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>1.6638e+16</t>
+          <t>1.7106e+16</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>8.4681e+03</t>
+          <t>8.0991e+02</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1.1527e+17</t>
+          <t>1.1827e+17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6.8557e+01</t>
+          <t>-2.5436e+03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -621,22 +621,22 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>1.5307e+16</t>
+          <t>1.5787e+16</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>8.2802e+03</t>
+          <t>7.9843e+02</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1.0675e+17</t>
+          <t>1.0983e+17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7.6515e+01</t>
+          <t>-3.1378e+03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -648,22 +648,22 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>1.4100e+16</t>
+          <t>1.4637e+16</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>7.9955e+03</t>
+          <t>7.8789e+02</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9.9017e+16</t>
+          <t>1.0246e+17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8.4688e+01</t>
+          <t>-3.9325e+03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -675,22 +675,22 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>1.3039e+16</t>
+          <t>1.3621e+16</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>7.6583e+03</t>
+          <t>7.7084e+02</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9.2221e+16</t>
+          <t>9.5950e+16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9.2713e+01</t>
+          <t>-4.8748e+03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -702,22 +702,22 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>1.2086e+16</t>
+          <t>1.2730e+16</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>7.4916e+03</t>
+          <t>7.5352e+02</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8.6117e+16</t>
+          <t>9.0244e+16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1.0276e+02</t>
+          <t>-6.0819e+03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -729,22 +729,22 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>1.1211e+16</t>
+          <t>1.1928e+16</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>7.2882e+03</t>
+          <t>7.4517e+02</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8.0514e+16</t>
+          <t>8.5107e+16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1.1345e+02</t>
+          <t>-8.2978e+03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -756,22 +756,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>1.0436e+16</t>
+          <t>1.1206e+16</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>6.9596e+03</t>
+          <t>7.3039e+02</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7.5548e+16</t>
+          <t>8.0483e+16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1.2270e+02</t>
+          <t>-1.1329e+04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -783,22 +783,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>9.7439e+15</t>
+          <t>1.0557e+16</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>6.7236e+03</t>
+          <t>7.1709e+02</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7.1115e+16</t>
+          <t>7.6324e+16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1.3334e+02</t>
+          <t>-1.6874e+04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -810,22 +810,22 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>9.1116e+15</t>
+          <t>9.9644e+15</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>6.5919e+03</t>
+          <t>7.0589e+02</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6.7066e+16</t>
+          <t>7.2528e+16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1.4660e+02</t>
+          <t>-3.1397e+04</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -837,22 +837,22 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>8.5293e+15</t>
+          <t>9.4253e+15</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>6.3909e+03</t>
+          <t>6.8923e+02</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6.3335e+16</t>
+          <t>6.9075e+16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1.5933e+02</t>
+          <t>-7.4705e+04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -864,22 +864,22 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>8.0086e+15</t>
+          <t>8.9352e+15</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>6.1232e+03</t>
+          <t>6.7732e+02</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6.0000e+16</t>
+          <t>6.5935e+16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1.7016e+02</t>
+          <t>1.5064e+05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -891,22 +891,22 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>7.5363e+15</t>
+          <t>8.4808e+15</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>5.9862e+03</t>
+          <t>6.6737e+02</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5.6975e+16</t>
+          <t>6.3025e+16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1.8488e+02</t>
+          <t>3.8038e+04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -918,22 +918,22 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>7.0947e+15</t>
+          <t>8.0645e+15</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>5.8503e+03</t>
+          <t>6.5599e+02</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5.4146e+16</t>
+          <t>6.0358e+16</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2.0085e+02</t>
+          <t>2.3785e+04</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -945,22 +945,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>6.6951e+15</t>
+          <t>7.6771e+15</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>5.5870e+03</t>
+          <t>6.4661e+02</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5.1587e+16</t>
+          <t>5.7877e+16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2.1140e+02</t>
+          <t>1.7271e+04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -972,22 +972,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>6.3361e+15</t>
+          <t>7.3193e+15</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>5.4277e+03</t>
+          <t>6.3189e+02</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4.9287e+16</t>
+          <t>5.5585e+16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2.2575e+02</t>
+          <t>1.5038e+04</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>5.9974e+15</t>
+          <t>6.9892e+15</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>5.3389e+03</t>
+          <t>6.2435e+02</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4.7118e+16</t>
+          <t>5.3470e+16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2.4482e+02</t>
+          <t>1.2428e+04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>5.6861e+15</t>
+          <t>6.6769e+15</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>5.1385e+03</t>
+          <t>6.1836e+02</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4.5124e+16</t>
+          <t>5.1470e+16</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2.5732e+02</t>
+          <t>1.0546e+04</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1053,22 +1053,22 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>5.4040e+15</t>
+          <t>6.3874e+15</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>5.0025e+03</t>
+          <t>6.0712e+02</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4.3317e+16</t>
+          <t>4.9616e+16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2.7316e+02</t>
+          <t>9.7618e+03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1080,22 +1080,22 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>5.1367e+15</t>
+          <t>6.1160e+15</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>4.9704e+03</t>
+          <t>5.9900e+02</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4.1604e+16</t>
+          <t>4.7877e+16</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2.9847e+02</t>
+          <t>8.9286e+03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1107,22 +1107,22 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>4.8852e+15</t>
+          <t>5.8617e+15</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>4.8404e+03</t>
+          <t>5.8952e+02</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3.9994e+16</t>
+          <t>4.6249e+16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3.1662e+02</t>
+          <t>8.3970e+03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1134,22 +1134,22 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>4.6563e+15</t>
+          <t>5.6235e+15</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>4.6982e+03</t>
+          <t>5.8281e+02</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3.8527e+16</t>
+          <t>4.4723e+16</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-3.3253e+02</t>
+          <t>7.8188e+03</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1161,22 +1161,22 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>4.4407e+15</t>
+          <t>5.3979e+15</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>4.5700e+03</t>
+          <t>5.7817e+02</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3.7146e+16</t>
+          <t>4.3277e+16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3.4974e+02</t>
+          <t>7.2484e+03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1188,22 +1188,22 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>4.2442e+15</t>
+          <t>5.1849e+15</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>4.3676e+03</t>
+          <t>5.7077e+02</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3.5887e+16</t>
+          <t>4.1913e+16</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3.5589e+02</t>
+          <t>6.9232e+03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1215,22 +1215,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>4.0643e+15</t>
+          <t>4.9844e+15</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>4.3070e+03</t>
+          <t>5.6065e+02</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3.4735e+16</t>
+          <t>4.0629e+16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3.7878e+02</t>
+          <t>6.7850e+03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1242,22 +1242,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>3.8889e+15</t>
+          <t>4.7963e+15</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>4.2809e+03</t>
+          <t>5.5142e+02</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3.3612e+16</t>
+          <t>3.9424e+16</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-4.0959e+02</t>
+          <t>6.6484e+03</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1269,22 +1269,22 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>3.7267e+15</t>
+          <t>4.6182e+15</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>4.1939e+03</t>
+          <t>5.4945e+02</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>3.2573e+16</t>
+          <t>3.8283e+16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-4.3091e+02</t>
+          <t>6.2483e+03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1296,22 +1296,22 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>3.5721e+15</t>
+          <t>4.4471e+15</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>4.0951e+03</t>
+          <t>5.4185e+02</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3.1583e+16</t>
+          <t>3.7187e+16</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-4.5016e+02</t>
+          <t>6.1128e+03</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1323,22 +1323,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>3.4303e+15</t>
+          <t>4.2880e+15</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>3.9731e+03</t>
+          <t>5.3463e+02</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3.0674e+16</t>
+          <t>3.6168e+16</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4.6258e+02</t>
+          <t>5.9977e+03</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1350,22 +1350,22 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>3.2961e+15</t>
+          <t>4.1341e+15</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>3.9472e+03</t>
+          <t>5.3130e+02</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2.9814e+16</t>
+          <t>3.5183e+16</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-4.9611e+02</t>
+          <t>5.7660e+03</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1377,22 +1377,22 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>3.1669e+15</t>
+          <t>3.9896e+15</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>3.8854e+03</t>
+          <t>5.2049e+02</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2.8987e+16</t>
+          <t>3.4257e+16</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-5.2301e+02</t>
+          <t>5.8126e+03</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>3.0471e+15</t>
+          <t>3.8527e+15</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>3.7901e+03</t>
+          <t>5.1972e+02</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2.8219e+16</t>
+          <t>3.3380e+16</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-5.3945e+02</t>
+          <t>5.5500e+03</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -1431,22 +1431,22 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2.9333e+15</t>
+          <t>3.7194e+15</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>3.6255e+03</t>
+          <t>5.2116e+02</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2.7491e+16</t>
+          <t>3.2526e+16</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-5.3402e+02</t>
+          <t>5.2546e+03</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1458,22 +1458,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2.8319e+15</t>
+          <t>3.5925e+15</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>3.5906e+03</t>
+          <t>5.1324e+02</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2.6841e+16</t>
+          <t>3.1713e+16</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-5.6255e+02</t>
+          <t>5.2450e+03</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1485,22 +1485,22 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2.7276e+15</t>
+          <t>3.4725e+15</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>3.6003e+03</t>
+          <t>5.0979e+02</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2.6173e+16</t>
+          <t>3.0945e+16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-6.1185e+02</t>
+          <t>5.1275e+03</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1512,22 +1512,22 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2.6334e+15</t>
+          <t>3.3562e+15</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>3.5698e+03</t>
+          <t>5.0702e+02</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2.5570e+16</t>
+          <t>3.0200e+16</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-6.4763e+02</t>
+          <t>5.0040e+03</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
@@ -1539,22 +1539,22 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2.5376e+15</t>
+          <t>3.2462e+15</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>3.6410e+03</t>
+          <t>4.9631e+02</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2.4956e+16</t>
+          <t>2.9495e+16</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-7.4060e+02</t>
+          <t>5.0944e+03</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
@@ -1566,22 +1566,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2.4468e+15</t>
+          <t>3.1422e+15</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>3.4479e+03</t>
+          <t>4.8958e+02</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2.4374e+16</t>
+          <t>2.8829e+16</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-7.0079e+02</t>
+          <t>5.0933e+03</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -1593,22 +1593,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2.3672e+15</t>
+          <t>3.0423e+15</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>3.2370e+03</t>
+          <t>4.9401e+02</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2.3865e+16</t>
+          <t>2.8189e+16</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-6.5105e+02</t>
+          <t>4.8245e+03</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -1620,22 +1620,22 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2.2919e+15</t>
+          <t>2.9439e+15</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>3.3024e+03</t>
+          <t>4.9434e+02</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2.3383e+16</t>
+          <t>2.7558e+16</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-7.2777e+02</t>
+          <t>4.6725e+03</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -1647,22 +1647,22 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2.2144e+15</t>
+          <t>2.8508e+15</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>3.3281e+03</t>
+          <t>4.8476e+02</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2.2886e+16</t>
+          <t>2.6962e+16</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-8.0061e+02</t>
+          <t>4.7504e+03</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -1674,22 +1674,22 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2.1432e+15</t>
+          <t>2.7623e+15</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>3.2204e+03</t>
+          <t>4.7680e+02</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2.2430e+16</t>
+          <t>2.6395e+16</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>-7.9018e+02</t>
+          <t>4.8003e+03</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1701,22 +1701,22 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2.0751e+15</t>
+          <t>2.6780e+15</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>3.2257e+03</t>
+          <t>4.8006e+02</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2.1993e+16</t>
+          <t>2.5856e+16</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>-8.5254e+02</t>
+          <t>4.6069e+03</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1728,22 +1728,22 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2.0081e+15</t>
+          <t>2.5941e+15</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>3.2665e+03</t>
+          <t>4.8396e+02</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2.1564e+16</t>
+          <t>2.5318e+16</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>-9.5566e+02</t>
+          <t>4.4163e+03</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
@@ -1755,22 +1755,22 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>1.9427e+15</t>
+          <t>2.5143e+15</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>3.1186e+03</t>
+          <t>4.6717e+02</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2.1146e+16</t>
+          <t>2.4807e+16</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>-9.0041e+02</t>
+          <t>4.6547e+03</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -1782,22 +1782,22 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>1.8859e+15</t>
+          <t>2.4409e+15</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>2.9746e+03</t>
+          <t>4.6480e+02</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2.0782e+16</t>
+          <t>2.4337e+16</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>-8.4621e+02</t>
+          <t>4.6030e+03</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -1809,22 +1809,22 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>1.8296e+15</t>
+          <t>2.3667e+15</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>2.8941e+03</t>
+          <t>4.7258e+02</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2.0421e+16</t>
+          <t>2.3861e+16</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>-8.4033e+02</t>
+          <t>4.3502e+03</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
@@ -1836,22 +1836,22 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>1.7790e+15</t>
+          <t>2.2959e+15</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>2.8367e+03</t>
+          <t>4.6586e+02</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2.0097e+16</t>
+          <t>2.3408e+16</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>-8.4550e+02</t>
+          <t>4.3905e+03</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -1863,22 +1863,22 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>1.7277e+15</t>
+          <t>2.2281e+15</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>3.0595e+03</t>
+          <t>4.5963e+02</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>1.9769e+16</t>
+          <t>2.2974e+16</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>-1.1183e+03</t>
+          <t>4.4258e+03</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
@@ -1890,22 +1890,22 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>1.6725e+15</t>
+          <t>2.1633e+15</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>3.0558e+03</t>
+          <t>4.5496e+02</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>1.9415e+16</t>
+          <t>2.2559e+16</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>-1.2090e+03</t>
+          <t>4.4347e+03</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
@@ -1917,22 +1917,22 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>1.6247e+15</t>
+          <t>2.1009e+15</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>2.7802e+03</t>
+          <t>4.5360e+02</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>1.9109e+16</t>
+          <t>2.2159e+16</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>-9.6011e+02</t>
+          <t>4.3819e+03</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -1944,22 +1944,22 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>1.5814e+15</t>
+          <t>2.0404e+15</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>2.7698e+03</t>
+          <t>4.5368e+02</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>1.8831e+16</t>
+          <t>2.1771e+16</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>-1.0036e+03</t>
+          <t>4.3060e+03</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1971,22 +1971,22 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>1.5364e+15</t>
+          <t>1.9816e+15</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>2.8705e+03</t>
+          <t>4.5523e+02</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>1.8543e+16</t>
+          <t>2.1395e+16</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>-1.1932e+03</t>
+          <t>4.2086e+03</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -1998,22 +1998,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>1.4925e+15</t>
+          <t>1.9244e+15</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>2.8493e+03</t>
+          <t>4.6325e+02</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>1.8262e+16</t>
+          <t>2.1028e+16</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>-1.2452e+03</t>
+          <t>4.0103e+03</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
@@ -2025,22 +2025,22 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>1.4507e+15</t>
+          <t>1.8673e+15</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>2.8798e+03</t>
+          <t>4.5893e+02</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>1.7994e+16</t>
+          <t>2.0663e+16</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>-1.3907e+03</t>
+          <t>4.0200e+03</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>1.4084e+15</t>
+          <t>1.8146e+15</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>2.8113e+03</t>
+          <t>4.4082e+02</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>1.7723e+16</t>
+          <t>2.0325e+16</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>-1.3638e+03</t>
+          <t>4.2722e+03</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
@@ -2079,22 +2079,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>1.3710e+15</t>
+          <t>1.7648e+15</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>2.6318e+03</t>
+          <t>4.4815e+02</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>1.7483e+16</t>
+          <t>2.0006e+16</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>-1.1562e+03</t>
+          <t>4.0874e+03</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
@@ -2106,22 +2106,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>1.3356e+15</t>
+          <t>1.7135e+15</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>2.7292e+03</t>
+          <t>4.6612e+02</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>1.7257e+16</t>
+          <t>1.9677e+16</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>-1.3846e+03</t>
+          <t>3.7599e+03</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
@@ -2133,22 +2133,22 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>1.2976e+15</t>
+          <t>1.6630e+15</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>2.7940e+03</t>
+          <t>4.5810e+02</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>1.7013e+16</t>
+          <t>1.9354e+16</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>-1.6430e+03</t>
+          <t>3.8280e+03</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
@@ -2160,22 +2160,22 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>1.2627e+15</t>
+          <t>1.6164e+15</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>2.6040e+03</t>
+          <t>4.4443e+02</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>1.6790e+16</t>
+          <t>1.9056e+16</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>-1.3264e+03</t>
+          <t>3.9903e+03</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
@@ -2187,22 +2187,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>1.2313e+15</t>
+          <t>1.5715e+15</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>2.6732e+03</t>
+          <t>4.4010e+02</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>1.6589e+16</t>
+          <t>1.8768e+16</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>-1.5513e+03</t>
+          <t>4.0129e+03</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -2214,22 +2214,22 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>1.1964e+15</t>
+          <t>1.5284e+15</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>2.7733e+03</t>
+          <t>4.4227e+02</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>1.6365e+16</t>
+          <t>1.8491e+16</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>-2.0014e+03</t>
+          <t>3.9342e+03</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
@@ -2241,22 +2241,22 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>1.1645e+15</t>
+          <t>1.4855e+15</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>2.6598e+03</t>
+          <t>4.5245e+02</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>1.6161e+16</t>
+          <t>1.8217e+16</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>-1.7468e+03</t>
+          <t>3.7431e+03</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
@@ -2268,22 +2268,22 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>1.1340e+15</t>
+          <t>1.4431e+15</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>2.5819e+03</t>
+          <t>4.4838e+02</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>1.5966e+16</t>
+          <t>1.7945e+16</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>-1.6361e+03</t>
+          <t>3.7616e+03</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
@@ -2295,22 +2295,22 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>1.1056e+15</t>
+          <t>1.4035e+15</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>2.5488e+03</t>
+          <t>4.3122e+02</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>1.5784e+16</t>
+          <t>1.7691e+16</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>-1.6451e+03</t>
+          <t>3.9799e+03</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
@@ -2322,22 +2322,22 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>1.0773e+15</t>
+          <t>1.3663e+15</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>2.3449e+03</t>
+          <t>4.2890e+02</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>1.5602e+16</t>
+          <t>1.7453e+16</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>-1.2895e+03</t>
+          <t>3.9782e+03</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
@@ -2349,22 +2349,22 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>1.0547e+15</t>
+          <t>1.3292e+15</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>2.2595e+03</t>
+          <t>4.4011e+02</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>1.5458e+16</t>
+          <t>1.7216e+16</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>-1.2019e+03</t>
+          <t>3.7736e+03</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
@@ -2376,22 +2376,22 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>1.0293e+15</t>
+          <t>1.2923e+15</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>2.5683e+03</t>
+          <t>4.4084e+02</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>1.5295e+16</t>
+          <t>1.6979e+16</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>-2.0383e+03</t>
+          <t>3.7295e+03</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
@@ -2403,22 +2403,22 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>1.0015e+15</t>
+          <t>1.2572e+15</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>2.6177e+03</t>
+          <t>4.3584e+02</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>1.5117e+16</t>
+          <t>1.6754e+16</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>-2.4653e+03</t>
+          <t>3.7677e+03</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
@@ -2430,22 +2430,22 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>9.7653e+14</t>
+          <t>1.2231e+15</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>2.5776e+03</t>
+          <t>4.3516e+02</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>1.4957e+16</t>
+          <t>1.6536e+16</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>-2.4170e+03</t>
+          <t>3.7458e+03</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
@@ -2457,22 +2457,22 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>9.5088e+14</t>
+          <t>1.1900e+15</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>2.5243e+03</t>
+          <t>4.3331e+02</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>1.4792e+16</t>
+          <t>1.6324e+16</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>-2.3029e+03</t>
+          <t>3.7416e+03</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
@@ -2484,22 +2484,22 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>9.2824e+14</t>
+          <t>1.1580e+15</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>2.2849e+03</t>
+          <t>4.3795e+02</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>1.4647e+16</t>
+          <t>1.6119e+16</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>-1.5514e+03</t>
+          <t>3.6498e+03</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -2511,22 +2511,22 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>9.0819e+14</t>
+          <t>1.1261e+15</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>2.1973e+03</t>
+          <t>4.4129e+02</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>1.4519e+16</t>
+          <t>1.5915e+16</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>-1.4154e+03</t>
+          <t>3.5790e+03</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
@@ -2538,22 +2538,22 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>8.8806e+14</t>
+          <t>1.0955e+15</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>2.3486e+03</t>
+          <t>4.3236e+02</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>1.4390e+16</t>
+          <t>1.5719e+16</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>-1.8890e+03</t>
+          <t>3.6700e+03</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
@@ -2565,22 +2565,22 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>8.6621e+14</t>
+          <t>1.0665e+15</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>2.5226e+03</t>
+          <t>4.2962e+02</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>1.4250e+16</t>
+          <t>1.5533e+16</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>-3.0544e+03</t>
+          <t>3.6815e+03</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
@@ -2592,22 +2592,22 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>8.4412e+14</t>
+          <t>1.0378e+15</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>2.4638e+03</t>
+          <t>4.4203e+02</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>1.4109e+16</t>
+          <t>1.5349e+16</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>-2.7938e+03</t>
+          <t>3.4978e+03</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2619,22 +2619,22 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>8.2438e+14</t>
+          <t>1.0088e+15</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>2.4165e+03</t>
+          <t>4.4209e+02</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>1.3982e+16</t>
+          <t>1.5164e+16</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>-2.6319e+03</t>
+          <t>3.4741e+03</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
@@ -2646,22 +2646,22 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>8.0405e+14</t>
+          <t>9.8184e+14</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>2.5085e+03</t>
+          <t>4.3088e+02</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>1.3852e+16</t>
+          <t>1.4991e+16</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>-3.8181e+03</t>
+          <t>3.5920e+03</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
@@ -2673,22 +2673,22 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>7.8383e+14</t>
+          <t>9.5574e+14</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>2.3289e+03</t>
+          <t>4.3344e+02</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>1.3722e+16</t>
+          <t>1.4824e+16</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>-2.4060e+03</t>
+          <t>3.5379e+03</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
@@ -2700,22 +2700,22 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>7.6733e+14</t>
+          <t>9.2987e+14</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>2.1587e+03</t>
+          <t>4.3645e+02</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>1.3617e+16</t>
+          <t>1.4658e+16</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>-1.7710e+03</t>
+          <t>3.4800e+03</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
@@ -2727,22 +2727,22 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>7.5050e+14</t>
+          <t>9.0487e+14</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>2.2992e+03</t>
+          <t>4.3682e+02</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>1.3509e+16</t>
+          <t>1.4498e+16</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>-2.4841e+03</t>
+          <t>3.4560e+03</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
@@ -2754,22 +2754,22 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>7.3262e+14</t>
+          <t>8.8036e+14</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>2.5172e+03</t>
+          <t>4.3467e+02</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>1.3394e+16</t>
+          <t>1.4341e+16</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>-6.1861e+03</t>
+          <t>3.4627e+03</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
@@ -2781,22 +2781,22 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>7.1342e+14</t>
+          <t>8.5696e+14</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>2.3855e+03</t>
+          <t>4.3001e+02</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>1.3271e+16</t>
+          <t>1.4191e+16</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>-3.7205e+03</t>
+          <t>3.5006e+03</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
@@ -2808,22 +2808,22 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>6.9840e+14</t>
+          <t>8.3424e+14</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>2.1985e+03</t>
+          <t>4.3016e+02</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>1.3175e+16</t>
+          <t>1.4045e+16</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>-2.2906e+03</t>
+          <t>3.4808e+03</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
@@ -2835,22 +2835,22 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>6.8254e+14</t>
+          <t>8.1206e+14</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>2.3480e+03</t>
+          <t>4.3262e+02</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>1.3074e+16</t>
+          <t>1.3903e+16</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>-3.7490e+03</t>
+          <t>3.4341e+03</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
@@ -2862,22 +2862,22 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>6.6618e+14</t>
+          <t>7.9031e+14</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>2.1809e+03</t>
+          <t>4.2910e+02</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>1.2969e+16</t>
+          <t>1.3764e+16</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>-2.4220e+03</t>
+          <t>3.4590e+03</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
@@ -2889,22 +2889,22 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>6.5332e+14</t>
+          <t>7.6968e+14</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>2.0293e+03</t>
+          <t>4.3530e+02</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>1.2886e+16</t>
+          <t>1.3632e+16</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>-1.8248e+03</t>
+          <t>3.3710e+03</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
@@ -2916,22 +2916,22 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>6.3951e+14</t>
+          <t>7.4847e+14</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>2.3556e+03</t>
+          <t>4.3513e+02</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>1.2798e+16</t>
+          <t>1.3496e+16</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>-4.9025e+03</t>
+          <t>3.3574e+03</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
@@ -2943,22 +2943,22 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>6.2304e+14</t>
+          <t>7.2902e+14</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>2.4252e+03</t>
+          <t>4.3191e+02</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>1.2693e+16</t>
+          <t>1.3371e+16</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>-8.8253e+03</t>
+          <t>3.3796e+03</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
@@ -2970,22 +2970,22 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>6.0914e+14</t>
+          <t>7.0917e+14</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>2.1824e+03</t>
+          <t>4.5330e+02</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>1.2604e+16</t>
+          <t>1.3244e+16</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>-2.9562e+03</t>
+          <t>3.1389e+03</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
@@ -2997,22 +2997,22 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>5.9631e+14</t>
+          <t>6.8897e+14</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>2.3340e+03</t>
+          <t>4.7167e+02</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>1.2521e+16</t>
+          <t>1.3115e+16</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>-5.8747e+03</t>
+          <t>2.9563e+03</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
@@ -3024,22 +3024,22 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>5.8117e+14</t>
+          <t>6.6875e+14</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>2.5044e+03</t>
+          <t>4.6583e+02</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>1.2424e+16</t>
+          <t>1.2985e+16</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>5.1123e+04</t>
+          <t>2.9963e+03</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
@@ -3051,22 +3051,22 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>5.6707e+14</t>
+          <t>6.5022e+14</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>2.1398e+03</t>
+          <t>4.5560e+02</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>1.2334e+16</t>
+          <t>1.2867e+16</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>-3.0584e+03</t>
+          <t>3.0795e+03</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
@@ -3078,22 +3078,22 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>5.5677e+14</t>
+          <t>6.3190e+14</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>1.8642e+03</t>
+          <t>4.3996e+02</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>1.2268e+16</t>
+          <t>1.2749e+16</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>-1.6966e+03</t>
+          <t>3.2229e+03</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
@@ -3105,22 +3105,22 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>5.4618e+14</t>
+          <t>6.1562e+14</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>1.9429e+03</t>
+          <t>4.3239e+02</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>1.2200e+16</t>
+          <t>1.2645e+16</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>-2.0114e+03</t>
+          <t>3.2919e+03</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
@@ -3132,22 +3132,22 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>5.3543e+14</t>
+          <t>5.9876e+14</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>2.0686e+03</t>
+          <t>4.3660e+02</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>1.2131e+16</t>
+          <t>1.2537e+16</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>-2.7961e+03</t>
+          <t>3.2355e+03</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
@@ -3159,22 +3159,22 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>5.2391e+14</t>
+          <t>5.8310e+14</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>2.4706e+03</t>
+          <t>4.4132e+02</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>1.2058e+16</t>
+          <t>1.2437e+16</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>1.6921e+04</t>
+          <t>3.1765e+03</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
@@ -3186,22 +3186,22 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>5.0942e+14</t>
+          <t>5.6676e+14</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>2.6374e+03</t>
+          <t>4.4095e+02</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>1.1965e+16</t>
+          <t>1.2332e+16</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>4.0911e+03</t>
+          <t>3.1695e+03</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
@@ -3213,22 +3213,22 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>4.9693e+14</t>
+          <t>5.5203e+14</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>2.5492e+03</t>
+          <t>4.4178e+02</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>1.1885e+16</t>
+          <t>1.2238e+16</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>5.8047e+03</t>
+          <t>3.1515e+03</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
@@ -3240,22 +3240,22 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>4.8398e+14</t>
+          <t>5.3646e+14</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>2.3564e+03</t>
+          <t>4.6285e+02</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>1.1802e+16</t>
+          <t>1.2138e+16</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>-2.5353e+05</t>
+          <t>2.9465e+03</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
@@ -3267,22 +3267,22 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>4.7402e+14</t>
+          <t>5.2123e+14</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>1.9148e+03</t>
+          <t>4.7329e+02</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>1.1738e+16</t>
+          <t>1.2040e+16</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>-2.3107e+03</t>
+          <t>2.8505e+03</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
@@ -3294,22 +3294,22 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>4.6573e+14</t>
+          <t>5.0587e+14</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>1.7701e+03</t>
+          <t>4.7806e+02</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>1.1685e+16</t>
+          <t>1.1942e+16</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>-1.7641e+03</t>
+          <t>2.8043e+03</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
@@ -3321,22 +3321,22 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>4.5744e+14</t>
+          <t>4.9126e+14</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>2.0272e+03</t>
+          <t>4.5916e+02</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>1.1632e+16</t>
+          <t>1.1848e+16</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>-3.3425e+03</t>
+          <t>2.9530e+03</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
@@ -3348,22 +3348,22 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>4.4709e+14</t>
+          <t>4.7791e+14</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>2.2773e+03</t>
+          <t>4.4859e+02</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>1.1566e+16</t>
+          <t>1.1763e+16</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>-2.7911e+04</t>
+          <t>3.0400e+03</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
@@ -3375,22 +3375,22 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>4.3698e+14</t>
+          <t>4.6467e+14</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>2.2561e+03</t>
+          <t>4.4956e+02</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>1.1501e+16</t>
+          <t>1.1678e+16</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>-2.2676e+04</t>
+          <t>3.0232e+03</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
@@ -3402,22 +3402,22 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>4.2729e+14</t>
+          <t>4.5201e+14</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>2.0908e+03</t>
+          <t>4.3441e+02</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>1.1439e+16</t>
+          <t>1.1597e+16</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>-5.0777e+03</t>
+          <t>3.1600e+03</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
@@ -3429,22 +3429,22 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>4.1903e+14</t>
+          <t>4.4031e+14</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>2.1369e+03</t>
+          <t>4.3997e+02</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>1.1386e+16</t>
+          <t>1.1522e+16</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>-7.1322e+03</t>
+          <t>3.0981e+03</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
@@ -3456,22 +3456,22 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>4.0929e+14</t>
+          <t>4.2799e+14</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>2.2298e+03</t>
+          <t>4.6839e+02</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>1.1323e+16</t>
+          <t>1.1443e+16</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>-2.8635e+04</t>
+          <t>2.8410e+03</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
@@ -3483,22 +3483,22 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>4.0070e+14</t>
+          <t>4.1550e+14</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>2.1089e+03</t>
+          <t>4.9219e+02</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>1.1268e+16</t>
+          <t>1.1363e+16</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>-6.9100e+03</t>
+          <t>2.6553e+03</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
@@ -3510,22 +3510,22 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>3.9231e+14</t>
+          <t>4.0270e+14</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>1.8556e+03</t>
+          <t>4.7652e+02</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>1.1215e+16</t>
+          <t>1.1281e+16</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>-2.5818e+03</t>
+          <t>2.7642e+03</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
@@ -3537,22 +3537,22 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>3.8606e+14</t>
+          <t>3.9176e+14</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>1.7822e+03</t>
+          <t>4.4944e+02</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>1.1175e+16</t>
+          <t>1.1211e+16</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>-2.2087e+03</t>
+          <t>2.9815e+03</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
@@ -3564,22 +3564,22 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>3.7848e+14</t>
+          <t>3.8091e+14</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>2.2071e+03</t>
+          <t>4.7538e+02</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>1.1126e+16</t>
+          <t>1.1142e+16</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>-5.5127e+04</t>
+          <t>2.7620e+03</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
@@ -3591,22 +3591,22 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>3.6928e+14</t>
+          <t>3.6937e+14</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>2.3349e+03</t>
+          <t>4.9047e+02</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>1.1067e+16</t>
+          <t>1.1068e+16</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>8.2308e+03</t>
+          <t>2.6463e+03</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
@@ -3618,22 +3618,22 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>3.6116e+14</t>
+          <t>3.5852e+14</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>2.3017e+03</t>
+          <t>4.8173e+02</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>1.1015e+16</t>
+          <t>1.0998e+16</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>1.0132e+04</t>
+          <t>2.7037e+03</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
@@ -3645,22 +3645,22 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>3.5259e+14</t>
+          <t>3.4803e+14</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>2.1799e+03</t>
+          <t>4.8650e+02</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>1.0960e+16</t>
+          <t>1.0931e+16</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>-8.2276e+04</t>
+          <t>2.6644e+03</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -3672,22 +3672,22 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>3.4573e+14</t>
+          <t>3.3761e+14</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>1.8205e+03</t>
+          <t>4.9185e+02</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>1.0916e+16</t>
+          <t>1.0864e+16</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>-2.7567e+03</t>
+          <t>2.6223e+03</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3699,22 +3699,22 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>3.3994e+14</t>
+          <t>3.2753e+14</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>1.7675e+03</t>
+          <t>4.8037e+02</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>1.0879e+16</t>
+          <t>1.0800e+16</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>-2.4489e+03</t>
+          <t>2.6989e+03</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3726,22 +3726,22 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>3.3365e+14</t>
+          <t>3.1818e+14</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>2.1887e+03</t>
+          <t>4.8317e+02</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>1.0839e+16</t>
+          <t>1.0740e+16</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>4.7721e+04</t>
+          <t>2.6743e+03</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
@@ -3753,22 +3753,22 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>3.2527e+14</t>
+          <t>3.0855e+14</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>2.3838e+03</t>
+          <t>4.8721e+02</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>1.0785e+16</t>
+          <t>1.0678e+16</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>4.4108e+03</t>
+          <t>2.6414e+03</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
@@ -3780,22 +3780,22 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>3.1808e+14</t>
+          <t>2.9962e+14</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>2.2466e+03</t>
+          <t>4.9038e+02</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>1.0739e+16</t>
+          <t>1.0621e+16</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>1.0127e+04</t>
+          <t>2.6154e+03</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
@@ -3807,22 +3807,22 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>3.1092e+14</t>
+          <t>2.9042e+14</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>2.0218e+03</t>
+          <t>5.1103e+02</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>1.0693e+16</t>
+          <t>1.0562e+16</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>-8.5550e+03</t>
+          <t>2.4777e+03</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
@@ -3834,22 +3834,22 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>3.0545e+14</t>
+          <t>2.8133e+14</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>2.0697e+03</t>
+          <t>5.2352e+02</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>1.0658e+16</t>
+          <t>1.0504e+16</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>-1.6136e+04</t>
+          <t>2.3999e+03</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
@@ -3861,22 +3861,22 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>2.9822e+14</t>
+          <t>2.7227e+14</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>2.6347e+03</t>
+          <t>5.3264e+02</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>1.0612e+16</t>
+          <t>1.0446e+16</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>1.9519e+03</t>
+          <t>2.3453e+03</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
@@ -3888,22 +3888,22 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>2.8969e+14</t>
+          <t>2.6347e+14</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>2.5515e+03</t>
+          <t>5.1315e+02</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>1.0557e+16</t>
+          <t>1.0389e+16</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>2.2725e+03</t>
+          <t>2.4542e+03</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
@@ -3915,22 +3915,22 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>2.8339e+14</t>
+          <t>2.5561e+14</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>1.8397e+03</t>
+          <t>4.8296e+02</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>1.0517e+16</t>
+          <t>1.0339e+16</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>-3.7921e+03</t>
+          <t>2.6470e+03</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
@@ -3942,22 +3942,22 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>2.7921e+14</t>
+          <t>2.4824e+14</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>1.4438e+03</t>
+          <t>4.8374e+02</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>1.0490e+16</t>
+          <t>1.0292e+16</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>-1.5286e+03</t>
+          <t>2.6381e+03</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
@@ -3969,22 +3969,22 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>2.7528e+14</t>
+          <t>2.4080e+14</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>1.5790e+03</t>
+          <t>5.3623e+02</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>1.0465e+16</t>
+          <t>1.0244e+16</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>-1.9457e+03</t>
+          <t>2.3147e+03</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
@@ -3996,22 +3996,22 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>2.7047e+14</t>
+          <t>2.3235e+14</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>1.8213e+03</t>
+          <t>5.5509e+02</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>1.0434e+16</t>
+          <t>1.0190e+16</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>-3.7658e+03</t>
+          <t>2.2152e+03</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
@@ -4023,22 +4023,22 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>2.6538e+14</t>
+          <t>2.2494e+14</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>2.1255e+03</t>
+          <t>5.3796e+02</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>1.0402e+16</t>
+          <t>1.0143e+16</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>2.2111e+04</t>
+          <t>2.2999e+03</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
@@ -4050,22 +4050,22 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>2.5914e+14</t>
+          <t>2.1745e+14</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>2.7098e+03</t>
+          <t>5.2424e+02</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>1.0362e+16</t>
+          <t>1.0095e+16</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>1.5686e+03</t>
+          <t>2.3721e+03</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
@@ -4077,22 +4077,22 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>2.5129e+14</t>
+          <t>2.1090e+14</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>2.8744e+03</t>
+          <t>4.8706e+02</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>1.0311e+16</t>
+          <t>1.0053e+16</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>1.2313e+03</t>
+          <t>2.5987e+03</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
@@ -4104,22 +4104,22 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>2.4465e+14</t>
+          <t>2.0480e+14</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>2.7268e+03</t>
+          <t>5.1884e+02</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>1.0269e+16</t>
+          <t>1.0014e+16</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>1.4857e+03</t>
+          <t>2.3982e+03</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
@@ -4131,22 +4131,22 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>2.3791e+14</t>
+          <t>1.9783e+14</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>2.7344e+03</t>
+          <t>5.4178e+02</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>1.0226e+16</t>
+          <t>9.9689e+15</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>1.4508e+03</t>
+          <t>2.2708e+03</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
@@ -4158,22 +4158,22 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>2.3160e+14</t>
+          <t>1.9161e+14</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>2.1322e+03</t>
+          <t>4.9025e+02</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>1.0185e+16</t>
+          <t>9.9291e+15</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>1.0505e+04</t>
+          <t>2.5690e+03</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
@@ -4185,22 +4185,22 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>2.2799e+14</t>
+          <t>1.8626e+14</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>1.7205e+03</t>
+          <t>4.9463e+02</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>1.0162e+16</t>
+          <t>9.8947e+15</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>-3.2056e+03</t>
+          <t>2.5382e+03</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
@@ -4212,22 +4212,22 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>2.2372e+14</t>
+          <t>1.8027e+14</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>1.6097e+03</t>
+          <t>5.3571e+02</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>1.0135e+16</t>
+          <t>9.8564e+15</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>-2.3967e+03</t>
+          <t>2.2965e+03</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
@@ -4239,22 +4239,22 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>2.2075e+14</t>
+          <t>1.7438e+14</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>1.4331e+03</t>
+          <t>5.5012e+02</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>1.0116e+16</t>
+          <t>9.8187e+15</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>-1.6948e+03</t>
+          <t>2.2210e+03</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
@@ -4266,22 +4266,22 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>2.1736e+14</t>
+          <t>1.6848e+14</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>1.7904e+03</t>
+          <t>6.0134e+02</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>1.0094e+16</t>
+          <t>9.7809e+15</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>-4.3794e+03</t>
+          <t>1.9926e+03</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
@@ -4293,22 +4293,22 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>2.1293e+14</t>
+          <t>1.6194e+14</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>1.9683e+03</t>
+          <t>6.4756e+02</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>1.0066e+16</t>
+          <t>9.7390e+15</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>-2.2311e+04</t>
+          <t>1.8232e+03</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>2.0894e+14</t>
+          <t>1.5562e+14</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>2.2226e+03</t>
+          <t>6.5071e+02</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>1.0040e+16</t>
+          <t>9.6985e+15</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>4.6590e+03</t>
+          <t>1.8114e+03</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
@@ -4347,22 +4347,22 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>2.0361e+14</t>
+          <t>1.4952e+14</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>2.4051e+03</t>
+          <t>6.0470e+02</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>1.0006e+16</t>
+          <t>9.6595e+15</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>2.4755e+03</t>
+          <t>1.9745e+03</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
@@ -4374,22 +4374,22 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>1.9911e+14</t>
+          <t>1.4452e+14</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>2.1481e+03</t>
+          <t>5.3480e+02</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>9.9771e+15</t>
+          <t>9.6274e+15</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>6.5505e+03</t>
+          <t>2.2890e+03</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
@@ -4401,22 +4401,22 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>1.9503e+14</t>
+          <t>1.4002e+14</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>2.2496e+03</t>
+          <t>5.2927e+02</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>9.9509e+15</t>
+          <t>9.5986e+15</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>3.8544e+03</t>
+          <t>2.3168e+03</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
@@ -4428,22 +4428,22 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>1.9031e+14</t>
+          <t>1.3541e+14</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>2.3216e+03</t>
+          <t>5.8227e+02</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>9.9207e+15</t>
+          <t>9.5690e+15</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>2.9630e+03</t>
+          <t>2.0621e+03</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
@@ -4455,22 +4455,22 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>1.8616e+14</t>
+          <t>1.3034e+14</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>2.3864e+03</t>
+          <t>5.9725e+02</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>9.8941e+15</t>
+          <t>9.5366e+15</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>2.4537e+03</t>
+          <t>1.9990e+03</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
@@ -4482,22 +4482,22 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>1.8139e+14</t>
+          <t>1.2586e+14</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>2.4893e+03</t>
+          <t>5.8852e+02</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>9.8636e+15</t>
+          <t>9.5079e+15</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>1.9360e+03</t>
+          <t>2.0333e+03</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
@@ -4509,22 +4509,22 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>1.7710e+14</t>
+          <t>1.2125e+14</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>2.0673e+03</t>
+          <t>6.2213e+02</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>9.8361e+15</t>
+          <t>9.4784e+15</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>9.9958e+03</t>
+          <t>1.9021e+03</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
@@ -4536,22 +4536,22 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>1.7404e+14</t>
+          <t>1.1660e+14</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>1.9139e+03</t>
+          <t>6.2019e+02</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>9.8165e+15</t>
+          <t>9.4486e+15</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>-2.0233e+04</t>
+          <t>1.9081e+03</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
@@ -4563,22 +4563,22 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>1.7041e+14</t>
+          <t>1.1238e+14</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>2.1604e+03</t>
+          <t>6.5276e+02</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>9.7933e+15</t>
+          <t>9.4216e+15</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>4.9566e+03</t>
+          <t>1.7956e+03</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
@@ -4590,22 +4590,22 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>1.6665e+14</t>
+          <t>1.0761e+14</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>2.3958e+03</t>
+          <t>5.8886e+02</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>9.7692e+15</t>
+          <t>9.3910e+15</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>2.2624e+03</t>
+          <t>2.0270e+03</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
@@ -4617,22 +4617,22 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>1.6240e+14</t>
+          <t>1.0461e+14</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>2.1681e+03</t>
+          <t>5.2036e+02</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>9.7419e+15</t>
+          <t>9.3718e+15</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>4.5506e+03</t>
+          <t>2.3528e+03</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
@@ -4644,22 +4644,22 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>1.5958e+14</t>
+          <t>1.0092e+14</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>1.8187e+03</t>
+          <t>6.0220e+02</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>9.7239e+15</t>
+          <t>9.3482e+15</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>-7.9315e+03</t>
+          <t>1.9719e+03</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
@@ -4671,22 +4671,22 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>1.5657e+14</t>
+          <t>9.7154e+13</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>1.9931e+03</t>
+          <t>6.2999e+02</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>9.7046e+15</t>
+          <t>9.3240e+15</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>1.9180e+04</t>
+          <t>1.8686e+03</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>1.5332e+14</t>
+          <t>9.3420e+13</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>2.2873e+03</t>
+          <t>5.9904e+02</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>9.6838e+15</t>
+          <t>9.3001e+15</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>2.8525e+03</t>
+          <t>1.9824e+03</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
@@ -4725,22 +4725,22 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>1.4953e+14</t>
+          <t>9.0290e+13</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>2.3250e+03</t>
+          <t>6.2451e+02</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>9.6595e+15</t>
+          <t>9.2800e+15</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>2.5436e+03</t>
+          <t>1.8864e+03</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
@@ -4752,22 +4752,22 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>1.4634e+14</t>
+          <t>8.6508e+13</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>2.1826e+03</t>
+          <t>7.2213e+02</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>9.6391e+15</t>
+          <t>9.2558e+15</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>3.9247e+03</t>
+          <t>1.5924e+03</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
@@ -4779,22 +4779,22 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>1.4312e+14</t>
+          <t>8.2644e+13</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>2.2322e+03</t>
+          <t>7.1611e+02</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>9.6185e+15</t>
+          <t>9.2311e+15</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>3.2409e+03</t>
+          <t>1.6072e+03</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
@@ -4806,22 +4806,22 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>1.3993e+14</t>
+          <t>7.9264e+13</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>2.3934e+03</t>
+          <t>6.6544e+02</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>9.5980e+15</t>
+          <t>9.2094e+15</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>2.1106e+03</t>
+          <t>1.7490e+03</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
@@ -4833,22 +4833,22 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>1.3640e+14</t>
+          <t>7.6183e+13</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>2.3012e+03</t>
+          <t>6.8532e+02</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>9.5754e+15</t>
+          <t>9.1897e+15</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>2.5900e+03</t>
+          <t>1.6896e+03</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
@@ -4860,22 +4860,22 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>1.3363e+14</t>
+          <t>7.2871e+13</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>1.9598e+03</t>
+          <t>8.0156e+02</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>9.5577e+15</t>
+          <t>9.1685e+15</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>2.0736e+04</t>
+          <t>1.4118e+03</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
@@ -4887,22 +4887,22 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>1.3115e+14</t>
+          <t>6.9042e+13</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>2.0751e+03</t>
+          <t>8.0010e+02</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>9.5417e+15</t>
+          <t>9.1439e+15</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>5.9957e+03</t>
+          <t>1.4142e+03</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
@@ -4914,22 +4914,22 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>1.2817e+14</t>
+          <t>6.6118e+13</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>2.7590e+03</t>
+          <t>6.8857e+02</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>9.5227e+15</t>
+          <t>9.1252e+15</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>1.1703e+03</t>
+          <t>1.6786e+03</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
@@ -4941,22 +4941,22 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>1.2405e+14</t>
+          <t>6.3468e+13</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>2.9758e+03</t>
+          <t>7.4227e+02</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>9.4963e+15</t>
+          <t>9.1082e+15</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>9.2891e+02</t>
+          <t>1.5393e+03</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
@@ -4968,22 +4968,22 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>1.2077e+14</t>
+          <t>6.0354e+13</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>2.7190e+03</t>
+          <t>7.6124e+02</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>9.4753e+15</t>
+          <t>9.0883e+15</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>1.2137e+03</t>
+          <t>1.4952e+03</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
@@ -4995,22 +4995,22 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>1.1747e+14</t>
+          <t>5.7849e+13</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>2.0734e+03</t>
+          <t>6.2381e+02</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>9.4541e+15</t>
+          <t>9.0722e+15</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>5.4771e+03</t>
+          <t>1.8814e+03</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
@@ -5022,22 +5022,22 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>1.1588e+14</t>
+          <t>5.5932e+13</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>1.5657e+03</t>
+          <t>5.9269e+02</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>9.4440e+15</t>
+          <t>9.0600e+15</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>-3.0955e+03</t>
+          <t>1.9979e+03</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -5049,22 +5049,22 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>1.1382e+14</t>
+          <t>5.3785e+13</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>2.4401e+03</t>
+          <t>6.7176e+02</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>9.4308e+15</t>
+          <t>9.0462e+15</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>1.8052e+03</t>
+          <t>1.7249e+03</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
@@ -5076,22 +5076,22 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>1.1031e+14</t>
+          <t>5.1509e+13</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>2.3168e+03</t>
+          <t>6.8811e+02</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>9.4083e+15</t>
+          <t>9.0316e+15</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>2.2979e+03</t>
+          <t>1.6772e+03</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
@@ -5103,22 +5103,22 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>1.0870e+14</t>
+          <t>4.9446e+13</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>1.7764e+03</t>
+          <t>7.5087e+02</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>9.3979e+15</t>
+          <t>9.0184e+15</t>
         </is>
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>-9.6881e+03</t>
+          <t>1.5171e+03</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr">
@@ -5130,22 +5130,22 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>1.0643e+14</t>
+          <t>4.6968e+13</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>2.3693e+03</t>
+          <t>8.3972e+02</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>9.3834e+15</t>
+          <t>9.0025e+15</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>2.0299e+03</t>
+          <t>1.3366e+03</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
@@ -5157,22 +5157,22 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>1.0364e+14</t>
+          <t>4.4628e+13</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>3.1386e+03</t>
+          <t>8.3624e+02</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>9.3655e+15</t>
+          <t>8.9876e+15</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>7.9020e+02</t>
+          <t>1.3426e+03</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
@@ -5184,22 +5184,22 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>9.9910e+13</t>
+          <t>4.2408e+13</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>2.7639e+03</t>
+          <t>8.6291e+02</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>9.3417e+15</t>
+          <t>8.9733e+15</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>1.1165e+03</t>
+          <t>1.2959e+03</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
@@ -5211,22 +5211,22 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>9.8099e+13</t>
+          <t>4.0157e+13</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>1.6555e+03</t>
+          <t>8.5010e+02</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>9.3301e+15</t>
+          <t>8.9589e+15</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>-4.7514e+03</t>
+          <t>1.3176e+03</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
@@ -5238,22 +5238,22 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>9.6648e+13</t>
+          <t>3.8238e+13</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>2.0582e+03</t>
+          <t>7.4087e+02</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>9.3208e+15</t>
+          <t>8.9466e+15</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>5.1544e+03</t>
+          <t>1.5388e+03</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
@@ -5265,22 +5265,22 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>9.4107e+13</t>
+          <t>3.6693e+13</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>1.5512e+03</t>
+          <t>7.0753e+02</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>9.3045e+15</t>
+          <t>8.9367e+15</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>-3.2292e+03</t>
+          <t>1.6217e+03</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr">
@@ -5292,22 +5292,22 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>9.3715e+13</t>
+          <t>3.5061e+13</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>1.2851e+03</t>
+          <t>7.4145e+02</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>9.3020e+15</t>
+          <t>8.9263e+15</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>-1.7382e+03</t>
+          <t>1.5369e+03</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr">
@@ -5319,22 +5319,22 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>9.1685e+13</t>
+          <t>3.3514e+13</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>1.8892e+03</t>
+          <t>7.1383e+02</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>9.2890e+15</t>
+          <t>8.9164e+15</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>3.1882e+04</t>
+          <t>1.6048e+03</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr">
@@ -5346,22 +5346,22 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>9.0238e+13</t>
+          <t>3.2134e+13</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>2.0278e+03</t>
+          <t>5.6854e+02</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>9.2797e+15</t>
+          <t>8.9075e+15</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>5.8171e+03</t>
+          <t>2.0924e+03</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
@@ -5373,22 +5373,22 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>8.8012e+13</t>
+          <t>3.1273e+13</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>2.3027e+03</t>
+          <t>6.1594e+02</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>9.2655e+15</t>
+          <t>8.9020e+15</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>2.2241e+03</t>
+          <t>1.9034e+03</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
@@ -5400,22 +5400,22 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>8.6172e+13</t>
+          <t>2.9775e+13</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>2.1953e+03</t>
+          <t>7.9838e+02</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>9.2537e+15</t>
+          <t>8.8924e+15</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>2.9019e+03</t>
+          <t>1.4126e+03</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
@@ -5427,22 +5427,22 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>8.4216e+13</t>
+          <t>2.8368e+13</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>3.0245e+03</t>
+          <t>8.1594e+02</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>9.2411e+15</t>
+          <t>8.8834e+15</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>8.5017e+02</t>
+          <t>1.3782e+03</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
@@ -5454,22 +5454,22 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>8.1066e+13</t>
+          <t>2.6946e+13</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>3.4777e+03</t>
+          <t>8.0699e+02</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>9.2210e+15</t>
+          <t>8.8743e+15</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>6.1217e+02</t>
+          <t>1.3952e+03</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr">
@@ -5481,22 +5481,22 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>7.8566e+13</t>
+          <t>2.5711e+13</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>2.6592e+03</t>
+          <t>8.9030e+02</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>9.2049e+15</t>
+          <t>8.8664e+15</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>1.2222e+03</t>
+          <t>1.2498e+03</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr">
@@ -5508,22 +5508,22 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>7.6876e+13</t>
+          <t>2.4151e+13</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>2.7049e+03</t>
+          <t>8.2675e+02</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>9.1941e+15</t>
+          <t>8.8564e+15</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>1.1547e+03</t>
+          <t>1.3575e+03</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr">
@@ -5535,22 +5535,22 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>7.4397e+13</t>
+          <t>2.3271e+13</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>2.3076e+03</t>
+          <t>6.1052e+02</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>9.1782e+15</t>
+          <t>8.8508e+15</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>2.1187e+03</t>
+          <t>1.9212e+03</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr">
@@ -5562,22 +5562,22 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>7.3432e+13</t>
+          <t>2.2411e+13</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>1.2657e+03</t>
+          <t>6.9619e+02</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>9.1721e+15</t>
+          <t>8.8452e+15</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>-1.7582e+03</t>
+          <t>1.6496e+03</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr">
@@ -5589,22 +5589,22 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>7.2527e+13</t>
+          <t>2.1362e+13</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>1.9339e+03</t>
+          <t>8.5419e+02</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>9.1663e+15</t>
+          <t>8.8385e+15</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>9.9376e+03</t>
+          <t>1.3084e+03</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr">
@@ -5616,22 +5616,22 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>7.0617e+13</t>
+          <t>2.0182e+13</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>2.1081e+03</t>
+          <t>7.0907e+02</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>9.1540e+15</t>
+          <t>8.8310e+15</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>3.6060e+03</t>
+          <t>1.6149e+03</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr">
@@ -5643,22 +5643,22 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>6.9540e+13</t>
+          <t>1.9612e+13</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>1.5639e+03</t>
+          <t>5.6465e+02</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>9.1471e+15</t>
+          <t>8.8273e+15</t>
         </is>
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>-3.7655e+03</t>
+          <t>2.1059e+03</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr">
@@ -5670,22 +5670,22 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>6.8432e+13</t>
+          <t>1.8824e+13</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>2.0328e+03</t>
+          <t>7.9027e+02</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>9.1400e+15</t>
+          <t>8.8223e+15</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>4.8820e+03</t>
+          <t>1.4275e+03</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr">
@@ -5697,22 +5697,22 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>6.6748e+13</t>
+          <t>1.7794e+13</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>2.1701e+03</t>
+          <t>8.5694e+02</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>9.1292e+15</t>
+          <t>8.8157e+15</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>2.9050e+03</t>
+          <t>1.3033e+03</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr">
@@ -5724,22 +5724,22 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>6.5526e+13</t>
+          <t>1.6962e+13</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>2.4214e+03</t>
+          <t>9.4756e+02</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>9.1214e+15</t>
+          <t>8.8103e+15</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>1.6748e+03</t>
+          <t>1.1656e+03</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr">
@@ -5751,22 +5751,22 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>6.3566e+13</t>
+          <t>1.5832e+13</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>3.0991e+03</t>
+          <t>9.8292e+02</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>9.1089e+15</t>
+          <t>8.8031e+15</t>
         </is>
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>7.8290e+02</t>
+          <t>1.1193e+03</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr">
@@ -5778,22 +5778,22 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>6.1577e+13</t>
+          <t>1.5063e+13</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>2.9555e+03</t>
+          <t>8.1281e+02</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>9.0961e+15</t>
+          <t>8.7982e+15</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>8.8005e+02</t>
+          <t>1.3825e+03</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
@@ -5805,22 +5805,22 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>5.9918e+13</t>
+          <t>1.4336e+13</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>2.7289e+03</t>
+          <t>8.4925e+02</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>9.0855e+15</t>
+          <t>8.7935e+15</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>1.0968e+03</t>
+          <t>1.3161e+03</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
@@ -5832,22 +5832,22 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>5.8299e+13</t>
+          <t>1.3576e+13</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>2.8501e+03</t>
+          <t>8.3456e+02</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>9.0751e+15</t>
+          <t>8.7887e+15</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>9.6608e+02</t>
+          <t>1.3420e+03</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
@@ -5859,22 +5859,22 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>5.6586e+13</t>
+          <t>1.2953e+13</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>2.3594e+03</t>
+          <t>6.2345e+02</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>9.0642e+15</t>
+          <t>8.7847e+15</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>1.8297e+03</t>
+          <t>1.8723e+03</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
@@ -5886,22 +5886,22 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>5.5621e+13</t>
+          <t>1.2587e+13</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>2.4592e+03</t>
+          <t>7.6581e+02</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>9.0580e+15</t>
+          <t>8.7823e+15</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>1.5442e+03</t>
+          <t>1.4782e+03</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr">
@@ -5913,22 +5913,22 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>5.3843e+13</t>
+          <t>1.1774e+13</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>3.4906e+03</t>
+          <t>9.8474e+02</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>9.0466e+15</t>
+          <t>8.7771e+15</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>5.9479e+02</t>
+          <t>1.1167e+03</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr">
@@ -5940,22 +5940,22 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>5.1854e+13</t>
+          <t>1.1173e+13</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>2.6603e+03</t>
+          <t>9.1455e+02</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>9.0338e+15</t>
+          <t>8.7733e+15</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>1.1716e+03</t>
+          <t>1.2117e+03</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr">
@@ -5967,22 +5967,22 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>5.1077e+13</t>
+          <t>1.0527e+13</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>1.8901e+03</t>
+          <t>9.0883e+02</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>9.0289e+15</t>
+          <t>8.7691e+15</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>1.1866e+04</t>
+          <t>1.2201e+03</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr">
@@ -5994,22 +5994,22 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>4.9917e+13</t>
+          <t>1.0005e+13</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>2.1426e+03</t>
+          <t>7.2520e+02</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>9.0214e+15</t>
+          <t>8.7658e+15</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>2.9555e+03</t>
+          <t>1.5722e+03</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr">
@@ -6021,22 +6021,22 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>4.8931e+13</t>
+          <t>9.6398e+12</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>1.7419e+03</t>
+          <t>5.8674e+02</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>9.0151e+15</t>
+          <t>8.7634e+15</t>
         </is>
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>-1.6352e+04</t>
+          <t>2.0096e+03</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr">
@@ -6048,22 +6048,22 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>4.8205e+13</t>
+          <t>9.3117e+12</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>1.6991e+03</t>
+          <t>7.7249e+02</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>9.0105e+15</t>
+          <t>8.7613e+15</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>-9.7132e+03</t>
+          <t>1.4633e+03</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr">
@@ -6075,22 +6075,22 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>4.7287e+13</t>
+          <t>8.7606e+12</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>3.1266e+03</t>
+          <t>1.0531e+03</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>9.0046e+15</t>
+          <t>8.7578e+15</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>7.5432e+02</t>
+          <t>1.0373e+03</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr">
@@ -6102,22 +6102,22 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>4.5242e+13</t>
+          <t>8.1866e+12</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>3.2160e+03</t>
+          <t>1.1939e+03</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>8.9915e+15</t>
+          <t>8.7541e+15</t>
         </is>
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>7.0536e+02</t>
+          <t>9.0511e+02</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr">
@@ -6129,22 +6129,22 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>4.4370e+13</t>
+          <t>7.5696e+12</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>1.5493e+03</t>
+          <t>9.8281e+02</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>8.9859e+15</t>
+          <t>8.7502e+15</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>-4.0348e+03</t>
+          <t>1.1188e+03</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr">
@@ -6156,22 +6156,22 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>4.3861e+13</t>
+          <t>7.2789e+12</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>1.9643e+03</t>
+          <t>2.6458e+02</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>8.9826e+15</t>
+          <t>8.7483e+15</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>5.9600e+03</t>
+          <t>5.6951e+03</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr">
@@ -6183,22 +6183,22 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>4.2641e+13</t>
+          <t>7.3304e+12</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>3.4406e+03</t>
+          <t>6.3162e+01</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>8.9748e+15</t>
+          <t>8.7487e+15</t>
         </is>
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>6.0766e+02</t>
+          <t>-3.8719e+04</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr">
@@ -6210,22 +6210,22 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>4.0921e+13</t>
+          <t>7.2171e+12</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>3.5785e+03</t>
+          <t>6.6931e+02</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>8.9638e+15</t>
+          <t>8.7479e+15</t>
         </is>
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>5.6000e+02</t>
+          <t>1.7232e+03</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr">
@@ -6237,22 +6237,22 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>3.9707e+13</t>
+          <t>6.7393e+12</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>2.6044e+03</t>
+          <t>7.8526e+02</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>8.9560e+15</t>
+          <t>8.7449e+15</t>
         </is>
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>1.2297e+03</t>
+          <t>1.4361e+03</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr">
@@ -6264,22 +6264,22 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>3.8847e+13</t>
+          <t>6.5704e+12</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>2.1507e+03</t>
+          <t>8.7210e+02</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>8.9505e+15</t>
+          <t>8.7438e+15</t>
         </is>
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>2.7732e+03</t>
+          <t>1.2769e+03</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr">
@@ -6291,22 +6291,22 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>3.8031e+13</t>
+          <t>6.0397e+12</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>2.4697e+03</t>
+          <t>1.0268e+03</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>8.9453e+15</t>
+          <t>8.7404e+15</t>
         </is>
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>1.4693e+03</t>
+          <t>1.0662e+03</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr">
@@ -6318,22 +6318,22 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>3.6964e+13</t>
+          <t>5.8140e+12</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>3.4018e+03</t>
+          <t>8.4191e+02</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>8.9385e+15</t>
+          <t>8.7389e+15</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>6.1955e+02</t>
+          <t>1.3280e+03</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr">
@@ -6345,22 +6345,22 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>3.5511e+13</t>
+          <t>5.4419e+12</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>3.5456e+03</t>
+          <t>1.6278e+03</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>8.9292e+15</t>
+          <t>8.7366e+15</t>
         </is>
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>5.6825e+02</t>
+          <t>6.4979e+02</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr">
@@ -6372,22 +6372,22 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>3.4441e+13</t>
+          <t>4.7361e+12</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>3.0474e+03</t>
+          <t>1.6212e+03</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>8.9223e+15</t>
+          <t>8.7320e+15</t>
         </is>
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>7.9182e+02</t>
+          <t>6.5259e+02</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr">
@@ -6399,22 +6399,22 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>3.3407e+13</t>
+          <t>4.5076e+12</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>2.7645e+03</t>
+          <t>1.0023e+03</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>8.9157e+15</t>
+          <t>8.7306e+15</t>
         </is>
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>1.0190e+03</t>
+          <t>1.0947e+03</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr">
@@ -6426,22 +6426,22 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>3.2589e+13</t>
+          <t>4.1849e+12</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>2.0276e+03</t>
+          <t>5.0852e+02</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>8.9104e+15</t>
+          <t>8.7285e+15</t>
         </is>
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>4.0725e+03</t>
+          <t>2.3825e+03</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr">
@@ -6453,22 +6453,22 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>3.2081e+13</t>
+          <t>4.2464e+12</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>2.0128e+03</t>
+          <t>5.2471e+02</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>8.9072e+15</t>
+          <t>8.7289e+15</t>
         </is>
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>4.3224e+03</t>
+          <t>2.2940e+03</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr">
@@ -6480,22 +6480,22 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>3.1293e+13</t>
+          <t>3.9116e+12</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>3.4020e+03</t>
+          <t>9.0932e+02</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>8.9021e+15</t>
+          <t>8.7268e+15</t>
         </is>
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>6.1669e+02</t>
+          <t>1.2187e+03</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr">
@@ -6507,22 +6507,22 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>2.9948e+13</t>
+          <t>3.8122e+12</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>3.2421e+03</t>
+          <t>8.0509e+01</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>8.8935e+15</t>
+          <t>8.7261e+15</t>
         </is>
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>6.8333e+02</t>
+          <t>-1.2119e+05</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr">
@@ -6534,22 +6534,22 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>2.9348e+13</t>
+          <t>3.8714e+12</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>2.5234e+03</t>
+          <t>6.3886e+02</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>8.8897e+15</t>
+          <t>8.7265e+15</t>
         </is>
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>1.3414e+03</t>
+          <t>1.8179e+03</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr">
@@ -6561,22 +6561,22 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>2.8463e+13</t>
+          <t>3.5094e+12</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>1.5218e+03</t>
+          <t>4.5437e+02</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>8.8840e+15</t>
+          <t>8.7242e+15</t>
         </is>
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>-3.9208e+03</t>
+          <t>2.7350e+03</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr">
@@ -6588,22 +6588,22 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>2.8477e+13</t>
+          <t>3.6754e+12</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>-5.6716e+02</t>
+          <t>-1.0494e+03</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>8.8841e+15</t>
+          <t>8.7252e+15</t>
         </is>
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>-4.2662e+02</t>
+          <t>-8.7865e+02</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr">
@@ -6615,22 +6615,22 @@
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>2.8782e+13</t>
+          <t>3.9740e+12</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>2.4434e+01</t>
+          <t>-2.8112e+02</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>8.8861e+15</t>
+          <t>8.7272e+15</t>
         </is>
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>-5.7052e+02</t>
+          <t>-2.7035e+03</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr">
@@ -6642,22 +6642,22 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>2.8460e+13</t>
+          <t>3.8077e+12</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>1.3290e+03</t>
+          <t>8.7692e+02</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>8.8840e+15</t>
+          <t>8.7261e+15</t>
         </is>
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>-2.2333e+03</t>
+          <t>1.2688e+03</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr">
@@ -6669,22 +6669,22 @@
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>2.8022e+13</t>
+          <t>3.5663e+12</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>2.5054e+03</t>
+          <t>1.2160e+03</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>8.8812e+15</t>
+          <t>8.7245e+15</t>
         </is>
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>1.3714e+03</t>
+          <t>8.8713e+02</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr">
@@ -6696,22 +6696,22 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>2.7052e+13</t>
+          <t>3.2793e+12</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>3.0277e+03</t>
+          <t>1.6935e+03</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>8.8750e+15</t>
+          <t>8.7227e+15</t>
         </is>
       </c>
       <c r="D232" s="2" t="inlineStr">
         <is>
-          <t>7.9828e+02</t>
+          <t>6.2314e+02</t>
         </is>
       </c>
       <c r="E232" s="2" t="inlineStr">
@@ -6723,22 +6723,22 @@
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>2.6380e+13</t>
+          <t>2.8907e+12</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>2.4699e+03</t>
+          <t>1.9729e+03</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>8.8707e+15</t>
+          <t>8.7202e+15</t>
         </is>
       </c>
       <c r="D233" s="2" t="inlineStr">
         <is>
-          <t>1.4372e+03</t>
+          <t>5.3074e+02</t>
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr">
@@ -6750,22 +6750,22 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>2.5745e+13</t>
+          <t>2.5858e+12</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>2.8709e+03</t>
+          <t>1.2351e+03</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>8.8666e+15</t>
+          <t>8.7183e+15</t>
         </is>
       </c>
       <c r="D234" s="2" t="inlineStr">
         <is>
-          <t>9.1108e+02</t>
+          <t>8.7232e+02</t>
         </is>
       </c>
       <c r="E234" s="2" t="inlineStr">
@@ -6777,22 +6777,22 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>2.4899e+13</t>
+          <t>2.5016e+12</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>2.9588e+03</t>
+          <t>1.1217e+03</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>8.8612e+15</t>
+          <t>8.7177e+15</t>
         </is>
       </c>
       <c r="D235" s="2" t="inlineStr">
         <is>
-          <t>8.4278e+02</t>
+          <t>9.6803e+02</t>
         </is>
       </c>
       <c r="E235" s="2" t="inlineStr">
@@ -6804,22 +6804,22 @@
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>2.4268e+13</t>
+          <t>2.2438e+12</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>2.3353e+03</t>
+          <t>1.2446e+03</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>8.8571e+15</t>
+          <t>8.7161e+15</t>
         </is>
       </c>
       <c r="D236" s="2" t="inlineStr">
         <is>
-          <t>1.7734e+03</t>
+          <t>8.6508e+02</t>
         </is>
       </c>
       <c r="E236" s="2" t="inlineStr">
@@ -6831,22 +6831,22 @@
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>2.3762e+13</t>
+          <t>2.1614e+12</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>4.2035e+03</t>
+          <t>1.4259e+02</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>8.8539e+15</t>
+          <t>8.7155e+15</t>
         </is>
       </c>
       <c r="D237" s="2" t="inlineStr">
         <is>
-          <t>4.1106e+02</t>
+          <t>1.8539e+04</t>
         </is>
       </c>
       <c r="E237" s="2" t="inlineStr">
@@ -6858,22 +6858,22 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>2.2268e+13</t>
+          <t>2.2048e+12</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>6.4171e+03</t>
+          <t>6.4433e+02</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>8.8443e+15</t>
+          <t>8.7158e+15</t>
         </is>
       </c>
       <c r="D238" s="2" t="inlineStr">
         <is>
-          <t>2.1513e+02</t>
+          <t>1.7996e+03</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr">
@@ -6885,22 +6885,22 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>2.0901e+13</t>
+          <t>1.9875e+12</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>4.4159e+03</t>
+          <t>1.6459e+03</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>8.8356e+15</t>
+          <t>8.7144e+15</t>
         </is>
       </c>
       <c r="D239" s="2" t="inlineStr">
         <is>
-          <t>3.7753e+02</t>
+          <t>6.4214e+02</t>
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr">
@@ -6912,22 +6912,22 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>2.0419e+13</t>
+          <t>1.8067e+12</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>3.4572e+03</t>
+          <t>1.7735e+03</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>8.8325e+15</t>
+          <t>8.7133e+15</t>
         </is>
       </c>
       <c r="D240" s="2" t="inlineStr">
         <is>
-          <t>5.9147e+02</t>
+          <t>5.9350e+02</t>
         </is>
       </c>
       <c r="E240" s="2" t="inlineStr">
@@ -6939,22 +6939,22 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>1.9487e+13</t>
+          <t>1.5977e+12</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>2.9649e+03</t>
+          <t>1.4065e+03</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>8.8265e+15</t>
+          <t>8.7119e+15</t>
         </is>
       </c>
       <c r="D241" s="2" t="inlineStr">
         <is>
-          <t>8.3361e+02</t>
+          <t>7.5880e+02</t>
         </is>
       </c>
       <c r="E241" s="2" t="inlineStr">
@@ -6966,22 +6966,22 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>1.9261e+13</t>
+          <t>1.5331e+12</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>2.5374e+03</t>
+          <t>8.2726e+02</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>8.8251e+15</t>
+          <t>8.7115e+15</t>
         </is>
       </c>
       <c r="D242" s="2" t="inlineStr">
         <is>
-          <t>1.2947e+03</t>
+          <t>1.3538e+03</t>
         </is>
       </c>
       <c r="E242" s="2" t="inlineStr">
@@ -6993,22 +6993,22 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>1.8507e+13</t>
+          <t>1.4428e+12</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>5.1996e+03</t>
+          <t>5.6434e+02</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>8.8202e+15</t>
+          <t>8.7109e+15</t>
         </is>
       </c>
       <c r="D243" s="2" t="inlineStr">
         <is>
-          <t>2.9108e+02</t>
+          <t>2.1020e+03</t>
         </is>
       </c>
       <c r="E243" s="2" t="inlineStr">
@@ -7020,22 +7020,22 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>1.7334e+13</t>
+          <t>1.4333e+12</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>3.8433e+03</t>
+          <t>2.5386e+02</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>8.8127e+15</t>
+          <t>8.7109e+15</t>
         </is>
       </c>
       <c r="D244" s="2" t="inlineStr">
         <is>
-          <t>4.8061e+02</t>
+          <t>6.0512e+03</t>
         </is>
       </c>
       <c r="E244" s="2" t="inlineStr">
@@ -7047,22 +7047,22 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>1.7172e+13</t>
+          <t>1.3975e+12</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>6.2865e+02</t>
+          <t>1.5709e+03</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>8.8117e+15</t>
+          <t>8.7106e+15</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>-8.8208e+02</t>
+          <t>6.7463e+02</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr">
@@ -7074,22 +7074,22 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>1.7116e+13</t>
+          <t>1.1661e+12</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>2.7416e+03</t>
+          <t>2.7048e+03</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>8.8113e+15</t>
+          <t>8.7092e+15</t>
         </is>
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t>1.0211e+03</t>
+          <t>3.8223e+02</t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr">
@@ -7101,22 +7101,22 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>1.6231e+13</t>
+          <t>1.0143e+12</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>3.5353e+03</t>
+          <t>8.3210e+02</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>8.8057e+15</t>
+          <t>8.7082e+15</t>
         </is>
       </c>
       <c r="D247" s="2" t="inlineStr">
         <is>
-          <t>5.6365e+02</t>
+          <t>1.3450e+03</t>
         </is>
       </c>
       <c r="E247" s="2" t="inlineStr">
@@ -7128,22 +7128,22 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>1.5966e+13</t>
+          <t>1.0631e+12</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>2.7374e+02</t>
+          <t>1.6260e+03</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>8.8040e+15</t>
+          <t>8.7085e+15</t>
         </is>
       </c>
       <c r="D248" s="2" t="inlineStr">
         <is>
-          <t>-6.7247e+02</t>
+          <t>6.5042e+02</t>
         </is>
       </c>
       <c r="E248" s="2" t="inlineStr">
@@ -7155,22 +7155,22 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>1.6142e+13</t>
+          <t>8.0401e+11</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>-2.9359e+02</t>
+          <t>3.3957e+03</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>8.8051e+15</t>
+          <t>8.7068e+15</t>
         </is>
       </c>
       <c r="D249" s="2" t="inlineStr">
         <is>
-          <t>-4.8671e+02</t>
+          <t>3.0237e+02</t>
         </is>
       </c>
       <c r="E249" s="2" t="inlineStr">
@@ -7182,22 +7182,22 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>1.6059e+13</t>
+          <t>7.3153e+11</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>1.9604e+03</t>
+          <t>2.1452e+03</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>8.8046e+15</t>
+          <t>8.7064e+15</t>
         </is>
       </c>
       <c r="D250" s="2" t="inlineStr">
         <is>
-          <t>5.0130e+03</t>
+          <t>4.8623e+02</t>
         </is>
       </c>
       <c r="E250" s="2" t="inlineStr">
@@ -7209,22 +7209,22 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>1.5510e+13</t>
+          <t>6.1325e+11</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>4.2410e+03</t>
+          <t>2.3939e+02</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>8.8010e+15</t>
+          <t>8.7056e+15</t>
         </is>
       </c>
       <c r="D251" s="2" t="inlineStr">
         <is>
-          <t>4.0310e+02</t>
+          <t>6.6297e+03</t>
         </is>
       </c>
       <c r="E251" s="2" t="inlineStr">
@@ -7236,22 +7236,22 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>1.4741e+13</t>
+          <t>7.1326e+11</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>2.3719e+03</t>
+          <t>2.7219e+03</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>8.7961e+15</t>
+          <t>8.7063e+15</t>
         </is>
       </c>
       <c r="D252" s="2" t="inlineStr">
         <is>
-          <t>1.6322e+03</t>
+          <t>3.7975e+02</t>
         </is>
       </c>
       <c r="E252" s="2" t="inlineStr">
@@ -7263,22 +7263,22 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>1.4809e+13</t>
+          <t>3.7739e+11</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>2.8577e+03</t>
+          <t>1.0498e+04</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>8.7966e+15</t>
+          <t>8.7041e+15</t>
         </is>
       </c>
       <c r="D253" s="2" t="inlineStr">
         <is>
-          <t>9.1043e+02</t>
+          <t>9.6062e+01</t>
         </is>
       </c>
       <c r="E253" s="2" t="inlineStr">
@@ -7290,22 +7290,22 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>1.3893e+13</t>
+          <t>2.3276e+11</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>4.0365e+03</t>
+          <t>5.8846e+03</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>8.7907e+15</t>
+          <t>8.7032e+15</t>
         </is>
       </c>
       <c r="D254" s="2" t="inlineStr">
         <is>
-          <t>4.3891e+02</t>
+          <t>1.7253e+02</t>
         </is>
       </c>
       <c r="E254" s="2" t="inlineStr">
@@ -7317,22 +7317,22 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>1.3685e+13</t>
+          <t>2.1120e+11</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>6.8193e+02</t>
+          <t>-6.4049e+02</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>8.7894e+15</t>
+          <t>8.7031e+15</t>
         </is>
       </c>
       <c r="D255" s="2" t="inlineStr">
         <is>
-          <t>-9.2942e+02</t>
+          <t>-1.3717e+03</t>
         </is>
       </c>
       <c r="E255" s="2" t="inlineStr">
@@ -7344,22 +7344,22 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>1.3704e+13</t>
+          <t>2.4900e+11</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>1.0490e+03</t>
+          <t>-1.1537e+03</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>8.7895e+15</t>
+          <t>8.7033e+15</t>
         </is>
       </c>
       <c r="D256" s="2" t="inlineStr">
         <is>
-          <t>-1.4107e+03</t>
+          <t>-8.0497e+02</t>
         </is>
       </c>
       <c r="E256" s="2" t="inlineStr">
@@ -7371,22 +7371,22 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>1.3396e+13</t>
+          <t>2.4582e+11</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>3.9765e+03</t>
+          <t>7.5689e+03</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>8.7875e+15</t>
+          <t>8.7033e+15</t>
         </is>
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>4.5064e+02</t>
+          <t>1.3368e+02</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr">
@@ -7398,22 +7398,22 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>1.2637e+13</t>
+          <t>2.3299e+10</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>6.1353e+03</t>
+          <t>4.1034e+04</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>8.7826e+15</t>
+          <t>8.7018e+15</t>
         </is>
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>2.2838e+02</t>
+          <t>2.4422e+01</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr">
@@ -7425,1132 +7425,25 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>1.1844e+13</t>
+          <t>1.2993e+11</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>4.8960e+03</t>
+          <t>-1.3549e+04</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>8.7776e+15</t>
+          <t>8.7025e+15</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>3.1842e+02</t>
+          <t>-7.3326e+01</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="inlineStr">
-        <is>
-          <t>1.1476e+13</t>
-        </is>
-      </c>
-      <c r="B260" s="2" t="inlineStr">
-        <is>
-          <t>2.6601e+03</t>
-        </is>
-      </c>
-      <c r="C260" s="2" t="inlineStr">
-        <is>
-          <t>8.7752e+15</t>
-        </is>
-      </c>
-      <c r="D260" s="2" t="inlineStr">
-        <is>
-          <t>1.1049e+03</t>
-        </is>
-      </c>
-      <c r="E260" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="inlineStr">
-        <is>
-          <t>1.1232e+13</t>
-        </is>
-      </c>
-      <c r="B261" s="2" t="inlineStr">
-        <is>
-          <t>3.8216e+03</t>
-        </is>
-      </c>
-      <c r="C261" s="2" t="inlineStr">
-        <is>
-          <t>8.7736e+15</t>
-        </is>
-      </c>
-      <c r="D261" s="2" t="inlineStr">
-        <is>
-          <t>4.8382e+02</t>
-        </is>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="inlineStr">
-        <is>
-          <t>1.0616e+13</t>
-        </is>
-      </c>
-      <c r="B262" s="2" t="inlineStr">
-        <is>
-          <t>6.6296e+03</t>
-        </is>
-      </c>
-      <c r="C262" s="2" t="inlineStr">
-        <is>
-          <t>8.7697e+15</t>
-        </is>
-      </c>
-      <c r="D262" s="2" t="inlineStr">
-        <is>
-          <t>2.0510e+02</t>
-        </is>
-      </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="inlineStr">
-        <is>
-          <t>9.8228e+12</t>
-        </is>
-      </c>
-      <c r="B263" s="2" t="inlineStr">
-        <is>
-          <t>7.4636e+03</t>
-        </is>
-      </c>
-      <c r="C263" s="2" t="inlineStr">
-        <is>
-          <t>8.7646e+15</t>
-        </is>
-      </c>
-      <c r="D263" s="2" t="inlineStr">
-        <is>
-          <t>1.7511e+02</t>
-        </is>
-      </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="inlineStr">
-        <is>
-          <t>9.1483e+12</t>
-        </is>
-      </c>
-      <c r="B264" s="2" t="inlineStr">
-        <is>
-          <t>6.0003e+03</t>
-        </is>
-      </c>
-      <c r="C264" s="2" t="inlineStr">
-        <is>
-          <t>8.7603e+15</t>
-        </is>
-      </c>
-      <c r="D264" s="2" t="inlineStr">
-        <is>
-          <t>2.3539e+02</t>
-        </is>
-      </c>
-      <c r="E264" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="inlineStr">
-        <is>
-          <t>8.7238e+12</t>
-        </is>
-      </c>
-      <c r="B265" s="2" t="inlineStr">
-        <is>
-          <t>3.6607e+03</t>
-        </is>
-      </c>
-      <c r="C265" s="2" t="inlineStr">
-        <is>
-          <t>8.7576e+15</t>
-        </is>
-      </c>
-      <c r="D265" s="2" t="inlineStr">
-        <is>
-          <t>5.2377e+02</t>
-        </is>
-      </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="inlineStr">
-        <is>
-          <t>8.5084e+12</t>
-        </is>
-      </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>3.0836e+03</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t>8.7562e+15</t>
-        </is>
-      </c>
-      <c r="D266" s="2" t="inlineStr">
-        <is>
-          <t>7.5053e+02</t>
-        </is>
-      </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="inlineStr">
-        <is>
-          <t>8.1979e+12</t>
-        </is>
-      </c>
-      <c r="B267" s="2" t="inlineStr">
-        <is>
-          <t>2.1436e+03</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="inlineStr">
-        <is>
-          <t>8.7542e+15</t>
-        </is>
-      </c>
-      <c r="D267" s="2" t="inlineStr">
-        <is>
-          <t>2.5463e+03</t>
-        </is>
-      </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="inlineStr">
-        <is>
-          <t>8.1559e+12</t>
-        </is>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>-1.9323e+02</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>8.7539e+15</t>
-        </is>
-      </c>
-      <c r="D268" s="2" t="inlineStr">
-        <is>
-          <t>-5.1440e+02</t>
-        </is>
-      </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="inlineStr">
-        <is>
-          <t>8.2284e+12</t>
-        </is>
-      </c>
-      <c r="B269" s="2" t="inlineStr">
-        <is>
-          <t>1.5651e+03</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="inlineStr">
-        <is>
-          <t>8.7544e+15</t>
-        </is>
-      </c>
-      <c r="D269" s="2" t="inlineStr">
-        <is>
-          <t>-5.3815e+03</t>
-        </is>
-      </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="inlineStr">
-        <is>
-          <t>7.8973e+12</t>
-        </is>
-      </c>
-      <c r="B270" s="2" t="inlineStr">
-        <is>
-          <t>2.9690e+03</t>
-        </is>
-      </c>
-      <c r="C270" s="2" t="inlineStr">
-        <is>
-          <t>8.7523e+15</t>
-        </is>
-      </c>
-      <c r="D270" s="2" t="inlineStr">
-        <is>
-          <t>8.2062e+02</t>
-        </is>
-      </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="inlineStr">
-        <is>
-          <t>7.7584e+12</t>
-        </is>
-      </c>
-      <c r="B271" s="2" t="inlineStr">
-        <is>
-          <t>8.1746e+02</t>
-        </is>
-      </c>
-      <c r="C271" s="2" t="inlineStr">
-        <is>
-          <t>8.7514e+15</t>
-        </is>
-      </c>
-      <c r="D271" s="2" t="inlineStr">
-        <is>
-          <t>-1.0720e+03</t>
-        </is>
-      </c>
-      <c r="E271" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="inlineStr">
-        <is>
-          <t>7.7694e+12</t>
-        </is>
-      </c>
-      <c r="B272" s="2" t="inlineStr">
-        <is>
-          <t>-1.0172e+03</t>
-        </is>
-      </c>
-      <c r="C272" s="2" t="inlineStr">
-        <is>
-          <t>8.7515e+15</t>
-        </is>
-      </c>
-      <c r="D272" s="2" t="inlineStr">
-        <is>
-          <t>-3.6134e+02</t>
-        </is>
-      </c>
-      <c r="E272" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="inlineStr">
-        <is>
-          <t>7.9155e+12</t>
-        </is>
-      </c>
-      <c r="B273" s="2" t="inlineStr">
-        <is>
-          <t>-4.0226e+02</t>
-        </is>
-      </c>
-      <c r="C273" s="2" t="inlineStr">
-        <is>
-          <t>8.7524e+15</t>
-        </is>
-      </c>
-      <c r="D273" s="2" t="inlineStr">
-        <is>
-          <t>-4.6452e+02</t>
-        </is>
-      </c>
-      <c r="E273" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="inlineStr">
-        <is>
-          <t>7.8321e+12</t>
-        </is>
-      </c>
-      <c r="B274" s="2" t="inlineStr">
-        <is>
-          <t>5.9234e+02</t>
-        </is>
-      </c>
-      <c r="C274" s="2" t="inlineStr">
-        <is>
-          <t>8.7519e+15</t>
-        </is>
-      </c>
-      <c r="D274" s="2" t="inlineStr">
-        <is>
-          <t>-8.6353e+02</t>
-        </is>
-      </c>
-      <c r="E274" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="inlineStr">
-        <is>
-          <t>7.8217e+12</t>
-        </is>
-      </c>
-      <c r="B275" s="2" t="inlineStr">
-        <is>
-          <t>3.1255e+03</t>
-        </is>
-      </c>
-      <c r="C275" s="2" t="inlineStr">
-        <is>
-          <t>8.7518e+15</t>
-        </is>
-      </c>
-      <c r="D275" s="2" t="inlineStr">
-        <is>
-          <t>7.2722e+02</t>
-        </is>
-      </c>
-      <c r="E275" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="inlineStr">
-        <is>
-          <t>7.3421e+12</t>
-        </is>
-      </c>
-      <c r="B276" s="2" t="inlineStr">
-        <is>
-          <t>4.0091e+03</t>
-        </is>
-      </c>
-      <c r="C276" s="2" t="inlineStr">
-        <is>
-          <t>8.7487e+15</t>
-        </is>
-      </c>
-      <c r="D276" s="2" t="inlineStr">
-        <is>
-          <t>4.4261e+02</t>
-        </is>
-      </c>
-      <c r="E276" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="inlineStr">
-        <is>
-          <t>7.2320e+12</t>
-        </is>
-      </c>
-      <c r="B277" s="2" t="inlineStr">
-        <is>
-          <t>1.6781e+03</t>
-        </is>
-      </c>
-      <c r="C277" s="2" t="inlineStr">
-        <is>
-          <t>8.7480e+15</t>
-        </is>
-      </c>
-      <c r="D277" s="2" t="inlineStr">
-        <is>
-          <t>-1.3990e+04</t>
-        </is>
-      </c>
-      <c r="E277" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="inlineStr">
-        <is>
-          <t>7.0985e+12</t>
-        </is>
-      </c>
-      <c r="B278" s="2" t="inlineStr">
-        <is>
-          <t>-1.8632e+02</t>
-        </is>
-      </c>
-      <c r="C278" s="2" t="inlineStr">
-        <is>
-          <t>8.7472e+15</t>
-        </is>
-      </c>
-      <c r="D278" s="2" t="inlineStr">
-        <is>
-          <t>-5.1660e+02</t>
-        </is>
-      </c>
-      <c r="E278" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="inlineStr">
-        <is>
-          <t>7.2575e+12</t>
-        </is>
-      </c>
-      <c r="B279" s="2" t="inlineStr">
-        <is>
-          <t>-1.4272e+02</t>
-        </is>
-      </c>
-      <c r="C279" s="2" t="inlineStr">
-        <is>
-          <t>8.7482e+15</t>
-        </is>
-      </c>
-      <c r="D279" s="2" t="inlineStr">
-        <is>
-          <t>-5.2844e+02</t>
-        </is>
-      </c>
-      <c r="E279" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="inlineStr">
-        <is>
-          <t>7.1182e+12</t>
-        </is>
-      </c>
-      <c r="B280" s="2" t="inlineStr">
-        <is>
-          <t>3.9254e+03</t>
-        </is>
-      </c>
-      <c r="C280" s="2" t="inlineStr">
-        <is>
-          <t>8.7473e+15</t>
-        </is>
-      </c>
-      <c r="D280" s="2" t="inlineStr">
-        <is>
-          <t>4.5958e+02</t>
-        </is>
-      </c>
-      <c r="E280" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="inlineStr">
-        <is>
-          <t>6.6978e+12</t>
-        </is>
-      </c>
-      <c r="B281" s="2" t="inlineStr">
-        <is>
-          <t>6.1040e+03</t>
-        </is>
-      </c>
-      <c r="C281" s="2" t="inlineStr">
-        <is>
-          <t>8.7446e+15</t>
-        </is>
-      </c>
-      <c r="D281" s="2" t="inlineStr">
-        <is>
-          <t>2.2961e+02</t>
-        </is>
-      </c>
-      <c r="E281" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="inlineStr">
-        <is>
-          <t>6.2997e+12</t>
-        </is>
-      </c>
-      <c r="B282" s="2" t="inlineStr">
-        <is>
-          <t>3.4492e+03</t>
-        </is>
-      </c>
-      <c r="C282" s="2" t="inlineStr">
-        <is>
-          <t>8.7420e+15</t>
-        </is>
-      </c>
-      <c r="D282" s="2" t="inlineStr">
-        <is>
-          <t>5.8795e+02</t>
-        </is>
-      </c>
-      <c r="E282" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="inlineStr">
-        <is>
-          <t>6.2624e+12</t>
-        </is>
-      </c>
-      <c r="B283" s="2" t="inlineStr">
-        <is>
-          <t>4.3997e+03</t>
-        </is>
-      </c>
-      <c r="C283" s="2" t="inlineStr">
-        <is>
-          <t>8.7418e+15</t>
-        </is>
-      </c>
-      <c r="D283" s="2" t="inlineStr">
-        <is>
-          <t>3.7717e+02</t>
-        </is>
-      </c>
-      <c r="E283" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="2" t="inlineStr">
-        <is>
-          <t>5.7478e+12</t>
-        </is>
-      </c>
-      <c r="B284" s="2" t="inlineStr">
-        <is>
-          <t>7.3919e+03</t>
-        </is>
-      </c>
-      <c r="C284" s="2" t="inlineStr">
-        <is>
-          <t>8.7385e+15</t>
-        </is>
-      </c>
-      <c r="D284" s="2" t="inlineStr">
-        <is>
-          <t>1.7717e+02</t>
-        </is>
-      </c>
-      <c r="E284" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="2" t="inlineStr">
-        <is>
-          <t>5.4119e+12</t>
-        </is>
-      </c>
-      <c r="B285" s="2" t="inlineStr">
-        <is>
-          <t>4.7644e+03</t>
-        </is>
-      </c>
-      <c r="C285" s="2" t="inlineStr">
-        <is>
-          <t>8.7364e+15</t>
-        </is>
-      </c>
-      <c r="D285" s="2" t="inlineStr">
-        <is>
-          <t>3.3144e+02</t>
-        </is>
-      </c>
-      <c r="E285" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="2" t="inlineStr">
-        <is>
-          <t>5.2315e+12</t>
-        </is>
-      </c>
-      <c r="B286" s="2" t="inlineStr">
-        <is>
-          <t>-3.6811e+02</t>
-        </is>
-      </c>
-      <c r="C286" s="2" t="inlineStr">
-        <is>
-          <t>8.7352e+15</t>
-        </is>
-      </c>
-      <c r="D286" s="2" t="inlineStr">
-        <is>
-          <t>-4.7278e+02</t>
-        </is>
-      </c>
-      <c r="E286" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="2" t="inlineStr">
-        <is>
-          <t>5.4497e+12</t>
-        </is>
-      </c>
-      <c r="B287" s="2" t="inlineStr">
-        <is>
-          <t>-1.6146e+03</t>
-        </is>
-      </c>
-      <c r="C287" s="2" t="inlineStr">
-        <is>
-          <t>8.7366e+15</t>
-        </is>
-      </c>
-      <c r="D287" s="2" t="inlineStr">
-        <is>
-          <t>-2.9745e+02</t>
-        </is>
-      </c>
-      <c r="E287" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="2" t="inlineStr">
-        <is>
-          <t>5.4067e+12</t>
-        </is>
-      </c>
-      <c r="B288" s="2" t="inlineStr">
-        <is>
-          <t>3.4859e+03</t>
-        </is>
-      </c>
-      <c r="C288" s="2" t="inlineStr">
-        <is>
-          <t>8.7363e+15</t>
-        </is>
-      </c>
-      <c r="D288" s="2" t="inlineStr">
-        <is>
-          <t>5.7515e+02</t>
-        </is>
-      </c>
-      <c r="E288" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="2" t="inlineStr">
-        <is>
-          <t>5.0721e+12</t>
-        </is>
-      </c>
-      <c r="B289" s="2" t="inlineStr">
-        <is>
-          <t>3.9300e+03</t>
-        </is>
-      </c>
-      <c r="C289" s="2" t="inlineStr">
-        <is>
-          <t>8.7342e+15</t>
-        </is>
-      </c>
-      <c r="D289" s="2" t="inlineStr">
-        <is>
-          <t>4.5804e+02</t>
-        </is>
-      </c>
-      <c r="E289" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="2" t="inlineStr">
-        <is>
-          <t>5.0074e+12</t>
-        </is>
-      </c>
-      <c r="B290" s="2" t="inlineStr">
-        <is>
-          <t>3.8748e+03</t>
-        </is>
-      </c>
-      <c r="C290" s="2" t="inlineStr">
-        <is>
-          <t>8.7338e+15</t>
-        </is>
-      </c>
-      <c r="D290" s="2" t="inlineStr">
-        <is>
-          <t>4.6990e+02</t>
-        </is>
-      </c>
-      <c r="E290" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="2" t="inlineStr">
-        <is>
-          <t>4.6834e+12</t>
-        </is>
-      </c>
-      <c r="B291" s="2" t="inlineStr">
-        <is>
-          <t>7.6938e+03</t>
-        </is>
-      </c>
-      <c r="C291" s="2" t="inlineStr">
-        <is>
-          <t>8.7317e+15</t>
-        </is>
-      </c>
-      <c r="D291" s="2" t="inlineStr">
-        <is>
-          <t>1.6814e+02</t>
-        </is>
-      </c>
-      <c r="E291" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="2" t="inlineStr">
-        <is>
-          <t>4.2861e+12</t>
-        </is>
-      </c>
-      <c r="B292" s="2" t="inlineStr">
-        <is>
-          <t>3.8774e+03</t>
-        </is>
-      </c>
-      <c r="C292" s="2" t="inlineStr">
-        <is>
-          <t>8.7292e+15</t>
-        </is>
-      </c>
-      <c r="D292" s="2" t="inlineStr">
-        <is>
-          <t>4.6913e+02</t>
-        </is>
-      </c>
-      <c r="E292" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="2" t="inlineStr">
-        <is>
-          <t>4.3504e+12</t>
-        </is>
-      </c>
-      <c r="B293" s="2" t="inlineStr">
-        <is>
-          <t>3.0463e+02</t>
-        </is>
-      </c>
-      <c r="C293" s="2" t="inlineStr">
-        <is>
-          <t>8.7296e+15</t>
-        </is>
-      </c>
-      <c r="D293" s="2" t="inlineStr">
-        <is>
-          <t>-6.9383e+02</t>
-        </is>
-      </c>
-      <c r="E293" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="2" t="inlineStr">
-        <is>
-          <t>4.2591e+12</t>
-        </is>
-      </c>
-      <c r="B294" s="2" t="inlineStr">
-        <is>
-          <t>-1.2222e+03</t>
-        </is>
-      </c>
-      <c r="C294" s="2" t="inlineStr">
-        <is>
-          <t>8.7290e+15</t>
-        </is>
-      </c>
-      <c r="D294" s="2" t="inlineStr">
-        <is>
-          <t>-3.3693e+02</t>
-        </is>
-      </c>
-      <c r="E294" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="2" t="inlineStr">
-        <is>
-          <t>4.4540e+12</t>
-        </is>
-      </c>
-      <c r="B295" s="2" t="inlineStr">
-        <is>
-          <t>5.6236e+02</t>
-        </is>
-      </c>
-      <c r="C295" s="2" t="inlineStr">
-        <is>
-          <t>8.7302e+15</t>
-        </is>
-      </c>
-      <c r="D295" s="2" t="inlineStr">
-        <is>
-          <t>-8.4482e+02</t>
-        </is>
-      </c>
-      <c r="E295" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2" t="inlineStr">
-        <is>
-          <t>4.2084e+12</t>
-        </is>
-      </c>
-      <c r="B296" s="2" t="inlineStr">
-        <is>
-          <t>7.4155e+02</t>
-        </is>
-      </c>
-      <c r="C296" s="2" t="inlineStr">
-        <is>
-          <t>8.7287e+15</t>
-        </is>
-      </c>
-      <c r="D296" s="2" t="inlineStr">
-        <is>
-          <t>-9.9584e+02</t>
-        </is>
-      </c>
-      <c r="E296" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="2" t="inlineStr">
-        <is>
-          <t>4.3910e+12</t>
-        </is>
-      </c>
-      <c r="B297" s="2" t="inlineStr">
-        <is>
-          <t>-2.5128e+03</t>
-        </is>
-      </c>
-      <c r="C297" s="2" t="inlineStr">
-        <is>
-          <t>8.7298e+15</t>
-        </is>
-      </c>
-      <c r="D297" s="2" t="inlineStr">
-        <is>
-          <t>-2.3481e+02</t>
-        </is>
-      </c>
-      <c r="E297" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="2" t="inlineStr">
-        <is>
-          <t>4.4285e+12</t>
-        </is>
-      </c>
-      <c r="B298" s="2" t="inlineStr">
-        <is>
-          <t>-6.8715e+02</t>
-        </is>
-      </c>
-      <c r="C298" s="2" t="inlineStr">
-        <is>
-          <t>8.7301e+15</t>
-        </is>
-      </c>
-      <c r="D298" s="2" t="inlineStr">
-        <is>
-          <t>-4.1099e+02</t>
-        </is>
-      </c>
-      <c r="E298" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="2" t="inlineStr">
-        <is>
-          <t>4.4513e+12</t>
-        </is>
-      </c>
-      <c r="B299" s="2" t="inlineStr">
-        <is>
-          <t>-1.3144e+03</t>
-        </is>
-      </c>
-      <c r="C299" s="2" t="inlineStr">
-        <is>
-          <t>8.7302e+15</t>
-        </is>
-      </c>
-      <c r="D299" s="2" t="inlineStr">
-        <is>
-          <t>-3.2675e+02</t>
-        </is>
-      </c>
-      <c r="E299" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="2" t="inlineStr">
-        <is>
-          <t>4.5450e+12</t>
-        </is>
-      </c>
-      <c r="B300" s="2" t="inlineStr">
-        <is>
-          <t>-2.0668e+03</t>
-        </is>
-      </c>
-      <c r="C300" s="2" t="inlineStr">
-        <is>
-          <t>8.7308e+15</t>
-        </is>
-      </c>
-      <c r="D300" s="2" t="inlineStr">
-        <is>
-          <t>-2.6226e+02</t>
-        </is>
-      </c>
-      <c r="E300" s="2" t="inlineStr">
         <is>
           <t>6.2474e+09</t>
         </is>

--- a/Lifetime_SRH.xlsx
+++ b/Lifetime_SRH.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,22 +486,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2.5166e+16</t>
+          <t>6.6769e+15</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>8.0619e+02</t>
+          <t>6.1836e+02</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>1.6990e+17</t>
+          <t>5.1470e+16</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>-1.0846e+03</t>
+          <t>6.1692e+03</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -513,22 +513,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2.2577e+16</t>
+          <t>6.3874e+15</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>8.2180e+02</t>
+          <t>6.0712e+02</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>1.5332e+17</t>
+          <t>4.9616e+16</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>-1.3555e+03</t>
+          <t>5.9776e+03</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -540,22 +540,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2.0432e+16</t>
+          <t>6.1160e+15</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>8.2686e+02</t>
+          <t>5.9900e+02</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1.3958e+17</t>
+          <t>4.7877e+16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1.6867e+03</t>
+          <t>5.7281e+03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -567,22 +567,22 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>1.8635e+16</t>
+          <t>5.8617e+15</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>8.1974e+02</t>
+          <t>5.8952e+02</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1.2807e+17</t>
+          <t>4.6249e+16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2.0707e+03</t>
+          <t>5.5698e+03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -594,22 +594,22 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>1.7106e+16</t>
+          <t>5.6235e+15</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>8.0991e+02</t>
+          <t>5.8281e+02</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1.1827e+17</t>
+          <t>4.4723e+16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2.5436e+03</t>
+          <t>5.3662e+03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -621,22 +621,22 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>1.5787e+16</t>
+          <t>5.3979e+15</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>7.9843e+02</t>
+          <t>5.7817e+02</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1.0983e+17</t>
+          <t>4.3277e+16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3.1378e+03</t>
+          <t>5.1406e+03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -648,22 +648,22 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>1.4637e+16</t>
+          <t>5.1849e+15</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>7.8789e+02</t>
+          <t>5.7077e+02</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1.0246e+17</t>
+          <t>4.1913e+16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3.9325e+03</t>
+          <t>5.0195e+03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -675,22 +675,22 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>1.3621e+16</t>
+          <t>4.9844e+15</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>7.7084e+02</t>
+          <t>5.6065e+02</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9.5950e+16</t>
+          <t>4.0629e+16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4.8748e+03</t>
+          <t>4.9878e+03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -702,22 +702,22 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>1.2730e+16</t>
+          <t>4.7963e+15</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>7.5352e+02</t>
+          <t>5.5142e+02</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9.0244e+16</t>
+          <t>3.9424e+16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6.0819e+03</t>
+          <t>4.9519e+03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -729,22 +729,22 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>1.1928e+16</t>
+          <t>4.6182e+15</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>7.4517e+02</t>
+          <t>5.4945e+02</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8.5107e+16</t>
+          <t>3.8283e+16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8.2978e+03</t>
+          <t>4.7600e+03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -756,22 +756,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>1.1206e+16</t>
+          <t>4.4471e+15</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>7.3039e+02</t>
+          <t>5.4185e+02</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8.0483e+16</t>
+          <t>3.7187e+16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1.1329e+04</t>
+          <t>4.7126e+03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -783,22 +783,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>1.0557e+16</t>
+          <t>4.2880e+15</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>7.1709e+02</t>
+          <t>5.3463e+02</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7.6324e+16</t>
+          <t>3.6168e+16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1.6874e+04</t>
+          <t>4.6728e+03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -810,22 +810,22 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>9.9644e+15</t>
+          <t>4.1341e+15</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>7.0589e+02</t>
+          <t>5.3130e+02</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7.2528e+16</t>
+          <t>3.5183e+16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3.1397e+04</t>
+          <t>4.5576e+03</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -837,22 +837,22 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>9.4253e+15</t>
+          <t>3.9896e+15</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>6.8923e+02</t>
+          <t>5.2049e+02</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6.9075e+16</t>
+          <t>3.4257e+16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7.4705e+04</t>
+          <t>4.6122e+03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -864,22 +864,22 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>8.9352e+15</t>
+          <t>3.8527e+15</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>6.7732e+02</t>
+          <t>5.1972e+02</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6.5935e+16</t>
+          <t>3.3380e+16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1.5064e+05</t>
+          <t>4.4681e+03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -891,22 +891,22 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>8.4808e+15</t>
+          <t>3.7194e+15</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>6.6737e+02</t>
+          <t>5.2116e+02</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6.3025e+16</t>
+          <t>3.2526e+16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3.8038e+04</t>
+          <t>4.2951e+03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -918,22 +918,22 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>8.0645e+15</t>
+          <t>3.5925e+15</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>6.5599e+02</t>
+          <t>5.1324e+02</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6.0358e+16</t>
+          <t>3.1713e+16</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2.3785e+04</t>
+          <t>4.3083e+03</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -945,22 +945,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>7.6771e+15</t>
+          <t>3.4725e+15</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>6.4661e+02</t>
+          <t>5.0979e+02</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5.7877e+16</t>
+          <t>3.0945e+16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1.7271e+04</t>
+          <t>4.2467e+03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -972,22 +972,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>7.3193e+15</t>
+          <t>3.3562e+15</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>6.3189e+02</t>
+          <t>5.0702e+02</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5.5585e+16</t>
+          <t>3.0200e+16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1.5038e+04</t>
+          <t>4.1786e+03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>6.9892e+15</t>
+          <t>3.2462e+15</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>6.2435e+02</t>
+          <t>4.9631e+02</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5.3470e+16</t>
+          <t>2.9495e+16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1.2428e+04</t>
+          <t>4.2581e+03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>6.6769e+15</t>
+          <t>3.1422e+15</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>6.1836e+02</t>
+          <t>4.8958e+02</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5.1470e+16</t>
+          <t>2.8829e+16</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1.0546e+04</t>
+          <t>4.2732e+03</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1053,22 +1053,22 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>6.3874e+15</t>
+          <t>3.0423e+15</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>6.0712e+02</t>
+          <t>4.9401e+02</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4.9616e+16</t>
+          <t>2.8189e+16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>9.7618e+03</t>
+          <t>4.0963e+03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1080,22 +1080,22 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>6.1160e+15</t>
+          <t>2.9439e+15</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>5.9900e+02</t>
+          <t>4.9434e+02</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4.7877e+16</t>
+          <t>2.7558e+16</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8.9286e+03</t>
+          <t>3.9994e+03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1107,22 +1107,22 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>5.8617e+15</t>
+          <t>2.8508e+15</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>5.8952e+02</t>
+          <t>4.8476e+02</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4.6249e+16</t>
+          <t>2.6962e+16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>8.3970e+03</t>
+          <t>4.0692e+03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1134,22 +1134,22 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>5.6235e+15</t>
+          <t>2.7623e+15</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>5.8281e+02</t>
+          <t>4.7680e+02</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4.4723e+16</t>
+          <t>2.6395e+16</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>7.8188e+03</t>
+          <t>4.1183e+03</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1161,22 +1161,22 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>5.3979e+15</t>
+          <t>2.6780e+15</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>5.7817e+02</t>
+          <t>4.8006e+02</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4.3277e+16</t>
+          <t>2.5856e+16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>7.2484e+03</t>
+          <t>3.9863e+03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1188,22 +1188,22 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>5.1849e+15</t>
+          <t>2.5941e+15</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>5.7077e+02</t>
+          <t>4.8396e+02</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4.1913e+16</t>
+          <t>2.5318e+16</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6.9232e+03</t>
+          <t>3.8532e+03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1215,22 +1215,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>4.9844e+15</t>
+          <t>2.5143e+15</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>5.6065e+02</t>
+          <t>4.6717e+02</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4.0629e+16</t>
+          <t>2.4807e+16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6.7850e+03</t>
+          <t>4.0443e+03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1242,22 +1242,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>4.7963e+15</t>
+          <t>2.4409e+15</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>5.5142e+02</t>
+          <t>4.6480e+02</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3.9424e+16</t>
+          <t>2.4337e+16</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>6.6484e+03</t>
+          <t>4.0151e+03</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1269,22 +1269,22 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>4.6182e+15</t>
+          <t>2.3667e+15</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>5.4945e+02</t>
+          <t>4.7258e+02</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>3.8283e+16</t>
+          <t>2.3861e+16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>6.2483e+03</t>
+          <t>3.8305e+03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1296,22 +1296,22 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>4.4471e+15</t>
+          <t>2.2959e+15</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>5.4185e+02</t>
+          <t>4.6586e+02</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3.7187e+16</t>
+          <t>2.3408e+16</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>6.1128e+03</t>
+          <t>3.8705e+03</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1323,22 +1323,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>4.2880e+15</t>
+          <t>2.2281e+15</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>5.3463e+02</t>
+          <t>4.5963e+02</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3.6168e+16</t>
+          <t>2.2974e+16</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5.9977e+03</t>
+          <t>3.9067e+03</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1350,22 +1350,22 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>4.1341e+15</t>
+          <t>2.1633e+15</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>5.3130e+02</t>
+          <t>4.5496e+02</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>3.5183e+16</t>
+          <t>2.2559e+16</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>5.7660e+03</t>
+          <t>3.9219e+03</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1377,22 +1377,22 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>3.9896e+15</t>
+          <t>2.1009e+15</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>5.2049e+02</t>
+          <t>4.5360e+02</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>3.4257e+16</t>
+          <t>2.2159e+16</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>5.8126e+03</t>
+          <t>3.8884e+03</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>3.8527e+15</t>
+          <t>2.0404e+15</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>5.1972e+02</t>
+          <t>4.5368e+02</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>3.3380e+16</t>
+          <t>2.1771e+16</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>5.5500e+03</t>
+          <t>3.8360e+03</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -1431,22 +1431,22 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>3.7194e+15</t>
+          <t>1.9816e+15</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>5.2116e+02</t>
+          <t>4.5523e+02</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>3.2526e+16</t>
+          <t>2.1395e+16</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>5.2546e+03</t>
+          <t>3.7654e+03</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1458,22 +1458,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>3.5925e+15</t>
+          <t>1.9244e+15</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>5.1324e+02</t>
+          <t>4.6325e+02</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>3.1713e+16</t>
+          <t>2.1028e+16</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>5.2450e+03</t>
+          <t>3.6122e+03</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1485,22 +1485,22 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>3.4725e+15</t>
+          <t>1.8673e+15</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>5.0979e+02</t>
+          <t>4.5893e+02</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>3.0945e+16</t>
+          <t>2.0663e+16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>5.1275e+03</t>
+          <t>3.6263e+03</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1512,22 +1512,22 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>3.3562e+15</t>
+          <t>1.8146e+15</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>5.0702e+02</t>
+          <t>4.4082e+02</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>3.0200e+16</t>
+          <t>2.0325e+16</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>5.0040e+03</t>
+          <t>3.8367e+03</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
@@ -1539,22 +1539,22 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>3.2462e+15</t>
+          <t>1.7648e+15</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>4.9631e+02</t>
+          <t>4.4815e+02</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2.9495e+16</t>
+          <t>2.0006e+16</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>5.0944e+03</t>
+          <t>3.6927e+03</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
@@ -1566,22 +1566,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>3.1422e+15</t>
+          <t>1.7135e+15</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>4.8958e+02</t>
+          <t>4.6612e+02</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2.8829e+16</t>
+          <t>1.9677e+16</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>5.0933e+03</t>
+          <t>3.4284e+03</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -1593,22 +1593,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>3.0423e+15</t>
+          <t>1.6630e+15</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>4.9401e+02</t>
+          <t>4.5810e+02</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2.8189e+16</t>
+          <t>1.9354e+16</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>4.8245e+03</t>
+          <t>3.4900e+03</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -1620,22 +1620,22 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2.9439e+15</t>
+          <t>1.6164e+15</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>4.9434e+02</t>
+          <t>4.4443e+02</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2.7558e+16</t>
+          <t>1.9056e+16</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>4.6725e+03</t>
+          <t>3.6296e+03</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -1647,22 +1647,22 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2.8508e+15</t>
+          <t>1.5715e+15</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>4.8476e+02</t>
+          <t>4.4010e+02</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2.6962e+16</t>
+          <t>1.8768e+16</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>4.7504e+03</t>
+          <t>3.6533e+03</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -1674,22 +1674,22 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2.7623e+15</t>
+          <t>1.5284e+15</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>4.7680e+02</t>
+          <t>4.4227e+02</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2.6395e+16</t>
+          <t>1.8491e+16</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>4.8003e+03</t>
+          <t>3.5926e+03</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1701,22 +1701,22 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2.6780e+15</t>
+          <t>1.4855e+15</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>4.8006e+02</t>
+          <t>4.5245e+02</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2.5856e+16</t>
+          <t>1.8217e+16</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>4.6069e+03</t>
+          <t>3.4368e+03</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1728,22 +1728,22 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2.5941e+15</t>
+          <t>1.4431e+15</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>4.8396e+02</t>
+          <t>4.4838e+02</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2.5318e+16</t>
+          <t>1.7945e+16</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>4.4163e+03</t>
+          <t>3.4566e+03</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
@@ -1755,22 +1755,22 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2.5143e+15</t>
+          <t>1.4035e+15</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>4.6717e+02</t>
+          <t>4.3122e+02</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2.4807e+16</t>
+          <t>1.7691e+16</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>4.6547e+03</t>
+          <t>3.6445e+03</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -1782,22 +1782,22 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2.4409e+15</t>
+          <t>1.3663e+15</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>4.6480e+02</t>
+          <t>4.2890e+02</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2.4337e+16</t>
+          <t>1.7453e+16</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>4.6030e+03</t>
+          <t>3.6472e+03</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -1809,22 +1809,22 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2.3667e+15</t>
+          <t>1.3292e+15</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>4.7258e+02</t>
+          <t>4.4011e+02</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2.3861e+16</t>
+          <t>1.7216e+16</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>4.3502e+03</t>
+          <t>3.4783e+03</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
@@ -1836,22 +1836,22 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2.2959e+15</t>
+          <t>1.2923e+15</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>4.6586e+02</t>
+          <t>4.4084e+02</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2.3408e+16</t>
+          <t>1.6979e+16</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>4.3905e+03</t>
+          <t>3.4444e+03</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -1863,22 +1863,22 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2.2281e+15</t>
+          <t>1.2572e+15</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>4.5963e+02</t>
+          <t>4.3584e+02</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2.2974e+16</t>
+          <t>1.6754e+16</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>4.4258e+03</t>
+          <t>3.4805e+03</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
@@ -1890,22 +1890,22 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2.1633e+15</t>
+          <t>1.2231e+15</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>4.5496e+02</t>
+          <t>4.3516e+02</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2.2559e+16</t>
+          <t>1.6536e+16</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>4.4347e+03</t>
+          <t>3.4653e+03</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
@@ -1917,22 +1917,22 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2.1009e+15</t>
+          <t>1.1900e+15</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>4.5360e+02</t>
+          <t>4.3331e+02</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2.2159e+16</t>
+          <t>1.6324e+16</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>4.3819e+03</t>
+          <t>3.4650e+03</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -1944,22 +1944,22 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2.0404e+15</t>
+          <t>1.1580e+15</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>4.5368e+02</t>
+          <t>4.3795e+02</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2.1771e+16</t>
+          <t>1.6119e+16</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>4.3060e+03</t>
+          <t>3.3892e+03</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1971,22 +1971,22 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>1.9816e+15</t>
+          <t>1.1261e+15</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>4.5523e+02</t>
+          <t>4.4129e+02</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2.1395e+16</t>
+          <t>1.5915e+16</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>4.2086e+03</t>
+          <t>3.3310e+03</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -1998,22 +1998,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>1.9244e+15</t>
+          <t>1.0955e+15</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>4.6325e+02</t>
+          <t>4.3236e+02</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2.1028e+16</t>
+          <t>1.5719e+16</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>4.0103e+03</t>
+          <t>3.4127e+03</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
@@ -2025,22 +2025,22 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>1.8673e+15</t>
+          <t>1.0665e+15</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>4.5893e+02</t>
+          <t>4.2962e+02</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2.0663e+16</t>
+          <t>1.5533e+16</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>4.0200e+03</t>
+          <t>3.4255e+03</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>1.8146e+15</t>
+          <t>1.0378e+15</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>4.4082e+02</t>
+          <t>4.4203e+02</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2.0325e+16</t>
+          <t>1.5349e+16</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>4.2722e+03</t>
+          <t>3.2684e+03</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
@@ -2079,22 +2079,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>1.7648e+15</t>
+          <t>1.0088e+15</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>4.4815e+02</t>
+          <t>4.4209e+02</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2.0006e+16</t>
+          <t>1.5164e+16</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>4.0874e+03</t>
+          <t>3.2503e+03</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
@@ -2106,22 +2106,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>1.7135e+15</t>
+          <t>9.8184e+14</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>4.6612e+02</t>
+          <t>4.3088e+02</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>1.9677e+16</t>
+          <t>1.4991e+16</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>3.7599e+03</t>
+          <t>3.3558e+03</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
@@ -2133,22 +2133,22 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>1.6630e+15</t>
+          <t>9.5574e+14</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>4.5810e+02</t>
+          <t>4.3344e+02</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>1.9354e+16</t>
+          <t>1.4824e+16</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>3.8280e+03</t>
+          <t>3.3109e+03</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
@@ -2160,22 +2160,22 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>1.6164e+15</t>
+          <t>9.2987e+14</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>4.4443e+02</t>
+          <t>4.3645e+02</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>1.9056e+16</t>
+          <t>1.4658e+16</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>3.9903e+03</t>
+          <t>3.2625e+03</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
@@ -2187,22 +2187,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>1.5715e+15</t>
+          <t>9.0487e+14</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>4.4010e+02</t>
+          <t>4.3682e+02</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>1.8768e+16</t>
+          <t>1.4498e+16</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>4.0129e+03</t>
+          <t>3.2435e+03</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -2214,22 +2214,22 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>1.5284e+15</t>
+          <t>8.8036e+14</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>4.4227e+02</t>
+          <t>4.3467e+02</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>1.8491e+16</t>
+          <t>1.4341e+16</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>3.9342e+03</t>
+          <t>3.2516e+03</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
@@ -2241,22 +2241,22 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>1.4855e+15</t>
+          <t>8.5696e+14</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>4.5245e+02</t>
+          <t>4.3001e+02</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>1.8217e+16</t>
+          <t>1.4191e+16</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>3.7431e+03</t>
+          <t>3.2871e+03</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
@@ -2268,22 +2268,22 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>1.4431e+15</t>
+          <t>8.3424e+14</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>4.4838e+02</t>
+          <t>4.3016e+02</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>1.7945e+16</t>
+          <t>1.4045e+16</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>3.7616e+03</t>
+          <t>3.2717e+03</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
@@ -2295,22 +2295,22 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>1.4035e+15</t>
+          <t>8.1206e+14</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>4.3122e+02</t>
+          <t>4.3262e+02</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>1.7691e+16</t>
+          <t>1.3903e+16</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>3.9799e+03</t>
+          <t>3.2324e+03</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
@@ -2322,22 +2322,22 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>1.3663e+15</t>
+          <t>7.9031e+14</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>4.2890e+02</t>
+          <t>4.2910e+02</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>1.7453e+16</t>
+          <t>1.3764e+16</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>3.9782e+03</t>
+          <t>3.2564e+03</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
@@ -2349,22 +2349,22 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>1.3292e+15</t>
+          <t>7.6968e+14</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>4.4011e+02</t>
+          <t>4.3530e+02</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>1.7216e+16</t>
+          <t>1.3632e+16</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>3.7736e+03</t>
+          <t>3.1800e+03</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
@@ -2376,22 +2376,22 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>1.2923e+15</t>
+          <t>7.4847e+14</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>4.4084e+02</t>
+          <t>4.3513e+02</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>1.6979e+16</t>
+          <t>1.3496e+16</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>3.7295e+03</t>
+          <t>3.1696e+03</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
@@ -2403,22 +2403,22 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>1.2572e+15</t>
+          <t>7.2902e+14</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>4.3584e+02</t>
+          <t>4.3191e+02</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>1.6754e+16</t>
+          <t>1.3371e+16</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>3.7677e+03</t>
+          <t>3.1911e+03</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
@@ -2430,22 +2430,22 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>1.2231e+15</t>
+          <t>7.0917e+14</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>4.3516e+02</t>
+          <t>4.5330e+02</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>1.6536e+16</t>
+          <t>1.3244e+16</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>3.7458e+03</t>
+          <t>2.9771e+03</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
@@ -2457,22 +2457,22 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>1.1900e+15</t>
+          <t>6.8897e+14</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>4.3331e+02</t>
+          <t>4.7167e+02</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>1.6324e+16</t>
+          <t>1.3115e+16</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>3.7416e+03</t>
+          <t>2.8137e+03</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
@@ -2484,22 +2484,22 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>1.1580e+15</t>
+          <t>6.6875e+14</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>4.3795e+02</t>
+          <t>4.6583e+02</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>1.6119e+16</t>
+          <t>1.2985e+16</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>3.6498e+03</t>
+          <t>2.8513e+03</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -2511,22 +2511,22 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>1.1261e+15</t>
+          <t>6.5022e+14</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>4.4129e+02</t>
+          <t>4.5560e+02</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>1.5915e+16</t>
+          <t>1.2867e+16</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>3.5790e+03</t>
+          <t>2.9279e+03</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
@@ -2538,22 +2538,22 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>1.0955e+15</t>
+          <t>6.3190e+14</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>4.3236e+02</t>
+          <t>4.3996e+02</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>1.5719e+16</t>
+          <t>1.2749e+16</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>3.6700e+03</t>
+          <t>3.0586e+03</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
@@ -2565,22 +2565,22 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>1.0665e+15</t>
+          <t>6.1562e+14</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>4.2962e+02</t>
+          <t>4.3239e+02</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>1.5533e+16</t>
+          <t>1.2645e+16</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>3.6815e+03</t>
+          <t>3.1221e+03</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
@@ -2592,22 +2592,22 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>1.0378e+15</t>
+          <t>5.9876e+14</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>4.4203e+02</t>
+          <t>4.3660e+02</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>1.5349e+16</t>
+          <t>1.2537e+16</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>3.4978e+03</t>
+          <t>3.0726e+03</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2619,22 +2619,22 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>1.0088e+15</t>
+          <t>5.8310e+14</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>4.4209e+02</t>
+          <t>4.4132e+02</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>1.5164e+16</t>
+          <t>1.2437e+16</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>3.4741e+03</t>
+          <t>3.0205e+03</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
@@ -2646,22 +2646,22 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>9.8184e+14</t>
+          <t>5.6676e+14</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>4.3088e+02</t>
+          <t>4.4095e+02</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>1.4991e+16</t>
+          <t>1.2332e+16</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>3.5920e+03</t>
+          <t>3.0154e+03</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
@@ -2673,22 +2673,22 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>9.5574e+14</t>
+          <t>5.5203e+14</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>4.3344e+02</t>
+          <t>4.4178e+02</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>1.4824e+16</t>
+          <t>1.2238e+16</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>3.5379e+03</t>
+          <t>3.0003e+03</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
@@ -2700,22 +2700,22 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>9.2987e+14</t>
+          <t>5.3646e+14</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>4.3645e+02</t>
+          <t>4.6285e+02</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>1.4658e+16</t>
+          <t>1.2138e+16</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>3.4800e+03</t>
+          <t>2.8149e+03</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
@@ -2727,22 +2727,22 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>9.0487e+14</t>
+          <t>5.2123e+14</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>4.3682e+02</t>
+          <t>4.7329e+02</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>1.4498e+16</t>
+          <t>1.2040e+16</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>3.4560e+03</t>
+          <t>2.7281e+03</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
@@ -2754,22 +2754,22 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>8.8036e+14</t>
+          <t>5.0587e+14</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>4.3467e+02</t>
+          <t>4.7806e+02</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>1.4341e+16</t>
+          <t>1.1942e+16</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>3.4627e+03</t>
+          <t>2.6867e+03</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
@@ -2781,22 +2781,22 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>8.5696e+14</t>
+          <t>4.9126e+14</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>4.3001e+02</t>
+          <t>4.5916e+02</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>1.4191e+16</t>
+          <t>1.1848e+16</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>3.5006e+03</t>
+          <t>2.8239e+03</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
@@ -2808,22 +2808,22 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>8.3424e+14</t>
+          <t>4.7791e+14</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>4.3016e+02</t>
+          <t>4.4859e+02</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>1.4045e+16</t>
+          <t>1.1763e+16</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>3.4808e+03</t>
+          <t>2.9043e+03</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
@@ -2835,22 +2835,22 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>8.1206e+14</t>
+          <t>4.6467e+14</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>4.3262e+02</t>
+          <t>4.4956e+02</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>1.3903e+16</t>
+          <t>1.1678e+16</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>3.4341e+03</t>
+          <t>2.8899e+03</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
@@ -2862,22 +2862,22 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>7.9031e+14</t>
+          <t>4.5201e+14</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>4.2910e+02</t>
+          <t>4.3441e+02</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>1.3764e+16</t>
+          <t>1.1597e+16</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>3.4590e+03</t>
+          <t>3.0156e+03</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
@@ -2889,22 +2889,22 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>7.6968e+14</t>
+          <t>4.4031e+14</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>4.3530e+02</t>
+          <t>4.3997e+02</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>1.3632e+16</t>
+          <t>1.1522e+16</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>3.3710e+03</t>
+          <t>2.9600e+03</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
@@ -2916,22 +2916,22 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>7.4847e+14</t>
+          <t>4.2799e+14</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>4.3513e+02</t>
+          <t>4.6839e+02</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>1.3496e+16</t>
+          <t>1.1443e+16</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>3.3574e+03</t>
+          <t>2.7252e+03</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
@@ -2943,22 +2943,22 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>7.2902e+14</t>
+          <t>4.1550e+14</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>4.3191e+02</t>
+          <t>4.9219e+02</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>1.3371e+16</t>
+          <t>1.1363e+16</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>3.3796e+03</t>
+          <t>2.5546e+03</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
@@ -2970,22 +2970,22 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>7.0917e+14</t>
+          <t>4.0270e+14</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>4.5330e+02</t>
+          <t>4.7652e+02</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>1.3244e+16</t>
+          <t>1.1281e+16</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>3.1389e+03</t>
+          <t>2.6559e+03</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
@@ -2997,22 +2997,22 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>6.8897e+14</t>
+          <t>3.9176e+14</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>4.7167e+02</t>
+          <t>4.4944e+02</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>1.3115e+16</t>
+          <t>1.1211e+16</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>2.9563e+03</t>
+          <t>2.8567e+03</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
@@ -3024,22 +3024,22 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>6.6875e+14</t>
+          <t>3.8091e+14</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>4.6583e+02</t>
+          <t>4.7538e+02</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>1.2985e+16</t>
+          <t>1.1142e+16</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>2.9963e+03</t>
+          <t>2.6552e+03</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
@@ -3051,22 +3051,22 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>6.5022e+14</t>
+          <t>3.6937e+14</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>4.5560e+02</t>
+          <t>4.9047e+02</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>1.2867e+16</t>
+          <t>1.1068e+16</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>3.0795e+03</t>
+          <t>2.5487e+03</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
@@ -3078,22 +3078,22 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>6.3190e+14</t>
+          <t>3.5852e+14</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>4.3996e+02</t>
+          <t>4.8173e+02</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>1.2749e+16</t>
+          <t>1.0998e+16</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>3.2229e+03</t>
+          <t>2.6026e+03</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
@@ -3105,22 +3105,22 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>6.1562e+14</t>
+          <t>3.4803e+14</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>4.3239e+02</t>
+          <t>4.8650e+02</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>1.2645e+16</t>
+          <t>1.0931e+16</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>3.2919e+03</t>
+          <t>2.5667e+03</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
@@ -3132,22 +3132,22 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>5.9876e+14</t>
+          <t>3.3761e+14</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>4.3660e+02</t>
+          <t>4.9185e+02</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>1.2537e+16</t>
+          <t>1.0864e+16</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>3.2355e+03</t>
+          <t>2.5282e+03</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
@@ -3159,22 +3159,22 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>5.8310e+14</t>
+          <t>3.2753e+14</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>4.4132e+02</t>
+          <t>4.8037e+02</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>1.2437e+16</t>
+          <t>1.0800e+16</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>3.1765e+03</t>
+          <t>2.5999e+03</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
@@ -3186,22 +3186,22 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>5.6676e+14</t>
+          <t>3.1818e+14</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>4.4095e+02</t>
+          <t>4.8317e+02</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>1.2332e+16</t>
+          <t>1.0740e+16</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>3.1695e+03</t>
+          <t>2.5776e+03</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
@@ -3213,22 +3213,22 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>5.5203e+14</t>
+          <t>3.0855e+14</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>4.4178e+02</t>
+          <t>4.8721e+02</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>1.2238e+16</t>
+          <t>1.0678e+16</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>3.1515e+03</t>
+          <t>2.5475e+03</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
@@ -3240,22 +3240,22 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>5.3646e+14</t>
+          <t>2.9962e+14</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>4.6285e+02</t>
+          <t>4.9038e+02</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>1.2138e+16</t>
+          <t>1.0621e+16</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>2.9465e+03</t>
+          <t>2.5238e+03</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
@@ -3267,22 +3267,22 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>5.2123e+14</t>
+          <t>2.9042e+14</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>4.7329e+02</t>
+          <t>5.1103e+02</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>1.2040e+16</t>
+          <t>1.0562e+16</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>2.8505e+03</t>
+          <t>2.3958e+03</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
@@ -3294,22 +3294,22 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>5.0587e+14</t>
+          <t>2.8133e+14</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>4.7806e+02</t>
+          <t>5.2352e+02</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>1.1942e+16</t>
+          <t>1.0504e+16</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>2.8043e+03</t>
+          <t>2.3234e+03</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
@@ -3321,22 +3321,22 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>4.9126e+14</t>
+          <t>2.7227e+14</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>4.5916e+02</t>
+          <t>5.3264e+02</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>1.1848e+16</t>
+          <t>1.0446e+16</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>2.9530e+03</t>
+          <t>2.2725e+03</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
@@ -3348,22 +3348,22 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>4.7791e+14</t>
+          <t>2.6347e+14</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>4.4859e+02</t>
+          <t>5.1315e+02</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>1.1763e+16</t>
+          <t>1.0389e+16</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>3.0400e+03</t>
+          <t>2.3750e+03</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
@@ -3375,22 +3375,22 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>4.6467e+14</t>
+          <t>2.5561e+14</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>4.4956e+02</t>
+          <t>4.8296e+02</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>1.1678e+16</t>
+          <t>1.0339e+16</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>3.0232e+03</t>
+          <t>2.5556e+03</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
@@ -3402,22 +3402,22 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>4.5201e+14</t>
+          <t>2.4824e+14</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>4.3441e+02</t>
+          <t>4.8374e+02</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>1.1597e+16</t>
+          <t>1.0292e+16</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>3.1600e+03</t>
+          <t>2.5477e+03</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
@@ -3429,22 +3429,22 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>4.4031e+14</t>
+          <t>2.4080e+14</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>4.3997e+02</t>
+          <t>5.3623e+02</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>1.1522e+16</t>
+          <t>1.0244e+16</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>3.0981e+03</t>
+          <t>2.2451e+03</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
@@ -3456,22 +3456,22 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>4.2799e+14</t>
+          <t>2.3235e+14</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>4.6839e+02</t>
+          <t>5.5509e+02</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>1.1443e+16</t>
+          <t>1.0190e+16</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>2.8410e+03</t>
+          <t>2.1517e+03</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
@@ -3483,22 +3483,22 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>4.1550e+14</t>
+          <t>2.2494e+14</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>4.9219e+02</t>
+          <t>5.3796e+02</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>1.1363e+16</t>
+          <t>1.0143e+16</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>2.6553e+03</t>
+          <t>2.2319e+03</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
@@ -3510,22 +3510,22 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>4.0270e+14</t>
+          <t>2.1745e+14</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>4.7652e+02</t>
+          <t>5.2424e+02</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>1.1281e+16</t>
+          <t>1.0095e+16</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>2.7642e+03</t>
+          <t>2.3002e+03</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
@@ -3537,22 +3537,22 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>3.9176e+14</t>
+          <t>2.1090e+14</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>4.4944e+02</t>
+          <t>4.8706e+02</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>1.1211e+16</t>
+          <t>1.0053e+16</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>2.9815e+03</t>
+          <t>2.5129e+03</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
@@ -3564,22 +3564,22 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>3.8091e+14</t>
+          <t>2.0480e+14</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>4.7538e+02</t>
+          <t>5.1884e+02</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>1.1142e+16</t>
+          <t>1.0014e+16</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>2.7620e+03</t>
+          <t>2.3252e+03</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
@@ -3591,22 +3591,22 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>3.6937e+14</t>
+          <t>1.9783e+14</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>4.9047e+02</t>
+          <t>5.4178e+02</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>1.1068e+16</t>
+          <t>9.9689e+15</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>2.6463e+03</t>
+          <t>2.2055e+03</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
@@ -3618,22 +3618,22 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>3.5852e+14</t>
+          <t>1.9161e+14</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>4.8173e+02</t>
+          <t>4.9025e+02</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>1.0998e+16</t>
+          <t>9.9291e+15</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>2.7037e+03</t>
+          <t>2.4861e+03</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
@@ -3645,22 +3645,22 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>3.4803e+14</t>
+          <t>1.8626e+14</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>4.8650e+02</t>
+          <t>4.9463e+02</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>1.0931e+16</t>
+          <t>9.8947e+15</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>2.6644e+03</t>
+          <t>2.4575e+03</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -3672,22 +3672,22 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>3.3761e+14</t>
+          <t>1.8027e+14</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>4.9185e+02</t>
+          <t>5.3571e+02</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>1.0864e+16</t>
+          <t>9.8564e+15</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>2.6223e+03</t>
+          <t>2.2305e+03</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3699,22 +3699,22 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>3.2753e+14</t>
+          <t>1.7438e+14</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>4.8037e+02</t>
+          <t>5.5012e+02</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>1.0800e+16</t>
+          <t>9.8187e+15</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>2.6989e+03</t>
+          <t>2.1595e+03</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3726,22 +3726,22 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>3.1818e+14</t>
+          <t>1.6848e+14</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>4.8317e+02</t>
+          <t>6.0134e+02</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>1.0740e+16</t>
+          <t>9.7809e+15</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>2.6743e+03</t>
+          <t>1.9431e+03</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
@@ -3753,22 +3753,22 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>3.0855e+14</t>
+          <t>1.6194e+14</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>4.8721e+02</t>
+          <t>6.4756e+02</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>1.0678e+16</t>
+          <t>9.7390e+15</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>2.6414e+03</t>
+          <t>1.7818e+03</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
@@ -3780,22 +3780,22 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>2.9962e+14</t>
+          <t>1.5562e+14</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>4.9038e+02</t>
+          <t>6.5071e+02</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>1.0621e+16</t>
+          <t>9.6985e+15</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>2.6154e+03</t>
+          <t>1.7708e+03</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
@@ -3807,22 +3807,22 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>2.9042e+14</t>
+          <t>1.4952e+14</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>5.1103e+02</t>
+          <t>6.0470e+02</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>1.0562e+16</t>
+          <t>9.6595e+15</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>2.4777e+03</t>
+          <t>1.9265e+03</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
@@ -3834,22 +3834,22 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>2.8133e+14</t>
+          <t>1.4452e+14</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>5.2352e+02</t>
+          <t>5.3480e+02</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>1.0504e+16</t>
+          <t>9.6274e+15</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>2.3999e+03</t>
+          <t>2.2249e+03</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
@@ -3861,22 +3861,22 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>2.7227e+14</t>
+          <t>1.4002e+14</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>5.3264e+02</t>
+          <t>5.2927e+02</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>1.0446e+16</t>
+          <t>9.5986e+15</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>2.3453e+03</t>
+          <t>2.2513e+03</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
@@ -3888,22 +3888,22 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>2.6347e+14</t>
+          <t>1.3541e+14</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>5.1315e+02</t>
+          <t>5.8227e+02</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>1.0389e+16</t>
+          <t>9.5690e+15</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>2.4542e+03</t>
+          <t>2.0103e+03</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
@@ -3915,22 +3915,22 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>2.5561e+14</t>
+          <t>1.3034e+14</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>4.8296e+02</t>
+          <t>5.9725e+02</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>1.0339e+16</t>
+          <t>9.5366e+15</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>2.6470e+03</t>
+          <t>1.9504e+03</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
@@ -3942,22 +3942,22 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>2.4824e+14</t>
+          <t>1.2586e+14</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>4.8374e+02</t>
+          <t>5.8852e+02</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>1.0292e+16</t>
+          <t>9.5079e+15</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>2.6381e+03</t>
+          <t>1.9832e+03</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
@@ -3969,22 +3969,22 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>2.4080e+14</t>
+          <t>1.2125e+14</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>5.3623e+02</t>
+          <t>6.2213e+02</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>1.0244e+16</t>
+          <t>9.4784e+15</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>2.3147e+03</t>
+          <t>1.8584e+03</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
@@ -3996,22 +3996,22 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>2.3235e+14</t>
+          <t>1.1660e+14</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>5.5509e+02</t>
+          <t>6.2019e+02</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>1.0190e+16</t>
+          <t>9.4486e+15</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>2.2152e+03</t>
+          <t>1.8642e+03</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
@@ -4023,22 +4023,22 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>2.2494e+14</t>
+          <t>1.1238e+14</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>5.3796e+02</t>
+          <t>6.5276e+02</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>1.0143e+16</t>
+          <t>9.4216e+15</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>2.2999e+03</t>
+          <t>1.7567e+03</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
@@ -4050,22 +4050,22 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>2.1745e+14</t>
+          <t>1.0761e+14</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>5.2424e+02</t>
+          <t>5.8886e+02</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>1.0095e+16</t>
+          <t>9.3910e+15</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>2.3721e+03</t>
+          <t>1.9778e+03</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
@@ -4077,22 +4077,22 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>2.1090e+14</t>
+          <t>1.0461e+14</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>4.8706e+02</t>
+          <t>5.2036e+02</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>1.0053e+16</t>
+          <t>9.3718e+15</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>2.5987e+03</t>
+          <t>2.2869e+03</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
@@ -4104,22 +4104,22 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>2.0480e+14</t>
+          <t>1.0092e+14</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>5.1884e+02</t>
+          <t>6.0220e+02</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>1.0014e+16</t>
+          <t>9.3482e+15</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>2.3982e+03</t>
+          <t>1.9256e+03</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
@@ -4131,22 +4131,22 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>1.9783e+14</t>
+          <t>9.7154e+13</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>5.4178e+02</t>
+          <t>6.2999e+02</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>9.9689e+15</t>
+          <t>9.3240e+15</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>2.2708e+03</t>
+          <t>1.8270e+03</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
@@ -4158,22 +4158,22 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>1.9161e+14</t>
+          <t>9.3420e+13</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>4.9025e+02</t>
+          <t>5.9904e+02</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>9.9291e+15</t>
+          <t>9.3001e+15</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>2.5690e+03</t>
+          <t>1.9357e+03</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
@@ -4185,22 +4185,22 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>1.8626e+14</t>
+          <t>9.0290e+13</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>4.9463e+02</t>
+          <t>6.2451e+02</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>9.8947e+15</t>
+          <t>9.2800e+15</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>2.5382e+03</t>
+          <t>1.8442e+03</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
@@ -4212,22 +4212,22 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>1.8027e+14</t>
+          <t>8.6508e+13</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>5.3571e+02</t>
+          <t>7.2213e+02</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>9.8564e+15</t>
+          <t>9.2558e+15</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>2.2965e+03</t>
+          <t>1.5623e+03</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
@@ -4239,22 +4239,22 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>1.7438e+14</t>
+          <t>8.2644e+13</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>5.5012e+02</t>
+          <t>7.1611e+02</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>9.8187e+15</t>
+          <t>9.2311e+15</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>2.2210e+03</t>
+          <t>1.5766e+03</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
@@ -4266,22 +4266,22 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>1.6848e+14</t>
+          <t>7.9264e+13</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>6.0134e+02</t>
+          <t>6.6544e+02</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>9.7809e+15</t>
+          <t>9.2094e+15</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>1.9926e+03</t>
+          <t>1.7129e+03</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
@@ -4293,22 +4293,22 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>1.6194e+14</t>
+          <t>7.6183e+13</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>6.4756e+02</t>
+          <t>6.8532e+02</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>9.7390e+15</t>
+          <t>9.1897e+15</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>1.8232e+03</t>
+          <t>1.6560e+03</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>1.5562e+14</t>
+          <t>7.2871e+13</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>6.5071e+02</t>
+          <t>8.0156e+02</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>9.6985e+15</t>
+          <t>9.1685e+15</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>1.8114e+03</t>
+          <t>1.3883e+03</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
@@ -4347,22 +4347,22 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>1.4952e+14</t>
+          <t>6.9042e+13</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>6.0470e+02</t>
+          <t>8.0010e+02</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>9.6595e+15</t>
+          <t>9.1439e+15</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>1.9745e+03</t>
+          <t>1.3907e+03</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
@@ -4374,22 +4374,22 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>1.4452e+14</t>
+          <t>6.6118e+13</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>5.3480e+02</t>
+          <t>6.8857e+02</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>9.6274e+15</t>
+          <t>9.1252e+15</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>2.2890e+03</t>
+          <t>1.6456e+03</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
@@ -4401,22 +4401,22 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>1.4002e+14</t>
+          <t>6.3468e+13</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>5.2927e+02</t>
+          <t>7.4227e+02</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>9.5986e+15</t>
+          <t>9.1082e+15</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>2.3168e+03</t>
+          <t>1.5116e+03</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
@@ -4428,22 +4428,22 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>1.3541e+14</t>
+          <t>6.0354e+13</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>5.8227e+02</t>
+          <t>7.6124e+02</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>9.5690e+15</t>
+          <t>9.0883e+15</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>2.0621e+03</t>
+          <t>1.4691e+03</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
@@ -4455,22 +4455,22 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>1.3034e+14</t>
+          <t>5.7849e+13</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>5.9725e+02</t>
+          <t>6.2381e+02</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>9.5366e+15</t>
+          <t>9.0722e+15</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>1.9990e+03</t>
+          <t>1.8403e+03</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
@@ -4482,22 +4482,22 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>1.2586e+14</t>
+          <t>5.5932e+13</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>5.8852e+02</t>
+          <t>5.9269e+02</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>9.5079e+15</t>
+          <t>9.0600e+15</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>2.0333e+03</t>
+          <t>1.9517e+03</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
@@ -4509,22 +4509,22 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>1.2125e+14</t>
+          <t>5.3785e+13</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>6.2213e+02</t>
+          <t>6.7176e+02</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>9.4784e+15</t>
+          <t>9.0462e+15</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>1.9021e+03</t>
+          <t>1.6904e+03</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
@@ -4536,22 +4536,22 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>1.1660e+14</t>
+          <t>5.1509e+13</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>6.2019e+02</t>
+          <t>6.8811e+02</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>9.4486e+15</t>
+          <t>9.0316e+15</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>1.9081e+03</t>
+          <t>1.6446e+03</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
@@ -4563,22 +4563,22 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>1.1238e+14</t>
+          <t>4.9446e+13</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>6.5276e+02</t>
+          <t>7.5087e+02</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>9.4216e+15</t>
+          <t>9.0184e+15</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>1.7956e+03</t>
+          <t>1.4905e+03</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
@@ -4590,22 +4590,22 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>1.0761e+14</t>
+          <t>4.6968e+13</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>5.8886e+02</t>
+          <t>8.3972e+02</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>9.3910e+15</t>
+          <t>9.0025e+15</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>2.0270e+03</t>
+          <t>1.3159e+03</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
@@ -4617,22 +4617,22 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>1.0461e+14</t>
+          <t>4.4628e+13</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>5.2036e+02</t>
+          <t>8.3624e+02</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>9.3718e+15</t>
+          <t>8.9876e+15</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>2.3528e+03</t>
+          <t>1.3218e+03</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
@@ -4644,22 +4644,22 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>1.0092e+14</t>
+          <t>4.2408e+13</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>6.0220e+02</t>
+          <t>8.6291e+02</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>9.3482e+15</t>
+          <t>8.9733e+15</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>1.9719e+03</t>
+          <t>1.2765e+03</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
@@ -4671,22 +4671,22 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>9.7154e+13</t>
+          <t>4.0157e+13</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>6.2999e+02</t>
+          <t>8.5010e+02</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>9.3240e+15</t>
+          <t>8.9589e+15</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>1.8686e+03</t>
+          <t>1.2976e+03</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>9.3420e+13</t>
+          <t>3.8238e+13</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>5.9904e+02</t>
+          <t>7.4087e+02</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>9.3001e+15</t>
+          <t>8.9466e+15</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>1.9824e+03</t>
+          <t>1.5116e+03</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
@@ -4725,22 +4725,22 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>9.0290e+13</t>
+          <t>3.6693e+13</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>6.2451e+02</t>
+          <t>7.0753e+02</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>9.2800e+15</t>
+          <t>8.9367e+15</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>1.8864e+03</t>
+          <t>1.5916e+03</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
@@ -4752,22 +4752,22 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>8.6508e+13</t>
+          <t>3.5061e+13</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>7.2213e+02</t>
+          <t>7.4145e+02</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>9.2558e+15</t>
+          <t>8.9263e+15</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>1.5924e+03</t>
+          <t>1.5098e+03</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
@@ -4779,22 +4779,22 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>8.2644e+13</t>
+          <t>3.3514e+13</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>7.1611e+02</t>
+          <t>7.1383e+02</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>9.2311e+15</t>
+          <t>8.9164e+15</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>1.6072e+03</t>
+          <t>1.5753e+03</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
@@ -4806,22 +4806,22 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>7.9264e+13</t>
+          <t>3.2134e+13</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>6.6544e+02</t>
+          <t>5.6854e+02</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>9.2094e+15</t>
+          <t>8.9075e+15</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>1.7490e+03</t>
+          <t>2.0426e+03</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
@@ -4833,22 +4833,22 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>7.6183e+13</t>
+          <t>3.1273e+13</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>6.8532e+02</t>
+          <t>6.1594e+02</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>9.1897e+15</t>
+          <t>8.9020e+15</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>1.6896e+03</t>
+          <t>1.8621e+03</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
@@ -4860,22 +4860,22 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>7.2871e+13</t>
+          <t>2.9775e+13</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>8.0156e+02</t>
+          <t>7.9838e+02</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>9.1685e+15</t>
+          <t>8.8924e+15</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>1.4118e+03</t>
+          <t>1.3898e+03</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
@@ -4887,22 +4887,22 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>6.9042e+13</t>
+          <t>2.8368e+13</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>8.0010e+02</t>
+          <t>8.1594e+02</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>9.1439e+15</t>
+          <t>8.8834e+15</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>1.4142e+03</t>
+          <t>1.3565e+03</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
@@ -4914,2536 +4914,25 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>6.6118e+13</t>
+          <t>2.6946e+13</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>6.8857e+02</t>
+          <t>8.0699e+02</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>9.1252e+15</t>
+          <t>8.8743e+15</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>1.6786e+03</t>
+          <t>1.3730e+03</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>6.3468e+13</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>7.4227e+02</t>
-        </is>
-      </c>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>9.1082e+15</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="inlineStr">
-        <is>
-          <t>1.5393e+03</t>
-        </is>
-      </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="inlineStr">
-        <is>
-          <t>6.0354e+13</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>7.6124e+02</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>9.0883e+15</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="inlineStr">
-        <is>
-          <t>1.4952e+03</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="inlineStr">
-        <is>
-          <t>5.7849e+13</t>
-        </is>
-      </c>
-      <c r="B169" s="2" t="inlineStr">
-        <is>
-          <t>6.2381e+02</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>9.0722e+15</t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="inlineStr">
-        <is>
-          <t>1.8814e+03</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="inlineStr">
-        <is>
-          <t>5.5932e+13</t>
-        </is>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>5.9269e+02</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>9.0600e+15</t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="inlineStr">
-        <is>
-          <t>1.9979e+03</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>5.3785e+13</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>6.7176e+02</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>9.0462e+15</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="inlineStr">
-        <is>
-          <t>1.7249e+03</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>5.1509e+13</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>6.8811e+02</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>9.0316e+15</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr">
-        <is>
-          <t>1.6772e+03</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>4.9446e+13</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>7.5087e+02</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>9.0184e+15</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="inlineStr">
-        <is>
-          <t>1.5171e+03</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>4.6968e+13</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>8.3972e+02</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>9.0025e+15</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr">
-        <is>
-          <t>1.3366e+03</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>4.4628e+13</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>8.3624e+02</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>8.9876e+15</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>1.3426e+03</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>4.2408e+13</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>8.6291e+02</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>8.9733e+15</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="inlineStr">
-        <is>
-          <t>1.2959e+03</t>
-        </is>
-      </c>
-      <c r="E176" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="inlineStr">
-        <is>
-          <t>4.0157e+13</t>
-        </is>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>8.5010e+02</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>8.9589e+15</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="inlineStr">
-        <is>
-          <t>1.3176e+03</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="inlineStr">
-        <is>
-          <t>3.8238e+13</t>
-        </is>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>7.4087e+02</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="inlineStr">
-        <is>
-          <t>8.9466e+15</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="inlineStr">
-        <is>
-          <t>1.5388e+03</t>
-        </is>
-      </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="inlineStr">
-        <is>
-          <t>3.6693e+13</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>7.0753e+02</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>8.9367e+15</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="inlineStr">
-        <is>
-          <t>1.6217e+03</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="inlineStr">
-        <is>
-          <t>3.5061e+13</t>
-        </is>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>7.4145e+02</t>
-        </is>
-      </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>8.9263e+15</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="inlineStr">
-        <is>
-          <t>1.5369e+03</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="inlineStr">
-        <is>
-          <t>3.3514e+13</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>7.1383e+02</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>8.9164e+15</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>1.6048e+03</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>3.2134e+13</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>5.6854e+02</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>8.9075e+15</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="inlineStr">
-        <is>
-          <t>2.0924e+03</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="inlineStr">
-        <is>
-          <t>3.1273e+13</t>
-        </is>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>6.1594e+02</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>8.9020e+15</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="inlineStr">
-        <is>
-          <t>1.9034e+03</t>
-        </is>
-      </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>2.9775e+13</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>7.9838e+02</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>8.8924e+15</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>1.4126e+03</t>
-        </is>
-      </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="inlineStr">
-        <is>
-          <t>2.8368e+13</t>
-        </is>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>8.1594e+02</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>8.8834e+15</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="inlineStr">
-        <is>
-          <t>1.3782e+03</t>
-        </is>
-      </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>2.6946e+13</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>8.0699e+02</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>8.8743e+15</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="inlineStr">
-        <is>
-          <t>1.3952e+03</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="inlineStr">
-        <is>
-          <t>2.5711e+13</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>8.9030e+02</t>
-        </is>
-      </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>8.8664e+15</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="inlineStr">
-        <is>
-          <t>1.2498e+03</t>
-        </is>
-      </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>2.4151e+13</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>8.2675e+02</t>
-        </is>
-      </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>8.8564e+15</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="inlineStr">
-        <is>
-          <t>1.3575e+03</t>
-        </is>
-      </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>2.3271e+13</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>6.1052e+02</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>8.8508e+15</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="inlineStr">
-        <is>
-          <t>1.9212e+03</t>
-        </is>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>2.2411e+13</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>6.9619e+02</t>
-        </is>
-      </c>
-      <c r="C190" s="2" t="inlineStr">
-        <is>
-          <t>8.8452e+15</t>
-        </is>
-      </c>
-      <c r="D190" s="2" t="inlineStr">
-        <is>
-          <t>1.6496e+03</t>
-        </is>
-      </c>
-      <c r="E190" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>2.1362e+13</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>8.5419e+02</t>
-        </is>
-      </c>
-      <c r="C191" s="2" t="inlineStr">
-        <is>
-          <t>8.8385e+15</t>
-        </is>
-      </c>
-      <c r="D191" s="2" t="inlineStr">
-        <is>
-          <t>1.3084e+03</t>
-        </is>
-      </c>
-      <c r="E191" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="inlineStr">
-        <is>
-          <t>2.0182e+13</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>7.0907e+02</t>
-        </is>
-      </c>
-      <c r="C192" s="2" t="inlineStr">
-        <is>
-          <t>8.8310e+15</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="inlineStr">
-        <is>
-          <t>1.6149e+03</t>
-        </is>
-      </c>
-      <c r="E192" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>1.9612e+13</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>5.6465e+02</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>8.8273e+15</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>2.1059e+03</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>1.8824e+13</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>7.9027e+02</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>8.8223e+15</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>1.4275e+03</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>1.7794e+13</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>8.5694e+02</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>8.8157e+15</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="inlineStr">
-        <is>
-          <t>1.3033e+03</t>
-        </is>
-      </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>1.6962e+13</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>9.4756e+02</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>8.8103e+15</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="inlineStr">
-        <is>
-          <t>1.1656e+03</t>
-        </is>
-      </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>1.5832e+13</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>9.8292e+02</t>
-        </is>
-      </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>8.8031e+15</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="inlineStr">
-        <is>
-          <t>1.1193e+03</t>
-        </is>
-      </c>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>1.5063e+13</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>8.1281e+02</t>
-        </is>
-      </c>
-      <c r="C198" s="2" t="inlineStr">
-        <is>
-          <t>8.7982e+15</t>
-        </is>
-      </c>
-      <c r="D198" s="2" t="inlineStr">
-        <is>
-          <t>1.3825e+03</t>
-        </is>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>1.4336e+13</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>8.4925e+02</t>
-        </is>
-      </c>
-      <c r="C199" s="2" t="inlineStr">
-        <is>
-          <t>8.7935e+15</t>
-        </is>
-      </c>
-      <c r="D199" s="2" t="inlineStr">
-        <is>
-          <t>1.3161e+03</t>
-        </is>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="inlineStr">
-        <is>
-          <t>1.3576e+13</t>
-        </is>
-      </c>
-      <c r="B200" s="2" t="inlineStr">
-        <is>
-          <t>8.3456e+02</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>8.7887e+15</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr">
-        <is>
-          <t>1.3420e+03</t>
-        </is>
-      </c>
-      <c r="E200" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>1.2953e+13</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>6.2345e+02</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>8.7847e+15</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>1.8723e+03</t>
-        </is>
-      </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>1.2587e+13</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>7.6581e+02</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>8.7823e+15</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="inlineStr">
-        <is>
-          <t>1.4782e+03</t>
-        </is>
-      </c>
-      <c r="E202" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>1.1774e+13</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>9.8474e+02</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>8.7771e+15</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="inlineStr">
-        <is>
-          <t>1.1167e+03</t>
-        </is>
-      </c>
-      <c r="E203" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>1.1173e+13</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>9.1455e+02</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>8.7733e+15</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>1.2117e+03</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>1.0527e+13</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>9.0883e+02</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>8.7691e+15</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="inlineStr">
-        <is>
-          <t>1.2201e+03</t>
-        </is>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>1.0005e+13</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>7.2520e+02</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>8.7658e+15</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>1.5722e+03</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>9.6398e+12</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>5.8674e+02</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>8.7634e+15</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="inlineStr">
-        <is>
-          <t>2.0096e+03</t>
-        </is>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>9.3117e+12</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>7.7249e+02</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>8.7613e+15</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr">
-        <is>
-          <t>1.4633e+03</t>
-        </is>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>8.7606e+12</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>1.0531e+03</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>8.7578e+15</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>1.0373e+03</t>
-        </is>
-      </c>
-      <c r="E209" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>8.1866e+12</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>1.1939e+03</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>8.7541e+15</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>9.0511e+02</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="inlineStr">
-        <is>
-          <t>7.5696e+12</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>9.8281e+02</t>
-        </is>
-      </c>
-      <c r="C211" s="2" t="inlineStr">
-        <is>
-          <t>8.7502e+15</t>
-        </is>
-      </c>
-      <c r="D211" s="2" t="inlineStr">
-        <is>
-          <t>1.1188e+03</t>
-        </is>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>7.2789e+12</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>2.6458e+02</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>8.7483e+15</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>5.6951e+03</t>
-        </is>
-      </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>7.3304e+12</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>6.3162e+01</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>8.7487e+15</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr">
-        <is>
-          <t>-3.8719e+04</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="inlineStr">
-        <is>
-          <t>7.2171e+12</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>6.6931e+02</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>8.7479e+15</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr">
-        <is>
-          <t>1.7232e+03</t>
-        </is>
-      </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="inlineStr">
-        <is>
-          <t>6.7393e+12</t>
-        </is>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>7.8526e+02</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>8.7449e+15</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="inlineStr">
-        <is>
-          <t>1.4361e+03</t>
-        </is>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="inlineStr">
-        <is>
-          <t>6.5704e+12</t>
-        </is>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>8.7210e+02</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>8.7438e+15</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="inlineStr">
-        <is>
-          <t>1.2769e+03</t>
-        </is>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="inlineStr">
-        <is>
-          <t>6.0397e+12</t>
-        </is>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>1.0268e+03</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>8.7404e+15</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>1.0662e+03</t>
-        </is>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>5.8140e+12</t>
-        </is>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>8.4191e+02</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>8.7389e+15</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="inlineStr">
-        <is>
-          <t>1.3280e+03</t>
-        </is>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="inlineStr">
-        <is>
-          <t>5.4419e+12</t>
-        </is>
-      </c>
-      <c r="B219" s="2" t="inlineStr">
-        <is>
-          <t>1.6278e+03</t>
-        </is>
-      </c>
-      <c r="C219" s="2" t="inlineStr">
-        <is>
-          <t>8.7366e+15</t>
-        </is>
-      </c>
-      <c r="D219" s="2" t="inlineStr">
-        <is>
-          <t>6.4979e+02</t>
-        </is>
-      </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="inlineStr">
-        <is>
-          <t>4.7361e+12</t>
-        </is>
-      </c>
-      <c r="B220" s="2" t="inlineStr">
-        <is>
-          <t>1.6212e+03</t>
-        </is>
-      </c>
-      <c r="C220" s="2" t="inlineStr">
-        <is>
-          <t>8.7320e+15</t>
-        </is>
-      </c>
-      <c r="D220" s="2" t="inlineStr">
-        <is>
-          <t>6.5259e+02</t>
-        </is>
-      </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="inlineStr">
-        <is>
-          <t>4.5076e+12</t>
-        </is>
-      </c>
-      <c r="B221" s="2" t="inlineStr">
-        <is>
-          <t>1.0023e+03</t>
-        </is>
-      </c>
-      <c r="C221" s="2" t="inlineStr">
-        <is>
-          <t>8.7306e+15</t>
-        </is>
-      </c>
-      <c r="D221" s="2" t="inlineStr">
-        <is>
-          <t>1.0947e+03</t>
-        </is>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="inlineStr">
-        <is>
-          <t>4.1849e+12</t>
-        </is>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>5.0852e+02</t>
-        </is>
-      </c>
-      <c r="C222" s="2" t="inlineStr">
-        <is>
-          <t>8.7285e+15</t>
-        </is>
-      </c>
-      <c r="D222" s="2" t="inlineStr">
-        <is>
-          <t>2.3825e+03</t>
-        </is>
-      </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="inlineStr">
-        <is>
-          <t>4.2464e+12</t>
-        </is>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>5.2471e+02</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t>8.7289e+15</t>
-        </is>
-      </c>
-      <c r="D223" s="2" t="inlineStr">
-        <is>
-          <t>2.2940e+03</t>
-        </is>
-      </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="inlineStr">
-        <is>
-          <t>3.9116e+12</t>
-        </is>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>9.0932e+02</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>8.7268e+15</t>
-        </is>
-      </c>
-      <c r="D224" s="2" t="inlineStr">
-        <is>
-          <t>1.2187e+03</t>
-        </is>
-      </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="inlineStr">
-        <is>
-          <t>3.8122e+12</t>
-        </is>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>8.0509e+01</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>8.7261e+15</t>
-        </is>
-      </c>
-      <c r="D225" s="2" t="inlineStr">
-        <is>
-          <t>-1.2119e+05</t>
-        </is>
-      </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="inlineStr">
-        <is>
-          <t>3.8714e+12</t>
-        </is>
-      </c>
-      <c r="B226" s="2" t="inlineStr">
-        <is>
-          <t>6.3886e+02</t>
-        </is>
-      </c>
-      <c r="C226" s="2" t="inlineStr">
-        <is>
-          <t>8.7265e+15</t>
-        </is>
-      </c>
-      <c r="D226" s="2" t="inlineStr">
-        <is>
-          <t>1.8179e+03</t>
-        </is>
-      </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="inlineStr">
-        <is>
-          <t>3.5094e+12</t>
-        </is>
-      </c>
-      <c r="B227" s="2" t="inlineStr">
-        <is>
-          <t>4.5437e+02</t>
-        </is>
-      </c>
-      <c r="C227" s="2" t="inlineStr">
-        <is>
-          <t>8.7242e+15</t>
-        </is>
-      </c>
-      <c r="D227" s="2" t="inlineStr">
-        <is>
-          <t>2.7350e+03</t>
-        </is>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="inlineStr">
-        <is>
-          <t>3.6754e+12</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>-1.0494e+03</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="inlineStr">
-        <is>
-          <t>8.7252e+15</t>
-        </is>
-      </c>
-      <c r="D228" s="2" t="inlineStr">
-        <is>
-          <t>-8.7865e+02</t>
-        </is>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="inlineStr">
-        <is>
-          <t>3.9740e+12</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>-2.8112e+02</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>8.7272e+15</t>
-        </is>
-      </c>
-      <c r="D229" s="2" t="inlineStr">
-        <is>
-          <t>-2.7035e+03</t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="inlineStr">
-        <is>
-          <t>3.8077e+12</t>
-        </is>
-      </c>
-      <c r="B230" s="2" t="inlineStr">
-        <is>
-          <t>8.7692e+02</t>
-        </is>
-      </c>
-      <c r="C230" s="2" t="inlineStr">
-        <is>
-          <t>8.7261e+15</t>
-        </is>
-      </c>
-      <c r="D230" s="2" t="inlineStr">
-        <is>
-          <t>1.2688e+03</t>
-        </is>
-      </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="inlineStr">
-        <is>
-          <t>3.5663e+12</t>
-        </is>
-      </c>
-      <c r="B231" s="2" t="inlineStr">
-        <is>
-          <t>1.2160e+03</t>
-        </is>
-      </c>
-      <c r="C231" s="2" t="inlineStr">
-        <is>
-          <t>8.7245e+15</t>
-        </is>
-      </c>
-      <c r="D231" s="2" t="inlineStr">
-        <is>
-          <t>8.8713e+02</t>
-        </is>
-      </c>
-      <c r="E231" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="inlineStr">
-        <is>
-          <t>3.2793e+12</t>
-        </is>
-      </c>
-      <c r="B232" s="2" t="inlineStr">
-        <is>
-          <t>1.6935e+03</t>
-        </is>
-      </c>
-      <c r="C232" s="2" t="inlineStr">
-        <is>
-          <t>8.7227e+15</t>
-        </is>
-      </c>
-      <c r="D232" s="2" t="inlineStr">
-        <is>
-          <t>6.2314e+02</t>
-        </is>
-      </c>
-      <c r="E232" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="inlineStr">
-        <is>
-          <t>2.8907e+12</t>
-        </is>
-      </c>
-      <c r="B233" s="2" t="inlineStr">
-        <is>
-          <t>1.9729e+03</t>
-        </is>
-      </c>
-      <c r="C233" s="2" t="inlineStr">
-        <is>
-          <t>8.7202e+15</t>
-        </is>
-      </c>
-      <c r="D233" s="2" t="inlineStr">
-        <is>
-          <t>5.3074e+02</t>
-        </is>
-      </c>
-      <c r="E233" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="inlineStr">
-        <is>
-          <t>2.5858e+12</t>
-        </is>
-      </c>
-      <c r="B234" s="2" t="inlineStr">
-        <is>
-          <t>1.2351e+03</t>
-        </is>
-      </c>
-      <c r="C234" s="2" t="inlineStr">
-        <is>
-          <t>8.7183e+15</t>
-        </is>
-      </c>
-      <c r="D234" s="2" t="inlineStr">
-        <is>
-          <t>8.7232e+02</t>
-        </is>
-      </c>
-      <c r="E234" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="inlineStr">
-        <is>
-          <t>2.5016e+12</t>
-        </is>
-      </c>
-      <c r="B235" s="2" t="inlineStr">
-        <is>
-          <t>1.1217e+03</t>
-        </is>
-      </c>
-      <c r="C235" s="2" t="inlineStr">
-        <is>
-          <t>8.7177e+15</t>
-        </is>
-      </c>
-      <c r="D235" s="2" t="inlineStr">
-        <is>
-          <t>9.6803e+02</t>
-        </is>
-      </c>
-      <c r="E235" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="inlineStr">
-        <is>
-          <t>2.2438e+12</t>
-        </is>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>1.2446e+03</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>8.7161e+15</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="inlineStr">
-        <is>
-          <t>8.6508e+02</t>
-        </is>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="inlineStr">
-        <is>
-          <t>2.1614e+12</t>
-        </is>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>1.4259e+02</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>8.7155e+15</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="inlineStr">
-        <is>
-          <t>1.8539e+04</t>
-        </is>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="inlineStr">
-        <is>
-          <t>2.2048e+12</t>
-        </is>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>6.4433e+02</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>8.7158e+15</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="inlineStr">
-        <is>
-          <t>1.7996e+03</t>
-        </is>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="inlineStr">
-        <is>
-          <t>1.9875e+12</t>
-        </is>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>1.6459e+03</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>8.7144e+15</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="inlineStr">
-        <is>
-          <t>6.4214e+02</t>
-        </is>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="inlineStr">
-        <is>
-          <t>1.8067e+12</t>
-        </is>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>1.7735e+03</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>8.7133e+15</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="inlineStr">
-        <is>
-          <t>5.9350e+02</t>
-        </is>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="inlineStr">
-        <is>
-          <t>1.5977e+12</t>
-        </is>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
-        <is>
-          <t>1.4065e+03</t>
-        </is>
-      </c>
-      <c r="C241" s="2" t="inlineStr">
-        <is>
-          <t>8.7119e+15</t>
-        </is>
-      </c>
-      <c r="D241" s="2" t="inlineStr">
-        <is>
-          <t>7.5880e+02</t>
-        </is>
-      </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="inlineStr">
-        <is>
-          <t>1.5331e+12</t>
-        </is>
-      </c>
-      <c r="B242" s="2" t="inlineStr">
-        <is>
-          <t>8.2726e+02</t>
-        </is>
-      </c>
-      <c r="C242" s="2" t="inlineStr">
-        <is>
-          <t>8.7115e+15</t>
-        </is>
-      </c>
-      <c r="D242" s="2" t="inlineStr">
-        <is>
-          <t>1.3538e+03</t>
-        </is>
-      </c>
-      <c r="E242" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="inlineStr">
-        <is>
-          <t>1.4428e+12</t>
-        </is>
-      </c>
-      <c r="B243" s="2" t="inlineStr">
-        <is>
-          <t>5.6434e+02</t>
-        </is>
-      </c>
-      <c r="C243" s="2" t="inlineStr">
-        <is>
-          <t>8.7109e+15</t>
-        </is>
-      </c>
-      <c r="D243" s="2" t="inlineStr">
-        <is>
-          <t>2.1020e+03</t>
-        </is>
-      </c>
-      <c r="E243" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="inlineStr">
-        <is>
-          <t>1.4333e+12</t>
-        </is>
-      </c>
-      <c r="B244" s="2" t="inlineStr">
-        <is>
-          <t>2.5386e+02</t>
-        </is>
-      </c>
-      <c r="C244" s="2" t="inlineStr">
-        <is>
-          <t>8.7109e+15</t>
-        </is>
-      </c>
-      <c r="D244" s="2" t="inlineStr">
-        <is>
-          <t>6.0512e+03</t>
-        </is>
-      </c>
-      <c r="E244" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="inlineStr">
-        <is>
-          <t>1.3975e+12</t>
-        </is>
-      </c>
-      <c r="B245" s="2" t="inlineStr">
-        <is>
-          <t>1.5709e+03</t>
-        </is>
-      </c>
-      <c r="C245" s="2" t="inlineStr">
-        <is>
-          <t>8.7106e+15</t>
-        </is>
-      </c>
-      <c r="D245" s="2" t="inlineStr">
-        <is>
-          <t>6.7463e+02</t>
-        </is>
-      </c>
-      <c r="E245" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="inlineStr">
-        <is>
-          <t>1.1661e+12</t>
-        </is>
-      </c>
-      <c r="B246" s="2" t="inlineStr">
-        <is>
-          <t>2.7048e+03</t>
-        </is>
-      </c>
-      <c r="C246" s="2" t="inlineStr">
-        <is>
-          <t>8.7092e+15</t>
-        </is>
-      </c>
-      <c r="D246" s="2" t="inlineStr">
-        <is>
-          <t>3.8223e+02</t>
-        </is>
-      </c>
-      <c r="E246" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="inlineStr">
-        <is>
-          <t>1.0143e+12</t>
-        </is>
-      </c>
-      <c r="B247" s="2" t="inlineStr">
-        <is>
-          <t>8.3210e+02</t>
-        </is>
-      </c>
-      <c r="C247" s="2" t="inlineStr">
-        <is>
-          <t>8.7082e+15</t>
-        </is>
-      </c>
-      <c r="D247" s="2" t="inlineStr">
-        <is>
-          <t>1.3450e+03</t>
-        </is>
-      </c>
-      <c r="E247" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="inlineStr">
-        <is>
-          <t>1.0631e+12</t>
-        </is>
-      </c>
-      <c r="B248" s="2" t="inlineStr">
-        <is>
-          <t>1.6260e+03</t>
-        </is>
-      </c>
-      <c r="C248" s="2" t="inlineStr">
-        <is>
-          <t>8.7085e+15</t>
-        </is>
-      </c>
-      <c r="D248" s="2" t="inlineStr">
-        <is>
-          <t>6.5042e+02</t>
-        </is>
-      </c>
-      <c r="E248" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="inlineStr">
-        <is>
-          <t>8.0401e+11</t>
-        </is>
-      </c>
-      <c r="B249" s="2" t="inlineStr">
-        <is>
-          <t>3.3957e+03</t>
-        </is>
-      </c>
-      <c r="C249" s="2" t="inlineStr">
-        <is>
-          <t>8.7068e+15</t>
-        </is>
-      </c>
-      <c r="D249" s="2" t="inlineStr">
-        <is>
-          <t>3.0237e+02</t>
-        </is>
-      </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="inlineStr">
-        <is>
-          <t>7.3153e+11</t>
-        </is>
-      </c>
-      <c r="B250" s="2" t="inlineStr">
-        <is>
-          <t>2.1452e+03</t>
-        </is>
-      </c>
-      <c r="C250" s="2" t="inlineStr">
-        <is>
-          <t>8.7064e+15</t>
-        </is>
-      </c>
-      <c r="D250" s="2" t="inlineStr">
-        <is>
-          <t>4.8623e+02</t>
-        </is>
-      </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="inlineStr">
-        <is>
-          <t>6.1325e+11</t>
-        </is>
-      </c>
-      <c r="B251" s="2" t="inlineStr">
-        <is>
-          <t>2.3939e+02</t>
-        </is>
-      </c>
-      <c r="C251" s="2" t="inlineStr">
-        <is>
-          <t>8.7056e+15</t>
-        </is>
-      </c>
-      <c r="D251" s="2" t="inlineStr">
-        <is>
-          <t>6.6297e+03</t>
-        </is>
-      </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="inlineStr">
-        <is>
-          <t>7.1326e+11</t>
-        </is>
-      </c>
-      <c r="B252" s="2" t="inlineStr">
-        <is>
-          <t>2.7219e+03</t>
-        </is>
-      </c>
-      <c r="C252" s="2" t="inlineStr">
-        <is>
-          <t>8.7063e+15</t>
-        </is>
-      </c>
-      <c r="D252" s="2" t="inlineStr">
-        <is>
-          <t>3.7975e+02</t>
-        </is>
-      </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="inlineStr">
-        <is>
-          <t>3.7739e+11</t>
-        </is>
-      </c>
-      <c r="B253" s="2" t="inlineStr">
-        <is>
-          <t>1.0498e+04</t>
-        </is>
-      </c>
-      <c r="C253" s="2" t="inlineStr">
-        <is>
-          <t>8.7041e+15</t>
-        </is>
-      </c>
-      <c r="D253" s="2" t="inlineStr">
-        <is>
-          <t>9.6062e+01</t>
-        </is>
-      </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="inlineStr">
-        <is>
-          <t>2.3276e+11</t>
-        </is>
-      </c>
-      <c r="B254" s="2" t="inlineStr">
-        <is>
-          <t>5.8846e+03</t>
-        </is>
-      </c>
-      <c r="C254" s="2" t="inlineStr">
-        <is>
-          <t>8.7032e+15</t>
-        </is>
-      </c>
-      <c r="D254" s="2" t="inlineStr">
-        <is>
-          <t>1.7253e+02</t>
-        </is>
-      </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="inlineStr">
-        <is>
-          <t>2.1120e+11</t>
-        </is>
-      </c>
-      <c r="B255" s="2" t="inlineStr">
-        <is>
-          <t>-6.4049e+02</t>
-        </is>
-      </c>
-      <c r="C255" s="2" t="inlineStr">
-        <is>
-          <t>8.7031e+15</t>
-        </is>
-      </c>
-      <c r="D255" s="2" t="inlineStr">
-        <is>
-          <t>-1.3717e+03</t>
-        </is>
-      </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="inlineStr">
-        <is>
-          <t>2.4900e+11</t>
-        </is>
-      </c>
-      <c r="B256" s="2" t="inlineStr">
-        <is>
-          <t>-1.1537e+03</t>
-        </is>
-      </c>
-      <c r="C256" s="2" t="inlineStr">
-        <is>
-          <t>8.7033e+15</t>
-        </is>
-      </c>
-      <c r="D256" s="2" t="inlineStr">
-        <is>
-          <t>-8.0497e+02</t>
-        </is>
-      </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="inlineStr">
-        <is>
-          <t>2.4582e+11</t>
-        </is>
-      </c>
-      <c r="B257" s="2" t="inlineStr">
-        <is>
-          <t>7.5689e+03</t>
-        </is>
-      </c>
-      <c r="C257" s="2" t="inlineStr">
-        <is>
-          <t>8.7033e+15</t>
-        </is>
-      </c>
-      <c r="D257" s="2" t="inlineStr">
-        <is>
-          <t>1.3368e+02</t>
-        </is>
-      </c>
-      <c r="E257" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="inlineStr">
-        <is>
-          <t>2.3299e+10</t>
-        </is>
-      </c>
-      <c r="B258" s="2" t="inlineStr">
-        <is>
-          <t>4.1034e+04</t>
-        </is>
-      </c>
-      <c r="C258" s="2" t="inlineStr">
-        <is>
-          <t>8.7018e+15</t>
-        </is>
-      </c>
-      <c r="D258" s="2" t="inlineStr">
-        <is>
-          <t>2.4422e+01</t>
-        </is>
-      </c>
-      <c r="E258" s="2" t="inlineStr">
-        <is>
-          <t>6.2474e+09</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="inlineStr">
-        <is>
-          <t>1.2993e+11</t>
-        </is>
-      </c>
-      <c r="B259" s="2" t="inlineStr">
-        <is>
-          <t>-1.3549e+04</t>
-        </is>
-      </c>
-      <c r="C259" s="2" t="inlineStr">
-        <is>
-          <t>8.7025e+15</t>
-        </is>
-      </c>
-      <c r="D259" s="2" t="inlineStr">
-        <is>
-          <t>-7.3326e+01</t>
-        </is>
-      </c>
-      <c r="E259" s="2" t="inlineStr">
         <is>
           <t>6.2474e+09</t>
         </is>

--- a/Lifetime_SRH.xlsx
+++ b/Lifetime_SRH.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,22 +486,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>6.6769e+15</t>
+          <t>6.1160e+15</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>6.1836e+02</t>
+          <t>5.9900e+02</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>5.1470e+16</t>
+          <t>4.7877e+16</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>6.1692e+03</t>
+          <t>5.2543e+03</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -513,22 +513,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>6.3874e+15</t>
+          <t>5.8617e+15</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>6.0712e+02</t>
+          <t>5.8952e+02</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>4.9616e+16</t>
+          <t>4.6249e+16</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>5.9776e+03</t>
+          <t>5.1349e+03</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -540,22 +540,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>6.1160e+15</t>
+          <t>5.6235e+15</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>5.9900e+02</t>
+          <t>5.8281e+02</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4.7877e+16</t>
+          <t>4.4723e+16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5.7281e+03</t>
+          <t>4.9737e+03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -567,22 +567,22 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>5.8617e+15</t>
+          <t>5.3979e+15</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>5.8952e+02</t>
+          <t>5.7817e+02</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4.6249e+16</t>
+          <t>4.3277e+16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5.5698e+03</t>
+          <t>4.7903e+03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -594,22 +594,22 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5.6235e+15</t>
+          <t>5.1849e+15</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>5.8281e+02</t>
+          <t>5.7077e+02</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4.4723e+16</t>
+          <t>4.1913e+16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5.3662e+03</t>
+          <t>4.6948e+03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -621,22 +621,22 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>5.3979e+15</t>
+          <t>4.9844e+15</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>5.7817e+02</t>
+          <t>5.6065e+02</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4.3277e+16</t>
+          <t>4.0629e+16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5.1406e+03</t>
+          <t>4.6763e+03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -648,22 +648,22 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>5.1849e+15</t>
+          <t>4.7963e+15</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>5.7077e+02</t>
+          <t>5.5142e+02</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4.1913e+16</t>
+          <t>3.9424e+16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5.0195e+03</t>
+          <t>4.6533e+03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -675,22 +675,22 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>4.9844e+15</t>
+          <t>4.6182e+15</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>5.6065e+02</t>
+          <t>5.4945e+02</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4.0629e+16</t>
+          <t>3.8283e+16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4.9878e+03</t>
+          <t>4.4910e+03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -702,22 +702,22 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>4.7963e+15</t>
+          <t>4.4471e+15</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>5.5142e+02</t>
+          <t>5.4185e+02</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3.9424e+16</t>
+          <t>3.7187e+16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4.9519e+03</t>
+          <t>4.4559e+03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -729,22 +729,22 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>4.6182e+15</t>
+          <t>4.2880e+15</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>5.4945e+02</t>
+          <t>5.3463e+02</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3.8283e+16</t>
+          <t>3.6168e+16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4.7600e+03</t>
+          <t>4.4268e+03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -756,22 +756,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>4.4471e+15</t>
+          <t>4.1341e+15</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>5.4185e+02</t>
+          <t>5.3130e+02</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3.7187e+16</t>
+          <t>3.5183e+16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4.7126e+03</t>
+          <t>4.3293e+03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -783,22 +783,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>4.2880e+15</t>
+          <t>3.9896e+15</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>5.3463e+02</t>
+          <t>5.2049e+02</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3.6168e+16</t>
+          <t>3.4257e+16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4.6728e+03</t>
+          <t>4.3845e+03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -810,22 +810,22 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>4.1341e+15</t>
+          <t>3.8527e+15</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>5.3130e+02</t>
+          <t>5.1972e+02</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3.5183e+16</t>
+          <t>3.3380e+16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4.5576e+03</t>
+          <t>4.2592e+03</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -837,22 +837,22 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>3.9896e+15</t>
+          <t>3.7194e+15</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>5.2049e+02</t>
+          <t>5.2116e+02</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3.4257e+16</t>
+          <t>3.2526e+16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4.6122e+03</t>
+          <t>4.1065e+03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -864,22 +864,22 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>3.8527e+15</t>
+          <t>3.5925e+15</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>5.1972e+02</t>
+          <t>5.1324e+02</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3.3380e+16</t>
+          <t>3.1713e+16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4.4681e+03</t>
+          <t>4.1231e+03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -891,22 +891,22 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>3.7194e+15</t>
+          <t>3.4725e+15</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>5.2116e+02</t>
+          <t>5.0979e+02</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3.2526e+16</t>
+          <t>3.0945e+16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4.2951e+03</t>
+          <t>4.0709e+03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -918,22 +918,22 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>3.5925e+15</t>
+          <t>3.3562e+15</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>5.1324e+02</t>
+          <t>5.0702e+02</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3.1713e+16</t>
+          <t>3.0200e+16</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4.3083e+03</t>
+          <t>4.0122e+03</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -945,22 +945,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>3.4725e+15</t>
+          <t>3.2462e+15</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>5.0979e+02</t>
+          <t>4.9631e+02</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3.0945e+16</t>
+          <t>2.9495e+16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4.2467e+03</t>
+          <t>4.0893e+03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -972,22 +972,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>3.3562e+15</t>
+          <t>3.1422e+15</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>5.0702e+02</t>
+          <t>4.8958e+02</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3.0200e+16</t>
+          <t>2.8829e+16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4.1786e+03</t>
+          <t>4.1069e+03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>3.2462e+15</t>
+          <t>3.0423e+15</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>4.9631e+02</t>
+          <t>4.9401e+02</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2.9495e+16</t>
+          <t>2.8189e+16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4.2581e+03</t>
+          <t>3.9465e+03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>3.1422e+15</t>
+          <t>2.9439e+15</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>4.8958e+02</t>
+          <t>4.9434e+02</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2.8829e+16</t>
+          <t>2.7558e+16</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4.2732e+03</t>
+          <t>3.8595e+03</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1053,22 +1053,22 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>3.0423e+15</t>
+          <t>2.8508e+15</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>4.9401e+02</t>
+          <t>4.8476e+02</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2.8189e+16</t>
+          <t>2.6962e+16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>4.0963e+03</t>
+          <t>3.9275e+03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1080,22 +1080,22 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2.9439e+15</t>
+          <t>2.7623e+15</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>4.9434e+02</t>
+          <t>4.7680e+02</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2.7558e+16</t>
+          <t>2.6395e+16</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3.9994e+03</t>
+          <t>3.9762e+03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1107,22 +1107,22 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2.8508e+15</t>
+          <t>2.6780e+15</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>4.8476e+02</t>
+          <t>4.8006e+02</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2.6962e+16</t>
+          <t>2.5856e+16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4.0692e+03</t>
+          <t>3.8556e+03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1134,22 +1134,22 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2.7623e+15</t>
+          <t>2.5941e+15</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>4.7680e+02</t>
+          <t>4.8396e+02</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2.6395e+16</t>
+          <t>2.5318e+16</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4.1183e+03</t>
+          <t>3.7335e+03</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1161,22 +1161,22 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2.6780e+15</t>
+          <t>2.5143e+15</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>4.8006e+02</t>
+          <t>4.6717e+02</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2.5856e+16</t>
+          <t>2.4807e+16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3.9863e+03</t>
+          <t>3.9152e+03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1188,22 +1188,22 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2.5941e+15</t>
+          <t>2.4409e+15</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>4.8396e+02</t>
+          <t>4.6480e+02</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2.5318e+16</t>
+          <t>2.4337e+16</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3.8532e+03</t>
+          <t>3.8901e+03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1215,22 +1215,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2.5143e+15</t>
+          <t>2.3667e+15</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>4.6717e+02</t>
+          <t>4.7258e+02</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2.4807e+16</t>
+          <t>2.3861e+16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4.0443e+03</t>
+          <t>3.7188e+03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1242,22 +1242,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2.4409e+15</t>
+          <t>2.2959e+15</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>4.6480e+02</t>
+          <t>4.6586e+02</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2.4337e+16</t>
+          <t>2.3408e+16</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>4.0151e+03</t>
+          <t>3.7586e+03</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1269,22 +1269,22 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2.3667e+15</t>
+          <t>2.2281e+15</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>4.7258e+02</t>
+          <t>4.5963e+02</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2.3861e+16</t>
+          <t>2.2974e+16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3.8305e+03</t>
+          <t>3.7947e+03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1296,22 +1296,22 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2.2959e+15</t>
+          <t>2.1633e+15</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>4.6586e+02</t>
+          <t>4.5496e+02</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2.3408e+16</t>
+          <t>2.2559e+16</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3.8705e+03</t>
+          <t>3.8110e+03</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1323,22 +1323,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2.2281e+15</t>
+          <t>2.1009e+15</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>4.5963e+02</t>
+          <t>4.5360e+02</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2.2974e+16</t>
+          <t>2.2159e+16</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3.9067e+03</t>
+          <t>3.7813e+03</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1350,22 +1350,22 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2.1633e+15</t>
+          <t>2.0404e+15</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>4.5496e+02</t>
+          <t>4.5368e+02</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2.2559e+16</t>
+          <t>2.1771e+16</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>3.9219e+03</t>
+          <t>3.7335e+03</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1377,22 +1377,22 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2.1009e+15</t>
+          <t>1.9816e+15</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>4.5360e+02</t>
+          <t>4.5523e+02</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2.2159e+16</t>
+          <t>2.1395e+16</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>3.8884e+03</t>
+          <t>3.6683e+03</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2.0404e+15</t>
+          <t>1.9244e+15</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>4.5368e+02</t>
+          <t>4.6325e+02</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2.1771e+16</t>
+          <t>2.1028e+16</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>3.8360e+03</t>
+          <t>3.5241e+03</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -1431,22 +1431,22 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>1.9816e+15</t>
+          <t>1.8673e+15</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>4.5523e+02</t>
+          <t>4.5893e+02</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2.1395e+16</t>
+          <t>2.0663e+16</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>3.7654e+03</t>
+          <t>3.5391e+03</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1458,22 +1458,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>1.9244e+15</t>
+          <t>1.8146e+15</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>4.6325e+02</t>
+          <t>4.4082e+02</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2.1028e+16</t>
+          <t>2.0325e+16</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>3.6122e+03</t>
+          <t>3.7408e+03</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1485,22 +1485,22 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>1.8673e+15</t>
+          <t>1.7648e+15</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>4.5893e+02</t>
+          <t>4.4815e+02</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2.0663e+16</t>
+          <t>2.0006e+16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>3.6263e+03</t>
+          <t>3.6051e+03</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1512,22 +1512,22 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>1.8146e+15</t>
+          <t>1.7135e+15</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>4.4082e+02</t>
+          <t>4.6612e+02</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2.0325e+16</t>
+          <t>1.9677e+16</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>3.8367e+03</t>
+          <t>3.3540e+03</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
@@ -1539,22 +1539,22 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>1.7648e+15</t>
+          <t>1.6630e+15</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>4.4815e+02</t>
+          <t>4.5810e+02</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2.0006e+16</t>
+          <t>1.9354e+16</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>3.6927e+03</t>
+          <t>3.4142e+03</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
@@ -1566,22 +1566,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>1.7135e+15</t>
+          <t>1.6164e+15</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>4.6612e+02</t>
+          <t>4.4443e+02</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>1.9677e+16</t>
+          <t>1.9056e+16</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>3.4284e+03</t>
+          <t>3.5489e+03</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -1593,22 +1593,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>1.6630e+15</t>
+          <t>1.5715e+15</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>4.5810e+02</t>
+          <t>4.4010e+02</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>1.9354e+16</t>
+          <t>1.8768e+16</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>3.4900e+03</t>
+          <t>3.5727e+03</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -1620,22 +1620,22 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>1.6164e+15</t>
+          <t>1.5284e+15</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>4.4443e+02</t>
+          <t>4.4227e+02</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>1.9056e+16</t>
+          <t>1.8491e+16</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>3.6296e+03</t>
+          <t>3.5158e+03</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -1647,22 +1647,22 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>1.5715e+15</t>
+          <t>1.4855e+15</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>4.4010e+02</t>
+          <t>4.5245e+02</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>1.8768e+16</t>
+          <t>1.8217e+16</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>3.6533e+03</t>
+          <t>3.3675e+03</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -1674,22 +1674,22 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>1.5284e+15</t>
+          <t>1.4431e+15</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>4.4227e+02</t>
+          <t>4.4838e+02</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>1.8491e+16</t>
+          <t>1.7945e+16</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>3.5926e+03</t>
+          <t>3.3875e+03</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1701,22 +1701,22 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>1.4855e+15</t>
+          <t>1.4035e+15</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>4.5245e+02</t>
+          <t>4.3122e+02</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>1.8217e+16</t>
+          <t>1.7691e+16</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>3.4368e+03</t>
+          <t>3.5689e+03</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1728,22 +1728,22 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>1.4431e+15</t>
+          <t>1.3663e+15</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>4.4838e+02</t>
+          <t>4.2890e+02</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>1.7945e+16</t>
+          <t>1.7453e+16</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>3.4566e+03</t>
+          <t>3.5725e+03</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
@@ -1755,22 +1755,22 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>1.4035e+15</t>
+          <t>1.3292e+15</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>4.3122e+02</t>
+          <t>4.4011e+02</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>1.7691e+16</t>
+          <t>1.7216e+16</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>3.6445e+03</t>
+          <t>3.4111e+03</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -1782,22 +1782,22 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>1.3663e+15</t>
+          <t>1.2923e+15</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>4.2890e+02</t>
+          <t>4.4084e+02</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>1.7453e+16</t>
+          <t>1.6979e+16</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>3.6472e+03</t>
+          <t>3.3794e+03</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -1809,22 +1809,22 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>1.3292e+15</t>
+          <t>1.2572e+15</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>4.4011e+02</t>
+          <t>4.3584e+02</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>1.7216e+16</t>
+          <t>1.6754e+16</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>3.4783e+03</t>
+          <t>3.4150e+03</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
@@ -1836,22 +1836,22 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>1.2923e+15</t>
+          <t>1.2231e+15</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>4.4084e+02</t>
+          <t>4.3516e+02</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>1.6979e+16</t>
+          <t>1.6536e+16</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>3.4444e+03</t>
+          <t>3.4012e+03</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -1863,22 +1863,22 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>1.2572e+15</t>
+          <t>1.1900e+15</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>4.3584e+02</t>
+          <t>4.3331e+02</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>1.6754e+16</t>
+          <t>1.6324e+16</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>3.4805e+03</t>
+          <t>3.4017e+03</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
@@ -1890,22 +1890,22 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>1.2231e+15</t>
+          <t>1.1580e+15</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>4.3516e+02</t>
+          <t>4.3795e+02</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>1.6536e+16</t>
+          <t>1.6119e+16</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>3.4653e+03</t>
+          <t>3.3294e+03</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
@@ -1917,22 +1917,22 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>1.1900e+15</t>
+          <t>1.1261e+15</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>4.3331e+02</t>
+          <t>4.4129e+02</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>1.6324e+16</t>
+          <t>1.5915e+16</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>3.4650e+03</t>
+          <t>3.2740e+03</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -1944,22 +1944,22 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>1.1580e+15</t>
+          <t>1.0955e+15</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>4.3795e+02</t>
+          <t>4.3236e+02</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>1.6119e+16</t>
+          <t>1.5719e+16</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>3.3892e+03</t>
+          <t>3.3536e+03</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1971,22 +1971,22 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>1.1261e+15</t>
+          <t>1.0665e+15</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>4.4129e+02</t>
+          <t>4.2962e+02</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>1.5915e+16</t>
+          <t>1.5533e+16</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>3.3310e+03</t>
+          <t>3.3666e+03</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -1998,22 +1998,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>1.0955e+15</t>
+          <t>1.0378e+15</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>4.3236e+02</t>
+          <t>4.4203e+02</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>1.5719e+16</t>
+          <t>1.5349e+16</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>3.4127e+03</t>
+          <t>3.2154e+03</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
@@ -2025,22 +2025,22 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>1.0665e+15</t>
+          <t>1.0088e+15</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>4.2962e+02</t>
+          <t>4.4209e+02</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>1.5533e+16</t>
+          <t>1.5164e+16</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>3.4255e+03</t>
+          <t>3.1984e+03</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>1.0378e+15</t>
+          <t>9.8184e+14</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>4.4203e+02</t>
+          <t>4.3088e+02</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>1.5349e+16</t>
+          <t>1.4991e+16</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>3.2684e+03</t>
+          <t>3.3012e+03</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
@@ -2079,22 +2079,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>1.0088e+15</t>
+          <t>9.5574e+14</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>4.4209e+02</t>
+          <t>4.3344e+02</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>1.5164e+16</t>
+          <t>1.4824e+16</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>3.2503e+03</t>
+          <t>3.2584e+03</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
@@ -2106,22 +2106,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>9.8184e+14</t>
+          <t>9.2987e+14</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>4.3088e+02</t>
+          <t>4.3645e+02</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>1.4991e+16</t>
+          <t>1.4658e+16</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>3.3558e+03</t>
+          <t>3.2120e+03</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
@@ -2133,22 +2133,22 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>9.5574e+14</t>
+          <t>9.0487e+14</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>4.3344e+02</t>
+          <t>4.3682e+02</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>1.4824e+16</t>
+          <t>1.4498e+16</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>3.3109e+03</t>
+          <t>3.1942e+03</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
@@ -2160,22 +2160,22 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>9.2987e+14</t>
+          <t>8.8036e+14</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>4.3645e+02</t>
+          <t>4.3467e+02</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>1.4658e+16</t>
+          <t>1.4341e+16</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>3.2625e+03</t>
+          <t>3.2025e+03</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
@@ -2187,22 +2187,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>9.0487e+14</t>
+          <t>8.5696e+14</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>4.3682e+02</t>
+          <t>4.3001e+02</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>1.4498e+16</t>
+          <t>1.4191e+16</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>3.2435e+03</t>
+          <t>3.2375e+03</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -2214,22 +2214,22 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>8.8036e+14</t>
+          <t>8.3424e+14</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>4.3467e+02</t>
+          <t>4.3016e+02</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>1.4341e+16</t>
+          <t>1.4045e+16</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>3.2516e+03</t>
+          <t>3.2231e+03</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
@@ -2241,22 +2241,22 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>8.5696e+14</t>
+          <t>8.1206e+14</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>4.3001e+02</t>
+          <t>4.3262e+02</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>1.4191e+16</t>
+          <t>1.3903e+16</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>3.2871e+03</t>
+          <t>3.1853e+03</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
@@ -2268,22 +2268,22 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>8.3424e+14</t>
+          <t>7.9031e+14</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>4.3016e+02</t>
+          <t>4.2910e+02</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>1.4045e+16</t>
+          <t>1.3764e+16</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>3.2717e+03</t>
+          <t>3.2091e+03</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
@@ -2295,22 +2295,22 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>8.1206e+14</t>
+          <t>7.6968e+14</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>4.3262e+02</t>
+          <t>4.3530e+02</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>1.3903e+16</t>
+          <t>1.3632e+16</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>3.2324e+03</t>
+          <t>3.1354e+03</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
@@ -2322,22 +2322,22 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>7.9031e+14</t>
+          <t>7.4847e+14</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>4.2910e+02</t>
+          <t>4.3513e+02</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>1.3764e+16</t>
+          <t>1.3496e+16</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>3.2564e+03</t>
+          <t>3.1257e+03</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
@@ -2349,22 +2349,22 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>7.6968e+14</t>
+          <t>7.2902e+14</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>4.3530e+02</t>
+          <t>4.3191e+02</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>1.3632e+16</t>
+          <t>1.3371e+16</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>3.1800e+03</t>
+          <t>3.1469e+03</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
@@ -2376,22 +2376,22 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>7.4847e+14</t>
+          <t>7.0917e+14</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>4.3513e+02</t>
+          <t>4.5330e+02</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>1.3496e+16</t>
+          <t>1.3244e+16</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>3.1696e+03</t>
+          <t>2.9390e+03</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
@@ -2403,22 +2403,22 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>7.2902e+14</t>
+          <t>6.8897e+14</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>4.3191e+02</t>
+          <t>4.7167e+02</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>1.3371e+16</t>
+          <t>1.3115e+16</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>3.1911e+03</t>
+          <t>2.7800e+03</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
@@ -2430,22 +2430,22 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>7.0917e+14</t>
+          <t>6.6875e+14</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>4.5330e+02</t>
+          <t>4.6583e+02</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>1.3244e+16</t>
+          <t>1.2985e+16</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>2.9771e+03</t>
+          <t>2.8170e+03</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
@@ -2457,22 +2457,22 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>6.8897e+14</t>
+          <t>6.5022e+14</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>4.7167e+02</t>
+          <t>4.5560e+02</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>1.3115e+16</t>
+          <t>1.2867e+16</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>2.8137e+03</t>
+          <t>2.8921e+03</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
@@ -2484,22 +2484,22 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>6.6875e+14</t>
+          <t>6.3190e+14</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>4.6583e+02</t>
+          <t>4.3996e+02</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>1.2985e+16</t>
+          <t>1.2749e+16</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>2.8513e+03</t>
+          <t>3.0199e+03</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -2511,22 +2511,22 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>6.5022e+14</t>
+          <t>6.1562e+14</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>4.5560e+02</t>
+          <t>4.3239e+02</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>1.2867e+16</t>
+          <t>1.2645e+16</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>2.9279e+03</t>
+          <t>3.0821e+03</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
@@ -2538,22 +2538,22 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>6.3190e+14</t>
+          <t>5.9876e+14</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>4.3996e+02</t>
+          <t>4.3660e+02</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>1.2749e+16</t>
+          <t>1.2537e+16</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>3.0586e+03</t>
+          <t>3.0341e+03</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
@@ -2565,22 +2565,22 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>6.1562e+14</t>
+          <t>5.8310e+14</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>4.3239e+02</t>
+          <t>4.4132e+02</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>1.2645e+16</t>
+          <t>1.2437e+16</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>3.1221e+03</t>
+          <t>2.9837e+03</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
@@ -2592,22 +2592,22 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>5.9876e+14</t>
+          <t>5.6676e+14</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>4.3660e+02</t>
+          <t>4.4095e+02</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>1.2537e+16</t>
+          <t>1.2332e+16</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>3.0726e+03</t>
+          <t>2.9790e+03</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2619,22 +2619,22 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>5.8310e+14</t>
+          <t>5.5203e+14</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>4.4132e+02</t>
+          <t>4.4178e+02</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>1.2437e+16</t>
+          <t>1.2238e+16</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>3.0205e+03</t>
+          <t>2.9645e+03</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
@@ -2646,22 +2646,22 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>5.6676e+14</t>
+          <t>5.3646e+14</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>4.4095e+02</t>
+          <t>4.6285e+02</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>1.2332e+16</t>
+          <t>1.2138e+16</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>3.0154e+03</t>
+          <t>2.7837e+03</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
@@ -2673,22 +2673,22 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>5.5203e+14</t>
+          <t>5.2123e+14</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>4.4178e+02</t>
+          <t>4.7329e+02</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>1.2238e+16</t>
+          <t>1.2040e+16</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>3.0003e+03</t>
+          <t>2.6989e+03</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
@@ -2700,22 +2700,22 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>5.3646e+14</t>
+          <t>5.0587e+14</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>4.6285e+02</t>
+          <t>4.7806e+02</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>1.2138e+16</t>
+          <t>1.1942e+16</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>2.8149e+03</t>
+          <t>2.6587e+03</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
@@ -2727,22 +2727,22 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>5.2123e+14</t>
+          <t>4.9126e+14</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>4.7329e+02</t>
+          <t>4.5916e+02</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>1.2040e+16</t>
+          <t>1.1848e+16</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>2.7281e+03</t>
+          <t>2.7931e+03</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
@@ -2754,22 +2754,22 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>5.0587e+14</t>
+          <t>4.7791e+14</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>4.7806e+02</t>
+          <t>4.4859e+02</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>1.1942e+16</t>
+          <t>1.1763e+16</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>2.6867e+03</t>
+          <t>2.8720e+03</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
@@ -2781,22 +2781,22 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>4.9126e+14</t>
+          <t>4.6467e+14</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>4.5916e+02</t>
+          <t>4.4956e+02</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>1.1848e+16</t>
+          <t>1.1678e+16</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>2.8239e+03</t>
+          <t>2.8582e+03</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
@@ -2808,22 +2808,22 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>4.7791e+14</t>
+          <t>4.5201e+14</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>4.4859e+02</t>
+          <t>4.3441e+02</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>1.1763e+16</t>
+          <t>1.1597e+16</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>2.9043e+03</t>
+          <t>2.9813e+03</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
@@ -2835,22 +2835,22 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>4.6467e+14</t>
+          <t>4.4031e+14</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>4.4956e+02</t>
+          <t>4.3997e+02</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>1.1678e+16</t>
+          <t>1.1522e+16</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>2.8899e+03</t>
+          <t>2.9272e+03</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
@@ -2862,22 +2862,22 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>4.5201e+14</t>
+          <t>4.2799e+14</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>4.3441e+02</t>
+          <t>4.6839e+02</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>1.1597e+16</t>
+          <t>1.1443e+16</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>3.0156e+03</t>
+          <t>2.6975e+03</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
@@ -2889,22 +2889,22 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>4.4031e+14</t>
+          <t>4.1550e+14</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>4.3997e+02</t>
+          <t>4.9219e+02</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>1.1522e+16</t>
+          <t>1.1363e+16</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>2.9600e+03</t>
+          <t>2.5304e+03</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
@@ -2916,22 +2916,22 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>4.2799e+14</t>
+          <t>4.0270e+14</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>4.6839e+02</t>
+          <t>4.7652e+02</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>1.1443e+16</t>
+          <t>1.1281e+16</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>2.7252e+03</t>
+          <t>2.6300e+03</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
@@ -2943,22 +2943,22 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>4.1550e+14</t>
+          <t>3.9176e+14</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>4.9219e+02</t>
+          <t>4.4944e+02</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>1.1363e+16</t>
+          <t>1.1211e+16</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>2.5546e+03</t>
+          <t>2.8269e+03</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
@@ -2970,22 +2970,22 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>4.0270e+14</t>
+          <t>3.8091e+14</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>4.7652e+02</t>
+          <t>4.7538e+02</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>1.1281e+16</t>
+          <t>1.1142e+16</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>2.6559e+03</t>
+          <t>2.6296e+03</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
@@ -2997,22 +2997,22 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>3.9176e+14</t>
+          <t>3.6937e+14</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>4.4944e+02</t>
+          <t>4.9047e+02</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>1.1211e+16</t>
+          <t>1.1068e+16</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>2.8567e+03</t>
+          <t>2.5253e+03</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
@@ -3024,22 +3024,22 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>3.8091e+14</t>
+          <t>3.5852e+14</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>4.7538e+02</t>
+          <t>4.8173e+02</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>1.1142e+16</t>
+          <t>1.0998e+16</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>2.6552e+03</t>
+          <t>2.5783e+03</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
@@ -3051,22 +3051,22 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>3.6937e+14</t>
+          <t>3.4803e+14</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>4.9047e+02</t>
+          <t>4.8650e+02</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>1.1068e+16</t>
+          <t>1.0931e+16</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>2.5487e+03</t>
+          <t>2.5432e+03</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
@@ -3078,22 +3078,22 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>3.5852e+14</t>
+          <t>3.3761e+14</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>4.8173e+02</t>
+          <t>4.9185e+02</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>1.0998e+16</t>
+          <t>1.0864e+16</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>2.6026e+03</t>
+          <t>2.5055e+03</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
@@ -3105,22 +3105,22 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>3.4803e+14</t>
+          <t>3.2753e+14</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>4.8650e+02</t>
+          <t>4.8037e+02</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>1.0931e+16</t>
+          <t>1.0800e+16</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>2.5667e+03</t>
+          <t>2.5761e+03</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
@@ -3132,22 +3132,22 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>3.3761e+14</t>
+          <t>3.1818e+14</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>4.9185e+02</t>
+          <t>4.8317e+02</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>1.0864e+16</t>
+          <t>1.0740e+16</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>2.5282e+03</t>
+          <t>2.5543e+03</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
@@ -3159,22 +3159,22 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>3.2753e+14</t>
+          <t>3.0855e+14</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>4.8037e+02</t>
+          <t>4.8721e+02</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>1.0800e+16</t>
+          <t>1.0678e+16</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>2.5999e+03</t>
+          <t>2.5249e+03</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
@@ -3186,22 +3186,22 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>3.1818e+14</t>
+          <t>2.9962e+14</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>4.8317e+02</t>
+          <t>4.9038e+02</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>1.0740e+16</t>
+          <t>1.0621e+16</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>2.5776e+03</t>
+          <t>2.5017e+03</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
@@ -3213,22 +3213,22 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>3.0855e+14</t>
+          <t>2.9042e+14</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>4.8721e+02</t>
+          <t>5.1103e+02</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>1.0678e+16</t>
+          <t>1.0562e+16</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>2.5475e+03</t>
+          <t>2.3760e+03</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
@@ -3240,22 +3240,22 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>2.9962e+14</t>
+          <t>2.8133e+14</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>4.9038e+02</t>
+          <t>5.2352e+02</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>1.0621e+16</t>
+          <t>1.0504e+16</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>2.5238e+03</t>
+          <t>2.3049e+03</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
@@ -3267,22 +3267,22 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>2.9042e+14</t>
+          <t>2.7227e+14</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>5.1103e+02</t>
+          <t>5.3264e+02</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>1.0562e+16</t>
+          <t>1.0446e+16</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>2.3958e+03</t>
+          <t>2.2549e+03</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
@@ -3294,22 +3294,22 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>2.8133e+14</t>
+          <t>2.6347e+14</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>5.2352e+02</t>
+          <t>5.1315e+02</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>1.0504e+16</t>
+          <t>1.0389e+16</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>2.3234e+03</t>
+          <t>2.3559e+03</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
@@ -3321,22 +3321,22 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>2.7227e+14</t>
+          <t>2.5561e+14</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>5.3264e+02</t>
+          <t>4.8296e+02</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>1.0446e+16</t>
+          <t>1.0339e+16</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>2.2725e+03</t>
+          <t>2.5336e+03</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
@@ -3348,22 +3348,22 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>2.6347e+14</t>
+          <t>2.4824e+14</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>5.1315e+02</t>
+          <t>4.8374e+02</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>1.0389e+16</t>
+          <t>1.0292e+16</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>2.3750e+03</t>
+          <t>2.5259e+03</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
@@ -3375,22 +3375,22 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>2.5561e+14</t>
+          <t>2.4080e+14</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>4.8296e+02</t>
+          <t>5.3623e+02</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>1.0339e+16</t>
+          <t>1.0244e+16</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>2.5556e+03</t>
+          <t>2.2282e+03</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
@@ -3402,22 +3402,22 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>2.4824e+14</t>
+          <t>2.3235e+14</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>4.8374e+02</t>
+          <t>5.5509e+02</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>1.0292e+16</t>
+          <t>1.0190e+16</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>2.5477e+03</t>
+          <t>2.1363e+03</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
@@ -3429,22 +3429,22 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>2.4080e+14</t>
+          <t>2.2494e+14</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>5.3623e+02</t>
+          <t>5.3796e+02</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>1.0244e+16</t>
+          <t>1.0143e+16</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>2.2451e+03</t>
+          <t>2.2154e+03</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
@@ -3456,22 +3456,22 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>2.3235e+14</t>
+          <t>2.1745e+14</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>5.5509e+02</t>
+          <t>5.2424e+02</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>1.0190e+16</t>
+          <t>1.0095e+16</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>2.1517e+03</t>
+          <t>2.2827e+03</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
@@ -3483,22 +3483,22 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>2.2494e+14</t>
+          <t>2.1090e+14</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>5.3796e+02</t>
+          <t>4.8706e+02</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>1.0143e+16</t>
+          <t>1.0053e+16</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>2.2319e+03</t>
+          <t>2.4922e+03</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
@@ -3510,22 +3510,22 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>2.1745e+14</t>
+          <t>2.0480e+14</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>5.2424e+02</t>
+          <t>5.1884e+02</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>1.0095e+16</t>
+          <t>1.0014e+16</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>2.3002e+03</t>
+          <t>2.3075e+03</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
@@ -3537,22 +3537,22 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>2.1090e+14</t>
+          <t>1.9783e+14</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>4.8706e+02</t>
+          <t>5.4178e+02</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>1.0053e+16</t>
+          <t>9.9689e+15</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>2.5129e+03</t>
+          <t>2.1897e+03</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
@@ -3564,22 +3564,22 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>2.0480e+14</t>
+          <t>1.9161e+14</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>5.1884e+02</t>
+          <t>4.9025e+02</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>1.0014e+16</t>
+          <t>9.9291e+15</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>2.3252e+03</t>
+          <t>2.4661e+03</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
@@ -3591,22 +3591,22 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>1.9783e+14</t>
+          <t>1.8626e+14</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>5.4178e+02</t>
+          <t>4.9463e+02</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>9.9689e+15</t>
+          <t>9.8947e+15</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>2.2055e+03</t>
+          <t>2.4380e+03</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
@@ -3618,22 +3618,22 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>1.9161e+14</t>
+          <t>1.8027e+14</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>4.9025e+02</t>
+          <t>5.3571e+02</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>9.9291e+15</t>
+          <t>9.8564e+15</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>2.4861e+03</t>
+          <t>2.2145e+03</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
@@ -3645,22 +3645,22 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>1.8626e+14</t>
+          <t>1.7438e+14</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>4.9463e+02</t>
+          <t>5.5012e+02</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>9.8947e+15</t>
+          <t>9.8187e+15</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>2.4575e+03</t>
+          <t>2.1445e+03</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -3672,22 +3672,22 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>1.8027e+14</t>
+          <t>1.6848e+14</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>5.3571e+02</t>
+          <t>6.0134e+02</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>9.8564e+15</t>
+          <t>9.7809e+15</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>2.2305e+03</t>
+          <t>1.9311e+03</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3699,22 +3699,22 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>1.7438e+14</t>
+          <t>1.6194e+14</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>5.5012e+02</t>
+          <t>6.4756e+02</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>9.8187e+15</t>
+          <t>9.7390e+15</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>2.1595e+03</t>
+          <t>1.7717e+03</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3726,22 +3726,22 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>1.6848e+14</t>
+          <t>1.5562e+14</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>6.0134e+02</t>
+          <t>6.5071e+02</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>9.7809e+15</t>
+          <t>9.6985e+15</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>1.9431e+03</t>
+          <t>1.7608e+03</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
@@ -3753,22 +3753,22 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>1.6194e+14</t>
+          <t>1.4952e+14</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>6.4756e+02</t>
+          <t>6.0470e+02</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>9.7390e+15</t>
+          <t>9.6595e+15</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>1.7818e+03</t>
+          <t>1.9148e+03</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
@@ -3780,22 +3780,22 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>1.5562e+14</t>
+          <t>1.4452e+14</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>6.5071e+02</t>
+          <t>5.3480e+02</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>9.6985e+15</t>
+          <t>9.6274e+15</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>1.7708e+03</t>
+          <t>2.2093e+03</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
@@ -3807,22 +3807,22 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>1.4952e+14</t>
+          <t>1.4002e+14</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>6.0470e+02</t>
+          <t>5.2927e+02</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>9.6595e+15</t>
+          <t>9.5986e+15</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>1.9265e+03</t>
+          <t>2.2354e+03</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
@@ -3834,22 +3834,22 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>1.4452e+14</t>
+          <t>1.3541e+14</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>5.3480e+02</t>
+          <t>5.8227e+02</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>9.6274e+15</t>
+          <t>9.5690e+15</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>2.2249e+03</t>
+          <t>1.9977e+03</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
@@ -3861,22 +3861,22 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>1.4002e+14</t>
+          <t>1.3034e+14</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>5.2927e+02</t>
+          <t>5.9725e+02</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>9.5986e+15</t>
+          <t>9.5366e+15</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>2.2513e+03</t>
+          <t>1.9386e+03</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
@@ -3888,22 +3888,22 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>1.3541e+14</t>
+          <t>1.2586e+14</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>5.8227e+02</t>
+          <t>5.8852e+02</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>9.5690e+15</t>
+          <t>9.5079e+15</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>2.0103e+03</t>
+          <t>1.9710e+03</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
@@ -3915,22 +3915,22 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>1.3034e+14</t>
+          <t>1.2125e+14</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>5.9725e+02</t>
+          <t>6.2213e+02</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>9.5366e+15</t>
+          <t>9.4784e+15</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>1.9504e+03</t>
+          <t>1.8477e+03</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
@@ -3942,22 +3942,22 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>1.2586e+14</t>
+          <t>1.1660e+14</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>5.8852e+02</t>
+          <t>6.2019e+02</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>9.5079e+15</t>
+          <t>9.4486e+15</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>1.9832e+03</t>
+          <t>1.8534e+03</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
@@ -3969,22 +3969,22 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>1.2125e+14</t>
+          <t>1.1238e+14</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>6.2213e+02</t>
+          <t>6.5276e+02</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>9.4784e+15</t>
+          <t>9.4216e+15</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>1.8584e+03</t>
+          <t>1.7472e+03</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
@@ -3996,22 +3996,22 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>1.1660e+14</t>
+          <t>1.0761e+14</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>6.2019e+02</t>
+          <t>5.8886e+02</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>9.4486e+15</t>
+          <t>9.3910e+15</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>1.8642e+03</t>
+          <t>1.9658e+03</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
@@ -4023,22 +4023,22 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>1.1238e+14</t>
+          <t>1.0461e+14</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>6.5276e+02</t>
+          <t>5.2036e+02</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>9.4216e+15</t>
+          <t>9.3718e+15</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>1.7567e+03</t>
+          <t>2.2709e+03</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
@@ -4050,22 +4050,22 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>1.0761e+14</t>
+          <t>1.0092e+14</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>5.8886e+02</t>
+          <t>6.0220e+02</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>9.3910e+15</t>
+          <t>9.3482e+15</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>1.9778e+03</t>
+          <t>1.9142e+03</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
@@ -4077,22 +4077,22 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>1.0461e+14</t>
+          <t>9.7154e+13</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>5.2036e+02</t>
+          <t>6.2999e+02</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>9.3718e+15</t>
+          <t>9.3240e+15</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>2.2869e+03</t>
+          <t>1.8169e+03</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
@@ -4104,22 +4104,22 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>1.0092e+14</t>
+          <t>9.3420e+13</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>6.0220e+02</t>
+          <t>5.9904e+02</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>9.3482e+15</t>
+          <t>9.3001e+15</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>1.9256e+03</t>
+          <t>1.9243e+03</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
@@ -4131,22 +4131,22 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>9.7154e+13</t>
+          <t>9.0290e+13</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>6.2999e+02</t>
+          <t>6.2451e+02</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>9.3240e+15</t>
+          <t>9.2800e+15</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>1.8270e+03</t>
+          <t>1.8339e+03</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
@@ -4158,22 +4158,22 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>9.3420e+13</t>
+          <t>8.6508e+13</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>5.9904e+02</t>
+          <t>7.2213e+02</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>9.3001e+15</t>
+          <t>9.2558e+15</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>1.9357e+03</t>
+          <t>1.5549e+03</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
@@ -4185,22 +4185,22 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>9.0290e+13</t>
+          <t>8.2644e+13</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>6.2451e+02</t>
+          <t>7.1611e+02</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>9.2800e+15</t>
+          <t>9.2311e+15</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>1.8442e+03</t>
+          <t>1.5691e+03</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
@@ -4212,22 +4212,22 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>8.6508e+13</t>
+          <t>7.9264e+13</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>7.2213e+02</t>
+          <t>6.6544e+02</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>9.2558e+15</t>
+          <t>9.2094e+15</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>1.5623e+03</t>
+          <t>1.7041e+03</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
@@ -4239,22 +4239,22 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>8.2644e+13</t>
+          <t>7.6183e+13</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>7.1611e+02</t>
+          <t>6.8532e+02</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>9.2311e+15</t>
+          <t>9.1897e+15</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>1.5766e+03</t>
+          <t>1.6478e+03</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
@@ -4266,22 +4266,22 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>7.9264e+13</t>
+          <t>7.2871e+13</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>6.6544e+02</t>
+          <t>8.0156e+02</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>9.2094e+15</t>
+          <t>9.1685e+15</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>1.7129e+03</t>
+          <t>1.3825e+03</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
@@ -4293,22 +4293,22 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>7.6183e+13</t>
+          <t>6.9042e+13</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>6.8532e+02</t>
+          <t>8.0010e+02</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>9.1897e+15</t>
+          <t>9.1439e+15</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>1.6560e+03</t>
+          <t>1.3849e+03</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>7.2871e+13</t>
+          <t>6.6118e+13</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>8.0156e+02</t>
+          <t>6.8857e+02</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>9.1685e+15</t>
+          <t>9.1252e+15</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>1.3883e+03</t>
+          <t>1.6375e+03</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
@@ -4347,22 +4347,22 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>6.9042e+13</t>
+          <t>6.3468e+13</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>8.0010e+02</t>
+          <t>7.4227e+02</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>9.1439e+15</t>
+          <t>9.1082e+15</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>1.3907e+03</t>
+          <t>1.5048e+03</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
@@ -4374,22 +4374,22 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>6.6118e+13</t>
+          <t>6.0354e+13</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>6.8857e+02</t>
+          <t>7.6124e+02</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>9.1252e+15</t>
+          <t>9.0883e+15</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>1.6456e+03</t>
+          <t>1.4627e+03</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
@@ -4401,22 +4401,22 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>6.3468e+13</t>
+          <t>5.7849e+13</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>7.4227e+02</t>
+          <t>6.2381e+02</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>9.1082e+15</t>
+          <t>9.0722e+15</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>1.5116e+03</t>
+          <t>1.8303e+03</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
@@ -4428,22 +4428,22 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>6.0354e+13</t>
+          <t>5.5932e+13</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>7.6124e+02</t>
+          <t>5.9269e+02</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>9.0883e+15</t>
+          <t>9.0600e+15</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>1.4691e+03</t>
+          <t>1.9404e+03</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
@@ -4455,22 +4455,22 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>5.7849e+13</t>
+          <t>5.3785e+13</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>6.2381e+02</t>
+          <t>6.7176e+02</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>9.0722e+15</t>
+          <t>9.0462e+15</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>1.8403e+03</t>
+          <t>1.6820e+03</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
@@ -4482,22 +4482,22 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>5.5932e+13</t>
+          <t>5.1509e+13</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>5.9269e+02</t>
+          <t>6.8811e+02</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>9.0600e+15</t>
+          <t>9.0316e+15</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>1.9517e+03</t>
+          <t>1.6366e+03</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
@@ -4509,22 +4509,22 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>5.3785e+13</t>
+          <t>4.9446e+13</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>6.7176e+02</t>
+          <t>7.5087e+02</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>9.0462e+15</t>
+          <t>9.0184e+15</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>1.6904e+03</t>
+          <t>1.4839e+03</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
@@ -4536,22 +4536,22 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>5.1509e+13</t>
+          <t>4.6968e+13</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>6.8811e+02</t>
+          <t>8.3972e+02</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>9.0316e+15</t>
+          <t>9.0025e+15</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>1.6446e+03</t>
+          <t>1.3108e+03</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
@@ -4563,22 +4563,22 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>4.9446e+13</t>
+          <t>4.4628e+13</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>7.5087e+02</t>
+          <t>8.3624e+02</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>9.0184e+15</t>
+          <t>8.9876e+15</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>1.4905e+03</t>
+          <t>1.3166e+03</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
@@ -4590,22 +4590,22 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>4.6968e+13</t>
+          <t>4.2408e+13</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>8.3972e+02</t>
+          <t>8.6291e+02</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>9.0025e+15</t>
+          <t>8.9733e+15</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>1.3159e+03</t>
+          <t>1.2717e+03</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
@@ -4617,22 +4617,22 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>4.4628e+13</t>
+          <t>4.0157e+13</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>8.3624e+02</t>
+          <t>8.5010e+02</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>8.9876e+15</t>
+          <t>8.9589e+15</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>1.3218e+03</t>
+          <t>1.2926e+03</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
@@ -4644,22 +4644,22 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>4.2408e+13</t>
+          <t>3.8238e+13</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>8.6291e+02</t>
+          <t>7.4087e+02</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>8.9733e+15</t>
+          <t>8.9466e+15</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>1.2765e+03</t>
+          <t>1.5049e+03</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
@@ -4671,22 +4671,22 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>4.0157e+13</t>
+          <t>3.6693e+13</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>8.5010e+02</t>
+          <t>7.0753e+02</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>8.9589e+15</t>
+          <t>8.9367e+15</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>1.2976e+03</t>
+          <t>1.5842e+03</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>3.8238e+13</t>
+          <t>3.5061e+13</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>7.4087e+02</t>
+          <t>7.4145e+02</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>8.9466e+15</t>
+          <t>8.9263e+15</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>1.5116e+03</t>
+          <t>1.5032e+03</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
@@ -4725,22 +4725,22 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>3.6693e+13</t>
+          <t>3.3514e+13</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>7.0753e+02</t>
+          <t>7.1383e+02</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>8.9367e+15</t>
+          <t>8.9164e+15</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>1.5916e+03</t>
+          <t>1.5681e+03</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
@@ -4752,22 +4752,22 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>3.5061e+13</t>
+          <t>3.2134e+13</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>7.4145e+02</t>
+          <t>5.6854e+02</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>8.9263e+15</t>
+          <t>8.9075e+15</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>1.5098e+03</t>
+          <t>2.0304e+03</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
@@ -4779,22 +4779,22 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>3.3514e+13</t>
+          <t>3.1273e+13</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>7.1383e+02</t>
+          <t>6.1594e+02</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>8.9164e+15</t>
+          <t>8.9020e+15</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>1.5753e+03</t>
+          <t>1.8520e+03</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
@@ -4806,22 +4806,22 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>3.2134e+13</t>
+          <t>2.9775e+13</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>5.6854e+02</t>
+          <t>7.9838e+02</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>8.9075e+15</t>
+          <t>8.8924e+15</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>2.0426e+03</t>
+          <t>1.3841e+03</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
@@ -4833,22 +4833,22 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>3.1273e+13</t>
+          <t>2.8368e+13</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>6.1594e+02</t>
+          <t>8.1594e+02</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>8.9020e+15</t>
+          <t>8.8834e+15</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>1.8621e+03</t>
+          <t>1.3512e+03</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
@@ -4860,22 +4860,22 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>2.9775e+13</t>
+          <t>2.6946e+13</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>7.9838e+02</t>
+          <t>8.0699e+02</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>8.8924e+15</t>
+          <t>8.8743e+15</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>1.3898e+03</t>
+          <t>1.3675e+03</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
@@ -4887,22 +4887,22 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>2.8368e+13</t>
+          <t>2.5711e+13</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>8.1594e+02</t>
+          <t>8.9030e+02</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>8.8834e+15</t>
+          <t>8.8664e+15</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>1.3565e+03</t>
+          <t>1.2276e+03</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
@@ -4914,25 +4914,565 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>2.6946e+13</t>
+          <t>2.4151e+13</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>8.0699e+02</t>
+          <t>8.2675e+02</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>8.8743e+15</t>
+          <t>8.8564e+15</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>1.3730e+03</t>
+          <t>1.3313e+03</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>2.3271e+13</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>6.1052e+02</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>8.8508e+15</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>1.8692e+03</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>2.2411e+13</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>6.9619e+02</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>8.8452e+15</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>1.6111e+03</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>2.1362e+13</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>8.5419e+02</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>8.8385e+15</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>1.2841e+03</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>2.0182e+13</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>7.0907e+02</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>8.8310e+15</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>1.5781e+03</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>1.9612e+13</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>5.6465e+02</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>8.8273e+15</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>2.0437e+03</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>1.8824e+13</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>7.9027e+02</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>8.8223e+15</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>1.3987e+03</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>1.7794e+13</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>8.5694e+02</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>8.8157e+15</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>1.2793e+03</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>1.6962e+13</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>9.4756e+02</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>8.8103e+15</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>1.1463e+03</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>1.5832e+13</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>9.8292e+02</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>8.8031e+15</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>1.1016e+03</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>1.5063e+13</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>8.1281e+02</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>8.7982e+15</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>1.3555e+03</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>1.4336e+13</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>8.4925e+02</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>8.7935e+15</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>1.2917e+03</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>1.3576e+13</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>8.3456e+02</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>8.7887e+15</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>1.3166e+03</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>1.2953e+13</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>6.2345e+02</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>8.7847e+15</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>1.8233e+03</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>1.2587e+13</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>7.6581e+02</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>8.7823e+15</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>1.4475e+03</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>1.1774e+13</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>9.8474e+02</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>8.7771e+15</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>1.0991e+03</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>1.1173e+13</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>9.1455e+02</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>8.7733e+15</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>1.1909e+03</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>1.0527e+13</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>9.0883e+02</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>8.7691e+15</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>1.1991e+03</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>1.0005e+13</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>7.2520e+02</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>8.7658e+15</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>1.5376e+03</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>9.6398e+12</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>5.8674e+02</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>8.7634e+15</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>1.9534e+03</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>6.2474e+09</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>9.3117e+12</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>7.7249e+02</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>8.7613e+15</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>1.4333e+03</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>6.2474e+09</t>
         </is>
